--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T625"/>
+  <dimension ref="A1:T633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N608" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O608" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P608" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49022,11 +49022,11 @@
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="T608" t="n">
         <v>10</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49084,32 +49084,32 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="N609" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="O609" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="P609" t="n">
-        <v>9000</v>
+        <v>145000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>900</v>
+        <v>322</v>
       </c>
       <c r="T609" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="610">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49167,13 +49167,13 @@
         <v>480</v>
       </c>
       <c r="N610" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O610" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P610" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T610" t="n">
         <v>10</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,36 +49240,36 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="N611" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="O611" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="P611" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>700</v>
+        <v>289</v>
       </c>
       <c r="T611" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N612" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O612" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P612" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T612" t="n">
         <v>10</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N613" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O613" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="P613" t="n">
-        <v>190000</v>
+        <v>100000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49422,11 +49422,11 @@
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="T613" t="n">
         <v>450</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="N614" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="O614" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="P614" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="T614" t="n">
         <v>10</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -49564,32 +49564,32 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>28</v>
+        <v>577</v>
       </c>
       <c r="N615" t="n">
-        <v>160000</v>
+        <v>2000</v>
       </c>
       <c r="O615" t="n">
-        <v>170000</v>
+        <v>2000</v>
       </c>
       <c r="P615" t="n">
-        <v>165000</v>
+        <v>2000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>367</v>
+        <v>200</v>
       </c>
       <c r="T615" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="N616" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O616" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>3750</v>
+        <v>9500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49662,11 +49662,11 @@
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>375</v>
+        <v>950</v>
       </c>
       <c r="T616" t="n">
         <v>10</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,41 +49715,41 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>17</v>
+        <v>360</v>
       </c>
       <c r="N617" t="n">
-        <v>140000</v>
+        <v>9000</v>
       </c>
       <c r="O617" t="n">
-        <v>140000</v>
+        <v>9000</v>
       </c>
       <c r="P617" t="n">
-        <v>140000</v>
+        <v>9000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>311</v>
+        <v>900</v>
       </c>
       <c r="T617" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="618">
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="N618" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O618" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P618" t="n">
-        <v>2750</v>
+        <v>8000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>275</v>
+        <v>800</v>
       </c>
       <c r="T618" t="n">
         <v>10</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,16 +49875,16 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N619" t="n">
         <v>7000</v>
@@ -49902,7 +49902,7 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S619" t="n">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,32 +49964,32 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N620" t="n">
-        <v>180000</v>
+        <v>7000</v>
       </c>
       <c r="O620" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="P620" t="n">
-        <v>195000</v>
+        <v>7500</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>433</v>
+        <v>750</v>
       </c>
       <c r="T620" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,24 +50040,24 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="N621" t="n">
-        <v>5500</v>
+        <v>180000</v>
       </c>
       <c r="O621" t="n">
-        <v>5500</v>
+        <v>200000</v>
       </c>
       <c r="P621" t="n">
-        <v>5500</v>
+        <v>190000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
@@ -50066,10 +50066,10 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>550</v>
+        <v>422</v>
       </c>
       <c r="T621" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="622">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,32 +50124,32 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>26</v>
+        <v>960</v>
       </c>
       <c r="N622" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="O622" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="P622" t="n">
-        <v>155000</v>
+        <v>5500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="T622" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="623">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,24 +50200,24 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="N623" t="n">
-        <v>3500</v>
+        <v>160000</v>
       </c>
       <c r="O623" t="n">
-        <v>3500</v>
+        <v>170000</v>
       </c>
       <c r="P623" t="n">
-        <v>3500</v>
+        <v>165000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
@@ -50226,10 +50226,10 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="T623" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,32 +50284,32 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>19</v>
+        <v>720</v>
       </c>
       <c r="N624" t="n">
-        <v>120000</v>
+        <v>3500</v>
       </c>
       <c r="O624" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="P624" t="n">
-        <v>120000</v>
+        <v>3750</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>267</v>
+        <v>375</v>
       </c>
       <c r="T624" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="625">
@@ -50327,68 +50327,708 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E625" t="n">
+        <v>13</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G625" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M625" t="n">
+        <v>17</v>
+      </c>
+      <c r="N625" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O625" t="n">
+        <v>140000</v>
+      </c>
+      <c r="P625" t="n">
+        <v>140000</v>
+      </c>
+      <c r="Q625" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S625" t="n">
+        <v>311</v>
+      </c>
+      <c r="T625" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>6</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D626" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E626" t="n">
+        <v>13</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G626" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I626" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M626" t="n">
+        <v>720</v>
+      </c>
+      <c r="N626" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O626" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P626" t="n">
+        <v>2750</v>
+      </c>
+      <c r="Q626" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R626" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S626" t="n">
+        <v>275</v>
+      </c>
+      <c r="T626" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>6</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D627" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E625" t="n">
-        <v>13</v>
-      </c>
-      <c r="F625" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G625" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I625" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J625" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K625" t="inlineStr">
+      <c r="E627" t="n">
+        <v>13</v>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G627" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I627" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
         <is>
           <t>Clemenuless</t>
         </is>
       </c>
-      <c r="L625" t="inlineStr">
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M627" t="n">
+        <v>150</v>
+      </c>
+      <c r="N627" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O627" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P627" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q627" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R627" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S627" t="n">
+        <v>700</v>
+      </c>
+      <c r="T627" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>6</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D628" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E628" t="n">
+        <v>13</v>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G628" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I628" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M628" t="n">
+        <v>16</v>
+      </c>
+      <c r="N628" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O628" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P628" t="n">
+        <v>195000</v>
+      </c>
+      <c r="Q628" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R628" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S628" t="n">
+        <v>433</v>
+      </c>
+      <c r="T628" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>6</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D629" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E629" t="n">
+        <v>13</v>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G629" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I629" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M629" t="n">
+        <v>250</v>
+      </c>
+      <c r="N629" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O629" t="n">
+        <v>5500</v>
+      </c>
+      <c r="P629" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q629" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R629" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S629" t="n">
+        <v>550</v>
+      </c>
+      <c r="T629" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>6</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D630" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E630" t="n">
+        <v>13</v>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G630" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I630" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M630" t="n">
+        <v>26</v>
+      </c>
+      <c r="N630" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O630" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P630" t="n">
+        <v>155000</v>
+      </c>
+      <c r="Q630" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R630" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S630" t="n">
+        <v>344</v>
+      </c>
+      <c r="T630" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>6</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D631" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E631" t="n">
+        <v>13</v>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G631" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I631" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M631" t="n">
+        <v>235</v>
+      </c>
+      <c r="N631" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O631" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P631" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q631" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R631" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S631" t="n">
+        <v>350</v>
+      </c>
+      <c r="T631" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>6</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D632" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E632" t="n">
+        <v>13</v>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G632" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I632" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M632" t="n">
+        <v>19</v>
+      </c>
+      <c r="N632" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O632" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P632" t="n">
+        <v>120000</v>
+      </c>
+      <c r="Q632" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R632" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S632" t="n">
+        <v>267</v>
+      </c>
+      <c r="T632" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>6</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D633" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E633" t="n">
+        <v>13</v>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G633" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I633" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L633" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M625" t="n">
+      <c r="M633" t="n">
         <v>15</v>
       </c>
-      <c r="N625" t="n">
+      <c r="N633" t="n">
         <v>90000</v>
       </c>
-      <c r="O625" t="n">
+      <c r="O633" t="n">
         <v>90000</v>
       </c>
-      <c r="P625" t="n">
+      <c r="P633" t="n">
         <v>90000</v>
       </c>
-      <c r="Q625" t="inlineStr">
+      <c r="Q633" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
         </is>
       </c>
-      <c r="R625" t="inlineStr">
+      <c r="R633" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S625" t="n">
+      <c r="S633" t="n">
         <v>200</v>
       </c>
-      <c r="T625" t="n">
+      <c r="T633" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T633"/>
+  <dimension ref="A1:T639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P535" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="T535" t="n">
         <v>10</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="N536" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O536" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P536" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T536" t="n">
         <v>10</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,41 +43315,41 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>700</v>
+        <v>24</v>
       </c>
       <c r="N537" t="n">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="O537" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="P537" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T537" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="538">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N538" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="O538" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="P538" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="T538" t="n">
         <v>10</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,36 +43480,36 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="N539" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="O539" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="P539" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>700</v>
+        <v>222</v>
       </c>
       <c r="T539" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N540" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="O540" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="P540" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T540" t="n">
         <v>10</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N541" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O541" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P541" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="T541" t="n">
         <v>10</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43715,41 +43715,41 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="N542" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O542" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P542" t="n">
-        <v>200000</v>
+        <v>7500</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T542" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43795,16 +43795,16 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="N543" t="n">
         <v>5000</v>
@@ -43822,7 +43822,7 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S543" t="n">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,36 +43880,36 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N544" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="O544" t="n">
-        <v>170000</v>
+        <v>9000</v>
       </c>
       <c r="P544" t="n">
-        <v>165000</v>
+        <v>9000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>367</v>
+        <v>900</v>
       </c>
       <c r="T544" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="545">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N545" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O545" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P545" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T545" t="n">
         <v>10</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,32 +44044,32 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N546" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="O546" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="P546" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>289</v>
+        <v>500</v>
       </c>
       <c r="T546" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="547">
@@ -44120,36 +44120,36 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M547" t="n">
+        <v>240</v>
+      </c>
+      <c r="N547" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O547" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P547" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S547" t="n">
+        <v>600</v>
+      </c>
+      <c r="T547" t="n">
         <v>10</v>
-      </c>
-      <c r="N547" t="n">
-        <v>100000</v>
-      </c>
-      <c r="O547" t="n">
-        <v>100000</v>
-      </c>
-      <c r="P547" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Q547" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R547" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S547" t="n">
-        <v>222</v>
-      </c>
-      <c r="T547" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="548">
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,32 +44204,32 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N548" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="O548" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="P548" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T548" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="549">
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N549" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O549" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P549" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44302,11 +44302,11 @@
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T549" t="n">
         <v>10</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,36 +44360,36 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N550" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="O550" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P550" t="n">
-        <v>8000</v>
+        <v>165000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>800</v>
+        <v>367</v>
       </c>
       <c r="T550" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,36 +44440,36 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N551" t="n">
-        <v>202500</v>
+        <v>4000</v>
       </c>
       <c r="O551" t="n">
-        <v>202500</v>
+        <v>4000</v>
       </c>
       <c r="P551" t="n">
-        <v>202500</v>
+        <v>4000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="T551" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,36 +44520,36 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N552" t="n">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="O552" t="n">
-        <v>6000</v>
+        <v>140000</v>
       </c>
       <c r="P552" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>600</v>
+        <v>289</v>
       </c>
       <c r="T552" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N553" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O553" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P553" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N554" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O554" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P554" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44702,11 +44702,11 @@
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T554" t="n">
         <v>10</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44755,41 +44755,41 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
+        <v>480</v>
+      </c>
+      <c r="N555" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O555" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P555" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S555" t="n">
+        <v>400</v>
+      </c>
+      <c r="T555" t="n">
         <v>10</v>
-      </c>
-      <c r="N555" t="n">
-        <v>135000</v>
-      </c>
-      <c r="O555" t="n">
-        <v>135000</v>
-      </c>
-      <c r="P555" t="n">
-        <v>135000</v>
-      </c>
-      <c r="Q555" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R555" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S555" t="n">
-        <v>300</v>
-      </c>
-      <c r="T555" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="556">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N556" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O556" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P556" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T556" t="n">
         <v>10</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N557" t="n">
-        <v>170000</v>
+        <v>202500</v>
       </c>
       <c r="O557" t="n">
-        <v>170000</v>
+        <v>202500</v>
       </c>
       <c r="P557" t="n">
-        <v>170000</v>
+        <v>202500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45007,13 +45007,13 @@
         <v>480</v>
       </c>
       <c r="N558" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O558" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P558" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T558" t="n">
         <v>10</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N559" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O559" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P559" t="n">
-        <v>145000</v>
+        <v>180000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>322</v>
+        <v>400</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45167,13 +45167,13 @@
         <v>360</v>
       </c>
       <c r="N560" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O560" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P560" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T560" t="n">
         <v>10</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N561" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="O561" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="P561" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M562" t="n">
         <v>360</v>
       </c>
       <c r="N562" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O562" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="P562" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T562" t="n">
         <v>10</v>
@@ -45395,41 +45395,41 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>832</v>
+        <v>16</v>
       </c>
       <c r="N563" t="n">
-        <v>3000</v>
+        <v>170000</v>
       </c>
       <c r="O563" t="n">
-        <v>3000</v>
+        <v>170000</v>
       </c>
       <c r="P563" t="n">
-        <v>3000</v>
+        <v>170000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="T563" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>840</v>
+        <v>480</v>
       </c>
       <c r="N564" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O564" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P564" t="n">
-        <v>7571</v>
+        <v>4000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
       <c r="T564" t="n">
         <v>10</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N565" t="n">
-        <v>202500</v>
+        <v>140000</v>
       </c>
       <c r="O565" t="n">
-        <v>202500</v>
+        <v>150000</v>
       </c>
       <c r="P565" t="n">
-        <v>202500</v>
+        <v>145000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>450</v>
+        <v>322</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,24 +45640,24 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="N566" t="n">
-        <v>190000</v>
+        <v>3000</v>
       </c>
       <c r="O566" t="n">
-        <v>202500</v>
+        <v>3000</v>
       </c>
       <c r="P566" t="n">
-        <v>198026</v>
+        <v>3000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R566" t="inlineStr">
@@ -45666,10 +45666,10 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="T566" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567">
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N567" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O567" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P567" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T567" t="n">
         <v>450</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="N568" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O568" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="P568" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="T568" t="n">
         <v>10</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,32 +45884,32 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>16</v>
+        <v>832</v>
       </c>
       <c r="N569" t="n">
-        <v>157500</v>
+        <v>3000</v>
       </c>
       <c r="O569" t="n">
-        <v>157500</v>
+        <v>3000</v>
       </c>
       <c r="P569" t="n">
-        <v>157500</v>
+        <v>3000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="T569" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570">
@@ -45960,36 +45960,36 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>48</v>
+        <v>840</v>
       </c>
       <c r="N570" t="n">
-        <v>180000</v>
+        <v>7000</v>
       </c>
       <c r="O570" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P570" t="n">
-        <v>180000</v>
+        <v>7571</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>400</v>
+        <v>757</v>
       </c>
       <c r="T570" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="571">
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N571" t="n">
-        <v>160000</v>
+        <v>202500</v>
       </c>
       <c r="O571" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="P571" t="n">
-        <v>169167</v>
+        <v>202500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N572" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O572" t="n">
-        <v>160000</v>
+        <v>202500</v>
       </c>
       <c r="P572" t="n">
-        <v>150000</v>
+        <v>198026</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>333</v>
+        <v>440</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46200,36 +46200,36 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="N573" t="n">
-        <v>4000</v>
+        <v>180000</v>
       </c>
       <c r="O573" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P573" t="n">
-        <v>4400</v>
+        <v>180000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="T573" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="574">
@@ -46280,36 +46280,36 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
+        <v>1080</v>
+      </c>
+      <c r="N574" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O574" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P574" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q574" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R574" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S574" t="n">
+        <v>600</v>
+      </c>
+      <c r="T574" t="n">
         <v>10</v>
-      </c>
-      <c r="N574" t="n">
-        <v>130000</v>
-      </c>
-      <c r="O574" t="n">
-        <v>130000</v>
-      </c>
-      <c r="P574" t="n">
-        <v>130000</v>
-      </c>
-      <c r="Q574" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R574" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S574" t="n">
-        <v>289</v>
-      </c>
-      <c r="T574" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="575">
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N575" t="n">
-        <v>135000</v>
+        <v>157500</v>
       </c>
       <c r="O575" t="n">
         <v>157500</v>
       </c>
       <c r="P575" t="n">
-        <v>140625</v>
+        <v>157500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N576" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O576" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="P576" t="n">
-        <v>130714</v>
+        <v>180000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="T576" t="n">
         <v>450</v>
@@ -46520,24 +46520,24 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N577" t="n">
-        <v>3000</v>
+        <v>160000</v>
       </c>
       <c r="O577" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="P577" t="n">
-        <v>3000</v>
+        <v>169167</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
@@ -46546,10 +46546,10 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="T577" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="578">
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N578" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="O578" t="n">
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="P578" t="n">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46680,36 +46680,36 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M579" t="n">
+        <v>600</v>
+      </c>
+      <c r="N579" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O579" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P579" t="n">
+        <v>4400</v>
+      </c>
+      <c r="Q579" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R579" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S579" t="n">
+        <v>440</v>
+      </c>
+      <c r="T579" t="n">
         <v>10</v>
-      </c>
-      <c r="N579" t="n">
-        <v>112500</v>
-      </c>
-      <c r="O579" t="n">
-        <v>112500</v>
-      </c>
-      <c r="P579" t="n">
-        <v>112500</v>
-      </c>
-      <c r="Q579" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R579" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S579" t="n">
-        <v>250</v>
-      </c>
-      <c r="T579" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="580">
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N580" t="n">
-        <v>112500</v>
+        <v>130000</v>
       </c>
       <c r="O580" t="n">
-        <v>135000</v>
+        <v>130000</v>
       </c>
       <c r="P580" t="n">
-        <v>123750</v>
+        <v>130000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46782,11 +46782,11 @@
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46835,41 +46835,41 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1080</v>
+        <v>32</v>
       </c>
       <c r="N581" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="O581" t="n">
-        <v>6000</v>
+        <v>157500</v>
       </c>
       <c r="P581" t="n">
-        <v>6000</v>
+        <v>140625</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>600</v>
+        <v>312</v>
       </c>
       <c r="T581" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="582">
@@ -46915,41 +46915,41 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="N582" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O582" t="n">
-        <v>5000</v>
+        <v>157500</v>
       </c>
       <c r="P582" t="n">
-        <v>5000</v>
+        <v>130714</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="T582" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="583">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,29 +46995,29 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="N583" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="O583" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="P583" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
@@ -47026,10 +47026,10 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="T583" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="584">
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,41 +47075,41 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N584" t="n">
-        <v>700</v>
+        <v>90000</v>
       </c>
       <c r="O584" t="n">
-        <v>700</v>
+        <v>90000</v>
       </c>
       <c r="P584" t="n">
-        <v>700</v>
+        <v>90000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="T584" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="585">
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,41 +47155,41 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N585" t="n">
-        <v>12000</v>
+        <v>112500</v>
       </c>
       <c r="O585" t="n">
-        <v>12000</v>
+        <v>112500</v>
       </c>
       <c r="P585" t="n">
-        <v>12000</v>
+        <v>112500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="T585" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="586">
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,29 +47235,29 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N586" t="n">
-        <v>10000</v>
+        <v>112500</v>
       </c>
       <c r="O586" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="P586" t="n">
-        <v>10000</v>
+        <v>123750</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
@@ -47266,10 +47266,10 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1000</v>
+        <v>275</v>
       </c>
       <c r="T586" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,7 +47324,7 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="N587" t="n">
         <v>6000</v>
@@ -47342,7 +47342,7 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S587" t="n">
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,7 +47404,7 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N588" t="n">
         <v>5000</v>
@@ -47422,7 +47422,7 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S588" t="n">
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47484,32 +47484,32 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N589" t="n">
-        <v>180000</v>
+        <v>1000</v>
       </c>
       <c r="O589" t="n">
-        <v>180000</v>
+        <v>1200</v>
       </c>
       <c r="P589" t="n">
-        <v>180000</v>
+        <v>1100</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="T589" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,20 +47564,20 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>480</v>
+        <v>9</v>
       </c>
       <c r="N590" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="O590" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="P590" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
@@ -47586,10 +47586,10 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T590" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,41 +47635,41 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="N591" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O591" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P591" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="T591" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,25 +47715,25 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N592" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O592" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P592" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T592" t="n">
         <v>10</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N593" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O593" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P593" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T593" t="n">
         <v>10</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="N594" t="n">
         <v>5000</v>
       </c>
       <c r="O594" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P594" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T594" t="n">
         <v>10</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N595" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O595" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P595" t="n">
-        <v>165000</v>
+        <v>180000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="T595" t="n">
         <v>450</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48047,13 +48047,13 @@
         <v>480</v>
       </c>
       <c r="N596" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O596" t="n">
         <v>4000</v>
       </c>
       <c r="P596" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T596" t="n">
         <v>10</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N597" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="O597" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="P597" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48142,11 +48142,11 @@
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48207,13 +48207,13 @@
         <v>240</v>
       </c>
       <c r="N598" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O598" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P598" t="n">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="T598" t="n">
         <v>10</v>
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48287,13 +48287,13 @@
         <v>240</v>
       </c>
       <c r="N599" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O599" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P599" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="T599" t="n">
         <v>10</v>
@@ -48355,29 +48355,29 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>15</v>
+        <v>720</v>
       </c>
       <c r="N600" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="O600" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="P600" t="n">
-        <v>200000</v>
+        <v>5500</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
@@ -48386,10 +48386,10 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="T600" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601">
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48444,16 +48444,16 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N601" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O601" t="n">
         <v>170000</v>
       </c>
-      <c r="O601" t="n">
-        <v>180000</v>
-      </c>
       <c r="P601" t="n">
-        <v>175000</v>
+        <v>165000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48462,11 +48462,11 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48515,7 +48515,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
@@ -48524,20 +48524,20 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N602" t="n">
-        <v>150000</v>
+        <v>3000</v>
       </c>
       <c r="O602" t="n">
-        <v>150000</v>
+        <v>4000</v>
       </c>
       <c r="P602" t="n">
-        <v>150000</v>
+        <v>3500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
@@ -48546,10 +48546,10 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="T602" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="603">
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,41 +48595,41 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="N603" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="O603" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="P603" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1200</v>
+        <v>289</v>
       </c>
       <c r="T603" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,41 +48675,41 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M604" t="n">
+        <v>240</v>
+      </c>
+      <c r="N604" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O604" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P604" t="n">
+        <v>2250</v>
+      </c>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R604" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S604" t="n">
+        <v>225</v>
+      </c>
+      <c r="T604" t="n">
         <v>10</v>
-      </c>
-      <c r="N604" t="n">
-        <v>440000</v>
-      </c>
-      <c r="O604" t="n">
-        <v>440000</v>
-      </c>
-      <c r="P604" t="n">
-        <v>440000</v>
-      </c>
-      <c r="Q604" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R604" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S604" t="n">
-        <v>978</v>
-      </c>
-      <c r="T604" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="605">
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>1020</v>
+        <v>240</v>
       </c>
       <c r="N605" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O605" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P605" t="n">
-        <v>10794</v>
+        <v>8250</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>1079</v>
+        <v>825</v>
       </c>
       <c r="T605" t="n">
         <v>10</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N606" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O606" t="n">
-        <v>410000</v>
+        <v>200000</v>
       </c>
       <c r="P606" t="n">
-        <v>405000</v>
+        <v>200000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>900</v>
+        <v>444</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,29 +48915,29 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="N607" t="n">
-        <v>9000</v>
+        <v>170000</v>
       </c>
       <c r="O607" t="n">
-        <v>9000</v>
+        <v>180000</v>
       </c>
       <c r="P607" t="n">
-        <v>9000</v>
+        <v>175000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
@@ -48946,10 +48946,10 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>900</v>
+        <v>389</v>
       </c>
       <c r="T607" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="608">
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,24 +49000,24 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N608" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O608" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="P608" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R608" t="inlineStr">
@@ -49026,10 +49026,10 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T608" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="609">
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,32 +49084,32 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="N609" t="n">
-        <v>140000</v>
+        <v>12000</v>
       </c>
       <c r="O609" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P609" t="n">
-        <v>145000</v>
+        <v>12000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>322</v>
+        <v>1200</v>
       </c>
       <c r="T609" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,29 +49155,29 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N610" t="n">
-        <v>4000</v>
+        <v>440000</v>
       </c>
       <c r="O610" t="n">
-        <v>4000</v>
+        <v>440000</v>
       </c>
       <c r="P610" t="n">
-        <v>4000</v>
+        <v>440000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
@@ -49186,10 +49186,10 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>400</v>
+        <v>978</v>
       </c>
       <c r="T610" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="611">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,7 +49235,7 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
@@ -49244,32 +49244,32 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>25</v>
+        <v>1020</v>
       </c>
       <c r="N611" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="O611" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P611" t="n">
-        <v>130000</v>
+        <v>10794</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>289</v>
+        <v>1079</v>
       </c>
       <c r="T611" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,29 +49315,29 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="N612" t="n">
-        <v>3000</v>
+        <v>400000</v>
       </c>
       <c r="O612" t="n">
-        <v>3000</v>
+        <v>410000</v>
       </c>
       <c r="P612" t="n">
-        <v>3000</v>
+        <v>405000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
@@ -49346,10 +49346,10 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="T612" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="613">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,7 +49395,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -49404,32 +49404,32 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="N613" t="n">
-        <v>100000</v>
+        <v>9000</v>
       </c>
       <c r="O613" t="n">
-        <v>100000</v>
+        <v>9000</v>
       </c>
       <c r="P613" t="n">
-        <v>100000</v>
+        <v>9000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>222</v>
+        <v>900</v>
       </c>
       <c r="T613" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614">
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M614" t="n">
         <v>240</v>
       </c>
       <c r="N614" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O614" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="P614" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T614" t="n">
         <v>10</v>
@@ -49555,41 +49555,41 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>577</v>
+        <v>20</v>
       </c>
       <c r="N615" t="n">
-        <v>2000</v>
+        <v>140000</v>
       </c>
       <c r="O615" t="n">
-        <v>2000</v>
+        <v>150000</v>
       </c>
       <c r="P615" t="n">
-        <v>2000</v>
+        <v>145000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="T615" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="616">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N616" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O616" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P616" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49662,11 +49662,11 @@
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="T616" t="n">
         <v>10</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,36 +49720,36 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="N617" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="O617" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="P617" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>900</v>
+        <v>289</v>
       </c>
       <c r="T617" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="618">
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N618" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O618" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P618" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T618" t="n">
         <v>10</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49884,32 +49884,32 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="N619" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="O619" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="P619" t="n">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>700</v>
+        <v>222</v>
       </c>
       <c r="T619" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N620" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O620" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="P620" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="T620" t="n">
         <v>10</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,41 +50035,41 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>14</v>
+        <v>577</v>
       </c>
       <c r="N621" t="n">
-        <v>180000</v>
+        <v>2000</v>
       </c>
       <c r="O621" t="n">
-        <v>200000</v>
+        <v>2000</v>
       </c>
       <c r="P621" t="n">
-        <v>190000</v>
+        <v>2000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>422</v>
+        <v>200</v>
       </c>
       <c r="T621" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="622">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>960</v>
+        <v>300</v>
       </c>
       <c r="N622" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O622" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P622" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50142,11 +50142,11 @@
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="T622" t="n">
         <v>10</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,41 +50195,41 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>28</v>
+        <v>360</v>
       </c>
       <c r="N623" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="O623" t="n">
-        <v>170000</v>
+        <v>9000</v>
       </c>
       <c r="P623" t="n">
-        <v>165000</v>
+        <v>9000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>367</v>
+        <v>900</v>
       </c>
       <c r="T623" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="N624" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O624" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P624" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>375</v>
+        <v>800</v>
       </c>
       <c r="T624" t="n">
         <v>10</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,7 +50355,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -50364,32 +50364,32 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="N625" t="n">
-        <v>140000</v>
+        <v>7000</v>
       </c>
       <c r="O625" t="n">
-        <v>140000</v>
+        <v>7000</v>
       </c>
       <c r="P625" t="n">
-        <v>140000</v>
+        <v>7000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>311</v>
+        <v>700</v>
       </c>
       <c r="T625" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="626">
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="N626" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O626" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P626" t="n">
-        <v>2750</v>
+        <v>7500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>275</v>
+        <v>750</v>
       </c>
       <c r="T626" t="n">
         <v>10</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,20 +50524,20 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N627" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="O627" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="P627" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
@@ -50546,10 +50546,10 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>700</v>
+        <v>422</v>
       </c>
       <c r="T627" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="628">
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,36 +50600,36 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="N628" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O628" t="n">
-        <v>210000</v>
+        <v>6000</v>
       </c>
       <c r="P628" t="n">
-        <v>195000</v>
+        <v>5500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="T628" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="629">
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50684,20 +50684,20 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="N629" t="n">
-        <v>5500</v>
+        <v>160000</v>
       </c>
       <c r="O629" t="n">
-        <v>5500</v>
+        <v>170000</v>
       </c>
       <c r="P629" t="n">
-        <v>5500</v>
+        <v>165000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
@@ -50706,10 +50706,10 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>550</v>
+        <v>367</v>
       </c>
       <c r="T629" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,36 +50760,36 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>26</v>
+        <v>720</v>
       </c>
       <c r="N630" t="n">
-        <v>150000</v>
+        <v>3500</v>
       </c>
       <c r="O630" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="P630" t="n">
-        <v>155000</v>
+        <v>3750</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="T630" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="631">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50844,20 +50844,20 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="N631" t="n">
-        <v>3500</v>
+        <v>140000</v>
       </c>
       <c r="O631" t="n">
-        <v>3500</v>
+        <v>140000</v>
       </c>
       <c r="P631" t="n">
-        <v>3500</v>
+        <v>140000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
@@ -50866,10 +50866,10 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="T631" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,36 +50920,36 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>19</v>
+        <v>720</v>
       </c>
       <c r="N632" t="n">
-        <v>120000</v>
+        <v>2500</v>
       </c>
       <c r="O632" t="n">
-        <v>120000</v>
+        <v>3000</v>
       </c>
       <c r="P632" t="n">
-        <v>120000</v>
+        <v>2750</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="T632" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="633">
@@ -51000,35 +51000,515 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M633" t="n">
+        <v>150</v>
+      </c>
+      <c r="N633" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O633" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P633" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q633" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R633" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S633" t="n">
+        <v>700</v>
+      </c>
+      <c r="T633" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>6</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D634" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E634" t="n">
+        <v>13</v>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G634" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I634" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M634" t="n">
+        <v>16</v>
+      </c>
+      <c r="N634" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O634" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P634" t="n">
+        <v>195000</v>
+      </c>
+      <c r="Q634" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R634" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S634" t="n">
+        <v>433</v>
+      </c>
+      <c r="T634" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>6</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E635" t="n">
+        <v>13</v>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G635" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I635" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M635" t="n">
+        <v>250</v>
+      </c>
+      <c r="N635" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O635" t="n">
+        <v>5500</v>
+      </c>
+      <c r="P635" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q635" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R635" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S635" t="n">
+        <v>550</v>
+      </c>
+      <c r="T635" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>6</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D636" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E636" t="n">
+        <v>13</v>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G636" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I636" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M636" t="n">
+        <v>26</v>
+      </c>
+      <c r="N636" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O636" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P636" t="n">
+        <v>155000</v>
+      </c>
+      <c r="Q636" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R636" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S636" t="n">
+        <v>344</v>
+      </c>
+      <c r="T636" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>6</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D637" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E637" t="n">
+        <v>13</v>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G637" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I637" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M637" t="n">
+        <v>235</v>
+      </c>
+      <c r="N637" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O637" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P637" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q637" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R637" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S637" t="n">
+        <v>350</v>
+      </c>
+      <c r="T637" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>6</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E638" t="n">
+        <v>13</v>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G638" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I638" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M638" t="n">
+        <v>19</v>
+      </c>
+      <c r="N638" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O638" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P638" t="n">
+        <v>120000</v>
+      </c>
+      <c r="Q638" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R638" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S638" t="n">
+        <v>267</v>
+      </c>
+      <c r="T638" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>6</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E639" t="n">
+        <v>13</v>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G639" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I639" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M633" t="n">
+      <c r="M639" t="n">
         <v>15</v>
       </c>
-      <c r="N633" t="n">
+      <c r="N639" t="n">
         <v>90000</v>
       </c>
-      <c r="O633" t="n">
+      <c r="O639" t="n">
         <v>90000</v>
       </c>
-      <c r="P633" t="n">
+      <c r="P639" t="n">
         <v>90000</v>
       </c>
-      <c r="Q633" t="inlineStr">
+      <c r="Q639" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
         </is>
       </c>
-      <c r="R633" t="inlineStr">
+      <c r="R639" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S633" t="n">
+      <c r="S639" t="n">
         <v>200</v>
       </c>
-      <c r="T633" t="n">
+      <c r="T639" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T679"/>
+  <dimension ref="A1:T685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N537" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O537" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P537" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T537" t="n">
         <v>10</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44312</v>
+        <v>44187</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43404,32 +43404,32 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N538" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O538" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P538" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1200</v>
+        <v>933</v>
       </c>
       <c r="T538" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,41 +43475,41 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="N539" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O539" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P539" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T539" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540">
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N540" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O540" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P540" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T540" t="n">
         <v>10</v>
@@ -43644,32 +43644,32 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="N541" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O541" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P541" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T541" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="542">
@@ -43720,36 +43720,36 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N542" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="O542" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="P542" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S542" t="n">
         <v>400</v>
       </c>
       <c r="T542" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543">
@@ -43804,32 +43804,32 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N543" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="O543" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="P543" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T543" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44390</v>
+        <v>44386</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43875,41 +43875,41 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N544" t="n">
-        <v>135000</v>
+        <v>7000</v>
       </c>
       <c r="O544" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P544" t="n">
-        <v>135000</v>
+        <v>7500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="T544" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="545">
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N545" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O545" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P545" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="T545" t="n">
         <v>10</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N546" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O546" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P546" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="T546" t="n">
         <v>10</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M547" t="n">
         <v>120</v>
       </c>
       <c r="N547" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O547" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="P547" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="T547" t="n">
         <v>10</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44386</v>
+        <v>44308</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N548" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O548" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P548" t="n">
-        <v>3250</v>
+        <v>12000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>325</v>
+        <v>1200</v>
       </c>
       <c r="T548" t="n">
         <v>10</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44308</v>
+        <v>44264</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,32 +44284,32 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N549" t="n">
-        <v>12000</v>
+        <v>310000</v>
       </c>
       <c r="O549" t="n">
-        <v>12000</v>
+        <v>310000</v>
       </c>
       <c r="P549" t="n">
-        <v>12000</v>
+        <v>310000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1200</v>
+        <v>689</v>
       </c>
       <c r="T549" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="550">
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
         <v>10</v>
       </c>
       <c r="N550" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="O550" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="P550" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>689</v>
+        <v>556</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44264</v>
+        <v>44166</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,36 +44440,36 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
+        <v>350</v>
+      </c>
+      <c r="N551" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O551" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P551" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S551" t="n">
+        <v>900</v>
+      </c>
+      <c r="T551" t="n">
         <v>10</v>
-      </c>
-      <c r="N551" t="n">
-        <v>250000</v>
-      </c>
-      <c r="O551" t="n">
-        <v>250000</v>
-      </c>
-      <c r="P551" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Q551" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R551" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S551" t="n">
-        <v>556</v>
-      </c>
-      <c r="T551" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="552">
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
         <v>350</v>
       </c>
       <c r="N552" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O552" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P552" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T552" t="n">
         <v>10</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N553" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O553" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P553" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T553" t="n">
         <v>10</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N554" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O554" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P554" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T554" t="n">
         <v>10</v>
@@ -44764,32 +44764,32 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N555" t="n">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="O555" t="n">
-        <v>8000</v>
+        <v>315000</v>
       </c>
       <c r="P555" t="n">
-        <v>8000</v>
+        <v>306429</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>800</v>
+        <v>681</v>
       </c>
       <c r="T555" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="556">
@@ -44840,36 +44840,36 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N556" t="n">
-        <v>300000</v>
+        <v>7000</v>
       </c>
       <c r="O556" t="n">
-        <v>315000</v>
+        <v>7000</v>
       </c>
       <c r="P556" t="n">
-        <v>306429</v>
+        <v>7000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="T556" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="557">
@@ -44924,32 +44924,32 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="N557" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="O557" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="P557" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T557" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="558">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44168</v>
+        <v>44369</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -44995,41 +44995,41 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="N558" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="O558" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="P558" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T558" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="559">
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N559" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O559" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P559" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T559" t="n">
         <v>10</v>
@@ -45164,32 +45164,32 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N560" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="O560" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="P560" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T560" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -45240,36 +45240,36 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
+        <v>960</v>
+      </c>
+      <c r="N561" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O561" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P561" t="n">
+        <v>5750</v>
+      </c>
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S561" t="n">
+        <v>575</v>
+      </c>
+      <c r="T561" t="n">
         <v>10</v>
-      </c>
-      <c r="N561" t="n">
-        <v>600</v>
-      </c>
-      <c r="O561" t="n">
-        <v>600</v>
-      </c>
-      <c r="P561" t="n">
-        <v>600</v>
-      </c>
-      <c r="Q561" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R561" t="inlineStr">
-        <is>
-          <t>Cabildo</t>
-        </is>
-      </c>
-      <c r="S561" t="n">
-        <v>600</v>
-      </c>
-      <c r="T561" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>960</v>
+        <v>350</v>
       </c>
       <c r="N562" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="O562" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P562" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T562" t="n">
         <v>10</v>
@@ -45404,32 +45404,32 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>350</v>
+        <v>24</v>
       </c>
       <c r="N563" t="n">
-        <v>6500</v>
+        <v>450</v>
       </c>
       <c r="O563" t="n">
-        <v>7000</v>
+        <v>500</v>
       </c>
       <c r="P563" t="n">
-        <v>6750</v>
+        <v>475</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="T563" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -45480,36 +45480,36 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="N564" t="n">
-        <v>450</v>
+        <v>4500</v>
       </c>
       <c r="O564" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="P564" t="n">
-        <v>475</v>
+        <v>4750</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S564" t="n">
         <v>475</v>
       </c>
       <c r="T564" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565">
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N565" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O565" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P565" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="T565" t="n">
         <v>10</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N566" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O566" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P566" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="T566" t="n">
         <v>10</v>
@@ -45715,41 +45715,41 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="N567" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="O567" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="P567" t="n">
-        <v>3250</v>
+        <v>700</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>325</v>
+        <v>700</v>
       </c>
       <c r="T567" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N568" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="O568" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="P568" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T568" t="n">
         <v>1</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44369</v>
+        <v>44433</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,41 +45875,41 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N569" t="n">
-        <v>350</v>
+        <v>202500</v>
       </c>
       <c r="O569" t="n">
+        <v>202500</v>
+      </c>
+      <c r="P569" t="n">
+        <v>202500</v>
+      </c>
+      <c r="Q569" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R569" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S569" t="n">
         <v>450</v>
       </c>
-      <c r="P569" t="n">
-        <v>400</v>
-      </c>
-      <c r="Q569" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R569" t="inlineStr">
-        <is>
-          <t>Cabildo</t>
-        </is>
-      </c>
-      <c r="S569" t="n">
-        <v>400</v>
-      </c>
       <c r="T569" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="570">
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N570" t="n">
-        <v>202500</v>
+        <v>200000</v>
       </c>
       <c r="O570" t="n">
         <v>202500</v>
       </c>
       <c r="P570" t="n">
-        <v>202500</v>
+        <v>201731</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T570" t="n">
         <v>450</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N571" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O571" t="n">
-        <v>202500</v>
+        <v>180000</v>
       </c>
       <c r="P571" t="n">
-        <v>201731</v>
+        <v>180000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N572" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O572" t="n">
         <v>180000</v>
       </c>
       <c r="P572" t="n">
-        <v>180000</v>
+        <v>174474</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N573" t="n">
-        <v>160000</v>
+        <v>157500</v>
       </c>
       <c r="O573" t="n">
-        <v>180000</v>
+        <v>157500</v>
       </c>
       <c r="P573" t="n">
-        <v>174474</v>
+        <v>157500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="T573" t="n">
         <v>450</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N574" t="n">
-        <v>157500</v>
+        <v>120000</v>
       </c>
       <c r="O574" t="n">
         <v>157500</v>
       </c>
       <c r="P574" t="n">
-        <v>157500</v>
+        <v>138750</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N575" t="n">
-        <v>120000</v>
+        <v>112500</v>
       </c>
       <c r="O575" t="n">
-        <v>157500</v>
+        <v>135000</v>
       </c>
       <c r="P575" t="n">
-        <v>138750</v>
+        <v>123750</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44433</v>
+        <v>44371</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,29 +46435,29 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>16</v>
+        <v>1320</v>
       </c>
       <c r="N576" t="n">
-        <v>112500</v>
+        <v>5000</v>
       </c>
       <c r="O576" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P576" t="n">
-        <v>123750</v>
+        <v>6182</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R576" t="inlineStr">
@@ -46466,10 +46466,10 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>275</v>
+        <v>618</v>
       </c>
       <c r="T576" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="577">
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>1320</v>
+        <v>720</v>
       </c>
       <c r="N577" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P577" t="n">
-        <v>6182</v>
+        <v>3750</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>618</v>
+        <v>375</v>
       </c>
       <c r="T577" t="n">
         <v>10</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44371</v>
+        <v>44316</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,41 +46595,41 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="N578" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="O578" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="P578" t="n">
-        <v>3750</v>
+        <v>1100</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>375</v>
+        <v>1100</v>
       </c>
       <c r="T578" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N579" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O579" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="P579" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T579" t="n">
         <v>1</v>
@@ -46755,41 +46755,41 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="N580" t="n">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="O580" t="n">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="P580" t="n">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T580" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="581">
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N581" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O581" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P581" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T581" t="n">
         <v>10</v>
@@ -46924,20 +46924,20 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>480</v>
+        <v>18</v>
       </c>
       <c r="N582" t="n">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="O582" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="P582" t="n">
-        <v>10000</v>
+        <v>1250</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
@@ -46946,10 +46946,10 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T582" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -47000,24 +47000,24 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="N583" t="n">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="O583" t="n">
-        <v>1300</v>
+        <v>8000</v>
       </c>
       <c r="P583" t="n">
-        <v>1250</v>
+        <v>8000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
@@ -47026,10 +47026,10 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T583" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="584">
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44316</v>
+        <v>44397</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O584" t="n">
         <v>8000</v>
       </c>
       <c r="P584" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T584" t="n">
         <v>10</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="N585" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O585" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P585" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="T585" t="n">
         <v>10</v>
@@ -47244,32 +47244,32 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="N586" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O586" t="n">
-        <v>6000</v>
+        <v>190000</v>
       </c>
       <c r="P586" t="n">
-        <v>5500</v>
+        <v>185000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>550</v>
+        <v>411</v>
       </c>
       <c r="T586" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="587">
@@ -47320,36 +47320,36 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="N587" t="n">
-        <v>180000</v>
+        <v>3500</v>
       </c>
       <c r="O587" t="n">
-        <v>190000</v>
+        <v>4000</v>
       </c>
       <c r="P587" t="n">
-        <v>185000</v>
+        <v>3750</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="T587" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="588">
@@ -47404,32 +47404,32 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="N588" t="n">
-        <v>3500</v>
+        <v>140000</v>
       </c>
       <c r="O588" t="n">
-        <v>4000</v>
+        <v>140000</v>
       </c>
       <c r="P588" t="n">
-        <v>3750</v>
+        <v>140000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="T588" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="589">
@@ -47480,36 +47480,36 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N589" t="n">
-        <v>140000</v>
+        <v>2500</v>
       </c>
       <c r="O589" t="n">
-        <v>140000</v>
+        <v>3000</v>
       </c>
       <c r="P589" t="n">
-        <v>140000</v>
+        <v>2750</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="T589" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44397</v>
+        <v>44363</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,36 +47560,36 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N590" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="O590" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="P590" t="n">
-        <v>2750</v>
+        <v>600</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="T590" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -47640,24 +47640,24 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N591" t="n">
-        <v>600</v>
+        <v>150000</v>
       </c>
       <c r="O591" t="n">
-        <v>600</v>
+        <v>150000</v>
       </c>
       <c r="P591" t="n">
-        <v>600</v>
+        <v>150000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
@@ -47666,10 +47666,10 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T591" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="592">
@@ -47724,20 +47724,20 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N592" t="n">
-        <v>150000</v>
+        <v>450</v>
       </c>
       <c r="O592" t="n">
-        <v>150000</v>
+        <v>450</v>
       </c>
       <c r="P592" t="n">
-        <v>150000</v>
+        <v>450</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
@@ -47746,10 +47746,10 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="T592" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -47800,36 +47800,36 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N593" t="n">
+        <v>112500</v>
+      </c>
+      <c r="O593" t="n">
+        <v>112500</v>
+      </c>
+      <c r="P593" t="n">
+        <v>112500</v>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R593" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S593" t="n">
+        <v>250</v>
+      </c>
+      <c r="T593" t="n">
         <v>450</v>
-      </c>
-      <c r="O593" t="n">
-        <v>450</v>
-      </c>
-      <c r="P593" t="n">
-        <v>450</v>
-      </c>
-      <c r="Q593" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R593" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S593" t="n">
-        <v>450</v>
-      </c>
-      <c r="T593" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -47884,20 +47884,20 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N594" t="n">
-        <v>112500</v>
+        <v>300</v>
       </c>
       <c r="O594" t="n">
-        <v>112500</v>
+        <v>300</v>
       </c>
       <c r="P594" t="n">
-        <v>112500</v>
+        <v>300</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
@@ -47906,10 +47906,10 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T594" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -47960,24 +47960,24 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N595" t="n">
-        <v>300</v>
+        <v>90000</v>
       </c>
       <c r="O595" t="n">
-        <v>300</v>
+        <v>90000</v>
       </c>
       <c r="P595" t="n">
-        <v>300</v>
+        <v>90000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
@@ -47986,10 +47986,10 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T595" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44363</v>
+        <v>44277</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N596" t="n">
-        <v>90000</v>
+        <v>300000</v>
       </c>
       <c r="O596" t="n">
-        <v>90000</v>
+        <v>300000</v>
       </c>
       <c r="P596" t="n">
-        <v>90000</v>
+        <v>300000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48062,11 +48062,11 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>200</v>
+        <v>667</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N597" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O597" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P597" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44277</v>
+        <v>44273</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N598" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="O598" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P598" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N599" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="O599" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P599" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>689</v>
+        <v>622</v>
       </c>
       <c r="T599" t="n">
         <v>450</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N600" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O600" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P600" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44273</v>
+        <v>44438</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,36 +48440,36 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N601" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="O601" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="P601" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T601" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="602">
@@ -48524,32 +48524,32 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N602" t="n">
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="O602" t="n">
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="P602" t="n">
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T602" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="603">
@@ -48600,36 +48600,36 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="N603" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="O603" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="P603" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T603" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="604">
@@ -48684,32 +48684,32 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="N604" t="n">
-        <v>5000</v>
+        <v>160000</v>
       </c>
       <c r="O604" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="P604" t="n">
-        <v>5000</v>
+        <v>165000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>500</v>
+        <v>367</v>
       </c>
       <c r="T604" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="605">
@@ -48760,36 +48760,36 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N605" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="O605" t="n">
-        <v>170000</v>
+        <v>4000</v>
       </c>
       <c r="P605" t="n">
-        <v>165000</v>
+        <v>4000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="T605" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="606">
@@ -48844,32 +48844,32 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="N606" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O606" t="n">
-        <v>4000</v>
+        <v>140000</v>
       </c>
       <c r="P606" t="n">
-        <v>4000</v>
+        <v>130000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T606" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="607">
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N607" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O607" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="P607" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48995,41 +48995,41 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
+        <v>480</v>
+      </c>
+      <c r="N608" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O608" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P608" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S608" t="n">
+        <v>500</v>
+      </c>
+      <c r="T608" t="n">
         <v>10</v>
-      </c>
-      <c r="N608" t="n">
-        <v>100000</v>
-      </c>
-      <c r="O608" t="n">
-        <v>100000</v>
-      </c>
-      <c r="P608" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Q608" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R608" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S608" t="n">
-        <v>222</v>
-      </c>
-      <c r="T608" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="609">
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
         <v>480</v>
       </c>
       <c r="N609" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O609" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P609" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T609" t="n">
         <v>10</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44438</v>
+        <v>44372</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N610" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O610" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P610" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49182,11 +49182,11 @@
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T610" t="n">
         <v>10</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N611" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O611" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P611" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T611" t="n">
         <v>10</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M612" t="n">
         <v>480</v>
       </c>
       <c r="N612" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O612" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P612" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T612" t="n">
         <v>10</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N613" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O613" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P613" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T613" t="n">
         <v>10</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N614" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O614" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P614" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T614" t="n">
         <v>10</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N615" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O615" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P615" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T615" t="n">
         <v>10</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44372</v>
+        <v>44286</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,41 +49635,41 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N616" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="O616" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="P616" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="T616" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N617" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="O617" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P617" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T617" t="n">
         <v>1</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44286</v>
+        <v>44356</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,41 +49795,41 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N618" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="O618" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="P618" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T618" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="619">
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N619" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="O619" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="P619" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N620" t="n">
-        <v>135000</v>
+        <v>90000</v>
       </c>
       <c r="O620" t="n">
-        <v>135000</v>
+        <v>90000</v>
       </c>
       <c r="P620" t="n">
-        <v>135000</v>
+        <v>90000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T620" t="n">
         <v>450</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44356</v>
+        <v>44351</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N621" t="n">
-        <v>90000</v>
+        <v>210000</v>
       </c>
       <c r="O621" t="n">
-        <v>90000</v>
+        <v>210000</v>
       </c>
       <c r="P621" t="n">
-        <v>90000</v>
+        <v>210000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50062,11 +50062,11 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>200</v>
+        <v>467</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N622" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="O622" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="P622" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50195,41 +50195,41 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M623" t="n">
+        <v>360</v>
+      </c>
+      <c r="N623" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O623" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P623" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q623" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R623" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S623" t="n">
+        <v>800</v>
+      </c>
+      <c r="T623" t="n">
         <v>10</v>
-      </c>
-      <c r="N623" t="n">
-        <v>170000</v>
-      </c>
-      <c r="O623" t="n">
-        <v>170000</v>
-      </c>
-      <c r="P623" t="n">
-        <v>170000</v>
-      </c>
-      <c r="Q623" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R623" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S623" t="n">
-        <v>378</v>
-      </c>
-      <c r="T623" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="624">
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
         <v>360</v>
       </c>
       <c r="N624" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O624" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P624" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T624" t="n">
         <v>10</v>
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N625" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O625" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P625" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50382,11 +50382,11 @@
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T625" t="n">
         <v>10</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N626" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O626" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P626" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50462,11 +50462,11 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T626" t="n">
         <v>10</v>
@@ -50524,7 +50524,7 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N627" t="n">
         <v>4000</v>
@@ -50542,7 +50542,7 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S627" t="n">
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N628" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O628" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P628" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T628" t="n">
         <v>10</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,36 +50680,36 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="N629" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="O629" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="P629" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T629" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -50760,36 +50760,36 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N630" t="n">
-        <v>600</v>
+        <v>160000</v>
       </c>
       <c r="O630" t="n">
-        <v>600</v>
+        <v>160000</v>
       </c>
       <c r="P630" t="n">
-        <v>600</v>
+        <v>160000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T630" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="631">
@@ -50844,32 +50844,32 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N631" t="n">
-        <v>160000</v>
+        <v>500</v>
       </c>
       <c r="O631" t="n">
-        <v>160000</v>
+        <v>500</v>
       </c>
       <c r="P631" t="n">
-        <v>160000</v>
+        <v>500</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>356</v>
+        <v>500</v>
       </c>
       <c r="T631" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -50920,36 +50920,36 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N632" t="n">
-        <v>500</v>
+        <v>115000</v>
       </c>
       <c r="O632" t="n">
-        <v>500</v>
+        <v>115000</v>
       </c>
       <c r="P632" t="n">
-        <v>500</v>
+        <v>115000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="T632" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="633">
@@ -51004,32 +51004,32 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N633" t="n">
-        <v>115000</v>
+        <v>350</v>
       </c>
       <c r="O633" t="n">
-        <v>115000</v>
+        <v>350</v>
       </c>
       <c r="P633" t="n">
-        <v>115000</v>
+        <v>350</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>256</v>
+        <v>350</v>
       </c>
       <c r="T633" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -51080,36 +51080,36 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N634" t="n">
-        <v>350</v>
+        <v>70000</v>
       </c>
       <c r="O634" t="n">
-        <v>350</v>
+        <v>70000</v>
       </c>
       <c r="P634" t="n">
-        <v>350</v>
+        <v>70000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="T634" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44365</v>
+        <v>44306</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,41 +51155,41 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N635" t="n">
-        <v>70000</v>
+        <v>1300</v>
       </c>
       <c r="O635" t="n">
-        <v>70000</v>
+        <v>1300</v>
       </c>
       <c r="P635" t="n">
-        <v>70000</v>
+        <v>1300</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>156</v>
+        <v>1300</v>
       </c>
       <c r="T635" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N636" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="O636" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="P636" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T636" t="n">
         <v>1</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44306</v>
+        <v>44215</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51324,32 +51324,32 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N637" t="n">
-        <v>1000</v>
+        <v>290000</v>
       </c>
       <c r="O637" t="n">
-        <v>1000</v>
+        <v>310000</v>
       </c>
       <c r="P637" t="n">
-        <v>1000</v>
+        <v>300000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T637" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44215</v>
+        <v>44461</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,32 +51404,32 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="N638" t="n">
-        <v>290000</v>
+        <v>4000</v>
       </c>
       <c r="O638" t="n">
-        <v>310000</v>
+        <v>5000</v>
       </c>
       <c r="P638" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="T638" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="639">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,41 +51475,41 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N639" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="O639" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="P639" t="n">
-        <v>10000</v>
+        <v>137500</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S639" t="n">
-        <v>1000</v>
+        <v>306</v>
       </c>
       <c r="T639" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="640">
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,32 +51564,32 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N640" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="O640" t="n">
-        <v>8000</v>
+        <v>145000</v>
       </c>
       <c r="P640" t="n">
-        <v>7500</v>
+        <v>139000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>750</v>
+        <v>309</v>
       </c>
       <c r="T640" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,41 +51635,41 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="N641" t="n">
-        <v>170000</v>
+        <v>3000</v>
       </c>
       <c r="O641" t="n">
-        <v>170000</v>
+        <v>3000</v>
       </c>
       <c r="P641" t="n">
-        <v>170000</v>
+        <v>3000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="T641" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N642" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O642" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="P642" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N643" t="n">
-        <v>90000</v>
+        <v>112500</v>
       </c>
       <c r="O643" t="n">
-        <v>90000</v>
+        <v>125000</v>
       </c>
       <c r="P643" t="n">
-        <v>90000</v>
+        <v>120455</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51822,11 +51822,11 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,41 +51875,41 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M644" t="n">
+        <v>16</v>
+      </c>
+      <c r="N644" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O644" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P644" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q644" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R644" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S644" t="n">
+        <v>189</v>
+      </c>
+      <c r="T644" t="n">
         <v>450</v>
-      </c>
-      <c r="N644" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O644" t="n">
-        <v>11000</v>
-      </c>
-      <c r="P644" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Q644" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R644" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S644" t="n">
-        <v>1100</v>
-      </c>
-      <c r="T644" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="N645" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O645" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P645" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T645" t="n">
         <v>10</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N646" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P646" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T646" t="n">
         <v>10</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,16 +52115,16 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N647" t="n">
         <v>170000</v>
@@ -52142,7 +52142,7 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S647" t="n">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N648" t="n">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="O648" t="n">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="P648" t="n">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N649" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="O649" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P649" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52302,11 +52302,11 @@
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52364,16 +52364,16 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N650" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O650" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P650" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T650" t="n">
         <v>10</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,41 +52435,41 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
+        <v>750</v>
+      </c>
+      <c r="N651" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O651" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P651" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q651" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R651" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S651" t="n">
+        <v>800</v>
+      </c>
+      <c r="T651" t="n">
         <v>10</v>
-      </c>
-      <c r="N651" t="n">
-        <v>600</v>
-      </c>
-      <c r="O651" t="n">
-        <v>600</v>
-      </c>
-      <c r="P651" t="n">
-        <v>600</v>
-      </c>
-      <c r="Q651" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R651" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S651" t="n">
-        <v>600</v>
-      </c>
-      <c r="T651" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="N652" t="n">
         <v>5000</v>
       </c>
       <c r="O652" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P652" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T652" t="n">
         <v>10</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,36 +52600,36 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N653" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O653" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P653" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q653" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R653" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S653" t="n">
+        <v>378</v>
+      </c>
+      <c r="T653" t="n">
         <v>450</v>
-      </c>
-      <c r="O653" t="n">
-        <v>450</v>
-      </c>
-      <c r="P653" t="n">
-        <v>450</v>
-      </c>
-      <c r="Q653" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R653" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S653" t="n">
-        <v>450</v>
-      </c>
-      <c r="T653" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,36 +52680,36 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="N654" t="n">
-        <v>3000</v>
+        <v>150000</v>
       </c>
       <c r="O654" t="n">
-        <v>4000</v>
+        <v>150000</v>
       </c>
       <c r="P654" t="n">
-        <v>3500</v>
+        <v>150000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="T654" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52764,32 +52764,32 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N655" t="n">
-        <v>350</v>
+        <v>120000</v>
       </c>
       <c r="O655" t="n">
-        <v>350</v>
+        <v>120000</v>
       </c>
       <c r="P655" t="n">
-        <v>350</v>
+        <v>120000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="T655" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="656">
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M656" t="n">
         <v>480</v>
       </c>
       <c r="N656" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="O656" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P656" t="n">
-        <v>2250</v>
+        <v>7500</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="T656" t="n">
         <v>10</v>
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,20 +52924,20 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N657" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="O657" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="P657" t="n">
-        <v>8500</v>
+        <v>600</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
@@ -52946,10 +52946,10 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="T657" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,20 +53004,20 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>20</v>
+        <v>960</v>
       </c>
       <c r="N658" t="n">
-        <v>550</v>
+        <v>5000</v>
       </c>
       <c r="O658" t="n">
-        <v>550</v>
+        <v>6000</v>
       </c>
       <c r="P658" t="n">
-        <v>550</v>
+        <v>5500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
@@ -53029,7 +53029,7 @@
         <v>550</v>
       </c>
       <c r="T658" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="659">
@@ -53075,25 +53075,25 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N659" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="O659" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="P659" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T659" t="n">
         <v>1</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N660" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O660" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P660" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="T660" t="n">
         <v>10</v>
@@ -53235,29 +53235,29 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N661" t="n">
-        <v>6000</v>
+        <v>350</v>
       </c>
       <c r="O661" t="n">
-        <v>6000</v>
+        <v>350</v>
       </c>
       <c r="P661" t="n">
-        <v>6000</v>
+        <v>350</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
@@ -53266,10 +53266,10 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="T661" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N662" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O662" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P662" t="n">
-        <v>4000</v>
+        <v>2250</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="T662" t="n">
         <v>10</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -53404,16 +53404,16 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N663" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O663" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P663" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="T663" t="n">
         <v>10</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,20 +53484,20 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="N664" t="n">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="O664" t="n">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="P664" t="n">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
@@ -53506,10 +53506,10 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T664" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,41 +53555,41 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N665" t="n">
-        <v>180000</v>
+        <v>400</v>
       </c>
       <c r="O665" t="n">
-        <v>180000</v>
+        <v>400</v>
       </c>
       <c r="P665" t="n">
-        <v>180000</v>
+        <v>400</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S665" t="n">
         <v>400</v>
       </c>
       <c r="T665" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N666" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O666" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P666" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T666" t="n">
         <v>10</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,41 +53715,41 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N667" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O667" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P667" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T667" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N668" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O668" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P668" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T668" t="n">
         <v>10</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53884,32 +53884,32 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N669" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="O669" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="P669" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T669" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53964,32 +53964,32 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="N670" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="O670" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P670" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q670" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R670" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S670" t="n">
         <v>500</v>
       </c>
-      <c r="P670" t="n">
-        <v>450</v>
-      </c>
-      <c r="Q670" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R670" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S670" t="n">
-        <v>450</v>
-      </c>
       <c r="T670" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44211</v>
+        <v>44376</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N671" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="O671" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P671" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44211</v>
+        <v>44376</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,7 +54115,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -54124,32 +54124,32 @@
         </is>
       </c>
       <c r="M672" t="n">
+        <v>480</v>
+      </c>
+      <c r="N672" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O672" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P672" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q672" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R672" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S672" t="n">
+        <v>400</v>
+      </c>
+      <c r="T672" t="n">
         <v>10</v>
-      </c>
-      <c r="N672" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O672" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P672" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q672" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R672" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S672" t="n">
-        <v>533</v>
-      </c>
-      <c r="T672" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,41 +54195,41 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N673" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="O673" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P673" t="n">
-        <v>7500</v>
+        <v>135000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T673" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>640</v>
+        <v>240</v>
       </c>
       <c r="N674" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O674" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P674" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="T674" t="n">
         <v>10</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,41 +54355,41 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N675" t="n">
-        <v>180000</v>
+        <v>700</v>
       </c>
       <c r="O675" t="n">
-        <v>202000</v>
+        <v>700</v>
       </c>
       <c r="P675" t="n">
-        <v>186000</v>
+        <v>700</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>413</v>
+        <v>700</v>
       </c>
       <c r="T675" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,41 +54435,41 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="N676" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="O676" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="P676" t="n">
-        <v>3750</v>
+        <v>450</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T676" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N677" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="O677" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="P677" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>356</v>
+        <v>667</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N678" t="n">
-        <v>125000</v>
+        <v>240000</v>
       </c>
       <c r="O678" t="n">
-        <v>125000</v>
+        <v>240000</v>
       </c>
       <c r="P678" t="n">
-        <v>125000</v>
+        <v>240000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54622,11 +54622,11 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>278</v>
+        <v>533</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54675,40 +54675,520 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M679" t="n">
+        <v>480</v>
+      </c>
+      <c r="N679" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O679" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P679" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q679" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R679" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S679" t="n">
+        <v>750</v>
+      </c>
+      <c r="T679" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>6</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E680" t="n">
+        <v>13</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M680" t="n">
+        <v>640</v>
+      </c>
+      <c r="N680" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O680" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P680" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q680" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S680" t="n">
+        <v>550</v>
+      </c>
+      <c r="T680" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>6</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E681" t="n">
+        <v>13</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M681" t="n">
+        <v>22</v>
+      </c>
+      <c r="N681" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O681" t="n">
+        <v>202000</v>
+      </c>
+      <c r="P681" t="n">
+        <v>186000</v>
+      </c>
+      <c r="Q681" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S681" t="n">
+        <v>413</v>
+      </c>
+      <c r="T681" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>6</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M682" t="n">
+        <v>480</v>
+      </c>
+      <c r="N682" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O682" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P682" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q682" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S682" t="n">
+        <v>375</v>
+      </c>
+      <c r="T682" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>6</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D683" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E683" t="n">
+        <v>13</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G683" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M683" t="n">
+        <v>12</v>
+      </c>
+      <c r="N683" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O683" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P683" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q683" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R683" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S683" t="n">
+        <v>356</v>
+      </c>
+      <c r="T683" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>6</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D684" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E684" t="n">
+        <v>13</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G684" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M684" t="n">
+        <v>8</v>
+      </c>
+      <c r="N684" t="n">
+        <v>125000</v>
+      </c>
+      <c r="O684" t="n">
+        <v>125000</v>
+      </c>
+      <c r="P684" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q684" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R684" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S684" t="n">
+        <v>278</v>
+      </c>
+      <c r="T684" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>6</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D685" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E685" t="n">
+        <v>13</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G685" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I685" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
           <t>Tango</t>
         </is>
       </c>
-      <c r="L679" t="inlineStr">
+      <c r="L685" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M679" t="n">
+      <c r="M685" t="n">
         <v>832</v>
       </c>
-      <c r="N679" t="n">
+      <c r="N685" t="n">
         <v>6500</v>
       </c>
-      <c r="O679" t="n">
+      <c r="O685" t="n">
         <v>6500</v>
       </c>
-      <c r="P679" t="n">
+      <c r="P685" t="n">
         <v>6500</v>
       </c>
-      <c r="Q679" t="inlineStr">
+      <c r="Q685" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R679" t="inlineStr">
+      <c r="R685" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S679" t="n">
+      <c r="S685" t="n">
         <v>650</v>
       </c>
-      <c r="T679" t="n">
+      <c r="T685" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T685"/>
+  <dimension ref="A1:T690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,32 +44444,32 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="N551" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="O551" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="P551" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>900</v>
+        <v>289</v>
       </c>
       <c r="T551" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,36 +44520,36 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N552" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O552" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P552" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="T552" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,36 +44600,36 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="O553" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="P553" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>900</v>
+        <v>222</v>
       </c>
       <c r="T553" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="554">
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,36 +44680,36 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="N554" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P554" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="T554" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="555">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,36 +44760,36 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="N555" t="n">
-        <v>300000</v>
+        <v>3000</v>
       </c>
       <c r="O555" t="n">
-        <v>315000</v>
+        <v>3000</v>
       </c>
       <c r="P555" t="n">
-        <v>306429</v>
+        <v>3000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>681</v>
+        <v>250</v>
       </c>
       <c r="T555" t="n">
-        <v>450</v>
+        <v>12</v>
       </c>
     </row>
     <row r="556">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N556" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O556" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P556" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T556" t="n">
         <v>10</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,32 +44924,32 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="N557" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="O557" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="P557" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T557" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="558">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N558" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O558" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P558" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T558" t="n">
         <v>10</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,16 +45075,16 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N559" t="n">
         <v>8000</v>
@@ -45102,7 +45102,7 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S559" t="n">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45155,41 +45155,41 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N560" t="n">
-        <v>600</v>
+        <v>300000</v>
       </c>
       <c r="O560" t="n">
-        <v>600</v>
+        <v>315000</v>
       </c>
       <c r="P560" t="n">
-        <v>600</v>
+        <v>306429</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="T560" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="561">
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="N561" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O561" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P561" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="T561" t="n">
         <v>10</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45315,41 +45315,41 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>350</v>
+        <v>18</v>
       </c>
       <c r="N562" t="n">
-        <v>6500</v>
+        <v>250000</v>
       </c>
       <c r="O562" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="P562" t="n">
-        <v>6750</v>
+        <v>250000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>675</v>
+        <v>556</v>
       </c>
       <c r="T562" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="563">
@@ -45400,36 +45400,36 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="N563" t="n">
-        <v>450</v>
+        <v>7000</v>
       </c>
       <c r="O563" t="n">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="P563" t="n">
-        <v>475</v>
+        <v>7000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="T563" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564">
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N564" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O564" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P564" t="n">
-        <v>4750</v>
+        <v>8000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="T564" t="n">
         <v>10</v>
@@ -45560,36 +45560,36 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N565" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="O565" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="P565" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T565" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>240</v>
+        <v>960</v>
       </c>
       <c r="N566" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="O566" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P566" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>325</v>
+        <v>575</v>
       </c>
       <c r="T566" t="n">
         <v>10</v>
@@ -45715,41 +45715,41 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>7</v>
+        <v>350</v>
       </c>
       <c r="N567" t="n">
-        <v>700</v>
+        <v>6500</v>
       </c>
       <c r="O567" t="n">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="P567" t="n">
-        <v>700</v>
+        <v>6750</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="T567" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568">
@@ -45795,7 +45795,7 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N568" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="O568" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="P568" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T568" t="n">
         <v>1</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,41 +45875,41 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N569" t="n">
-        <v>202500</v>
+        <v>4500</v>
       </c>
       <c r="O569" t="n">
-        <v>202500</v>
+        <v>5000</v>
       </c>
       <c r="P569" t="n">
-        <v>202500</v>
+        <v>4750</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="T569" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570">
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45955,41 +45955,41 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="N570" t="n">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="O570" t="n">
-        <v>202500</v>
+        <v>4000</v>
       </c>
       <c r="P570" t="n">
-        <v>201731</v>
+        <v>4000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="T570" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="571">
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46035,41 +46035,41 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="N571" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="O571" t="n">
-        <v>180000</v>
+        <v>3500</v>
       </c>
       <c r="P571" t="n">
-        <v>180000</v>
+        <v>3250</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="T571" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46115,41 +46115,41 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="N572" t="n">
-        <v>160000</v>
+        <v>700</v>
       </c>
       <c r="O572" t="n">
-        <v>180000</v>
+        <v>700</v>
       </c>
       <c r="P572" t="n">
-        <v>174474</v>
+        <v>700</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>388</v>
+        <v>700</v>
       </c>
       <c r="T572" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46195,41 +46195,41 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N573" t="n">
-        <v>157500</v>
+        <v>350</v>
       </c>
       <c r="O573" t="n">
-        <v>157500</v>
+        <v>450</v>
       </c>
       <c r="P573" t="n">
-        <v>157500</v>
+        <v>400</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T573" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N574" t="n">
-        <v>120000</v>
+        <v>202500</v>
       </c>
       <c r="O574" t="n">
-        <v>157500</v>
+        <v>202500</v>
       </c>
       <c r="P574" t="n">
-        <v>138750</v>
+        <v>202500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>308</v>
+        <v>450</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N575" t="n">
-        <v>112500</v>
+        <v>200000</v>
       </c>
       <c r="O575" t="n">
-        <v>135000</v>
+        <v>202500</v>
       </c>
       <c r="P575" t="n">
-        <v>123750</v>
+        <v>201731</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>275</v>
+        <v>448</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,41 +46435,41 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>1320</v>
+        <v>16</v>
       </c>
       <c r="N576" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O576" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P576" t="n">
-        <v>6182</v>
+        <v>180000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>618</v>
+        <v>400</v>
       </c>
       <c r="T576" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="577">
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,29 +46515,29 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>720</v>
+        <v>38</v>
       </c>
       <c r="N577" t="n">
-        <v>3500</v>
+        <v>160000</v>
       </c>
       <c r="O577" t="n">
-        <v>4000</v>
+        <v>180000</v>
       </c>
       <c r="P577" t="n">
-        <v>3750</v>
+        <v>174474</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
@@ -46546,10 +46546,10 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="T577" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="578">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,41 +46595,41 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N578" t="n">
-        <v>1000</v>
+        <v>157500</v>
       </c>
       <c r="O578" t="n">
-        <v>1200</v>
+        <v>157500</v>
       </c>
       <c r="P578" t="n">
-        <v>1100</v>
+        <v>157500</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="T578" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="579">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,32 +46684,32 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N579" t="n">
-        <v>800</v>
+        <v>120000</v>
       </c>
       <c r="O579" t="n">
-        <v>800</v>
+        <v>157500</v>
       </c>
       <c r="P579" t="n">
-        <v>800</v>
+        <v>138750</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>800</v>
+        <v>308</v>
       </c>
       <c r="T579" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="580">
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,29 +46755,29 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>112500</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>123750</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
@@ -46786,10 +46786,10 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1200</v>
+        <v>275</v>
       </c>
       <c r="T580" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>480</v>
+        <v>1320</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P581" t="n">
-        <v>10000</v>
+        <v>6182</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1000</v>
+        <v>618</v>
       </c>
       <c r="T581" t="n">
         <v>10</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,29 +46915,29 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>18</v>
+        <v>720</v>
       </c>
       <c r="N582" t="n">
-        <v>1200</v>
+        <v>3500</v>
       </c>
       <c r="O582" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="P582" t="n">
-        <v>1250</v>
+        <v>3750</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
@@ -46946,10 +46946,10 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1250</v>
+        <v>375</v>
       </c>
       <c r="T582" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583">
@@ -46995,41 +46995,41 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N583" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="O583" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="P583" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T583" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,41 +47075,41 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>720</v>
+        <v>9</v>
       </c>
       <c r="N584" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O584" t="n">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="P584" t="n">
-        <v>7500</v>
+        <v>800</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T584" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="N585" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O585" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P585" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="T585" t="n">
         <v>10</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,32 +47244,32 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="N586" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O586" t="n">
-        <v>190000</v>
+        <v>10000</v>
       </c>
       <c r="P586" t="n">
-        <v>185000</v>
+        <v>10000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>411</v>
+        <v>1000</v>
       </c>
       <c r="T586" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,29 +47315,29 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>480</v>
+        <v>18</v>
       </c>
       <c r="N587" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="O587" t="n">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="P587" t="n">
-        <v>3750</v>
+        <v>1250</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
@@ -47346,10 +47346,10 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>375</v>
+        <v>1250</v>
       </c>
       <c r="T587" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,32 +47404,32 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N588" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="O588" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="P588" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>311</v>
+        <v>800</v>
       </c>
       <c r="T588" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="589">
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N589" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O589" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P589" t="n">
-        <v>2750</v>
+        <v>7500</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>275</v>
+        <v>750</v>
       </c>
       <c r="T589" t="n">
         <v>10</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,36 +47560,36 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>20</v>
+        <v>960</v>
       </c>
       <c r="N590" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="O590" t="n">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="P590" t="n">
-        <v>600</v>
+        <v>5500</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T590" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="591">
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N591" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O591" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P591" t="n">
-        <v>150000</v>
+        <v>185000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47662,11 +47662,11 @@
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="T591" t="n">
         <v>450</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,36 +47720,36 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>27</v>
+        <v>480</v>
       </c>
       <c r="N592" t="n">
-        <v>450</v>
+        <v>3500</v>
       </c>
       <c r="O592" t="n">
-        <v>450</v>
+        <v>4000</v>
       </c>
       <c r="P592" t="n">
-        <v>450</v>
+        <v>3750</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="T592" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N593" t="n">
-        <v>112500</v>
+        <v>140000</v>
       </c>
       <c r="O593" t="n">
-        <v>112500</v>
+        <v>140000</v>
       </c>
       <c r="P593" t="n">
-        <v>112500</v>
+        <v>140000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,36 +47880,36 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N594" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="O594" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="P594" t="n">
-        <v>300</v>
+        <v>2750</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="T594" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="595">
@@ -47960,24 +47960,24 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N595" t="n">
-        <v>90000</v>
+        <v>600</v>
       </c>
       <c r="O595" t="n">
-        <v>90000</v>
+        <v>600</v>
       </c>
       <c r="P595" t="n">
-        <v>90000</v>
+        <v>600</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
@@ -47986,10 +47986,10 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T595" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N596" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="O596" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="P596" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48062,11 +48062,11 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48124,32 +48124,32 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N597" t="n">
-        <v>280000</v>
+        <v>450</v>
       </c>
       <c r="O597" t="n">
-        <v>280000</v>
+        <v>450</v>
       </c>
       <c r="P597" t="n">
-        <v>280000</v>
+        <v>450</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>622</v>
+        <v>450</v>
       </c>
       <c r="T597" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N598" t="n">
-        <v>310000</v>
+        <v>112500</v>
       </c>
       <c r="O598" t="n">
-        <v>310000</v>
+        <v>112500</v>
       </c>
       <c r="P598" t="n">
-        <v>310000</v>
+        <v>112500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48222,11 +48222,11 @@
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S598" t="n">
-        <v>689</v>
+        <v>250</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,41 +48275,41 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N599" t="n">
-        <v>280000</v>
+        <v>300</v>
       </c>
       <c r="O599" t="n">
-        <v>280000</v>
+        <v>300</v>
       </c>
       <c r="P599" t="n">
-        <v>280000</v>
+        <v>300</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S599" t="n">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="T599" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N600" t="n">
-        <v>250000</v>
+        <v>90000</v>
       </c>
       <c r="O600" t="n">
-        <v>250000</v>
+        <v>90000</v>
       </c>
       <c r="P600" t="n">
-        <v>250000</v>
+        <v>90000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48382,11 +48382,11 @@
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S600" t="n">
-        <v>556</v>
+        <v>200</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48444,32 +48444,32 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N601" t="n">
-        <v>6000</v>
+        <v>300000</v>
       </c>
       <c r="O601" t="n">
-        <v>6000</v>
+        <v>300000</v>
       </c>
       <c r="P601" t="n">
-        <v>6000</v>
+        <v>300000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T601" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="602">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N602" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O602" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P602" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48542,11 +48542,11 @@
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T602" t="n">
         <v>450</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,36 +48600,36 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="N603" t="n">
-        <v>5000</v>
+        <v>310000</v>
       </c>
       <c r="O603" t="n">
-        <v>5000</v>
+        <v>310000</v>
       </c>
       <c r="P603" t="n">
-        <v>5000</v>
+        <v>310000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>500</v>
+        <v>689</v>
       </c>
       <c r="T603" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N604" t="n">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="O604" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P604" t="n">
-        <v>165000</v>
+        <v>280000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48702,11 +48702,11 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>367</v>
+        <v>622</v>
       </c>
       <c r="T604" t="n">
         <v>450</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48764,32 +48764,32 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N605" t="n">
-        <v>4000</v>
+        <v>250000</v>
       </c>
       <c r="O605" t="n">
-        <v>4000</v>
+        <v>250000</v>
       </c>
       <c r="P605" t="n">
-        <v>4000</v>
+        <v>250000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T605" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="606">
@@ -48840,36 +48840,36 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N606" t="n">
-        <v>120000</v>
+        <v>6000</v>
       </c>
       <c r="O606" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="P606" t="n">
-        <v>130000</v>
+        <v>6000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>289</v>
+        <v>600</v>
       </c>
       <c r="T606" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="607">
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N607" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O607" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P607" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48995,16 +48995,16 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N608" t="n">
         <v>5000</v>
@@ -49022,7 +49022,7 @@
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S608" t="n">
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,32 +49084,32 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="N609" t="n">
-        <v>4000</v>
+        <v>160000</v>
       </c>
       <c r="O609" t="n">
-        <v>4000</v>
+        <v>170000</v>
       </c>
       <c r="P609" t="n">
-        <v>4000</v>
+        <v>165000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="T609" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="610">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N610" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O610" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P610" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49182,11 +49182,11 @@
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T610" t="n">
         <v>10</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,41 +49235,41 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N611" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O611" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="P611" t="n">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="T611" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,41 +49315,41 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N612" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="O612" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="P612" t="n">
-        <v>3750</v>
+        <v>100000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="T612" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="613">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,16 +49395,16 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N613" t="n">
         <v>5000</v>
@@ -49422,7 +49422,7 @@
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S613" t="n">
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,16 +49475,16 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N614" t="n">
         <v>4000</v>
@@ -49502,7 +49502,7 @@
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S614" t="n">
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N615" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O615" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P615" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T615" t="n">
         <v>10</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,32 +49644,32 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N616" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="O616" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="P616" t="n">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T616" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="617">
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,7 +49715,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
@@ -49724,32 +49724,32 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="N617" t="n">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="O617" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="P617" t="n">
-        <v>500</v>
+        <v>3750</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T617" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="618">
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,32 +49804,32 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="N618" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O618" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="P618" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T618" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="619">
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49884,32 +49884,32 @@
         </is>
       </c>
       <c r="M619" t="n">
+        <v>250</v>
+      </c>
+      <c r="N619" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O619" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P619" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q619" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R619" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S619" t="n">
+        <v>400</v>
+      </c>
+      <c r="T619" t="n">
         <v>10</v>
-      </c>
-      <c r="N619" t="n">
-        <v>135000</v>
-      </c>
-      <c r="O619" t="n">
-        <v>135000</v>
-      </c>
-      <c r="P619" t="n">
-        <v>135000</v>
-      </c>
-      <c r="Q619" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R619" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S619" t="n">
-        <v>300</v>
-      </c>
-      <c r="T619" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,7 +49955,7 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
@@ -49964,32 +49964,32 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N620" t="n">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="O620" t="n">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="P620" t="n">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T620" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,7 +50035,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
@@ -50044,32 +50044,32 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N621" t="n">
-        <v>210000</v>
+        <v>800</v>
       </c>
       <c r="O621" t="n">
-        <v>210000</v>
+        <v>1000</v>
       </c>
       <c r="P621" t="n">
-        <v>210000</v>
+        <v>900</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>467</v>
+        <v>900</v>
       </c>
       <c r="T621" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50124,32 +50124,32 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N622" t="n">
-        <v>170000</v>
+        <v>500</v>
       </c>
       <c r="O622" t="n">
-        <v>170000</v>
+        <v>500</v>
       </c>
       <c r="P622" t="n">
-        <v>170000</v>
+        <v>500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="T622" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,41 +50195,41 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="N623" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="O623" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P623" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T623" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,41 +50275,41 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N624" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="O624" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P624" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T624" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,41 +50355,41 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M625" t="n">
+        <v>8</v>
+      </c>
+      <c r="N625" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O625" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P625" t="n">
+        <v>90000</v>
+      </c>
+      <c r="Q625" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S625" t="n">
         <v>200</v>
       </c>
-      <c r="N625" t="n">
-        <v>5000</v>
-      </c>
-      <c r="O625" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P625" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q625" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R625" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S625" t="n">
-        <v>500</v>
-      </c>
       <c r="T625" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="626">
@@ -50435,41 +50435,41 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N626" t="n">
-        <v>4000</v>
+        <v>210000</v>
       </c>
       <c r="O626" t="n">
-        <v>4000</v>
+        <v>210000</v>
       </c>
       <c r="P626" t="n">
-        <v>4000</v>
+        <v>210000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="T626" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="627">
@@ -50515,7 +50515,7 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -50524,20 +50524,20 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N627" t="n">
-        <v>4000</v>
+        <v>170000</v>
       </c>
       <c r="O627" t="n">
-        <v>4000</v>
+        <v>170000</v>
       </c>
       <c r="P627" t="n">
-        <v>4000</v>
+        <v>170000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
@@ -50546,10 +50546,10 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T627" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="628">
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N628" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O628" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P628" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50622,11 +50622,11 @@
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T628" t="n">
         <v>10</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,36 +50680,36 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N629" t="n">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="O629" t="n">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="P629" t="n">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S629" t="n">
         <v>600</v>
       </c>
       <c r="T629" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,32 +50764,32 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="N630" t="n">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="O630" t="n">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="P630" t="n">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>356</v>
+        <v>500</v>
       </c>
       <c r="T630" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="631">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,36 +50840,36 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N631" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="O631" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="P631" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T631" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50924,32 +50924,32 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N632" t="n">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="O632" t="n">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="P632" t="n">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="T632" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,36 +51000,36 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N633" t="n">
-        <v>350</v>
+        <v>3000</v>
       </c>
       <c r="O633" t="n">
-        <v>350</v>
+        <v>3000</v>
       </c>
       <c r="P633" t="n">
-        <v>350</v>
+        <v>3000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="T633" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="634">
@@ -51080,36 +51080,36 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N634" t="n">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="O634" t="n">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="P634" t="n">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>156</v>
+        <v>600</v>
       </c>
       <c r="T634" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,41 +51155,41 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N635" t="n">
-        <v>1300</v>
+        <v>160000</v>
       </c>
       <c r="O635" t="n">
-        <v>1300</v>
+        <v>160000</v>
       </c>
       <c r="P635" t="n">
-        <v>1300</v>
+        <v>160000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1300</v>
+        <v>356</v>
       </c>
       <c r="T635" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51247,13 +51247,13 @@
         <v>20</v>
       </c>
       <c r="N636" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O636" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P636" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51262,11 +51262,11 @@
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T636" t="n">
         <v>1</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N637" t="n">
-        <v>290000</v>
+        <v>115000</v>
       </c>
       <c r="O637" t="n">
-        <v>310000</v>
+        <v>115000</v>
       </c>
       <c r="P637" t="n">
-        <v>300000</v>
+        <v>115000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51342,11 +51342,11 @@
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>667</v>
+        <v>256</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,41 +51395,41 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
+        <v>20</v>
+      </c>
+      <c r="N638" t="n">
         <v>350</v>
       </c>
-      <c r="N638" t="n">
-        <v>4000</v>
-      </c>
       <c r="O638" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="P638" t="n">
-        <v>4500</v>
+        <v>350</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="T638" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N639" t="n">
-        <v>135000</v>
+        <v>70000</v>
       </c>
       <c r="O639" t="n">
-        <v>140000</v>
+        <v>70000</v>
       </c>
       <c r="P639" t="n">
-        <v>137500</v>
+        <v>70000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51502,11 +51502,11 @@
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S639" t="n">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,41 +51555,41 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N640" t="n">
-        <v>135000</v>
+        <v>1300</v>
       </c>
       <c r="O640" t="n">
-        <v>145000</v>
+        <v>1300</v>
       </c>
       <c r="P640" t="n">
-        <v>139000</v>
+        <v>1300</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>309</v>
+        <v>1300</v>
       </c>
       <c r="T640" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,41 +51635,41 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="N641" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="O641" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="P641" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T641" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N642" t="n">
-        <v>120000</v>
+        <v>290000</v>
       </c>
       <c r="O642" t="n">
-        <v>120000</v>
+        <v>310000</v>
       </c>
       <c r="P642" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>267</v>
+        <v>667</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51800,36 +51800,36 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="N643" t="n">
-        <v>112500</v>
+        <v>4000</v>
       </c>
       <c r="O643" t="n">
-        <v>125000</v>
+        <v>5000</v>
       </c>
       <c r="P643" t="n">
-        <v>120455</v>
+        <v>4500</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>268</v>
+        <v>450</v>
       </c>
       <c r="T643" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="644">
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="O644" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="P644" t="n">
-        <v>85000</v>
+        <v>137500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,41 +51955,41 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N645" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>145000</v>
       </c>
       <c r="P645" t="n">
-        <v>10000</v>
+        <v>139000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>1000</v>
+        <v>309</v>
       </c>
       <c r="T645" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="N646" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O646" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P646" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T646" t="n">
         <v>10</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N647" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O647" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P647" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52142,11 +52142,11 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N648" t="n">
-        <v>125000</v>
+        <v>112500</v>
       </c>
       <c r="O648" t="n">
         <v>125000</v>
       </c>
       <c r="P648" t="n">
-        <v>125000</v>
+        <v>120455</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52284,16 +52284,16 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N649" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="O649" t="n">
         <v>90000</v>
       </c>
       <c r="P649" t="n">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52302,11 +52302,11 @@
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52364,16 +52364,16 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N650" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O650" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P650" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T650" t="n">
         <v>10</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="N651" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O651" t="n">
         <v>8000</v>
       </c>
       <c r="P651" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T651" t="n">
         <v>10</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,41 +52515,41 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="N652" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="O652" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="P652" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>500</v>
+        <v>378</v>
       </c>
       <c r="T652" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N653" t="n">
-        <v>170000</v>
+        <v>125000</v>
       </c>
       <c r="O653" t="n">
-        <v>170000</v>
+        <v>125000</v>
       </c>
       <c r="P653" t="n">
-        <v>170000</v>
+        <v>125000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52622,11 +52622,11 @@
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N654" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="O654" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="P654" t="n">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52702,11 +52702,11 @@
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,29 +52755,29 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>22</v>
+        <v>450</v>
       </c>
       <c r="N655" t="n">
-        <v>120000</v>
+        <v>11000</v>
       </c>
       <c r="O655" t="n">
-        <v>120000</v>
+        <v>11000</v>
       </c>
       <c r="P655" t="n">
-        <v>120000</v>
+        <v>11000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
@@ -52786,10 +52786,10 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>267</v>
+        <v>1100</v>
       </c>
       <c r="T655" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,25 +52835,25 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>480</v>
+        <v>750</v>
       </c>
       <c r="N656" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O656" t="n">
         <v>8000</v>
       </c>
       <c r="P656" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T656" t="n">
         <v>10</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,41 +52915,41 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
+        <v>600</v>
+      </c>
+      <c r="N657" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O657" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P657" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q657" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R657" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S657" t="n">
+        <v>500</v>
+      </c>
+      <c r="T657" t="n">
         <v>10</v>
-      </c>
-      <c r="N657" t="n">
-        <v>600</v>
-      </c>
-      <c r="O657" t="n">
-        <v>600</v>
-      </c>
-      <c r="P657" t="n">
-        <v>600</v>
-      </c>
-      <c r="Q657" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R657" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S657" t="n">
-        <v>600</v>
-      </c>
-      <c r="T657" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,36 +53000,36 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>960</v>
+        <v>15</v>
       </c>
       <c r="N658" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="O658" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="P658" t="n">
-        <v>5500</v>
+        <v>170000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>550</v>
+        <v>378</v>
       </c>
       <c r="T658" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53087,29 +53087,29 @@
         <v>25</v>
       </c>
       <c r="N659" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O659" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P659" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q659" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R659" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S659" t="n">
+        <v>333</v>
+      </c>
+      <c r="T659" t="n">
         <v>450</v>
-      </c>
-      <c r="O659" t="n">
-        <v>450</v>
-      </c>
-      <c r="P659" t="n">
-        <v>450</v>
-      </c>
-      <c r="Q659" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R659" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S659" t="n">
-        <v>450</v>
-      </c>
-      <c r="T659" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,32 +53164,32 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>480</v>
+        <v>22</v>
       </c>
       <c r="N660" t="n">
-        <v>3000</v>
+        <v>120000</v>
       </c>
       <c r="O660" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="P660" t="n">
-        <v>3500</v>
+        <v>120000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="T660" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="661">
@@ -53240,24 +53240,24 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N661" t="n">
-        <v>350</v>
+        <v>7000</v>
       </c>
       <c r="O661" t="n">
-        <v>350</v>
+        <v>8000</v>
       </c>
       <c r="P661" t="n">
-        <v>350</v>
+        <v>7500</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
@@ -53266,10 +53266,10 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="T661" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="662">
@@ -53320,24 +53320,24 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N662" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="O662" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="P662" t="n">
-        <v>2250</v>
+        <v>600</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
@@ -53346,10 +53346,10 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>225</v>
+        <v>600</v>
       </c>
       <c r="T662" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>240</v>
+        <v>960</v>
       </c>
       <c r="N663" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O663" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P663" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="T663" t="n">
         <v>10</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N664" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="O664" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="P664" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="T664" t="n">
         <v>1</v>
@@ -53555,7 +53555,7 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
@@ -53564,20 +53564,20 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N665" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="O665" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="P665" t="n">
-        <v>400</v>
+        <v>3500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
@@ -53586,10 +53586,10 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="T665" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="666">
@@ -53635,29 +53635,29 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N666" t="n">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="O666" t="n">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="P666" t="n">
-        <v>8000</v>
+        <v>350</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
@@ -53666,10 +53666,10 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="T666" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N667" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O667" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P667" t="n">
-        <v>6000</v>
+        <v>2250</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>600</v>
+        <v>225</v>
       </c>
       <c r="T667" t="n">
         <v>10</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N668" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O668" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P668" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="T668" t="n">
         <v>10</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,29 +53875,29 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="N669" t="n">
-        <v>6000</v>
+        <v>550</v>
       </c>
       <c r="O669" t="n">
-        <v>6000</v>
+        <v>550</v>
       </c>
       <c r="P669" t="n">
-        <v>6000</v>
+        <v>550</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
@@ -53906,10 +53906,10 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T669" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,29 +53955,29 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="N670" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="O670" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="P670" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
@@ -53986,10 +53986,10 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T670" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,41 +54035,41 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N671" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O671" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P671" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T671" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672">
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N672" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O672" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P672" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T672" t="n">
         <v>10</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,32 +54204,32 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N673" t="n">
-        <v>135000</v>
+        <v>4000</v>
       </c>
       <c r="O673" t="n">
-        <v>135000</v>
+        <v>4000</v>
       </c>
       <c r="P673" t="n">
-        <v>135000</v>
+        <v>4000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T673" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674">
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N674" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O674" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P674" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T674" t="n">
         <v>10</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,36 +54360,36 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="N675" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="O675" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="P675" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T675" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="676">
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54444,32 +54444,32 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N676" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O676" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P676" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q676" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R676" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S676" t="n">
         <v>400</v>
       </c>
-      <c r="O676" t="n">
-        <v>500</v>
-      </c>
-      <c r="P676" t="n">
+      <c r="T676" t="n">
         <v>450</v>
-      </c>
-      <c r="Q676" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R676" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S676" t="n">
-        <v>450</v>
-      </c>
-      <c r="T676" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44211</v>
+        <v>44376</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,41 +54515,41 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N677" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="O677" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="P677" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T677" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44211</v>
+        <v>44376</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -54604,16 +54604,16 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N678" t="n">
-        <v>240000</v>
+        <v>135000</v>
       </c>
       <c r="O678" t="n">
-        <v>240000</v>
+        <v>135000</v>
       </c>
       <c r="P678" t="n">
-        <v>240000</v>
+        <v>135000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54622,11 +54622,11 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>533</v>
+        <v>300</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N679" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O679" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P679" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T679" t="n">
         <v>10</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,41 +54755,41 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>640</v>
+        <v>15</v>
       </c>
       <c r="N680" t="n">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="O680" t="n">
-        <v>6000</v>
+        <v>700</v>
       </c>
       <c r="P680" t="n">
-        <v>5500</v>
+        <v>700</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T680" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,7 +54835,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -54844,32 +54844,32 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N681" t="n">
-        <v>180000</v>
+        <v>400</v>
       </c>
       <c r="O681" t="n">
-        <v>202000</v>
+        <v>500</v>
       </c>
       <c r="P681" t="n">
-        <v>186000</v>
+        <v>450</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="T681" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,41 +54915,41 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="N682" t="n">
-        <v>3500</v>
+        <v>300000</v>
       </c>
       <c r="O682" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="P682" t="n">
-        <v>3750</v>
+        <v>300000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>375</v>
+        <v>667</v>
       </c>
       <c r="T682" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N683" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="O683" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P683" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55022,11 +55022,11 @@
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>356</v>
+        <v>533</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55080,36 +55080,36 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="N684" t="n">
-        <v>125000</v>
+        <v>7000</v>
       </c>
       <c r="O684" t="n">
-        <v>125000</v>
+        <v>8000</v>
       </c>
       <c r="P684" t="n">
-        <v>125000</v>
+        <v>7500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>278</v>
+        <v>750</v>
       </c>
       <c r="T684" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="685">
@@ -55155,40 +55155,440 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M685" t="n">
+        <v>640</v>
+      </c>
+      <c r="N685" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O685" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P685" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q685" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R685" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S685" t="n">
+        <v>550</v>
+      </c>
+      <c r="T685" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>6</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D686" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E686" t="n">
+        <v>13</v>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G686" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I686" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M686" t="n">
+        <v>22</v>
+      </c>
+      <c r="N686" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O686" t="n">
+        <v>202000</v>
+      </c>
+      <c r="P686" t="n">
+        <v>186000</v>
+      </c>
+      <c r="Q686" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S686" t="n">
+        <v>413</v>
+      </c>
+      <c r="T686" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>6</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D687" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E687" t="n">
+        <v>13</v>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G687" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I687" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M687" t="n">
+        <v>480</v>
+      </c>
+      <c r="N687" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O687" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P687" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q687" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S687" t="n">
+        <v>375</v>
+      </c>
+      <c r="T687" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>6</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E688" t="n">
+        <v>13</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G688" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I688" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M688" t="n">
+        <v>12</v>
+      </c>
+      <c r="N688" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O688" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P688" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q688" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R688" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S688" t="n">
+        <v>356</v>
+      </c>
+      <c r="T688" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>6</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D689" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E689" t="n">
+        <v>13</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M689" t="n">
+        <v>8</v>
+      </c>
+      <c r="N689" t="n">
+        <v>125000</v>
+      </c>
+      <c r="O689" t="n">
+        <v>125000</v>
+      </c>
+      <c r="P689" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q689" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R689" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S689" t="n">
+        <v>278</v>
+      </c>
+      <c r="T689" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>6</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D690" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E690" t="n">
+        <v>13</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G690" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I690" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
           <t>Tango</t>
         </is>
       </c>
-      <c r="L685" t="inlineStr">
+      <c r="L690" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M685" t="n">
+      <c r="M690" t="n">
         <v>832</v>
       </c>
-      <c r="N685" t="n">
+      <c r="N690" t="n">
         <v>6500</v>
       </c>
-      <c r="O685" t="n">
+      <c r="O690" t="n">
         <v>6500</v>
       </c>
-      <c r="P685" t="n">
+      <c r="P690" t="n">
         <v>6500</v>
       </c>
-      <c r="Q685" t="inlineStr">
+      <c r="Q690" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R685" t="inlineStr">
+      <c r="R690" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S685" t="n">
+      <c r="S690" t="n">
         <v>650</v>
       </c>
-      <c r="T685" t="n">
+      <c r="T690" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T690"/>
+  <dimension ref="A1:T693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44265</v>
+        <v>44466</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N518" t="n">
-        <v>290000</v>
+        <v>150000</v>
       </c>
       <c r="O518" t="n">
-        <v>290000</v>
+        <v>150000</v>
       </c>
       <c r="P518" t="n">
-        <v>290000</v>
+        <v>150000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41822,11 +41822,11 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>644</v>
+        <v>333</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44265</v>
+        <v>44466</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N519" t="n">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="O519" t="n">
-        <v>240000</v>
+        <v>135000</v>
       </c>
       <c r="P519" t="n">
-        <v>240000</v>
+        <v>127500</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>533</v>
+        <v>283</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44343</v>
+        <v>44466</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N520" t="n">
-        <v>315000</v>
+        <v>100000</v>
       </c>
       <c r="O520" t="n">
-        <v>360000</v>
+        <v>100000</v>
       </c>
       <c r="P520" t="n">
-        <v>337500</v>
+        <v>100000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>750</v>
+        <v>222</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N521" t="n">
-        <v>225000</v>
+        <v>290000</v>
       </c>
       <c r="O521" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="P521" t="n">
-        <v>247500</v>
+        <v>290000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42062,11 +42062,11 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,41 +42115,41 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N522" t="n">
-        <v>600</v>
+        <v>240000</v>
       </c>
       <c r="O522" t="n">
-        <v>700</v>
+        <v>240000</v>
       </c>
       <c r="P522" t="n">
-        <v>650</v>
+        <v>240000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="T522" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="523">
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N523" t="n">
-        <v>150000</v>
+        <v>315000</v>
       </c>
       <c r="O523" t="n">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="P523" t="n">
-        <v>165000</v>
+        <v>337500</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>367</v>
+        <v>750</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42280,36 +42280,36 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N524" t="n">
-        <v>400</v>
+        <v>225000</v>
       </c>
       <c r="O524" t="n">
-        <v>400</v>
+        <v>270000</v>
       </c>
       <c r="P524" t="n">
-        <v>400</v>
+        <v>247500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T524" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="525">
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,32 +42364,32 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N525" t="n">
-        <v>247500</v>
+        <v>600</v>
       </c>
       <c r="O525" t="n">
-        <v>247500</v>
+        <v>700</v>
       </c>
       <c r="P525" t="n">
-        <v>247500</v>
+        <v>650</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T525" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N526" t="n">
-        <v>310000</v>
+        <v>150000</v>
       </c>
       <c r="O526" t="n">
-        <v>310000</v>
+        <v>180000</v>
       </c>
       <c r="P526" t="n">
-        <v>310000</v>
+        <v>165000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42462,11 +42462,11 @@
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>689</v>
+        <v>367</v>
       </c>
       <c r="T526" t="n">
         <v>450</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42515,41 +42515,41 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N527" t="n">
-        <v>270000</v>
+        <v>400</v>
       </c>
       <c r="O527" t="n">
-        <v>270000</v>
+        <v>400</v>
       </c>
       <c r="P527" t="n">
-        <v>270000</v>
+        <v>400</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T527" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42595,29 +42595,29 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="N528" t="n">
-        <v>5000</v>
+        <v>247500</v>
       </c>
       <c r="O528" t="n">
-        <v>5000</v>
+        <v>247500</v>
       </c>
       <c r="P528" t="n">
-        <v>5000</v>
+        <v>247500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
@@ -42626,10 +42626,10 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T528" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="529">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,36 +42680,36 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>480</v>
+        <v>9</v>
       </c>
       <c r="N529" t="n">
-        <v>4000</v>
+        <v>310000</v>
       </c>
       <c r="O529" t="n">
-        <v>4000</v>
+        <v>310000</v>
       </c>
       <c r="P529" t="n">
-        <v>4000</v>
+        <v>310000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>400</v>
+        <v>689</v>
       </c>
       <c r="T529" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N530" t="n">
-        <v>130000</v>
+        <v>270000</v>
       </c>
       <c r="O530" t="n">
-        <v>140000</v>
+        <v>270000</v>
       </c>
       <c r="P530" t="n">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T530" t="n">
         <v>450</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M531" t="n">
         <v>360</v>
       </c>
       <c r="N531" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O531" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P531" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T531" t="n">
         <v>10</v>
@@ -42920,36 +42920,36 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N532" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="O532" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="P532" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T532" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="533">
@@ -43000,36 +43000,36 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="N533" t="n">
-        <v>2000</v>
+        <v>130000</v>
       </c>
       <c r="O533" t="n">
-        <v>2000</v>
+        <v>140000</v>
       </c>
       <c r="P533" t="n">
-        <v>2000</v>
+        <v>135000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T533" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,36 +43080,36 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>8</v>
+        <v>360</v>
       </c>
       <c r="N534" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="O534" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="P534" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="T534" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535">
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,36 +43160,36 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
         <v>15</v>
       </c>
       <c r="N535" t="n">
-        <v>700</v>
+        <v>90000</v>
       </c>
       <c r="O535" t="n">
-        <v>700</v>
+        <v>90000</v>
       </c>
       <c r="P535" t="n">
-        <v>700</v>
+        <v>90000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="T535" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,36 +43240,36 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="N536" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="O536" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="P536" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T536" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,41 +43315,41 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N537" t="n">
-        <v>12000</v>
+        <v>1100</v>
       </c>
       <c r="O537" t="n">
-        <v>12000</v>
+        <v>1100</v>
       </c>
       <c r="P537" t="n">
-        <v>12000</v>
+        <v>1100</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T537" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44187</v>
+        <v>44270</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,32 +43404,32 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N538" t="n">
-        <v>14000</v>
+        <v>700</v>
       </c>
       <c r="O538" t="n">
-        <v>14000</v>
+        <v>700</v>
       </c>
       <c r="P538" t="n">
-        <v>14000</v>
+        <v>700</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T538" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44390</v>
+        <v>44270</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,41 +43475,41 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="N539" t="n">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="O539" t="n">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="P539" t="n">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T539" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N540" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O540" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P540" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T540" t="n">
         <v>10</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,32 +43644,32 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N541" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="O541" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="P541" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>400</v>
+        <v>933</v>
       </c>
       <c r="T541" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="542">
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N542" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O542" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P542" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T542" t="n">
         <v>10</v>
@@ -43800,36 +43800,36 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="N543" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="O543" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="P543" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T543" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43875,41 +43875,41 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="N544" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="O544" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P544" t="n">
-        <v>7500</v>
+        <v>180000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T544" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="545">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N545" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O545" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P545" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43982,11 +43982,11 @@
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="T545" t="n">
         <v>10</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,32 +44044,32 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N546" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="O546" t="n">
-        <v>4500</v>
+        <v>135000</v>
       </c>
       <c r="P546" t="n">
-        <v>4250</v>
+        <v>135000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="T546" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="547">
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M547" t="n">
         <v>120</v>
       </c>
       <c r="N547" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O547" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P547" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>325</v>
+        <v>750</v>
       </c>
       <c r="T547" t="n">
         <v>10</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N548" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O548" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P548" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="T548" t="n">
         <v>10</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,41 +44275,41 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
+        <v>120</v>
+      </c>
+      <c r="N549" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O549" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P549" t="n">
+        <v>4250</v>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S549" t="n">
+        <v>425</v>
+      </c>
+      <c r="T549" t="n">
         <v>10</v>
-      </c>
-      <c r="N549" t="n">
-        <v>310000</v>
-      </c>
-      <c r="O549" t="n">
-        <v>310000</v>
-      </c>
-      <c r="P549" t="n">
-        <v>310000</v>
-      </c>
-      <c r="Q549" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R549" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S549" t="n">
-        <v>689</v>
-      </c>
-      <c r="T549" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44355,41 +44355,41 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M550" t="n">
+        <v>120</v>
+      </c>
+      <c r="N550" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O550" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P550" t="n">
+        <v>3250</v>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S550" t="n">
+        <v>325</v>
+      </c>
+      <c r="T550" t="n">
         <v>10</v>
-      </c>
-      <c r="N550" t="n">
-        <v>250000</v>
-      </c>
-      <c r="O550" t="n">
-        <v>250000</v>
-      </c>
-      <c r="P550" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Q550" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R550" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S550" t="n">
-        <v>556</v>
-      </c>
-      <c r="T550" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,32 +44444,32 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N551" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="O551" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P551" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>289</v>
+        <v>1200</v>
       </c>
       <c r="T551" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,20 +44524,20 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="N552" t="n">
-        <v>4500</v>
+        <v>310000</v>
       </c>
       <c r="O552" t="n">
-        <v>4500</v>
+        <v>310000</v>
       </c>
       <c r="P552" t="n">
-        <v>4500</v>
+        <v>310000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
@@ -44546,10 +44546,10 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>375</v>
+        <v>689</v>
       </c>
       <c r="T552" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N553" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O553" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="P553" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44680,36 +44680,36 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="N554" t="n">
-        <v>4000</v>
+        <v>130000</v>
       </c>
       <c r="O554" t="n">
-        <v>4000</v>
+        <v>130000</v>
       </c>
       <c r="P554" t="n">
-        <v>4000</v>
+        <v>130000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="T554" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="555">
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="N555" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O555" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P555" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="T555" t="n">
         <v>12</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,36 +44840,36 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="N556" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="O556" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="P556" t="n">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>900</v>
+        <v>222</v>
       </c>
       <c r="T556" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="557">
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,32 +44924,32 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N557" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O557" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P557" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T557" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="558">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,36 +45000,36 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="N558" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="O558" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="P558" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="T558" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="559">
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="N559" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O559" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P559" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T559" t="n">
         <v>10</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,36 +45160,36 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="N560" t="n">
-        <v>300000</v>
+        <v>6000</v>
       </c>
       <c r="O560" t="n">
-        <v>315000</v>
+        <v>6000</v>
       </c>
       <c r="P560" t="n">
-        <v>306429</v>
+        <v>6000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>681</v>
+        <v>600</v>
       </c>
       <c r="T560" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="561">
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N561" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O561" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P561" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T561" t="n">
         <v>10</v>
@@ -45320,36 +45320,36 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="N562" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O562" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="P562" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T562" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="563">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45395,41 +45395,41 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="N563" t="n">
-        <v>7000</v>
+        <v>300000</v>
       </c>
       <c r="O563" t="n">
-        <v>7000</v>
+        <v>315000</v>
       </c>
       <c r="P563" t="n">
-        <v>7000</v>
+        <v>306429</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="T563" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N564" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O564" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P564" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T564" t="n">
         <v>10</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45555,41 +45555,41 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N565" t="n">
-        <v>600</v>
+        <v>250000</v>
       </c>
       <c r="O565" t="n">
-        <v>600</v>
+        <v>250000</v>
       </c>
       <c r="P565" t="n">
-        <v>600</v>
+        <v>250000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T565" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="566">
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="N566" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O566" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P566" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="T566" t="n">
         <v>10</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N567" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O567" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P567" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="T567" t="n">
         <v>10</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N568" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="O568" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P568" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="T568" t="n">
         <v>1</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="N569" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O569" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P569" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="T569" t="n">
         <v>10</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N570" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O570" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P570" t="n">
-        <v>4000</v>
+        <v>6750</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="T570" t="n">
         <v>10</v>
@@ -46040,36 +46040,36 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="N571" t="n">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="O571" t="n">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="P571" t="n">
-        <v>3250</v>
+        <v>475</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="T571" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -46115,41 +46115,41 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="N572" t="n">
-        <v>700</v>
+        <v>4500</v>
       </c>
       <c r="O572" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="P572" t="n">
-        <v>700</v>
+        <v>4750</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>700</v>
+        <v>475</v>
       </c>
       <c r="T572" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573">
@@ -46195,41 +46195,41 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N573" t="n">
-        <v>350</v>
+        <v>4000</v>
       </c>
       <c r="O573" t="n">
-        <v>450</v>
+        <v>4000</v>
       </c>
       <c r="P573" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S573" t="n">
         <v>400</v>
       </c>
       <c r="T573" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="574">
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46275,41 +46275,41 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N574" t="n">
-        <v>202500</v>
+        <v>3000</v>
       </c>
       <c r="O574" t="n">
-        <v>202500</v>
+        <v>3500</v>
       </c>
       <c r="P574" t="n">
-        <v>202500</v>
+        <v>3250</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="T574" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="575">
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,32 +46364,32 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="N575" t="n">
-        <v>200000</v>
+        <v>700</v>
       </c>
       <c r="O575" t="n">
-        <v>202500</v>
+        <v>700</v>
       </c>
       <c r="P575" t="n">
-        <v>201731</v>
+        <v>700</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>448</v>
+        <v>700</v>
       </c>
       <c r="T575" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,32 +46444,32 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N576" t="n">
-        <v>180000</v>
+        <v>350</v>
       </c>
       <c r="O576" t="n">
-        <v>180000</v>
+        <v>450</v>
       </c>
       <c r="P576" t="n">
-        <v>180000</v>
+        <v>400</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S576" t="n">
         <v>400</v>
       </c>
       <c r="T576" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N577" t="n">
-        <v>160000</v>
+        <v>202500</v>
       </c>
       <c r="O577" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="P577" t="n">
-        <v>174474</v>
+        <v>202500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="T577" t="n">
         <v>450</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N578" t="n">
-        <v>157500</v>
+        <v>200000</v>
       </c>
       <c r="O578" t="n">
-        <v>157500</v>
+        <v>202500</v>
       </c>
       <c r="P578" t="n">
-        <v>157500</v>
+        <v>201731</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N579" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O579" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="P579" t="n">
-        <v>138750</v>
+        <v>180000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="T579" t="n">
         <v>450</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N580" t="n">
-        <v>112500</v>
+        <v>160000</v>
       </c>
       <c r="O580" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P580" t="n">
-        <v>123750</v>
+        <v>174474</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,41 +46835,41 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1320</v>
+        <v>8</v>
       </c>
       <c r="N581" t="n">
-        <v>5000</v>
+        <v>157500</v>
       </c>
       <c r="O581" t="n">
-        <v>8000</v>
+        <v>157500</v>
       </c>
       <c r="P581" t="n">
-        <v>6182</v>
+        <v>157500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>618</v>
+        <v>350</v>
       </c>
       <c r="T581" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="582">
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,20 +46924,20 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>720</v>
+        <v>24</v>
       </c>
       <c r="N582" t="n">
-        <v>3500</v>
+        <v>120000</v>
       </c>
       <c r="O582" t="n">
-        <v>4000</v>
+        <v>157500</v>
       </c>
       <c r="P582" t="n">
-        <v>3750</v>
+        <v>138750</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
@@ -46946,10 +46946,10 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="T582" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="583">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,41 +46995,41 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N583" t="n">
-        <v>1000</v>
+        <v>112500</v>
       </c>
       <c r="O583" t="n">
-        <v>1200</v>
+        <v>135000</v>
       </c>
       <c r="P583" t="n">
-        <v>1100</v>
+        <v>123750</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1100</v>
+        <v>275</v>
       </c>
       <c r="T583" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="584">
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,41 +47075,41 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>9</v>
+        <v>1320</v>
       </c>
       <c r="N584" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="O584" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="P584" t="n">
-        <v>800</v>
+        <v>6182</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>800</v>
+        <v>618</v>
       </c>
       <c r="T584" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="585">
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="N585" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O585" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P585" t="n">
-        <v>12000</v>
+        <v>3750</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1200</v>
+        <v>375</v>
       </c>
       <c r="T585" t="n">
         <v>10</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,32 +47244,32 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N586" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O586" t="n">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="P586" t="n">
-        <v>10000</v>
+        <v>1100</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T586" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N587" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="O587" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="P587" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47342,11 +47342,11 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T587" t="n">
         <v>1</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N588" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O588" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P588" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T588" t="n">
         <v>10</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="N589" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O589" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P589" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T589" t="n">
         <v>10</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,20 +47564,20 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>960</v>
+        <v>18</v>
       </c>
       <c r="N590" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="O590" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="P590" t="n">
-        <v>5500</v>
+        <v>1250</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
@@ -47586,10 +47586,10 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="T590" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,41 +47635,41 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="N591" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O591" t="n">
-        <v>190000</v>
+        <v>8000</v>
       </c>
       <c r="P591" t="n">
-        <v>185000</v>
+        <v>8000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>411</v>
+        <v>800</v>
       </c>
       <c r="T591" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592">
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="N592" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O592" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P592" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="T592" t="n">
         <v>10</v>
@@ -47800,36 +47800,36 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>20</v>
+        <v>960</v>
       </c>
       <c r="N593" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="O593" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="P593" t="n">
-        <v>140000</v>
+        <v>5500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>311</v>
+        <v>550</v>
       </c>
       <c r="T593" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="594">
@@ -47880,36 +47880,36 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N594" t="n">
-        <v>2500</v>
+        <v>180000</v>
       </c>
       <c r="O594" t="n">
-        <v>3000</v>
+        <v>190000</v>
       </c>
       <c r="P594" t="n">
-        <v>2750</v>
+        <v>185000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="T594" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="595">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,36 +47960,36 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N595" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="O595" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="P595" t="n">
-        <v>600</v>
+        <v>3750</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="T595" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N596" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O596" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P596" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48062,11 +48062,11 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,36 +48120,36 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="N597" t="n">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="O597" t="n">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="P597" t="n">
-        <v>450</v>
+        <v>2750</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="T597" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="598">
@@ -48200,24 +48200,24 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N598" t="n">
-        <v>112500</v>
+        <v>600</v>
       </c>
       <c r="O598" t="n">
-        <v>112500</v>
+        <v>600</v>
       </c>
       <c r="P598" t="n">
-        <v>112500</v>
+        <v>600</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R598" t="inlineStr">
@@ -48226,10 +48226,10 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="T598" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -48280,24 +48280,24 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N599" t="n">
-        <v>300</v>
+        <v>150000</v>
       </c>
       <c r="O599" t="n">
-        <v>300</v>
+        <v>150000</v>
       </c>
       <c r="P599" t="n">
-        <v>300</v>
+        <v>150000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R599" t="inlineStr">
@@ -48306,10 +48306,10 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="T599" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="600">
@@ -48360,24 +48360,24 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N600" t="n">
-        <v>90000</v>
+        <v>450</v>
       </c>
       <c r="O600" t="n">
-        <v>90000</v>
+        <v>450</v>
       </c>
       <c r="P600" t="n">
-        <v>90000</v>
+        <v>450</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
@@ -48386,10 +48386,10 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="T600" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N601" t="n">
-        <v>300000</v>
+        <v>112500</v>
       </c>
       <c r="O601" t="n">
-        <v>300000</v>
+        <v>112500</v>
       </c>
       <c r="P601" t="n">
-        <v>300000</v>
+        <v>112500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48462,11 +48462,11 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>667</v>
+        <v>250</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,41 +48515,41 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N602" t="n">
-        <v>280000</v>
+        <v>300</v>
       </c>
       <c r="O602" t="n">
-        <v>280000</v>
+        <v>300</v>
       </c>
       <c r="P602" t="n">
-        <v>280000</v>
+        <v>300</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="T602" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N603" t="n">
-        <v>310000</v>
+        <v>90000</v>
       </c>
       <c r="O603" t="n">
-        <v>310000</v>
+        <v>90000</v>
       </c>
       <c r="P603" t="n">
-        <v>310000</v>
+        <v>90000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48622,11 +48622,11 @@
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>689</v>
+        <v>200</v>
       </c>
       <c r="T603" t="n">
         <v>450</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N604" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O604" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P604" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T604" t="n">
         <v>450</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M605" t="n">
         <v>15</v>
       </c>
       <c r="N605" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O605" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P605" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48844,32 +48844,32 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="N606" t="n">
-        <v>6000</v>
+        <v>310000</v>
       </c>
       <c r="O606" t="n">
-        <v>6000</v>
+        <v>310000</v>
       </c>
       <c r="P606" t="n">
-        <v>6000</v>
+        <v>310000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="T606" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="607">
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N607" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O607" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P607" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,36 +49000,36 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="N608" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="O608" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="P608" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T608" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="609">
@@ -49080,36 +49080,36 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N609" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="O609" t="n">
-        <v>170000</v>
+        <v>6000</v>
       </c>
       <c r="P609" t="n">
-        <v>165000</v>
+        <v>6000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="T609" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610">
@@ -49160,36 +49160,36 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N610" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="O610" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="P610" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T610" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="611">
@@ -49240,36 +49240,36 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="N611" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="O611" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="P611" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>289</v>
+        <v>500</v>
       </c>
       <c r="T611" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612">
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N612" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O612" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="P612" t="n">
-        <v>100000</v>
+        <v>165000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N613" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O613" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P613" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49422,11 +49422,11 @@
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T613" t="n">
         <v>10</v>
@@ -49475,41 +49475,41 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N614" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O614" t="n">
-        <v>4000</v>
+        <v>140000</v>
       </c>
       <c r="P614" t="n">
-        <v>4000</v>
+        <v>130000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S614" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T614" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="615">
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,41 +49555,41 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N615" t="n">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="O615" t="n">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="P615" t="n">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>600</v>
+        <v>222</v>
       </c>
       <c r="T615" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="616">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,12 +49635,12 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M616" t="n">
@@ -49662,7 +49662,7 @@
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S616" t="n">
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
         <v>480</v>
       </c>
       <c r="N617" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O617" t="n">
         <v>4000</v>
       </c>
       <c r="P617" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49742,11 +49742,11 @@
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="T617" t="n">
         <v>10</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N618" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O618" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P618" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T618" t="n">
         <v>10</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N619" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O619" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P619" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T619" t="n">
         <v>10</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N620" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O620" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P620" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="T620" t="n">
         <v>10</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,7 +50035,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
@@ -50044,32 +50044,32 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="N621" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="O621" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="P621" t="n">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T621" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="622">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50124,32 +50124,32 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="N622" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="O622" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="P622" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T622" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="623">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,41 +50195,41 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N623" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="O623" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="P623" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T623" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,41 +50275,41 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N624" t="n">
-        <v>135000</v>
+        <v>800</v>
       </c>
       <c r="O624" t="n">
-        <v>135000</v>
+        <v>1000</v>
       </c>
       <c r="P624" t="n">
-        <v>135000</v>
+        <v>900</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="T624" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,41 +50355,41 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N625" t="n">
-        <v>90000</v>
+        <v>500</v>
       </c>
       <c r="O625" t="n">
-        <v>90000</v>
+        <v>500</v>
       </c>
       <c r="P625" t="n">
-        <v>90000</v>
+        <v>500</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T625" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,7 +50435,7 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N626" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="O626" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P626" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50462,11 +50462,11 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,7 +50515,7 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -50527,13 +50527,13 @@
         <v>10</v>
       </c>
       <c r="N627" t="n">
-        <v>170000</v>
+        <v>135000</v>
       </c>
       <c r="O627" t="n">
-        <v>170000</v>
+        <v>135000</v>
       </c>
       <c r="P627" t="n">
-        <v>170000</v>
+        <v>135000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50542,11 +50542,11 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,41 +50595,41 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="N628" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="O628" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="P628" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="T628" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="629">
@@ -50675,7 +50675,7 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
@@ -50684,32 +50684,32 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="N629" t="n">
-        <v>6000</v>
+        <v>210000</v>
       </c>
       <c r="O629" t="n">
-        <v>6000</v>
+        <v>210000</v>
       </c>
       <c r="P629" t="n">
-        <v>6000</v>
+        <v>210000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T629" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="630">
@@ -50755,29 +50755,29 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N630" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="O630" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="P630" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
@@ -50786,10 +50786,10 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>500</v>
+        <v>378</v>
       </c>
       <c r="T630" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="631">
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N631" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O631" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P631" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T631" t="n">
         <v>10</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N632" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O632" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P632" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50942,11 +50942,11 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T632" t="n">
         <v>10</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N633" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O633" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P633" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T633" t="n">
         <v>10</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,36 +51080,36 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N634" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="O634" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="P634" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T634" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,36 +51160,36 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N635" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="O635" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="P635" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T635" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,36 +51240,36 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N636" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="O636" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="P636" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T636" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="637">
@@ -51320,36 +51320,36 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N637" t="n">
-        <v>115000</v>
+        <v>600</v>
       </c>
       <c r="O637" t="n">
-        <v>115000</v>
+        <v>600</v>
       </c>
       <c r="P637" t="n">
-        <v>115000</v>
+        <v>600</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>256</v>
+        <v>600</v>
       </c>
       <c r="T637" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -51400,36 +51400,36 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N638" t="n">
-        <v>350</v>
+        <v>160000</v>
       </c>
       <c r="O638" t="n">
-        <v>350</v>
+        <v>160000</v>
       </c>
       <c r="P638" t="n">
-        <v>350</v>
+        <v>160000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="T638" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="639">
@@ -51480,36 +51480,36 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N639" t="n">
-        <v>70000</v>
+        <v>500</v>
       </c>
       <c r="O639" t="n">
-        <v>70000</v>
+        <v>500</v>
       </c>
       <c r="P639" t="n">
-        <v>70000</v>
+        <v>500</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S639" t="n">
-        <v>156</v>
+        <v>500</v>
       </c>
       <c r="T639" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,41 +51555,41 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N640" t="n">
-        <v>1300</v>
+        <v>115000</v>
       </c>
       <c r="O640" t="n">
-        <v>1300</v>
+        <v>115000</v>
       </c>
       <c r="P640" t="n">
-        <v>1300</v>
+        <v>115000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1300</v>
+        <v>256</v>
       </c>
       <c r="T640" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,25 +51635,25 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M641" t="n">
         <v>20</v>
       </c>
       <c r="N641" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="O641" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="P641" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51662,11 +51662,11 @@
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="T641" t="n">
         <v>1</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N642" t="n">
-        <v>290000</v>
+        <v>70000</v>
       </c>
       <c r="O642" t="n">
-        <v>310000</v>
+        <v>70000</v>
       </c>
       <c r="P642" t="n">
-        <v>300000</v>
+        <v>70000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>667</v>
+        <v>156</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,41 +51795,41 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="N643" t="n">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="O643" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="P643" t="n">
-        <v>4500</v>
+        <v>1300</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="T643" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,7 +51875,7 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
@@ -51887,29 +51887,29 @@
         <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>135000</v>
+        <v>1000</v>
       </c>
       <c r="O644" t="n">
-        <v>140000</v>
+        <v>1000</v>
       </c>
       <c r="P644" t="n">
-        <v>137500</v>
+        <v>1000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>306</v>
+        <v>1000</v>
       </c>
       <c r="T644" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N645" t="n">
-        <v>135000</v>
+        <v>290000</v>
       </c>
       <c r="O645" t="n">
-        <v>145000</v>
+        <v>310000</v>
       </c>
       <c r="P645" t="n">
-        <v>139000</v>
+        <v>300000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>309</v>
+        <v>667</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="N646" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O646" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P646" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="T646" t="n">
         <v>10</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N647" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="O647" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P647" t="n">
-        <v>120000</v>
+        <v>137500</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N648" t="n">
-        <v>112500</v>
+        <v>135000</v>
       </c>
       <c r="O648" t="n">
-        <v>125000</v>
+        <v>145000</v>
       </c>
       <c r="P648" t="n">
-        <v>120455</v>
+        <v>139000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52280,36 +52280,36 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="N649" t="n">
-        <v>80000</v>
+        <v>3000</v>
       </c>
       <c r="O649" t="n">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="P649" t="n">
-        <v>85000</v>
+        <v>3000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="T649" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,41 +52355,41 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N650" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="O650" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="P650" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1000</v>
+        <v>267</v>
       </c>
       <c r="T650" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,41 +52435,41 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="N651" t="n">
-        <v>7000</v>
+        <v>112500</v>
       </c>
       <c r="O651" t="n">
-        <v>8000</v>
+        <v>125000</v>
       </c>
       <c r="P651" t="n">
-        <v>7500</v>
+        <v>120455</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>750</v>
+        <v>268</v>
       </c>
       <c r="T651" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M652" t="n">
         <v>16</v>
       </c>
       <c r="N652" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="O652" t="n">
-        <v>170000</v>
+        <v>90000</v>
       </c>
       <c r="P652" t="n">
-        <v>170000</v>
+        <v>85000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52595,41 +52595,41 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="N653" t="n">
-        <v>125000</v>
+        <v>10000</v>
       </c>
       <c r="O653" t="n">
-        <v>125000</v>
+        <v>10000</v>
       </c>
       <c r="P653" t="n">
-        <v>125000</v>
+        <v>10000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>278</v>
+        <v>1000</v>
       </c>
       <c r="T653" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="654">
@@ -52675,41 +52675,41 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="N654" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="O654" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="P654" t="n">
-        <v>90000</v>
+        <v>7500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="T654" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,41 +52755,41 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M655" t="n">
+        <v>16</v>
+      </c>
+      <c r="N655" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O655" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P655" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q655" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R655" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S655" t="n">
+        <v>378</v>
+      </c>
+      <c r="T655" t="n">
         <v>450</v>
-      </c>
-      <c r="N655" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O655" t="n">
-        <v>11000</v>
-      </c>
-      <c r="P655" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Q655" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R655" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S655" t="n">
-        <v>1100</v>
-      </c>
-      <c r="T655" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,41 +52835,41 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>750</v>
+        <v>14</v>
       </c>
       <c r="N656" t="n">
-        <v>8000</v>
+        <v>125000</v>
       </c>
       <c r="O656" t="n">
-        <v>8000</v>
+        <v>125000</v>
       </c>
       <c r="P656" t="n">
-        <v>8000</v>
+        <v>125000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>800</v>
+        <v>278</v>
       </c>
       <c r="T656" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,41 +52915,41 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="N657" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O657" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="P657" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T657" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,20 +53004,20 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="N658" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="O658" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="P658" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
@@ -53026,10 +53026,10 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>378</v>
+        <v>1100</v>
       </c>
       <c r="T658" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,20 +53084,20 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>25</v>
+        <v>750</v>
       </c>
       <c r="N659" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O659" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P659" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53106,10 +53106,10 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="T659" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,7 +53155,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -53164,20 +53164,20 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="N660" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="O660" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="P660" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
@@ -53186,10 +53186,10 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="T660" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53244,32 +53244,32 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="N661" t="n">
-        <v>7000</v>
+        <v>170000</v>
       </c>
       <c r="O661" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P661" t="n">
-        <v>7500</v>
+        <v>170000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>750</v>
+        <v>378</v>
       </c>
       <c r="T661" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,36 +53320,36 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N662" t="n">
-        <v>600</v>
+        <v>150000</v>
       </c>
       <c r="O662" t="n">
-        <v>600</v>
+        <v>150000</v>
       </c>
       <c r="P662" t="n">
-        <v>600</v>
+        <v>150000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T662" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,36 +53400,36 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>960</v>
+        <v>22</v>
       </c>
       <c r="N663" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O663" t="n">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="P663" t="n">
-        <v>5500</v>
+        <v>120000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>550</v>
+        <v>267</v>
       </c>
       <c r="T663" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="664">
@@ -53480,24 +53480,24 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>25</v>
+        <v>480</v>
       </c>
       <c r="N664" t="n">
-        <v>450</v>
+        <v>7000</v>
       </c>
       <c r="O664" t="n">
-        <v>450</v>
+        <v>8000</v>
       </c>
       <c r="P664" t="n">
-        <v>450</v>
+        <v>7500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
@@ -53506,10 +53506,10 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="T664" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="665">
@@ -53560,24 +53560,24 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N665" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="O665" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="P665" t="n">
-        <v>3500</v>
+        <v>600</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
@@ -53586,10 +53586,10 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="T665" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -53640,24 +53640,24 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>20</v>
+        <v>960</v>
       </c>
       <c r="N666" t="n">
-        <v>350</v>
+        <v>5000</v>
       </c>
       <c r="O666" t="n">
-        <v>350</v>
+        <v>6000</v>
       </c>
       <c r="P666" t="n">
-        <v>350</v>
+        <v>5500</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
@@ -53666,10 +53666,10 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="T666" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="667">
@@ -53720,24 +53720,24 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="N667" t="n">
-        <v>2000</v>
+        <v>450</v>
       </c>
       <c r="O667" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="P667" t="n">
-        <v>2250</v>
+        <v>450</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
@@ -53746,10 +53746,10 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="T667" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N668" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O668" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P668" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="T668" t="n">
         <v>10</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M669" t="n">
         <v>20</v>
       </c>
       <c r="N669" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="O669" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="P669" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="T669" t="n">
         <v>1</v>
@@ -53955,29 +53955,29 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N670" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="O670" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="P670" t="n">
-        <v>400</v>
+        <v>2250</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
@@ -53986,10 +53986,10 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="T670" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="671">
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54050,10 +54050,10 @@
         <v>8000</v>
       </c>
       <c r="O671" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P671" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T671" t="n">
         <v>10</v>
@@ -54115,7 +54115,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -54124,20 +54124,20 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N672" t="n">
-        <v>6000</v>
+        <v>550</v>
       </c>
       <c r="O672" t="n">
-        <v>6000</v>
+        <v>550</v>
       </c>
       <c r="P672" t="n">
-        <v>6000</v>
+        <v>550</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
@@ -54146,10 +54146,10 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T672" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,20 +54204,20 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N673" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="O673" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="P673" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
@@ -54229,7 +54229,7 @@
         <v>400</v>
       </c>
       <c r="T673" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N674" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O674" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P674" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T674" t="n">
         <v>10</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,29 +54364,29 @@
         </is>
       </c>
       <c r="M675" t="n">
+        <v>240</v>
+      </c>
+      <c r="N675" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O675" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P675" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q675" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R675" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S675" t="n">
         <v>600</v>
-      </c>
-      <c r="N675" t="n">
-        <v>5000</v>
-      </c>
-      <c r="O675" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P675" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q675" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R675" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S675" t="n">
-        <v>500</v>
       </c>
       <c r="T675" t="n">
         <v>10</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,41 +54435,41 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N676" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="O676" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="P676" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S676" t="n">
         <v>400</v>
       </c>
       <c r="T676" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="677">
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M677" t="n">
         <v>480</v>
       </c>
       <c r="N677" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O677" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P677" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T677" t="n">
         <v>10</v>
@@ -54600,36 +54600,36 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="N678" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="O678" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="P678" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T678" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="679">
@@ -54680,36 +54680,36 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N679" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="O679" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="P679" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T679" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,36 +54760,36 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N680" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="O680" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="P680" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T680" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,36 +54840,36 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="N681" t="n">
-        <v>400</v>
+        <v>135000</v>
       </c>
       <c r="O681" t="n">
-        <v>500</v>
+        <v>135000</v>
       </c>
       <c r="P681" t="n">
+        <v>135000</v>
+      </c>
+      <c r="Q681" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S681" t="n">
+        <v>300</v>
+      </c>
+      <c r="T681" t="n">
         <v>450</v>
-      </c>
-      <c r="Q681" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R681" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S681" t="n">
-        <v>450</v>
-      </c>
-      <c r="T681" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44211</v>
+        <v>44376</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,41 +54915,41 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N682" t="n">
-        <v>300000</v>
+        <v>3000</v>
       </c>
       <c r="O682" t="n">
-        <v>300000</v>
+        <v>3000</v>
       </c>
       <c r="P682" t="n">
-        <v>300000</v>
+        <v>3000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T682" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -54995,41 +54995,41 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N683" t="n">
-        <v>240000</v>
+        <v>700</v>
       </c>
       <c r="O683" t="n">
-        <v>240000</v>
+        <v>700</v>
       </c>
       <c r="P683" t="n">
-        <v>240000</v>
+        <v>700</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T683" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,41 +55075,41 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="N684" t="n">
-        <v>7000</v>
+        <v>400</v>
       </c>
       <c r="O684" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="P684" t="n">
-        <v>7500</v>
+        <v>450</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="T684" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,7 +55155,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -55164,32 +55164,32 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>640</v>
+        <v>15</v>
       </c>
       <c r="N685" t="n">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="O685" t="n">
-        <v>6000</v>
+        <v>300000</v>
       </c>
       <c r="P685" t="n">
-        <v>5500</v>
+        <v>300000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="T685" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N686" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O686" t="n">
-        <v>202000</v>
+        <v>240000</v>
       </c>
       <c r="P686" t="n">
-        <v>186000</v>
+        <v>240000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>413</v>
+        <v>533</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M687" t="n">
         <v>480</v>
       </c>
       <c r="N687" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O687" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P687" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="T687" t="n">
         <v>10</v>
@@ -55400,36 +55400,36 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>12</v>
+        <v>640</v>
       </c>
       <c r="N688" t="n">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="O688" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="P688" t="n">
-        <v>160000</v>
+        <v>5500</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>356</v>
+        <v>550</v>
       </c>
       <c r="T688" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="689">
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N689" t="n">
-        <v>125000</v>
+        <v>180000</v>
       </c>
       <c r="O689" t="n">
-        <v>125000</v>
+        <v>202000</v>
       </c>
       <c r="P689" t="n">
-        <v>125000</v>
+        <v>186000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>278</v>
+        <v>413</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55555,40 +55555,280 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M690" t="n">
+        <v>480</v>
+      </c>
+      <c r="N690" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O690" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P690" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q690" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R690" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S690" t="n">
+        <v>375</v>
+      </c>
+      <c r="T690" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>6</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D691" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E691" t="n">
+        <v>13</v>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G691" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I691" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M691" t="n">
+        <v>12</v>
+      </c>
+      <c r="N691" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O691" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P691" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q691" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R691" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S691" t="n">
+        <v>356</v>
+      </c>
+      <c r="T691" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>6</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D692" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E692" t="n">
+        <v>13</v>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G692" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I692" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M692" t="n">
+        <v>8</v>
+      </c>
+      <c r="N692" t="n">
+        <v>125000</v>
+      </c>
+      <c r="O692" t="n">
+        <v>125000</v>
+      </c>
+      <c r="P692" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q692" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R692" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S692" t="n">
+        <v>278</v>
+      </c>
+      <c r="T692" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>6</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D693" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E693" t="n">
+        <v>13</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G693" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I693" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
           <t>Tango</t>
         </is>
       </c>
-      <c r="L690" t="inlineStr">
+      <c r="L693" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M690" t="n">
+      <c r="M693" t="n">
         <v>832</v>
       </c>
-      <c r="N690" t="n">
+      <c r="N693" t="n">
         <v>6500</v>
       </c>
-      <c r="O690" t="n">
+      <c r="O693" t="n">
         <v>6500</v>
       </c>
-      <c r="P690" t="n">
+      <c r="P693" t="n">
         <v>6500</v>
       </c>
-      <c r="Q690" t="inlineStr">
+      <c r="Q693" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R690" t="inlineStr">
+      <c r="R693" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S690" t="n">
+      <c r="S693" t="n">
         <v>650</v>
       </c>
-      <c r="T690" t="n">
+      <c r="T693" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T702"/>
+  <dimension ref="A1:T711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,41 +44275,41 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N549" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O549" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P549" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1200</v>
+        <v>333</v>
       </c>
       <c r="T549" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,32 +44364,32 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N550" t="n">
-        <v>14000</v>
+        <v>130000</v>
       </c>
       <c r="O550" t="n">
-        <v>14000</v>
+        <v>135000</v>
       </c>
       <c r="P550" t="n">
-        <v>14000</v>
+        <v>132143</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>933</v>
+        <v>294</v>
       </c>
       <c r="T550" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,41 +44435,41 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="N551" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="O551" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P551" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T551" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44524,32 +44524,32 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="N552" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="O552" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="P552" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>500</v>
+        <v>311</v>
       </c>
       <c r="T552" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N553" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O553" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="P553" t="n">
-        <v>180000</v>
+        <v>104194</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>400</v>
+        <v>232</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,32 +44684,32 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="N554" t="n">
-        <v>4000</v>
+        <v>112500</v>
       </c>
       <c r="O554" t="n">
-        <v>4000</v>
+        <v>112500</v>
       </c>
       <c r="P554" t="n">
-        <v>4000</v>
+        <v>112500</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="T554" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="555">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N555" t="n">
-        <v>135000</v>
+        <v>120000</v>
       </c>
       <c r="O555" t="n">
-        <v>135000</v>
+        <v>120000</v>
       </c>
       <c r="P555" t="n">
-        <v>135000</v>
+        <v>120000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44782,11 +44782,11 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44835,41 +44835,41 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="N556" t="n">
-        <v>7000</v>
+        <v>90000</v>
       </c>
       <c r="O556" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="P556" t="n">
-        <v>7500</v>
+        <v>90000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="T556" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="557">
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44915,41 +44915,41 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N557" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O557" t="n">
-        <v>6000</v>
+        <v>90000</v>
       </c>
       <c r="P557" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="T557" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="558">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N558" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O558" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P558" t="n">
-        <v>4250</v>
+        <v>12000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>425</v>
+        <v>1200</v>
       </c>
       <c r="T558" t="n">
         <v>10</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,41 +45075,41 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N559" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O559" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="P559" t="n">
-        <v>3250</v>
+        <v>14000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>325</v>
+        <v>933</v>
       </c>
       <c r="T559" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="560">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N560" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O560" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P560" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T560" t="n">
         <v>10</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44264</v>
+        <v>44390</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45244,32 +45244,32 @@
         </is>
       </c>
       <c r="M561" t="n">
+        <v>600</v>
+      </c>
+      <c r="N561" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O561" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P561" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S561" t="n">
+        <v>500</v>
+      </c>
+      <c r="T561" t="n">
         <v>10</v>
-      </c>
-      <c r="N561" t="n">
-        <v>310000</v>
-      </c>
-      <c r="O561" t="n">
-        <v>310000</v>
-      </c>
-      <c r="P561" t="n">
-        <v>310000</v>
-      </c>
-      <c r="Q561" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R561" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S561" t="n">
-        <v>689</v>
-      </c>
-      <c r="T561" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="562">
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44264</v>
+        <v>44390</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N562" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O562" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P562" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T562" t="n">
         <v>450</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44463</v>
+        <v>44390</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45395,41 +45395,41 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N563" t="n">
-        <v>130000</v>
+        <v>4000</v>
       </c>
       <c r="O563" t="n">
-        <v>130000</v>
+        <v>4000</v>
       </c>
       <c r="P563" t="n">
-        <v>130000</v>
+        <v>4000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T563" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44463</v>
+        <v>44390</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45475,41 +45475,41 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="N564" t="n">
-        <v>4500</v>
+        <v>135000</v>
       </c>
       <c r="O564" t="n">
-        <v>4500</v>
+        <v>135000</v>
       </c>
       <c r="P564" t="n">
-        <v>4500</v>
+        <v>135000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="T564" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="565">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45555,41 +45555,41 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N565" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="O565" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="P565" t="n">
-        <v>100000</v>
+        <v>7500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>222</v>
+        <v>750</v>
       </c>
       <c r="T565" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="566">
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45635,41 +45635,41 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N566" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O566" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P566" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>333</v>
+        <v>550</v>
       </c>
       <c r="T566" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567">
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,41 +45715,41 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N567" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O567" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P567" t="n">
-        <v>3000</v>
+        <v>4250</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="T567" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568">
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44166</v>
+        <v>44386</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N568" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="O568" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="P568" t="n">
-        <v>9000</v>
+        <v>3250</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>900</v>
+        <v>325</v>
       </c>
       <c r="T568" t="n">
         <v>10</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N569" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O569" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T569" t="n">
         <v>10</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44168</v>
+        <v>44264</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,36 +45960,36 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N570" t="n">
-        <v>9000</v>
+        <v>310000</v>
       </c>
       <c r="O570" t="n">
-        <v>9000</v>
+        <v>310000</v>
       </c>
       <c r="P570" t="n">
-        <v>9000</v>
+        <v>310000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>900</v>
+        <v>689</v>
       </c>
       <c r="T570" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="571">
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44168</v>
+        <v>44264</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,36 +46040,36 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N571" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="O571" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="P571" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T571" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N572" t="n">
-        <v>300000</v>
+        <v>130000</v>
       </c>
       <c r="O572" t="n">
-        <v>315000</v>
+        <v>130000</v>
       </c>
       <c r="P572" t="n">
-        <v>306429</v>
+        <v>130000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>681</v>
+        <v>289</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,36 +46200,36 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N573" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O573" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P573" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="T573" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="574">
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N574" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O574" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="P574" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>556</v>
+        <v>222</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46355,41 +46355,41 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N575" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O575" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P575" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="T575" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="576">
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,41 +46435,41 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="N576" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O576" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P576" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="T576" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="577">
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,41 +46515,41 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
+        <v>350</v>
+      </c>
+      <c r="N577" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O577" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P577" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q577" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R577" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S577" t="n">
+        <v>900</v>
+      </c>
+      <c r="T577" t="n">
         <v>10</v>
-      </c>
-      <c r="N577" t="n">
-        <v>600</v>
-      </c>
-      <c r="O577" t="n">
-        <v>600</v>
-      </c>
-      <c r="P577" t="n">
-        <v>600</v>
-      </c>
-      <c r="Q577" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R577" t="inlineStr">
-        <is>
-          <t>Cabildo</t>
-        </is>
-      </c>
-      <c r="S577" t="n">
-        <v>600</v>
-      </c>
-      <c r="T577" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>960</v>
+        <v>350</v>
       </c>
       <c r="N578" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O578" t="n">
         <v>6000</v>
       </c>
       <c r="P578" t="n">
-        <v>5750</v>
+        <v>6000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="T578" t="n">
         <v>10</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N579" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O579" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P579" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="T579" t="n">
         <v>10</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,32 +46764,32 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="N580" t="n">
-        <v>450</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>475</v>
+        <v>8000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="T580" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,41 +46835,41 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N581" t="n">
-        <v>4500</v>
+        <v>300000</v>
       </c>
       <c r="O581" t="n">
-        <v>5000</v>
+        <v>315000</v>
       </c>
       <c r="P581" t="n">
-        <v>4750</v>
+        <v>306429</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>475</v>
+        <v>681</v>
       </c>
       <c r="T581" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="582">
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N582" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O582" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P582" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T582" t="n">
         <v>10</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,41 +46995,41 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="N583" t="n">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="O583" t="n">
-        <v>3500</v>
+        <v>250000</v>
       </c>
       <c r="P583" t="n">
-        <v>3250</v>
+        <v>250000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>325</v>
+        <v>556</v>
       </c>
       <c r="T583" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="584">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,32 +47084,32 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="N584" t="n">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="O584" t="n">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="P584" t="n">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S584" t="n">
         <v>700</v>
       </c>
       <c r="T584" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="585">
@@ -47155,41 +47155,41 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N585" t="n">
-        <v>350</v>
+        <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>450</v>
+        <v>8000</v>
       </c>
       <c r="P585" t="n">
-        <v>400</v>
+        <v>8000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T585" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="586">
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,32 +47244,32 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N586" t="n">
-        <v>202500</v>
+        <v>600</v>
       </c>
       <c r="O586" t="n">
-        <v>202500</v>
+        <v>600</v>
       </c>
       <c r="P586" t="n">
-        <v>202500</v>
+        <v>600</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T586" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,29 +47315,29 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>26</v>
+        <v>960</v>
       </c>
       <c r="N587" t="n">
-        <v>200000</v>
+        <v>5500</v>
       </c>
       <c r="O587" t="n">
-        <v>202500</v>
+        <v>6000</v>
       </c>
       <c r="P587" t="n">
-        <v>201731</v>
+        <v>5750</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
@@ -47346,10 +47346,10 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>448</v>
+        <v>575</v>
       </c>
       <c r="T587" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="588">
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,32 +47404,32 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="N588" t="n">
-        <v>180000</v>
+        <v>6500</v>
       </c>
       <c r="O588" t="n">
-        <v>180000</v>
+        <v>7000</v>
       </c>
       <c r="P588" t="n">
-        <v>180000</v>
+        <v>6750</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="T588" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="589">
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47484,32 +47484,32 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N589" t="n">
-        <v>160000</v>
+        <v>450</v>
       </c>
       <c r="O589" t="n">
-        <v>180000</v>
+        <v>500</v>
       </c>
       <c r="P589" t="n">
-        <v>174474</v>
+        <v>475</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>388</v>
+        <v>475</v>
       </c>
       <c r="T589" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,32 +47564,32 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="N590" t="n">
-        <v>157500</v>
+        <v>4500</v>
       </c>
       <c r="O590" t="n">
-        <v>157500</v>
+        <v>5000</v>
       </c>
       <c r="P590" t="n">
-        <v>157500</v>
+        <v>4750</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="T590" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="591">
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,32 +47644,32 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N591" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="O591" t="n">
-        <v>157500</v>
+        <v>4000</v>
       </c>
       <c r="P591" t="n">
-        <v>138750</v>
+        <v>4000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="T591" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47724,20 +47724,20 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="N592" t="n">
-        <v>112500</v>
+        <v>3000</v>
       </c>
       <c r="O592" t="n">
-        <v>135000</v>
+        <v>3500</v>
       </c>
       <c r="P592" t="n">
-        <v>123750</v>
+        <v>3250</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
@@ -47746,10 +47746,10 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="T592" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,32 +47804,32 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>1320</v>
+        <v>7</v>
       </c>
       <c r="N593" t="n">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="O593" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="P593" t="n">
-        <v>6182</v>
+        <v>700</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="T593" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,41 +47875,41 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>720</v>
+        <v>18</v>
       </c>
       <c r="N594" t="n">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="O594" t="n">
-        <v>4000</v>
+        <v>450</v>
       </c>
       <c r="P594" t="n">
-        <v>3750</v>
+        <v>400</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="T594" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,41 +47955,41 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
         <v>12</v>
       </c>
       <c r="N595" t="n">
-        <v>1000</v>
+        <v>202500</v>
       </c>
       <c r="O595" t="n">
-        <v>1200</v>
+        <v>202500</v>
       </c>
       <c r="P595" t="n">
-        <v>1100</v>
+        <v>202500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="T595" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,41 +48035,41 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N596" t="n">
-        <v>800</v>
+        <v>200000</v>
       </c>
       <c r="O596" t="n">
-        <v>800</v>
+        <v>202500</v>
       </c>
       <c r="P596" t="n">
-        <v>800</v>
+        <v>201731</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>800</v>
+        <v>448</v>
       </c>
       <c r="T596" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="597">
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48115,41 +48115,41 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="N597" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O597" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P597" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T597" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="598">
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48204,20 +48204,20 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>480</v>
+        <v>38</v>
       </c>
       <c r="N598" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O598" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P598" t="n">
-        <v>10000</v>
+        <v>174474</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R598" t="inlineStr">
@@ -48226,10 +48226,10 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>1000</v>
+        <v>388</v>
       </c>
       <c r="T598" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="599">
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,41 +48275,41 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N599" t="n">
-        <v>1200</v>
+        <v>157500</v>
       </c>
       <c r="O599" t="n">
-        <v>1300</v>
+        <v>157500</v>
       </c>
       <c r="P599" t="n">
-        <v>1250</v>
+        <v>157500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1250</v>
+        <v>350</v>
       </c>
       <c r="T599" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="600">
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,20 +48364,20 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="N600" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="O600" t="n">
-        <v>8000</v>
+        <v>157500</v>
       </c>
       <c r="P600" t="n">
-        <v>8000</v>
+        <v>138750</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
@@ -48386,10 +48386,10 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>800</v>
+        <v>308</v>
       </c>
       <c r="T600" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="601">
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,29 +48435,29 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>720</v>
+        <v>16</v>
       </c>
       <c r="N601" t="n">
-        <v>7000</v>
+        <v>112500</v>
       </c>
       <c r="O601" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P601" t="n">
-        <v>7500</v>
+        <v>123750</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
@@ -48466,10 +48466,10 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>750</v>
+        <v>275</v>
       </c>
       <c r="T601" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="602">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="N602" t="n">
         <v>5000</v>
       </c>
       <c r="O602" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P602" t="n">
-        <v>5500</v>
+        <v>6182</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="T602" t="n">
         <v>10</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,36 +48600,36 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>30</v>
+        <v>720</v>
       </c>
       <c r="N603" t="n">
-        <v>180000</v>
+        <v>3500</v>
       </c>
       <c r="O603" t="n">
-        <v>190000</v>
+        <v>4000</v>
       </c>
       <c r="P603" t="n">
-        <v>185000</v>
+        <v>3750</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="T603" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,41 +48675,41 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N604" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="O604" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="P604" t="n">
-        <v>3750</v>
+        <v>1100</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>375</v>
+        <v>1100</v>
       </c>
       <c r="T604" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,7 +48755,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -48764,32 +48764,32 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N605" t="n">
-        <v>140000</v>
+        <v>800</v>
       </c>
       <c r="O605" t="n">
-        <v>140000</v>
+        <v>800</v>
       </c>
       <c r="P605" t="n">
-        <v>140000</v>
+        <v>800</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>311</v>
+        <v>800</v>
       </c>
       <c r="T605" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N606" t="n">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="O606" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P606" t="n">
-        <v>2750</v>
+        <v>12000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>275</v>
+        <v>1200</v>
       </c>
       <c r="T606" t="n">
         <v>10</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,41 +48915,41 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N607" t="n">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="O607" t="n">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="P607" t="n">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T607" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="608">
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,32 +49004,32 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N608" t="n">
-        <v>150000</v>
+        <v>1200</v>
       </c>
       <c r="O608" t="n">
-        <v>150000</v>
+        <v>1300</v>
       </c>
       <c r="P608" t="n">
-        <v>150000</v>
+        <v>1250</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>333</v>
+        <v>1250</v>
       </c>
       <c r="T608" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,41 +49075,41 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="N609" t="n">
-        <v>450</v>
+        <v>8000</v>
       </c>
       <c r="O609" t="n">
-        <v>450</v>
+        <v>8000</v>
       </c>
       <c r="P609" t="n">
-        <v>450</v>
+        <v>8000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="T609" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,36 +49160,36 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>18</v>
+        <v>720</v>
       </c>
       <c r="N610" t="n">
-        <v>112500</v>
+        <v>7000</v>
       </c>
       <c r="O610" t="n">
-        <v>112500</v>
+        <v>8000</v>
       </c>
       <c r="P610" t="n">
-        <v>112500</v>
+        <v>7500</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="T610" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="611">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,36 +49240,36 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>20</v>
+        <v>960</v>
       </c>
       <c r="N611" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="O611" t="n">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="P611" t="n">
-        <v>300</v>
+        <v>5500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="T611" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N612" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="O612" t="n">
-        <v>90000</v>
+        <v>190000</v>
       </c>
       <c r="P612" t="n">
-        <v>90000</v>
+        <v>185000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49342,11 +49342,11 @@
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>200</v>
+        <v>411</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,41 +49395,41 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N613" t="n">
-        <v>300000</v>
+        <v>3500</v>
       </c>
       <c r="O613" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="P613" t="n">
-        <v>300000</v>
+        <v>3750</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>667</v>
+        <v>375</v>
       </c>
       <c r="T613" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614">
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N614" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="O614" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P614" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49502,11 +49502,11 @@
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S614" t="n">
-        <v>622</v>
+        <v>311</v>
       </c>
       <c r="T614" t="n">
         <v>450</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,41 +49555,41 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="N615" t="n">
-        <v>310000</v>
+        <v>2500</v>
       </c>
       <c r="O615" t="n">
-        <v>310000</v>
+        <v>3000</v>
       </c>
       <c r="P615" t="n">
-        <v>310000</v>
+        <v>2750</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>689</v>
+        <v>275</v>
       </c>
       <c r="T615" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,41 +49635,41 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N616" t="n">
-        <v>280000</v>
+        <v>600</v>
       </c>
       <c r="O616" t="n">
-        <v>280000</v>
+        <v>600</v>
       </c>
       <c r="P616" t="n">
-        <v>280000</v>
+        <v>600</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T616" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N617" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O617" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="P617" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49742,11 +49742,11 @@
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,41 +49795,41 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="N618" t="n">
-        <v>6000</v>
+        <v>450</v>
       </c>
       <c r="O618" t="n">
-        <v>6000</v>
+        <v>450</v>
       </c>
       <c r="P618" t="n">
-        <v>6000</v>
+        <v>450</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="T618" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N619" t="n">
-        <v>200000</v>
+        <v>112500</v>
       </c>
       <c r="O619" t="n">
-        <v>200000</v>
+        <v>112500</v>
       </c>
       <c r="P619" t="n">
-        <v>200000</v>
+        <v>112500</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49902,11 +49902,11 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,41 +49955,41 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="N620" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="O620" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="P620" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T620" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N621" t="n">
-        <v>160000</v>
+        <v>90000</v>
       </c>
       <c r="O621" t="n">
-        <v>170000</v>
+        <v>90000</v>
       </c>
       <c r="P621" t="n">
-        <v>165000</v>
+        <v>90000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50062,11 +50062,11 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>367</v>
+        <v>200</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,41 +50115,41 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N622" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="O622" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="P622" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T622" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="623">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N623" t="n">
-        <v>120000</v>
+        <v>280000</v>
       </c>
       <c r="O623" t="n">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="P623" t="n">
-        <v>130000</v>
+        <v>280000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50222,11 +50222,11 @@
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>289</v>
+        <v>622</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N624" t="n">
-        <v>100000</v>
+        <v>310000</v>
       </c>
       <c r="O624" t="n">
-        <v>100000</v>
+        <v>310000</v>
       </c>
       <c r="P624" t="n">
-        <v>100000</v>
+        <v>310000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50302,11 +50302,11 @@
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>222</v>
+        <v>689</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,41 +50355,41 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N625" t="n">
-        <v>5000</v>
+        <v>280000</v>
       </c>
       <c r="O625" t="n">
-        <v>5000</v>
+        <v>280000</v>
       </c>
       <c r="P625" t="n">
-        <v>5000</v>
+        <v>280000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="T625" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="626">
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,41 +50435,41 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="N626" t="n">
-        <v>4000</v>
+        <v>250000</v>
       </c>
       <c r="O626" t="n">
-        <v>4000</v>
+        <v>250000</v>
       </c>
       <c r="P626" t="n">
-        <v>4000</v>
+        <v>250000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T626" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="627">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,7 +50515,7 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -50524,7 +50524,7 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N627" t="n">
         <v>6000</v>
@@ -50542,7 +50542,7 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S627" t="n">
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,41 +50595,41 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N628" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="O628" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="P628" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T628" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="629">
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N629" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O629" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P629" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50702,11 +50702,11 @@
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T629" t="n">
         <v>10</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50764,32 +50764,32 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="N630" t="n">
-        <v>5000</v>
+        <v>160000</v>
       </c>
       <c r="O630" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="P630" t="n">
-        <v>5000</v>
+        <v>165000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>500</v>
+        <v>367</v>
       </c>
       <c r="T630" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="631">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,7 +50835,7 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
@@ -50844,7 +50844,7 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N631" t="n">
         <v>4000</v>
@@ -50862,7 +50862,7 @@
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S631" t="n">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,41 +50915,41 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N632" t="n">
-        <v>3000</v>
+        <v>120000</v>
       </c>
       <c r="O632" t="n">
-        <v>3000</v>
+        <v>140000</v>
       </c>
       <c r="P632" t="n">
-        <v>3000</v>
+        <v>130000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="T632" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,36 +51000,36 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N633" t="n">
-        <v>800</v>
+        <v>100000</v>
       </c>
       <c r="O633" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="P633" t="n">
-        <v>900</v>
+        <v>100000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>900</v>
+        <v>222</v>
       </c>
       <c r="T633" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="634">
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,29 +51075,29 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="N634" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="O634" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="P634" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
@@ -51109,7 +51109,7 @@
         <v>500</v>
       </c>
       <c r="T634" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,7 +51155,7 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
@@ -51164,32 +51164,32 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="N635" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="O635" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="P635" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S635" t="n">
         <v>400</v>
       </c>
       <c r="T635" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,41 +51235,41 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
+        <v>360</v>
+      </c>
+      <c r="N636" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O636" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P636" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q636" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R636" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S636" t="n">
+        <v>600</v>
+      </c>
+      <c r="T636" t="n">
         <v>10</v>
-      </c>
-      <c r="N636" t="n">
-        <v>135000</v>
-      </c>
-      <c r="O636" t="n">
-        <v>135000</v>
-      </c>
-      <c r="P636" t="n">
-        <v>135000</v>
-      </c>
-      <c r="Q636" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R636" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S636" t="n">
-        <v>300</v>
-      </c>
-      <c r="T636" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="637">
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,41 +51315,41 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="N637" t="n">
-        <v>90000</v>
+        <v>5000</v>
       </c>
       <c r="O637" t="n">
-        <v>90000</v>
+        <v>5000</v>
       </c>
       <c r="P637" t="n">
-        <v>90000</v>
+        <v>5000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T637" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,24 +51400,24 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N638" t="n">
-        <v>210000</v>
+        <v>3500</v>
       </c>
       <c r="O638" t="n">
-        <v>210000</v>
+        <v>4000</v>
       </c>
       <c r="P638" t="n">
-        <v>210000</v>
+        <v>3750</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
@@ -51426,10 +51426,10 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="T638" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="639">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,41 +51475,41 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
+        <v>300</v>
+      </c>
+      <c r="N639" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O639" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P639" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q639" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R639" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S639" t="n">
+        <v>500</v>
+      </c>
+      <c r="T639" t="n">
         <v>10</v>
-      </c>
-      <c r="N639" t="n">
-        <v>170000</v>
-      </c>
-      <c r="O639" t="n">
-        <v>170000</v>
-      </c>
-      <c r="P639" t="n">
-        <v>170000</v>
-      </c>
-      <c r="Q639" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R639" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S639" t="n">
-        <v>378</v>
-      </c>
-      <c r="T639" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="640">
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N640" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O640" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P640" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51582,11 +51582,11 @@
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T640" t="n">
         <v>10</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N641" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O641" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P641" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51662,11 +51662,11 @@
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T641" t="n">
         <v>10</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51724,32 +51724,32 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="N642" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="O642" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="P642" t="n">
-        <v>5000</v>
+        <v>900</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T642" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51804,32 +51804,32 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="N643" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="O643" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="P643" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T643" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,41 +51875,41 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N644" t="n">
-        <v>4000</v>
+        <v>180000</v>
       </c>
       <c r="O644" t="n">
-        <v>4000</v>
+        <v>180000</v>
       </c>
       <c r="P644" t="n">
-        <v>4000</v>
+        <v>180000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S644" t="n">
         <v>400</v>
       </c>
       <c r="T644" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,41 +51955,41 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="N645" t="n">
-        <v>3000</v>
+        <v>135000</v>
       </c>
       <c r="O645" t="n">
-        <v>3000</v>
+        <v>135000</v>
       </c>
       <c r="P645" t="n">
-        <v>3000</v>
+        <v>135000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S645" t="n">
         <v>300</v>
       </c>
       <c r="T645" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,29 +52035,29 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N646" t="n">
-        <v>600</v>
+        <v>90000</v>
       </c>
       <c r="O646" t="n">
-        <v>600</v>
+        <v>90000</v>
       </c>
       <c r="P646" t="n">
-        <v>600</v>
+        <v>90000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
@@ -52066,10 +52066,10 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="T646" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N647" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="O647" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="P647" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52142,11 +52142,11 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,41 +52195,41 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N648" t="n">
-        <v>500</v>
+        <v>170000</v>
       </c>
       <c r="O648" t="n">
-        <v>500</v>
+        <v>170000</v>
       </c>
       <c r="P648" t="n">
-        <v>500</v>
+        <v>170000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>500</v>
+        <v>378</v>
       </c>
       <c r="T648" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="649">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,36 +52280,36 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="N649" t="n">
-        <v>115000</v>
+        <v>8000</v>
       </c>
       <c r="O649" t="n">
-        <v>115000</v>
+        <v>8000</v>
       </c>
       <c r="P649" t="n">
-        <v>115000</v>
+        <v>8000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>256</v>
+        <v>800</v>
       </c>
       <c r="T649" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,36 +52360,36 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="N650" t="n">
-        <v>350</v>
+        <v>6000</v>
       </c>
       <c r="O650" t="n">
-        <v>350</v>
+        <v>6000</v>
       </c>
       <c r="P650" t="n">
-        <v>350</v>
+        <v>6000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="T650" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,36 +52440,36 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="N651" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="O651" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="P651" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>156</v>
+        <v>500</v>
       </c>
       <c r="T651" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,29 +52515,29 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N652" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="O652" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="P652" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
@@ -52546,10 +52546,10 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="T652" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,41 +52595,41 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N653" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="O653" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="P653" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T653" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,41 +52675,41 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="N654" t="n">
-        <v>290000</v>
+        <v>3000</v>
       </c>
       <c r="O654" t="n">
-        <v>310000</v>
+        <v>3000</v>
       </c>
       <c r="P654" t="n">
-        <v>300000</v>
+        <v>3000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T654" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,41 +52755,41 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="N655" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="O655" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="P655" t="n">
-        <v>4500</v>
+        <v>600</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T655" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N656" t="n">
-        <v>135000</v>
+        <v>160000</v>
       </c>
       <c r="O656" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P656" t="n">
-        <v>137500</v>
+        <v>160000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,32 +52924,32 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N657" t="n">
-        <v>135000</v>
+        <v>500</v>
       </c>
       <c r="O657" t="n">
-        <v>145000</v>
+        <v>500</v>
       </c>
       <c r="P657" t="n">
-        <v>139000</v>
+        <v>500</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>309</v>
+        <v>500</v>
       </c>
       <c r="T657" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,32 +53004,32 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="N658" t="n">
-        <v>3000</v>
+        <v>115000</v>
       </c>
       <c r="O658" t="n">
-        <v>3000</v>
+        <v>115000</v>
       </c>
       <c r="P658" t="n">
-        <v>3000</v>
+        <v>115000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="T658" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,32 +53084,32 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N659" t="n">
-        <v>120000</v>
+        <v>350</v>
       </c>
       <c r="O659" t="n">
-        <v>120000</v>
+        <v>350</v>
       </c>
       <c r="P659" t="n">
-        <v>120000</v>
+        <v>350</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="T659" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N660" t="n">
-        <v>112500</v>
+        <v>70000</v>
       </c>
       <c r="O660" t="n">
-        <v>125000</v>
+        <v>70000</v>
       </c>
       <c r="P660" t="n">
-        <v>120455</v>
+        <v>70000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53182,11 +53182,11 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,41 +53235,41 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N661" t="n">
-        <v>80000</v>
+        <v>1300</v>
       </c>
       <c r="O661" t="n">
-        <v>90000</v>
+        <v>1300</v>
       </c>
       <c r="P661" t="n">
-        <v>85000</v>
+        <v>1300</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>189</v>
+        <v>1300</v>
       </c>
       <c r="T661" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,41 +53315,41 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N662" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O662" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P662" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S662" t="n">
         <v>1000</v>
       </c>
       <c r="T662" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -53404,32 +53404,32 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="N663" t="n">
-        <v>7000</v>
+        <v>290000</v>
       </c>
       <c r="O663" t="n">
-        <v>8000</v>
+        <v>310000</v>
       </c>
       <c r="P663" t="n">
-        <v>7500</v>
+        <v>300000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T663" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,32 +53484,32 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="N664" t="n">
-        <v>170000</v>
+        <v>4000</v>
       </c>
       <c r="O664" t="n">
-        <v>170000</v>
+        <v>5000</v>
       </c>
       <c r="P664" t="n">
-        <v>170000</v>
+        <v>4500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="T664" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N665" t="n">
-        <v>125000</v>
+        <v>135000</v>
       </c>
       <c r="O665" t="n">
-        <v>125000</v>
+        <v>140000</v>
       </c>
       <c r="P665" t="n">
-        <v>125000</v>
+        <v>137500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N666" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="O666" t="n">
-        <v>90000</v>
+        <v>145000</v>
       </c>
       <c r="P666" t="n">
-        <v>90000</v>
+        <v>139000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>450</v>
+        <v>235</v>
       </c>
       <c r="N667" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O667" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P667" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="T667" t="n">
         <v>10</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,41 +53795,41 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>750</v>
+        <v>18</v>
       </c>
       <c r="N668" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="O668" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="P668" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>800</v>
+        <v>267</v>
       </c>
       <c r="T668" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,7 +53875,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -53884,32 +53884,32 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>600</v>
+        <v>22</v>
       </c>
       <c r="N669" t="n">
-        <v>5000</v>
+        <v>112500</v>
       </c>
       <c r="O669" t="n">
-        <v>5000</v>
+        <v>125000</v>
       </c>
       <c r="P669" t="n">
-        <v>5000</v>
+        <v>120455</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>500</v>
+        <v>268</v>
       </c>
       <c r="T669" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N670" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="O670" t="n">
-        <v>170000</v>
+        <v>90000</v>
       </c>
       <c r="P670" t="n">
-        <v>170000</v>
+        <v>85000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,24 +54040,24 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N671" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O671" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P671" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
@@ -54066,10 +54066,10 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="T671" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672">
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,24 +54120,24 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="N672" t="n">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="O672" t="n">
-        <v>120000</v>
+        <v>8000</v>
       </c>
       <c r="P672" t="n">
-        <v>120000</v>
+        <v>7500</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
@@ -54146,10 +54146,10 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>267</v>
+        <v>750</v>
       </c>
       <c r="T672" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,41 +54195,41 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N673" t="n">
-        <v>7000</v>
+        <v>170000</v>
       </c>
       <c r="O673" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P673" t="n">
-        <v>7500</v>
+        <v>170000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>750</v>
+        <v>378</v>
       </c>
       <c r="T673" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,41 +54275,41 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N674" t="n">
-        <v>600</v>
+        <v>125000</v>
       </c>
       <c r="O674" t="n">
-        <v>600</v>
+        <v>125000</v>
       </c>
       <c r="P674" t="n">
-        <v>600</v>
+        <v>125000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>600</v>
+        <v>278</v>
       </c>
       <c r="T674" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="675">
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,41 +54355,41 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>960</v>
+        <v>8</v>
       </c>
       <c r="N675" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O675" t="n">
-        <v>6000</v>
+        <v>90000</v>
       </c>
       <c r="P675" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="T675" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="676">
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,41 +54435,41 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
       <c r="N676" t="n">
-        <v>450</v>
+        <v>11000</v>
       </c>
       <c r="O676" t="n">
-        <v>450</v>
+        <v>11000</v>
       </c>
       <c r="P676" t="n">
-        <v>450</v>
+        <v>11000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="T676" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>480</v>
+        <v>750</v>
       </c>
       <c r="N677" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O677" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P677" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="T677" t="n">
         <v>10</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -54604,32 +54604,32 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="N678" t="n">
-        <v>350</v>
+        <v>5000</v>
       </c>
       <c r="O678" t="n">
-        <v>350</v>
+        <v>5000</v>
       </c>
       <c r="P678" t="n">
-        <v>350</v>
+        <v>5000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="T678" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,36 +54680,36 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="N679" t="n">
-        <v>2000</v>
+        <v>170000</v>
       </c>
       <c r="O679" t="n">
-        <v>2500</v>
+        <v>170000</v>
       </c>
       <c r="P679" t="n">
-        <v>2250</v>
+        <v>170000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>225</v>
+        <v>378</v>
       </c>
       <c r="T679" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,41 +54755,41 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="N680" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="O680" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="P680" t="n">
-        <v>8500</v>
+        <v>150000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>850</v>
+        <v>333</v>
       </c>
       <c r="T680" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,41 +54835,41 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N681" t="n">
-        <v>550</v>
+        <v>120000</v>
       </c>
       <c r="O681" t="n">
-        <v>550</v>
+        <v>120000</v>
       </c>
       <c r="P681" t="n">
-        <v>550</v>
+        <v>120000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>550</v>
+        <v>267</v>
       </c>
       <c r="T681" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="682">
@@ -54915,29 +54915,29 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N682" t="n">
-        <v>400</v>
+        <v>7000</v>
       </c>
       <c r="O682" t="n">
-        <v>400</v>
+        <v>8000</v>
       </c>
       <c r="P682" t="n">
-        <v>400</v>
+        <v>7500</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
@@ -54946,10 +54946,10 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="T682" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="683">
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,20 +55004,20 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N683" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="O683" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="P683" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
@@ -55026,10 +55026,10 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T683" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -55075,7 +55075,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
@@ -55084,16 +55084,16 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>240</v>
+        <v>960</v>
       </c>
       <c r="N684" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O684" t="n">
         <v>6000</v>
       </c>
       <c r="P684" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T684" t="n">
         <v>10</v>
@@ -55155,29 +55155,29 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N685" t="n">
-        <v>4000</v>
+        <v>450</v>
       </c>
       <c r="O685" t="n">
-        <v>4000</v>
+        <v>450</v>
       </c>
       <c r="P685" t="n">
-        <v>4000</v>
+        <v>450</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
@@ -55186,10 +55186,10 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T685" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
         <v>480</v>
       </c>
       <c r="N686" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O686" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P686" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="T686" t="n">
         <v>10</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,24 +55320,24 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="N687" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="O687" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="P687" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R687" t="inlineStr">
@@ -55346,10 +55346,10 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T687" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,36 +55400,36 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N688" t="n">
-        <v>180000</v>
+        <v>2000</v>
       </c>
       <c r="O688" t="n">
-        <v>180000</v>
+        <v>2500</v>
       </c>
       <c r="P688" t="n">
-        <v>180000</v>
+        <v>2250</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="T688" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N689" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O689" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P689" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="T689" t="n">
         <v>10</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,41 +55555,41 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N690" t="n">
-        <v>135000</v>
+        <v>550</v>
       </c>
       <c r="O690" t="n">
-        <v>135000</v>
+        <v>550</v>
       </c>
       <c r="P690" t="n">
-        <v>135000</v>
+        <v>550</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="T690" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,29 +55635,29 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N691" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="O691" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="P691" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
@@ -55666,10 +55666,10 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T691" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,7 +55715,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -55724,32 +55724,32 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N692" t="n">
-        <v>700</v>
+        <v>8000</v>
       </c>
       <c r="O692" t="n">
-        <v>700</v>
+        <v>8000</v>
       </c>
       <c r="P692" t="n">
-        <v>700</v>
+        <v>8000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T692" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,7 +55795,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -55804,32 +55804,32 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N693" t="n">
-        <v>400</v>
+        <v>6000</v>
       </c>
       <c r="O693" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="P693" t="n">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T693" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="694">
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44211</v>
+        <v>44411</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,41 +55875,41 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N694" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="O694" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="P694" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T694" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44211</v>
+        <v>44376</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,41 +55955,41 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M695" t="n">
+        <v>480</v>
+      </c>
+      <c r="N695" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O695" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P695" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q695" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R695" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S695" t="n">
+        <v>600</v>
+      </c>
+      <c r="T695" t="n">
         <v>10</v>
-      </c>
-      <c r="N695" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O695" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P695" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q695" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R695" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S695" t="n">
-        <v>533</v>
-      </c>
-      <c r="T695" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="696">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N696" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O696" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P696" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T696" t="n">
         <v>10</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56115,7 +56115,7 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
@@ -56124,32 +56124,32 @@
         </is>
       </c>
       <c r="M697" t="n">
-        <v>640</v>
+        <v>20</v>
       </c>
       <c r="N697" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O697" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P697" t="n">
-        <v>5500</v>
+        <v>180000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="T697" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56195,41 +56195,41 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>22</v>
+        <v>480</v>
       </c>
       <c r="N698" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="O698" t="n">
-        <v>202000</v>
+        <v>4000</v>
       </c>
       <c r="P698" t="n">
-        <v>186000</v>
+        <v>4000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="T698" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="699">
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,7 +56275,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -56284,32 +56284,32 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N699" t="n">
-        <v>3500</v>
+        <v>135000</v>
       </c>
       <c r="O699" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="P699" t="n">
-        <v>3750</v>
+        <v>135000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="T699" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56355,41 +56355,41 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N700" t="n">
-        <v>160000</v>
+        <v>3000</v>
       </c>
       <c r="O700" t="n">
-        <v>160000</v>
+        <v>3000</v>
       </c>
       <c r="P700" t="n">
-        <v>160000</v>
+        <v>3000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="T700" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="701">
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,41 +56435,41 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N701" t="n">
-        <v>125000</v>
+        <v>700</v>
       </c>
       <c r="O701" t="n">
-        <v>125000</v>
+        <v>700</v>
       </c>
       <c r="P701" t="n">
-        <v>125000</v>
+        <v>700</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>278</v>
+        <v>700</v>
       </c>
       <c r="T701" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -56487,68 +56487,788 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E702" t="n">
+        <v>13</v>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G702" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I702" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M702" t="n">
+        <v>50</v>
+      </c>
+      <c r="N702" t="n">
+        <v>400</v>
+      </c>
+      <c r="O702" t="n">
+        <v>500</v>
+      </c>
+      <c r="P702" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q702" t="inlineStr">
+        <is>
+          <t>$/kilo (en bins de 450 kilos)</t>
+        </is>
+      </c>
+      <c r="R702" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S702" t="n">
+        <v>450</v>
+      </c>
+      <c r="T702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>6</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D703" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E703" t="n">
+        <v>13</v>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G703" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I703" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M703" t="n">
+        <v>15</v>
+      </c>
+      <c r="N703" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O703" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P703" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q703" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R703" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S703" t="n">
+        <v>667</v>
+      </c>
+      <c r="T703" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>6</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D704" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E704" t="n">
+        <v>13</v>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G704" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I704" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M704" t="n">
+        <v>10</v>
+      </c>
+      <c r="N704" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O704" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P704" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q704" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R704" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S704" t="n">
+        <v>533</v>
+      </c>
+      <c r="T704" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>6</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D705" s="2" t="n">
         <v>44425</v>
       </c>
-      <c r="E702" t="n">
-        <v>13</v>
-      </c>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G702" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I702" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J702" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K702" t="inlineStr">
+      <c r="E705" t="n">
+        <v>13</v>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G705" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I705" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M705" t="n">
+        <v>480</v>
+      </c>
+      <c r="N705" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O705" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P705" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q705" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R705" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S705" t="n">
+        <v>750</v>
+      </c>
+      <c r="T705" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>6</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D706" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E706" t="n">
+        <v>13</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G706" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I706" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M706" t="n">
+        <v>640</v>
+      </c>
+      <c r="N706" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O706" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P706" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q706" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R706" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S706" t="n">
+        <v>550</v>
+      </c>
+      <c r="T706" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>6</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D707" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E707" t="n">
+        <v>13</v>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G707" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I707" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M707" t="n">
+        <v>22</v>
+      </c>
+      <c r="N707" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O707" t="n">
+        <v>202000</v>
+      </c>
+      <c r="P707" t="n">
+        <v>186000</v>
+      </c>
+      <c r="Q707" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R707" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S707" t="n">
+        <v>413</v>
+      </c>
+      <c r="T707" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>6</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D708" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E708" t="n">
+        <v>13</v>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G708" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I708" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M708" t="n">
+        <v>480</v>
+      </c>
+      <c r="N708" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O708" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P708" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q708" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R708" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S708" t="n">
+        <v>375</v>
+      </c>
+      <c r="T708" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>6</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D709" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E709" t="n">
+        <v>13</v>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G709" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I709" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M709" t="n">
+        <v>12</v>
+      </c>
+      <c r="N709" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O709" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P709" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q709" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R709" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S709" t="n">
+        <v>356</v>
+      </c>
+      <c r="T709" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>6</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D710" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E710" t="n">
+        <v>13</v>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G710" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I710" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M710" t="n">
+        <v>8</v>
+      </c>
+      <c r="N710" t="n">
+        <v>125000</v>
+      </c>
+      <c r="O710" t="n">
+        <v>125000</v>
+      </c>
+      <c r="P710" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q710" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R710" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S710" t="n">
+        <v>278</v>
+      </c>
+      <c r="T710" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>6</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D711" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E711" t="n">
+        <v>13</v>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G711" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I711" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
         <is>
           <t>Tango</t>
         </is>
       </c>
-      <c r="L702" t="inlineStr">
+      <c r="L711" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M702" t="n">
+      <c r="M711" t="n">
         <v>832</v>
       </c>
-      <c r="N702" t="n">
+      <c r="N711" t="n">
         <v>6500</v>
       </c>
-      <c r="O702" t="n">
+      <c r="O711" t="n">
         <v>6500</v>
       </c>
-      <c r="P702" t="n">
+      <c r="P711" t="n">
         <v>6500</v>
       </c>
-      <c r="Q702" t="inlineStr">
+      <c r="Q711" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R702" t="inlineStr">
+      <c r="R711" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S702" t="n">
+      <c r="S711" t="n">
         <v>650</v>
       </c>
-      <c r="T702" t="n">
+      <c r="T711" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T725"/>
+  <dimension ref="A1:T731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,7 +51564,7 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N640" t="n">
         <v>6000</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,36 +51640,36 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N641" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="O641" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="P641" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T641" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,32 +51724,32 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>360</v>
+        <v>17</v>
       </c>
       <c r="N642" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O642" t="n">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="P642" t="n">
-        <v>5000</v>
+        <v>124118</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>500</v>
+        <v>276</v>
       </c>
       <c r="T642" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,36 +51800,36 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="N643" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="O643" t="n">
-        <v>170000</v>
+        <v>4000</v>
       </c>
       <c r="P643" t="n">
-        <v>165000</v>
+        <v>4000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="T643" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="644">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51884,32 +51884,32 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="O644" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="P644" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T644" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,36 +51960,36 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="N645" t="n">
-        <v>120000</v>
+        <v>3000</v>
       </c>
       <c r="O645" t="n">
-        <v>140000</v>
+        <v>3000</v>
       </c>
       <c r="P645" t="n">
-        <v>130000</v>
+        <v>3000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="T645" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="646">
@@ -52040,36 +52040,36 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M646" t="n">
+        <v>240</v>
+      </c>
+      <c r="N646" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O646" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P646" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q646" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R646" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S646" t="n">
+        <v>600</v>
+      </c>
+      <c r="T646" t="n">
         <v>10</v>
-      </c>
-      <c r="N646" t="n">
-        <v>100000</v>
-      </c>
-      <c r="O646" t="n">
-        <v>100000</v>
-      </c>
-      <c r="P646" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Q646" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R646" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S646" t="n">
-        <v>222</v>
-      </c>
-      <c r="T646" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="647">
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,32 +52124,32 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N647" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="O647" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="P647" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T647" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="648">
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N648" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O648" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P648" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T648" t="n">
         <v>10</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,41 +52275,41 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="N649" t="n">
-        <v>6000</v>
+        <v>160000</v>
       </c>
       <c r="O649" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="P649" t="n">
-        <v>6000</v>
+        <v>165000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>600</v>
+        <v>367</v>
       </c>
       <c r="T649" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N650" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O650" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P650" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T650" t="n">
         <v>10</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52444,32 +52444,32 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N651" t="n">
-        <v>3500</v>
+        <v>120000</v>
       </c>
       <c r="O651" t="n">
-        <v>4000</v>
+        <v>140000</v>
       </c>
       <c r="P651" t="n">
-        <v>3750</v>
+        <v>130000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="T651" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,41 +52515,41 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="N652" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="O652" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="P652" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="T652" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N653" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O653" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P653" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52622,11 +52622,11 @@
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T653" t="n">
         <v>10</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N654" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O654" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P654" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52702,11 +52702,11 @@
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T654" t="n">
         <v>10</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,41 +52755,41 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="N655" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="O655" t="n">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="P655" t="n">
-        <v>900</v>
+        <v>6000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T655" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,41 +52835,41 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="N656" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="O656" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="P656" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S656" t="n">
         <v>500</v>
       </c>
       <c r="T656" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,41 +52915,41 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="N657" t="n">
-        <v>180000</v>
+        <v>3500</v>
       </c>
       <c r="O657" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="P657" t="n">
-        <v>180000</v>
+        <v>3750</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T657" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,41 +52995,41 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M658" t="n">
+        <v>300</v>
+      </c>
+      <c r="N658" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O658" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P658" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q658" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R658" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S658" t="n">
+        <v>500</v>
+      </c>
+      <c r="T658" t="n">
         <v>10</v>
-      </c>
-      <c r="N658" t="n">
-        <v>135000</v>
-      </c>
-      <c r="O658" t="n">
-        <v>135000</v>
-      </c>
-      <c r="P658" t="n">
-        <v>135000</v>
-      </c>
-      <c r="Q658" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R658" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S658" t="n">
-        <v>300</v>
-      </c>
-      <c r="T658" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,41 +53075,41 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="N659" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="O659" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="P659" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T659" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,29 +53155,29 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N660" t="n">
-        <v>210000</v>
+        <v>3000</v>
       </c>
       <c r="O660" t="n">
-        <v>210000</v>
+        <v>3000</v>
       </c>
       <c r="P660" t="n">
-        <v>210000</v>
+        <v>3000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
@@ -53186,10 +53186,10 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="T660" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,41 +53235,41 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N661" t="n">
-        <v>170000</v>
+        <v>800</v>
       </c>
       <c r="O661" t="n">
-        <v>170000</v>
+        <v>1000</v>
       </c>
       <c r="P661" t="n">
-        <v>170000</v>
+        <v>900</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>378</v>
+        <v>900</v>
       </c>
       <c r="T661" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,41 +53315,41 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="N662" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="O662" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="P662" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T662" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -53404,32 +53404,32 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="N663" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="O663" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P663" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T663" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,41 +53475,41 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N664" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="O664" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="P664" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T664" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,41 +53555,41 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N665" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="O665" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="P665" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T665" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="666">
@@ -53635,29 +53635,29 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N666" t="n">
-        <v>4000</v>
+        <v>210000</v>
       </c>
       <c r="O666" t="n">
-        <v>4000</v>
+        <v>210000</v>
       </c>
       <c r="P666" t="n">
-        <v>4000</v>
+        <v>210000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
@@ -53666,10 +53666,10 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="T666" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="667">
@@ -53715,29 +53715,29 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="N667" t="n">
-        <v>3000</v>
+        <v>170000</v>
       </c>
       <c r="O667" t="n">
-        <v>3000</v>
+        <v>170000</v>
       </c>
       <c r="P667" t="n">
-        <v>3000</v>
+        <v>170000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
@@ -53746,10 +53746,10 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="T667" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,32 +53804,32 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N668" t="n">
-        <v>600</v>
+        <v>8000</v>
       </c>
       <c r="O668" t="n">
-        <v>600</v>
+        <v>8000</v>
       </c>
       <c r="P668" t="n">
-        <v>600</v>
+        <v>8000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T668" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53884,32 +53884,32 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="N669" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="O669" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="P669" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>356</v>
+        <v>600</v>
       </c>
       <c r="T669" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53964,32 +53964,32 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N670" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="O670" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="P670" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S670" t="n">
         <v>500</v>
       </c>
       <c r="T670" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,32 +54044,32 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="N671" t="n">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="O671" t="n">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="P671" t="n">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="T671" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672">
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54124,32 +54124,32 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N672" t="n">
-        <v>350</v>
+        <v>4000</v>
       </c>
       <c r="O672" t="n">
-        <v>350</v>
+        <v>4000</v>
       </c>
       <c r="P672" t="n">
-        <v>350</v>
+        <v>4000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T672" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54204,32 +54204,32 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="N673" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="O673" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="P673" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="T673" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54287,13 +54287,13 @@
         <v>15</v>
       </c>
       <c r="N674" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="O674" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="P674" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T674" t="n">
         <v>1</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,32 +54364,32 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N675" t="n">
-        <v>1000</v>
+        <v>160000</v>
       </c>
       <c r="O675" t="n">
-        <v>1000</v>
+        <v>160000</v>
       </c>
       <c r="P675" t="n">
-        <v>1000</v>
+        <v>160000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>1000</v>
+        <v>356</v>
       </c>
       <c r="T675" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="676">
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,32 +54444,32 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N676" t="n">
-        <v>290000</v>
+        <v>500</v>
       </c>
       <c r="O676" t="n">
-        <v>310000</v>
+        <v>500</v>
       </c>
       <c r="P676" t="n">
-        <v>300000</v>
+        <v>500</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T676" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,41 +54515,41 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="N677" t="n">
-        <v>4000</v>
+        <v>115000</v>
       </c>
       <c r="O677" t="n">
-        <v>5000</v>
+        <v>115000</v>
       </c>
       <c r="P677" t="n">
-        <v>4500</v>
+        <v>115000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S677" t="n">
+        <v>256</v>
+      </c>
+      <c r="T677" t="n">
         <v>450</v>
-      </c>
-      <c r="T677" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,41 +54595,41 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M678" t="n">
         <v>20</v>
       </c>
       <c r="N678" t="n">
-        <v>135000</v>
+        <v>350</v>
       </c>
       <c r="O678" t="n">
-        <v>140000</v>
+        <v>350</v>
       </c>
       <c r="P678" t="n">
-        <v>137500</v>
+        <v>350</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="T678" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N679" t="n">
-        <v>135000</v>
+        <v>70000</v>
       </c>
       <c r="O679" t="n">
-        <v>145000</v>
+        <v>70000</v>
       </c>
       <c r="P679" t="n">
-        <v>139000</v>
+        <v>70000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54702,11 +54702,11 @@
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,41 +54755,41 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="N680" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="O680" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="P680" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="T680" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,41 +54835,41 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N681" t="n">
-        <v>120000</v>
+        <v>1000</v>
       </c>
       <c r="O681" t="n">
-        <v>120000</v>
+        <v>1000</v>
       </c>
       <c r="P681" t="n">
-        <v>120000</v>
+        <v>1000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>267</v>
+        <v>1000</v>
       </c>
       <c r="T681" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N682" t="n">
-        <v>112500</v>
+        <v>290000</v>
       </c>
       <c r="O682" t="n">
-        <v>125000</v>
+        <v>310000</v>
       </c>
       <c r="P682" t="n">
-        <v>120455</v>
+        <v>300000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54942,11 +54942,11 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>268</v>
+        <v>667</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -55000,36 +55000,36 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="N683" t="n">
-        <v>80000</v>
+        <v>4000</v>
       </c>
       <c r="O683" t="n">
-        <v>90000</v>
+        <v>5000</v>
       </c>
       <c r="P683" t="n">
-        <v>85000</v>
+        <v>4500</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>189</v>
+        <v>450</v>
       </c>
       <c r="T683" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,41 +55075,41 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N684" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="O684" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="P684" t="n">
-        <v>10000</v>
+        <v>137500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1000</v>
+        <v>306</v>
       </c>
       <c r="T684" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="685">
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,7 +55155,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -55164,32 +55164,32 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N685" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="O685" t="n">
-        <v>8000</v>
+        <v>145000</v>
       </c>
       <c r="P685" t="n">
-        <v>7500</v>
+        <v>139000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>750</v>
+        <v>309</v>
       </c>
       <c r="T685" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,41 +55235,41 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="N686" t="n">
-        <v>170000</v>
+        <v>3000</v>
       </c>
       <c r="O686" t="n">
-        <v>170000</v>
+        <v>3000</v>
       </c>
       <c r="P686" t="n">
-        <v>170000</v>
+        <v>3000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="T686" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="687">
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,7 +55315,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N687" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O687" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="P687" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N688" t="n">
-        <v>90000</v>
+        <v>112500</v>
       </c>
       <c r="O688" t="n">
-        <v>90000</v>
+        <v>125000</v>
       </c>
       <c r="P688" t="n">
-        <v>90000</v>
+        <v>120455</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,41 +55475,41 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M689" t="n">
+        <v>16</v>
+      </c>
+      <c r="N689" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O689" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P689" t="n">
+        <v>85000</v>
+      </c>
+      <c r="Q689" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R689" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S689" t="n">
+        <v>189</v>
+      </c>
+      <c r="T689" t="n">
         <v>450</v>
-      </c>
-      <c r="N689" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O689" t="n">
-        <v>11000</v>
-      </c>
-      <c r="P689" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Q689" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R689" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S689" t="n">
-        <v>1100</v>
-      </c>
-      <c r="T689" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,25 +55555,25 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="N690" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O690" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P690" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T690" t="n">
         <v>10</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,25 +55635,25 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N691" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O691" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P691" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T691" t="n">
         <v>10</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,16 +55715,16 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N692" t="n">
         <v>170000</v>
@@ -55742,7 +55742,7 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S692" t="n">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N693" t="n">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="O693" t="n">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="P693" t="n">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N694" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="O694" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="P694" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55902,11 +55902,11 @@
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="T694" t="n">
         <v>450</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,7 +55955,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N695" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O695" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P695" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T695" t="n">
         <v>10</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,41 +56035,41 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M696" t="n">
+        <v>750</v>
+      </c>
+      <c r="N696" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O696" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P696" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q696" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R696" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S696" t="n">
+        <v>800</v>
+      </c>
+      <c r="T696" t="n">
         <v>10</v>
-      </c>
-      <c r="N696" t="n">
-        <v>600</v>
-      </c>
-      <c r="O696" t="n">
-        <v>600</v>
-      </c>
-      <c r="P696" t="n">
-        <v>600</v>
-      </c>
-      <c r="Q696" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R696" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S696" t="n">
-        <v>600</v>
-      </c>
-      <c r="T696" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="N697" t="n">
         <v>5000</v>
       </c>
       <c r="O697" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P697" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56142,11 +56142,11 @@
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T697" t="n">
         <v>10</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,36 +56200,36 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N698" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O698" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P698" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q698" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R698" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S698" t="n">
+        <v>378</v>
+      </c>
+      <c r="T698" t="n">
         <v>450</v>
-      </c>
-      <c r="O698" t="n">
-        <v>450</v>
-      </c>
-      <c r="P698" t="n">
-        <v>450</v>
-      </c>
-      <c r="Q698" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R698" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S698" t="n">
-        <v>450</v>
-      </c>
-      <c r="T698" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,36 +56280,36 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="N699" t="n">
-        <v>3000</v>
+        <v>150000</v>
       </c>
       <c r="O699" t="n">
-        <v>4000</v>
+        <v>150000</v>
       </c>
       <c r="P699" t="n">
-        <v>3500</v>
+        <v>150000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="T699" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56364,32 +56364,32 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N700" t="n">
-        <v>350</v>
+        <v>120000</v>
       </c>
       <c r="O700" t="n">
-        <v>350</v>
+        <v>120000</v>
       </c>
       <c r="P700" t="n">
-        <v>350</v>
+        <v>120000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="T700" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="701">
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M701" t="n">
         <v>480</v>
       </c>
       <c r="N701" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="O701" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P701" t="n">
-        <v>2250</v>
+        <v>7500</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="T701" t="n">
         <v>10</v>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
@@ -56524,20 +56524,20 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N702" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="O702" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="P702" t="n">
-        <v>8500</v>
+        <v>600</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
@@ -56546,10 +56546,10 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="T702" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -56595,7 +56595,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -56604,20 +56604,20 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>20</v>
+        <v>960</v>
       </c>
       <c r="N703" t="n">
-        <v>550</v>
+        <v>5000</v>
       </c>
       <c r="O703" t="n">
-        <v>550</v>
+        <v>6000</v>
       </c>
       <c r="P703" t="n">
-        <v>550</v>
+        <v>5500</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
@@ -56629,7 +56629,7 @@
         <v>550</v>
       </c>
       <c r="T703" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="704">
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N704" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="O704" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="P704" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T704" t="n">
         <v>1</v>
@@ -56755,25 +56755,25 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N705" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O705" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P705" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="T705" t="n">
         <v>10</v>
@@ -56835,29 +56835,29 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N706" t="n">
-        <v>6000</v>
+        <v>350</v>
       </c>
       <c r="O706" t="n">
-        <v>6000</v>
+        <v>350</v>
       </c>
       <c r="P706" t="n">
-        <v>6000</v>
+        <v>350</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
@@ -56866,10 +56866,10 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="T706" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -56915,25 +56915,25 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N707" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O707" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P707" t="n">
-        <v>4000</v>
+        <v>2250</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="T707" t="n">
         <v>10</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -56995,7 +56995,7 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N708" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O708" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P708" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="T708" t="n">
         <v>10</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,7 +57075,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -57084,20 +57084,20 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="N709" t="n">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="O709" t="n">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="P709" t="n">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
@@ -57106,10 +57106,10 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T709" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,41 +57155,41 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N710" t="n">
-        <v>180000</v>
+        <v>400</v>
       </c>
       <c r="O710" t="n">
-        <v>180000</v>
+        <v>400</v>
       </c>
       <c r="P710" t="n">
-        <v>180000</v>
+        <v>400</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S710" t="n">
         <v>400</v>
       </c>
       <c r="T710" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,25 +57235,25 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N711" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O711" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P711" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T711" t="n">
         <v>10</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,41 +57315,41 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N712" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O712" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P712" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T712" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N713" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O713" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P713" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T713" t="n">
         <v>10</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="N714" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O714" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P714" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="T714" t="n">
         <v>10</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,36 +57560,36 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="N715" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="O715" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="P715" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T715" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57644,32 +57644,32 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N716" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O716" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P716" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q716" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R716" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S716" t="n">
         <v>400</v>
       </c>
-      <c r="O716" t="n">
-        <v>500</v>
-      </c>
-      <c r="P716" t="n">
+      <c r="T716" t="n">
         <v>450</v>
-      </c>
-      <c r="Q716" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R716" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S716" t="n">
-        <v>450</v>
-      </c>
-      <c r="T716" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44211</v>
+        <v>44376</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57715,41 +57715,41 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N717" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="O717" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="P717" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T717" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44211</v>
+        <v>44376</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57795,7 +57795,7 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N718" t="n">
-        <v>240000</v>
+        <v>135000</v>
       </c>
       <c r="O718" t="n">
-        <v>240000</v>
+        <v>135000</v>
       </c>
       <c r="P718" t="n">
-        <v>240000</v>
+        <v>135000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57822,11 +57822,11 @@
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>533</v>
+        <v>300</v>
       </c>
       <c r="T718" t="n">
         <v>450</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N719" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O719" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P719" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T719" t="n">
         <v>10</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57964,16 +57964,16 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="N720" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O720" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P720" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>550</v>
+        <v>1600</v>
       </c>
       <c r="T720" t="n">
         <v>10</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,41 +58035,41 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N721" t="n">
-        <v>180000</v>
+        <v>700</v>
       </c>
       <c r="O721" t="n">
-        <v>202000</v>
+        <v>700</v>
       </c>
       <c r="P721" t="n">
-        <v>186000</v>
+        <v>700</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>413</v>
+        <v>700</v>
       </c>
       <c r="T721" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,41 +58115,41 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="N722" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="O722" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="P722" t="n">
-        <v>3750</v>
+        <v>450</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T722" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,25 +58195,25 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N723" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="O723" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="P723" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58222,11 +58222,11 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>356</v>
+        <v>667</v>
       </c>
       <c r="T723" t="n">
         <v>450</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N724" t="n">
-        <v>125000</v>
+        <v>240000</v>
       </c>
       <c r="O724" t="n">
-        <v>125000</v>
+        <v>240000</v>
       </c>
       <c r="P724" t="n">
-        <v>125000</v>
+        <v>240000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58302,11 +58302,11 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>278</v>
+        <v>533</v>
       </c>
       <c r="T724" t="n">
         <v>450</v>
@@ -58355,40 +58355,520 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M725" t="n">
+        <v>480</v>
+      </c>
+      <c r="N725" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O725" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P725" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q725" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R725" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S725" t="n">
+        <v>750</v>
+      </c>
+      <c r="T725" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>6</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D726" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E726" t="n">
+        <v>13</v>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G726" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I726" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M726" t="n">
+        <v>640</v>
+      </c>
+      <c r="N726" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O726" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P726" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q726" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R726" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S726" t="n">
+        <v>550</v>
+      </c>
+      <c r="T726" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>6</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D727" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E727" t="n">
+        <v>13</v>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G727" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I727" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M727" t="n">
+        <v>22</v>
+      </c>
+      <c r="N727" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O727" t="n">
+        <v>202000</v>
+      </c>
+      <c r="P727" t="n">
+        <v>186000</v>
+      </c>
+      <c r="Q727" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R727" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S727" t="n">
+        <v>413</v>
+      </c>
+      <c r="T727" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>6</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D728" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E728" t="n">
+        <v>13</v>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G728" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I728" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M728" t="n">
+        <v>480</v>
+      </c>
+      <c r="N728" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O728" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P728" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q728" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R728" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S728" t="n">
+        <v>375</v>
+      </c>
+      <c r="T728" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>6</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D729" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E729" t="n">
+        <v>13</v>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G729" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I729" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M729" t="n">
+        <v>12</v>
+      </c>
+      <c r="N729" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O729" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P729" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q729" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R729" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S729" t="n">
+        <v>356</v>
+      </c>
+      <c r="T729" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>6</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D730" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E730" t="n">
+        <v>13</v>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G730" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I730" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M730" t="n">
+        <v>8</v>
+      </c>
+      <c r="N730" t="n">
+        <v>125000</v>
+      </c>
+      <c r="O730" t="n">
+        <v>125000</v>
+      </c>
+      <c r="P730" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q730" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R730" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S730" t="n">
+        <v>278</v>
+      </c>
+      <c r="T730" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>6</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D731" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E731" t="n">
+        <v>13</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G731" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I731" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
           <t>Tango</t>
         </is>
       </c>
-      <c r="L725" t="inlineStr">
+      <c r="L731" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M725" t="n">
+      <c r="M731" t="n">
         <v>832</v>
       </c>
-      <c r="N725" t="n">
+      <c r="N731" t="n">
         <v>6500</v>
       </c>
-      <c r="O725" t="n">
+      <c r="O731" t="n">
         <v>6500</v>
       </c>
-      <c r="P725" t="n">
+      <c r="P731" t="n">
         <v>6500</v>
       </c>
-      <c r="Q725" t="inlineStr">
+      <c r="Q731" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R725" t="inlineStr">
+      <c r="R731" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S725" t="n">
+      <c r="S731" t="n">
         <v>650</v>
       </c>
-      <c r="T725" t="n">
+      <c r="T731" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T737"/>
+  <dimension ref="A1:T747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47484,32 +47484,32 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="N589" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="O589" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="P589" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T589" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,36 +47560,36 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N590" t="n">
-        <v>130000</v>
+        <v>5500</v>
       </c>
       <c r="O590" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P590" t="n">
-        <v>132143</v>
+        <v>5750</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>294</v>
+        <v>575</v>
       </c>
       <c r="T590" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="591">
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47644,32 +47644,32 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="N591" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="O591" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="P591" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T591" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47724,32 +47724,32 @@
         </is>
       </c>
       <c r="M592" t="n">
+        <v>480</v>
+      </c>
+      <c r="N592" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O592" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P592" t="n">
+        <v>4750</v>
+      </c>
+      <c r="Q592" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R592" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S592" t="n">
+        <v>475</v>
+      </c>
+      <c r="T592" t="n">
         <v>10</v>
-      </c>
-      <c r="N592" t="n">
-        <v>140000</v>
-      </c>
-      <c r="O592" t="n">
-        <v>140000</v>
-      </c>
-      <c r="P592" t="n">
-        <v>140000</v>
-      </c>
-      <c r="Q592" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R592" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S592" t="n">
-        <v>311</v>
-      </c>
-      <c r="T592" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="N593" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O593" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="P593" t="n">
-        <v>104194</v>
+        <v>160000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="N594" t="n">
-        <v>112500</v>
+        <v>5000</v>
       </c>
       <c r="O594" t="n">
-        <v>112500</v>
+        <v>100000</v>
       </c>
       <c r="P594" t="n">
-        <v>112500</v>
+        <v>7227</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47902,11 +47902,11 @@
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="T594" t="n">
         <v>450</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47964,32 +47964,32 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="N595" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="O595" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="P595" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T595" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N596" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="O596" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="P596" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48062,11 +48062,11 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="N597" t="n">
-        <v>90000</v>
+        <v>3500</v>
       </c>
       <c r="O597" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="P597" t="n">
-        <v>90000</v>
+        <v>4951</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48142,11 +48142,11 @@
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N598" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O598" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P598" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T598" t="n">
         <v>10</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,41 +48275,41 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N599" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O599" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="P599" t="n">
-        <v>5500</v>
+        <v>150000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S599" t="n">
-        <v>550</v>
+        <v>333</v>
       </c>
       <c r="T599" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="600">
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,41 +48355,41 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N600" t="n">
-        <v>4000</v>
+        <v>130000</v>
       </c>
       <c r="O600" t="n">
-        <v>4500</v>
+        <v>135000</v>
       </c>
       <c r="P600" t="n">
-        <v>4250</v>
+        <v>132143</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S600" t="n">
-        <v>425</v>
+        <v>294</v>
       </c>
       <c r="T600" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="601">
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,41 +48435,41 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N601" t="n">
-        <v>3000</v>
+        <v>135000</v>
       </c>
       <c r="O601" t="n">
-        <v>3500</v>
+        <v>135000</v>
       </c>
       <c r="P601" t="n">
-        <v>3250</v>
+        <v>135000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="T601" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="602">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,41 +48515,41 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="N602" t="n">
-        <v>8000</v>
+        <v>140000</v>
       </c>
       <c r="O602" t="n">
-        <v>8000</v>
+        <v>140000</v>
       </c>
       <c r="P602" t="n">
-        <v>8000</v>
+        <v>140000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>800</v>
+        <v>311</v>
       </c>
       <c r="T602" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="603">
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,41 +48595,41 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="N603" t="n">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="O603" t="n">
-        <v>7000</v>
+        <v>110000</v>
       </c>
       <c r="P603" t="n">
-        <v>6500</v>
+        <v>104194</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>650</v>
+        <v>232</v>
       </c>
       <c r="T603" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -48684,32 +48684,32 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N604" t="n">
-        <v>4500</v>
+        <v>112500</v>
       </c>
       <c r="O604" t="n">
-        <v>4500</v>
+        <v>112500</v>
       </c>
       <c r="P604" t="n">
-        <v>4500</v>
+        <v>112500</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S604" t="n">
+        <v>250</v>
+      </c>
+      <c r="T604" t="n">
         <v>450</v>
-      </c>
-      <c r="T604" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="605">
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N605" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O605" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P605" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48782,11 +48782,11 @@
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N606" t="n">
-        <v>135000</v>
+        <v>90000</v>
       </c>
       <c r="O606" t="n">
-        <v>135000</v>
+        <v>90000</v>
       </c>
       <c r="P606" t="n">
-        <v>135000</v>
+        <v>90000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48862,11 +48862,11 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,7 +48924,7 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N607" t="n">
         <v>90000</v>
@@ -48942,7 +48942,7 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S607" t="n">
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,32 +49004,32 @@
         </is>
       </c>
       <c r="M608" t="n">
+        <v>120</v>
+      </c>
+      <c r="N608" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O608" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P608" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S608" t="n">
+        <v>750</v>
+      </c>
+      <c r="T608" t="n">
         <v>10</v>
-      </c>
-      <c r="N608" t="n">
-        <v>1100</v>
-      </c>
-      <c r="O608" t="n">
-        <v>1100</v>
-      </c>
-      <c r="P608" t="n">
-        <v>1100</v>
-      </c>
-      <c r="Q608" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R608" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S608" t="n">
-        <v>1100</v>
-      </c>
-      <c r="T608" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,20 +49084,20 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N609" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="O609" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="P609" t="n">
-        <v>800</v>
+        <v>5500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
@@ -49106,10 +49106,10 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T609" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
@@ -49164,20 +49164,20 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N610" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="O610" t="n">
-        <v>600</v>
+        <v>4500</v>
       </c>
       <c r="P610" t="n">
-        <v>600</v>
+        <v>4250</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
@@ -49186,10 +49186,10 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="T610" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="611">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,41 +49235,41 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N611" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="O611" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="P611" t="n">
-        <v>600</v>
+        <v>3250</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>600</v>
+        <v>325</v>
       </c>
       <c r="T611" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,41 +49315,41 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="N612" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O612" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P612" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="T612" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="613">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,7 +49395,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -49404,32 +49404,32 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="N613" t="n">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="O613" t="n">
-        <v>450</v>
+        <v>7000</v>
       </c>
       <c r="P613" t="n">
-        <v>450</v>
+        <v>6500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T613" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614">
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49484,32 +49484,32 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="N614" t="n">
-        <v>112500</v>
+        <v>4500</v>
       </c>
       <c r="O614" t="n">
-        <v>112500</v>
+        <v>4500</v>
       </c>
       <c r="P614" t="n">
-        <v>112500</v>
+        <v>4500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S614" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="T614" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="615">
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,41 +49555,41 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N615" t="n">
-        <v>300</v>
+        <v>180000</v>
       </c>
       <c r="O615" t="n">
-        <v>300</v>
+        <v>180000</v>
       </c>
       <c r="P615" t="n">
-        <v>300</v>
+        <v>180000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T615" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="616">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N616" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="O616" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="P616" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49662,11 +49662,11 @@
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T616" t="n">
         <v>450</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,41 +49715,41 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N617" t="n">
-        <v>1300</v>
+        <v>90000</v>
       </c>
       <c r="O617" t="n">
-        <v>1300</v>
+        <v>90000</v>
       </c>
       <c r="P617" t="n">
-        <v>1300</v>
+        <v>90000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="T617" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="618">
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N618" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O618" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P618" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T618" t="n">
         <v>1</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,29 +49875,29 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N619" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O619" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P619" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
@@ -49906,10 +49906,10 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T619" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,41 +49955,41 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N620" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="O620" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="P620" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T620" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,7 +50044,7 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N621" t="n">
         <v>600</v>
@@ -50062,7 +50062,7 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S621" t="n">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,32 +50124,32 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>960</v>
+        <v>26</v>
       </c>
       <c r="N622" t="n">
-        <v>5500</v>
+        <v>150000</v>
       </c>
       <c r="O622" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="P622" t="n">
-        <v>5750</v>
+        <v>150000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="T622" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="623">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,32 +50204,32 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="N623" t="n">
-        <v>6500</v>
+        <v>450</v>
       </c>
       <c r="O623" t="n">
-        <v>7000</v>
+        <v>450</v>
       </c>
       <c r="P623" t="n">
-        <v>6750</v>
+        <v>450</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>675</v>
+        <v>450</v>
       </c>
       <c r="T623" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,36 +50280,36 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N624" t="n">
+        <v>112500</v>
+      </c>
+      <c r="O624" t="n">
+        <v>112500</v>
+      </c>
+      <c r="P624" t="n">
+        <v>112500</v>
+      </c>
+      <c r="Q624" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R624" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S624" t="n">
+        <v>250</v>
+      </c>
+      <c r="T624" t="n">
         <v>450</v>
-      </c>
-      <c r="O624" t="n">
-        <v>500</v>
-      </c>
-      <c r="P624" t="n">
-        <v>475</v>
-      </c>
-      <c r="Q624" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R624" t="inlineStr">
-        <is>
-          <t>Cabildo</t>
-        </is>
-      </c>
-      <c r="S624" t="n">
-        <v>475</v>
-      </c>
-      <c r="T624" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,32 +50364,32 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="N625" t="n">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="O625" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="P625" t="n">
-        <v>4750</v>
+        <v>300</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="T625" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,36 +50440,36 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N626" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="O626" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="P626" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T626" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="627">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,29 +50515,29 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N627" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="O627" t="n">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="P627" t="n">
-        <v>3250</v>
+        <v>1300</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
@@ -50546,10 +50546,10 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>325</v>
+        <v>1300</v>
       </c>
       <c r="T627" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N628" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="O628" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="P628" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50622,11 +50622,11 @@
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T628" t="n">
         <v>1</v>
@@ -50675,41 +50675,41 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="N629" t="n">
-        <v>350</v>
+        <v>7000</v>
       </c>
       <c r="O629" t="n">
-        <v>450</v>
+        <v>7000</v>
       </c>
       <c r="P629" t="n">
-        <v>400</v>
+        <v>7000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T629" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N630" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O630" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P630" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50782,11 +50782,11 @@
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T630" t="n">
         <v>10</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,41 +50835,41 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N631" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="O631" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="P631" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T631" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,7 +50915,7 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
@@ -50924,16 +50924,16 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>310</v>
+        <v>960</v>
       </c>
       <c r="N632" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O632" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P632" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50942,11 +50942,11 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="T632" t="n">
         <v>10</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N633" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O633" t="n">
         <v>7000</v>
       </c>
       <c r="P633" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51022,11 +51022,11 @@
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="T633" t="n">
         <v>10</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,41 +51075,41 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="N634" t="n">
-        <v>6000</v>
+        <v>450</v>
       </c>
       <c r="O634" t="n">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="P634" t="n">
-        <v>6000</v>
+        <v>475</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="T634" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N635" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O635" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P635" t="n">
-        <v>10000</v>
+        <v>4750</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51182,11 +51182,11 @@
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="T635" t="n">
         <v>10</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N636" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O636" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P636" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T636" t="n">
         <v>10</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,41 +51315,41 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="N637" t="n">
-        <v>170000</v>
+        <v>3000</v>
       </c>
       <c r="O637" t="n">
-        <v>170000</v>
+        <v>3500</v>
       </c>
       <c r="P637" t="n">
-        <v>170000</v>
+        <v>3250</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="T637" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,41 +51395,41 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N638" t="n">
-        <v>125000</v>
+        <v>700</v>
       </c>
       <c r="O638" t="n">
-        <v>125000</v>
+        <v>700</v>
       </c>
       <c r="P638" t="n">
-        <v>125000</v>
+        <v>700</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>278</v>
+        <v>700</v>
       </c>
       <c r="T638" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,41 +51475,41 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N639" t="n">
-        <v>90000</v>
+        <v>350</v>
       </c>
       <c r="O639" t="n">
-        <v>90000</v>
+        <v>450</v>
       </c>
       <c r="P639" t="n">
-        <v>90000</v>
+        <v>400</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S639" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T639" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44328</v>
+        <v>44172</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,32 +51564,32 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N640" t="n">
-        <v>330000</v>
+        <v>9000</v>
       </c>
       <c r="O640" t="n">
-        <v>330000</v>
+        <v>9000</v>
       </c>
       <c r="P640" t="n">
-        <v>330000</v>
+        <v>9000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T640" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44328</v>
+        <v>44172</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,32 +51644,32 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N641" t="n">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="O641" t="n">
-        <v>310000</v>
+        <v>8000</v>
       </c>
       <c r="P641" t="n">
-        <v>305000</v>
+        <v>8000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>678</v>
+        <v>800</v>
       </c>
       <c r="T641" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44328</v>
+        <v>44172</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="N642" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O642" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P642" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T642" t="n">
         <v>10</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44328</v>
+        <v>44172</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M643" t="n">
         <v>360</v>
       </c>
       <c r="N643" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O643" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P643" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="T643" t="n">
         <v>10</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44328</v>
+        <v>44172</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,7 +51875,7 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="N644" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P644" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T644" t="n">
         <v>10</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N645" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O645" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P645" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T645" t="n">
         <v>10</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,41 +52035,41 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="N646" t="n">
-        <v>400000</v>
+        <v>7000</v>
       </c>
       <c r="O646" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="P646" t="n">
-        <v>400000</v>
+        <v>7500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>889</v>
+        <v>750</v>
       </c>
       <c r="T646" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,32 +52124,32 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="N647" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="O647" t="n">
-        <v>13000</v>
+        <v>170000</v>
       </c>
       <c r="P647" t="n">
-        <v>12500</v>
+        <v>170000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>1250</v>
+        <v>378</v>
       </c>
       <c r="T647" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="648">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
         <v>14</v>
       </c>
       <c r="N648" t="n">
-        <v>360000</v>
+        <v>125000</v>
       </c>
       <c r="O648" t="n">
-        <v>360000</v>
+        <v>125000</v>
       </c>
       <c r="P648" t="n">
-        <v>360000</v>
+        <v>125000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>800</v>
+        <v>278</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,41 +52275,41 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="N649" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="O649" t="n">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="P649" t="n">
-        <v>8500</v>
+        <v>90000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="T649" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N650" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O650" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P650" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N651" t="n">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="O651" t="n">
-        <v>450000</v>
+        <v>310000</v>
       </c>
       <c r="P651" t="n">
-        <v>450000</v>
+        <v>305000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>1000</v>
+        <v>678</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,41 +52515,41 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N652" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="O652" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="P652" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T652" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,41 +52595,41 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>5</v>
+        <v>360</v>
       </c>
       <c r="N653" t="n">
-        <v>1200</v>
+        <v>11000</v>
       </c>
       <c r="O653" t="n">
-        <v>1200</v>
+        <v>11000</v>
       </c>
       <c r="P653" t="n">
-        <v>1200</v>
+        <v>11000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T653" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,41 +52675,41 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N654" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="O654" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P654" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q654" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R654" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S654" t="n">
         <v>1000</v>
       </c>
-      <c r="P654" t="n">
-        <v>950</v>
-      </c>
-      <c r="Q654" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R654" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S654" t="n">
-        <v>950</v>
-      </c>
       <c r="T654" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="N655" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O655" t="n">
         <v>8000</v>
       </c>
       <c r="P655" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T655" t="n">
         <v>10</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,41 +52835,41 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>960</v>
+        <v>8</v>
       </c>
       <c r="N656" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="O656" t="n">
-        <v>6000</v>
+        <v>400000</v>
       </c>
       <c r="P656" t="n">
-        <v>5500</v>
+        <v>400000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>550</v>
+        <v>889</v>
       </c>
       <c r="T656" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,20 +52924,20 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="N657" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O657" t="n">
-        <v>190000</v>
+        <v>13000</v>
       </c>
       <c r="P657" t="n">
-        <v>185000</v>
+        <v>12500</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
@@ -52946,10 +52946,10 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>411</v>
+        <v>1250</v>
       </c>
       <c r="T657" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,41 +52995,41 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N658" t="n">
-        <v>3500</v>
+        <v>360000</v>
       </c>
       <c r="O658" t="n">
-        <v>4000</v>
+        <v>360000</v>
       </c>
       <c r="P658" t="n">
-        <v>3750</v>
+        <v>360000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>375</v>
+        <v>800</v>
       </c>
       <c r="T658" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,20 +53084,20 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="N659" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="O659" t="n">
-        <v>140000</v>
+        <v>9000</v>
       </c>
       <c r="P659" t="n">
-        <v>140000</v>
+        <v>8500</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53106,10 +53106,10 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>311</v>
+        <v>850</v>
       </c>
       <c r="T659" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,41 +53155,41 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N660" t="n">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="O660" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="P660" t="n">
-        <v>2750</v>
+        <v>300000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>275</v>
+        <v>667</v>
       </c>
       <c r="T660" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44414</v>
+        <v>44321</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53244,32 +53244,32 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N661" t="n">
-        <v>8000</v>
+        <v>450000</v>
       </c>
       <c r="O661" t="n">
-        <v>8000</v>
+        <v>450000</v>
       </c>
       <c r="P661" t="n">
-        <v>8000</v>
+        <v>450000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T661" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44414</v>
+        <v>44321</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N662" t="n">
-        <v>225000</v>
+        <v>400000</v>
       </c>
       <c r="O662" t="n">
-        <v>225000</v>
+        <v>400000</v>
       </c>
       <c r="P662" t="n">
-        <v>225000</v>
+        <v>400000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,36 +53400,36 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>720</v>
+        <v>5</v>
       </c>
       <c r="N663" t="n">
-        <v>5500</v>
+        <v>1200</v>
       </c>
       <c r="O663" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="P663" t="n">
-        <v>5750</v>
+        <v>1200</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>575</v>
+        <v>1200</v>
       </c>
       <c r="T663" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53484,32 +53484,32 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N664" t="n">
-        <v>180000</v>
+        <v>900</v>
       </c>
       <c r="O664" t="n">
-        <v>180000</v>
+        <v>1000</v>
       </c>
       <c r="P664" t="n">
-        <v>180000</v>
+        <v>950</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="T664" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="N665" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O665" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P665" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="T665" t="n">
         <v>10</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,41 +53635,41 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>24</v>
+        <v>960</v>
       </c>
       <c r="N666" t="n">
-        <v>157000</v>
+        <v>5000</v>
       </c>
       <c r="O666" t="n">
-        <v>157000</v>
+        <v>6000</v>
       </c>
       <c r="P666" t="n">
-        <v>157000</v>
+        <v>5500</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>349</v>
+        <v>550</v>
       </c>
       <c r="T666" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="667">
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N667" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="O667" t="n">
-        <v>135000</v>
+        <v>190000</v>
       </c>
       <c r="P667" t="n">
-        <v>135000</v>
+        <v>185000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>125</v>
+        <v>480</v>
       </c>
       <c r="N668" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O668" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P668" t="n">
-        <v>12000</v>
+        <v>3750</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>1200</v>
+        <v>375</v>
       </c>
       <c r="T668" t="n">
         <v>10</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,36 +53880,36 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="N669" t="n">
-        <v>11000</v>
+        <v>140000</v>
       </c>
       <c r="O669" t="n">
-        <v>11000</v>
+        <v>140000</v>
       </c>
       <c r="P669" t="n">
-        <v>11000</v>
+        <v>140000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>1100</v>
+        <v>311</v>
       </c>
       <c r="T669" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N670" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O670" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P670" t="n">
-        <v>9000</v>
+        <v>2750</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>900</v>
+        <v>275</v>
       </c>
       <c r="T670" t="n">
         <v>10</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="N671" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O671" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P671" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T671" t="n">
         <v>10</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,41 +54115,41 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N672" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="O672" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="P672" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T672" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="N673" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O673" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P673" t="n">
-        <v>12000</v>
+        <v>5750</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1200</v>
+        <v>575</v>
       </c>
       <c r="T673" t="n">
         <v>10</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N674" t="n">
-        <v>440000</v>
+        <v>180000</v>
       </c>
       <c r="O674" t="n">
-        <v>440000</v>
+        <v>180000</v>
       </c>
       <c r="P674" t="n">
-        <v>440000</v>
+        <v>180000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>978</v>
+        <v>400</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>1020</v>
+        <v>480</v>
       </c>
       <c r="N675" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O675" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P675" t="n">
-        <v>10794</v>
+        <v>4250</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>1079</v>
+        <v>425</v>
       </c>
       <c r="T675" t="n">
         <v>10</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N676" t="n">
-        <v>400000</v>
+        <v>157000</v>
       </c>
       <c r="O676" t="n">
-        <v>410000</v>
+        <v>157000</v>
       </c>
       <c r="P676" t="n">
-        <v>405000</v>
+        <v>157000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>900</v>
+        <v>349</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,41 +54515,41 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N677" t="n">
-        <v>9000</v>
+        <v>135000</v>
       </c>
       <c r="O677" t="n">
-        <v>9000</v>
+        <v>135000</v>
       </c>
       <c r="P677" t="n">
-        <v>9000</v>
+        <v>135000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="T677" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,36 +54600,36 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="N678" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O678" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P678" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T678" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,36 +54680,36 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="N679" t="n">
-        <v>135000</v>
+        <v>11000</v>
       </c>
       <c r="O679" t="n">
-        <v>135000</v>
+        <v>11000</v>
       </c>
       <c r="P679" t="n">
-        <v>135000</v>
+        <v>11000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="T679" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,36 +54760,36 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N680" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="O680" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="P680" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="T680" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,7 +54835,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -54844,32 +54844,32 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>16</v>
+        <v>720</v>
       </c>
       <c r="N681" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O681" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P681" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T681" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,7 +54915,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -54924,32 +54924,32 @@
         </is>
       </c>
       <c r="M682" t="n">
+        <v>480</v>
+      </c>
+      <c r="N682" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O682" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P682" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q682" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S682" t="n">
+        <v>800</v>
+      </c>
+      <c r="T682" t="n">
         <v>10</v>
-      </c>
-      <c r="N682" t="n">
-        <v>135000</v>
-      </c>
-      <c r="O682" t="n">
-        <v>135000</v>
-      </c>
-      <c r="P682" t="n">
-        <v>135000</v>
-      </c>
-      <c r="Q682" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R682" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S682" t="n">
-        <v>300</v>
-      </c>
-      <c r="T682" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,36 +55000,36 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="N683" t="n">
-        <v>80000</v>
+        <v>12000</v>
       </c>
       <c r="O683" t="n">
-        <v>80000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>80000</v>
+        <v>12000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>178</v>
+        <v>1200</v>
       </c>
       <c r="T683" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,7 +55075,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
@@ -55084,20 +55084,20 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N684" t="n">
-        <v>7000</v>
+        <v>440000</v>
       </c>
       <c r="O684" t="n">
-        <v>8000</v>
+        <v>440000</v>
       </c>
       <c r="P684" t="n">
-        <v>7500</v>
+        <v>440000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
@@ -55106,10 +55106,10 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>750</v>
+        <v>978</v>
       </c>
       <c r="T684" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="685">
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,7 +55155,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>640</v>
+        <v>1020</v>
       </c>
       <c r="N685" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O685" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P685" t="n">
-        <v>5500</v>
+        <v>10794</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>550</v>
+        <v>1079</v>
       </c>
       <c r="T685" t="n">
         <v>10</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,7 +55235,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
@@ -55244,16 +55244,16 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N686" t="n">
-        <v>180000</v>
+        <v>400000</v>
       </c>
       <c r="O686" t="n">
-        <v>202000</v>
+        <v>410000</v>
       </c>
       <c r="P686" t="n">
-        <v>186000</v>
+        <v>405000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>413</v>
+        <v>900</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,7 +55315,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>480</v>
+        <v>125</v>
       </c>
       <c r="N687" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O687" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P687" t="n">
-        <v>3750</v>
+        <v>9000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="T687" t="n">
         <v>10</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N688" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O688" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P688" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N689" t="n">
-        <v>125000</v>
+        <v>135000</v>
       </c>
       <c r="O689" t="n">
-        <v>125000</v>
+        <v>135000</v>
       </c>
       <c r="P689" t="n">
-        <v>125000</v>
+        <v>135000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,41 +55555,41 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>832</v>
+        <v>6</v>
       </c>
       <c r="N690" t="n">
-        <v>6500</v>
+        <v>90000</v>
       </c>
       <c r="O690" t="n">
-        <v>6500</v>
+        <v>90000</v>
       </c>
       <c r="P690" t="n">
-        <v>6500</v>
+        <v>90000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="T690" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="691">
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,41 +55635,41 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="N691" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="O691" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P691" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T691" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,41 +55715,41 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="N692" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="O692" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="P692" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T692" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N693" t="n">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="O693" t="n">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="P693" t="n">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M694" t="n">
         <v>480</v>
       </c>
       <c r="N694" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O694" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P694" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55902,11 +55902,11 @@
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="T694" t="n">
         <v>10</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,41 +55955,41 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>12</v>
+        <v>640</v>
       </c>
       <c r="N695" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="O695" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P695" t="n">
-        <v>135000</v>
+        <v>5500</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="T695" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="696">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56044,32 +56044,32 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N696" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O696" t="n">
-        <v>14000</v>
+        <v>202000</v>
       </c>
       <c r="P696" t="n">
-        <v>14000</v>
+        <v>186000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>933</v>
+        <v>413</v>
       </c>
       <c r="T696" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,36 +56120,36 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M697" t="n">
+        <v>480</v>
+      </c>
+      <c r="N697" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O697" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P697" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q697" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R697" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S697" t="n">
+        <v>375</v>
+      </c>
+      <c r="T697" t="n">
         <v>10</v>
-      </c>
-      <c r="N697" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O697" t="n">
-        <v>150000</v>
-      </c>
-      <c r="P697" t="n">
-        <v>150000</v>
-      </c>
-      <c r="Q697" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R697" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S697" t="n">
-        <v>333</v>
-      </c>
-      <c r="T697" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N698" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O698" t="n">
-        <v>135000</v>
+        <v>160000</v>
       </c>
       <c r="P698" t="n">
-        <v>127500</v>
+        <v>160000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>283</v>
+        <v>356</v>
       </c>
       <c r="T698" t="n">
         <v>450</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N699" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="O699" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="P699" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56302,11 +56302,11 @@
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="T699" t="n">
         <v>450</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56355,41 +56355,41 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>8</v>
+        <v>832</v>
       </c>
       <c r="N700" t="n">
-        <v>1100</v>
+        <v>6500</v>
       </c>
       <c r="O700" t="n">
-        <v>1100</v>
+        <v>6500</v>
       </c>
       <c r="P700" t="n">
-        <v>1100</v>
+        <v>6500</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="T700" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="701">
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,41 +56435,41 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N701" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="O701" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="P701" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T701" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56515,41 +56515,41 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="N702" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="O702" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="P702" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S702" t="n">
         <v>500</v>
       </c>
       <c r="T702" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,41 +56595,41 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="N703" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="O703" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P703" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T703" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,41 +56675,41 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N704" t="n">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="O704" t="n">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="P704" t="n">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T704" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="705">
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56755,41 +56755,41 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="N705" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="O705" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="P705" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T705" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44438</v>
+        <v>44187</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56844,32 +56844,32 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N706" t="n">
-        <v>160000</v>
+        <v>14000</v>
       </c>
       <c r="O706" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="P706" t="n">
-        <v>165000</v>
+        <v>14000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>367</v>
+        <v>933</v>
       </c>
       <c r="T706" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56920,36 +56920,36 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N707" t="n">
-        <v>4000</v>
+        <v>150000</v>
       </c>
       <c r="O707" t="n">
-        <v>4000</v>
+        <v>150000</v>
       </c>
       <c r="P707" t="n">
-        <v>4000</v>
+        <v>150000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T707" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N708" t="n">
         <v>120000</v>
       </c>
       <c r="O708" t="n">
-        <v>140000</v>
+        <v>135000</v>
       </c>
       <c r="P708" t="n">
-        <v>130000</v>
+        <v>127500</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57022,11 +57022,11 @@
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="T708" t="n">
         <v>450</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57080,11 +57080,11 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N709" t="n">
         <v>100000</v>
@@ -57102,7 +57102,7 @@
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S709" t="n">
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,7 +57155,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
@@ -57164,32 +57164,32 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="N710" t="n">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="O710" t="n">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="P710" t="n">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T710" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
@@ -57244,32 +57244,32 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="N711" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="O711" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="P711" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T711" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57320,36 +57320,36 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="N712" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="O712" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="P712" t="n">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T712" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57400,36 +57400,36 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N713" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O713" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="P713" t="n">
-        <v>137500</v>
+        <v>6000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>306</v>
+        <v>600</v>
       </c>
       <c r="T713" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N714" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="O714" t="n">
-        <v>145000</v>
+        <v>200000</v>
       </c>
       <c r="P714" t="n">
-        <v>139000</v>
+        <v>200000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>309</v>
+        <v>444</v>
       </c>
       <c r="T714" t="n">
         <v>450</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="N715" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O715" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P715" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57582,11 +57582,11 @@
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T715" t="n">
         <v>10</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57640,20 +57640,20 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N716" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O716" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P716" t="n">
-        <v>120000</v>
+        <v>165000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57662,11 +57662,11 @@
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="T716" t="n">
         <v>450</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57724,32 +57724,32 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="N717" t="n">
-        <v>112500</v>
+        <v>4000</v>
       </c>
       <c r="O717" t="n">
-        <v>125000</v>
+        <v>4000</v>
       </c>
       <c r="P717" t="n">
-        <v>120455</v>
+        <v>4000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="T717" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N718" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O718" t="n">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="P718" t="n">
-        <v>85000</v>
+        <v>130000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="T718" t="n">
         <v>450</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N719" t="n">
-        <v>315000</v>
+        <v>100000</v>
       </c>
       <c r="O719" t="n">
-        <v>315000</v>
+        <v>100000</v>
       </c>
       <c r="P719" t="n">
-        <v>315000</v>
+        <v>100000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57902,11 +57902,11 @@
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>700</v>
+        <v>222</v>
       </c>
       <c r="T719" t="n">
         <v>450</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,41 +57955,41 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="N720" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="O720" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="P720" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S720" t="n">
         <v>500</v>
       </c>
       <c r="T720" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,41 +58035,41 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>6</v>
+        <v>480</v>
       </c>
       <c r="N721" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="O721" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="P721" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T721" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58124,20 +58124,20 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="N722" t="n">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="O722" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="P722" t="n">
-        <v>900</v>
+        <v>4500</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
@@ -58146,10 +58146,10 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="T722" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,36 +58200,36 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N723" t="n">
-        <v>500</v>
+        <v>135000</v>
       </c>
       <c r="O723" t="n">
-        <v>500</v>
+        <v>140000</v>
       </c>
       <c r="P723" t="n">
-        <v>500</v>
+        <v>137500</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>500</v>
+        <v>306</v>
       </c>
       <c r="T723" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44312</v>
+        <v>44461</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,41 +58275,41 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="N724" t="n">
-        <v>14000</v>
+        <v>135000</v>
       </c>
       <c r="O724" t="n">
-        <v>14000</v>
+        <v>145000</v>
       </c>
       <c r="P724" t="n">
-        <v>14000</v>
+        <v>139000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>1400</v>
+        <v>309</v>
       </c>
       <c r="T724" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44312</v>
+        <v>44461</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,25 +58355,25 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N725" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O725" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P725" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58382,11 +58382,11 @@
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T725" t="n">
         <v>10</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,41 +58435,41 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N726" t="n">
-        <v>900</v>
+        <v>120000</v>
       </c>
       <c r="O726" t="n">
-        <v>900</v>
+        <v>120000</v>
       </c>
       <c r="P726" t="n">
-        <v>900</v>
+        <v>120000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>900</v>
+        <v>267</v>
       </c>
       <c r="T726" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,41 +58515,41 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N727" t="n">
-        <v>600</v>
+        <v>112500</v>
       </c>
       <c r="O727" t="n">
-        <v>700</v>
+        <v>125000</v>
       </c>
       <c r="P727" t="n">
-        <v>650</v>
+        <v>120455</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>650</v>
+        <v>268</v>
       </c>
       <c r="T727" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58600,36 +58600,36 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N728" t="n">
-        <v>8000</v>
+        <v>80000</v>
       </c>
       <c r="O728" t="n">
-        <v>8000</v>
+        <v>90000</v>
       </c>
       <c r="P728" t="n">
-        <v>8000</v>
+        <v>85000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>800</v>
+        <v>189</v>
       </c>
       <c r="T728" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44432</v>
+        <v>44193</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N729" t="n">
-        <v>202500</v>
+        <v>315000</v>
       </c>
       <c r="O729" t="n">
-        <v>202500</v>
+        <v>315000</v>
       </c>
       <c r="P729" t="n">
-        <v>202500</v>
+        <v>315000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58702,11 +58702,11 @@
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="T729" t="n">
         <v>450</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44432</v>
+        <v>44193</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58760,36 +58760,36 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="N730" t="n">
-        <v>6000</v>
+        <v>225000</v>
       </c>
       <c r="O730" t="n">
-        <v>6000</v>
+        <v>225000</v>
       </c>
       <c r="P730" t="n">
-        <v>6000</v>
+        <v>225000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T730" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44432</v>
+        <v>44193</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N731" t="n">
-        <v>157500</v>
+        <v>160000</v>
       </c>
       <c r="O731" t="n">
-        <v>157500</v>
+        <v>160000</v>
       </c>
       <c r="P731" t="n">
-        <v>157500</v>
+        <v>160000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="T731" t="n">
         <v>450</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44432</v>
+        <v>44286</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58924,32 +58924,32 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N732" t="n">
-        <v>180000</v>
+        <v>800</v>
       </c>
       <c r="O732" t="n">
-        <v>180000</v>
+        <v>1000</v>
       </c>
       <c r="P732" t="n">
-        <v>180000</v>
+        <v>900</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="T732" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44432</v>
+        <v>44286</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59004,32 +59004,32 @@
         </is>
       </c>
       <c r="M733" t="n">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="N733" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="O733" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="P733" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T733" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59075,41 +59075,41 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M734" t="n">
+        <v>360</v>
+      </c>
+      <c r="N734" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O734" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P734" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q734" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R734" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S734" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T734" t="n">
         <v>10</v>
-      </c>
-      <c r="N734" t="n">
-        <v>130000</v>
-      </c>
-      <c r="O734" t="n">
-        <v>130000</v>
-      </c>
-      <c r="P734" t="n">
-        <v>130000</v>
-      </c>
-      <c r="Q734" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R734" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S734" t="n">
-        <v>289</v>
-      </c>
-      <c r="T734" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="735">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59155,41 +59155,41 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N735" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="O735" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="P735" t="n">
-        <v>135000</v>
+        <v>12000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="T735" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,41 +59235,41 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N736" t="n">
-        <v>90000</v>
+        <v>900</v>
       </c>
       <c r="O736" t="n">
-        <v>90000</v>
+        <v>900</v>
       </c>
       <c r="P736" t="n">
-        <v>90000</v>
+        <v>900</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="T736" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -59287,68 +59287,868 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E737" t="n">
+        <v>13</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G737" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I737" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M737" t="n">
+        <v>14</v>
+      </c>
+      <c r="N737" t="n">
+        <v>600</v>
+      </c>
+      <c r="O737" t="n">
+        <v>700</v>
+      </c>
+      <c r="P737" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q737" t="inlineStr">
+        <is>
+          <t>$/kilo (en bins de 450 kilos)</t>
+        </is>
+      </c>
+      <c r="R737" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S737" t="n">
+        <v>650</v>
+      </c>
+      <c r="T737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>6</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D738" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E737" t="n">
-        <v>13</v>
-      </c>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G737" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I737" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J737" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K737" t="inlineStr">
+      <c r="E738" t="n">
+        <v>13</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G738" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I738" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M738" t="n">
+        <v>480</v>
+      </c>
+      <c r="N738" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O738" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P738" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q738" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R738" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S738" t="n">
+        <v>800</v>
+      </c>
+      <c r="T738" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>6</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D739" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E739" t="n">
+        <v>13</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G739" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I739" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M739" t="n">
+        <v>14</v>
+      </c>
+      <c r="N739" t="n">
+        <v>202500</v>
+      </c>
+      <c r="O739" t="n">
+        <v>202500</v>
+      </c>
+      <c r="P739" t="n">
+        <v>202500</v>
+      </c>
+      <c r="Q739" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R739" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S739" t="n">
+        <v>450</v>
+      </c>
+      <c r="T739" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>6</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D740" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E740" t="n">
+        <v>13</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I740" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M740" t="n">
+        <v>600</v>
+      </c>
+      <c r="N740" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O740" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P740" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q740" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R740" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S740" t="n">
+        <v>600</v>
+      </c>
+      <c r="T740" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>6</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D741" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E741" t="n">
+        <v>13</v>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G741" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I741" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M741" t="n">
+        <v>16</v>
+      </c>
+      <c r="N741" t="n">
+        <v>157500</v>
+      </c>
+      <c r="O741" t="n">
+        <v>157500</v>
+      </c>
+      <c r="P741" t="n">
+        <v>157500</v>
+      </c>
+      <c r="Q741" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R741" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S741" t="n">
+        <v>350</v>
+      </c>
+      <c r="T741" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>6</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D742" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E742" t="n">
+        <v>13</v>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G742" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I742" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M742" t="n">
+        <v>18</v>
+      </c>
+      <c r="N742" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O742" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P742" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q742" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R742" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S742" t="n">
+        <v>400</v>
+      </c>
+      <c r="T742" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>6</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D743" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E743" t="n">
+        <v>13</v>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G743" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I743" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M743" t="n">
+        <v>360</v>
+      </c>
+      <c r="N743" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O743" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P743" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q743" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R743" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S743" t="n">
+        <v>400</v>
+      </c>
+      <c r="T743" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>6</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D744" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E744" t="n">
+        <v>13</v>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G744" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I744" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M744" t="n">
+        <v>10</v>
+      </c>
+      <c r="N744" t="n">
+        <v>130000</v>
+      </c>
+      <c r="O744" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P744" t="n">
+        <v>130000</v>
+      </c>
+      <c r="Q744" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R744" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S744" t="n">
+        <v>289</v>
+      </c>
+      <c r="T744" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>6</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D745" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E745" t="n">
+        <v>13</v>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G745" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I745" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M745" t="n">
+        <v>12</v>
+      </c>
+      <c r="N745" t="n">
+        <v>135000</v>
+      </c>
+      <c r="O745" t="n">
+        <v>135000</v>
+      </c>
+      <c r="P745" t="n">
+        <v>135000</v>
+      </c>
+      <c r="Q745" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R745" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S745" t="n">
+        <v>300</v>
+      </c>
+      <c r="T745" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>6</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D746" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E746" t="n">
+        <v>13</v>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G746" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I746" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M746" t="n">
+        <v>6</v>
+      </c>
+      <c r="N746" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O746" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P746" t="n">
+        <v>90000</v>
+      </c>
+      <c r="Q746" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R746" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S746" t="n">
+        <v>200</v>
+      </c>
+      <c r="T746" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>6</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D747" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E747" t="n">
+        <v>13</v>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G747" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I747" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J747" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K747" t="inlineStr">
         <is>
           <t>Tango</t>
         </is>
       </c>
-      <c r="L737" t="inlineStr">
+      <c r="L747" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M737" t="n">
+      <c r="M747" t="n">
         <v>480</v>
       </c>
-      <c r="N737" t="n">
+      <c r="N747" t="n">
         <v>6000</v>
       </c>
-      <c r="O737" t="n">
+      <c r="O747" t="n">
         <v>6000</v>
       </c>
-      <c r="P737" t="n">
+      <c r="P747" t="n">
         <v>6000</v>
       </c>
-      <c r="Q737" t="inlineStr">
+      <c r="Q747" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R737" t="inlineStr">
+      <c r="R747" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S737" t="n">
+      <c r="S747" t="n">
         <v>600</v>
       </c>
-      <c r="T737" t="n">
+      <c r="T747" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T811"/>
+  <dimension ref="A1:T814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56684,16 +56684,16 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N704" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O704" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P704" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T704" t="n">
         <v>10</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56764,16 +56764,16 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N705" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O705" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P705" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56782,11 +56782,11 @@
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T705" t="n">
         <v>10</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="N706" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O706" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P706" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56862,11 +56862,11 @@
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T706" t="n">
         <v>10</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M707" t="n">
         <v>360</v>
       </c>
       <c r="N707" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O707" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P707" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T707" t="n">
         <v>10</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="N708" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O708" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P708" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57022,11 +57022,11 @@
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T708" t="n">
         <v>10</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="N709" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O709" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P709" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T709" t="n">
         <v>10</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,25 +57155,25 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N710" t="n">
         <v>7000</v>
       </c>
       <c r="O710" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P710" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57182,11 +57182,11 @@
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T710" t="n">
         <v>10</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,41 +57235,41 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="N711" t="n">
-        <v>170000</v>
+        <v>6000</v>
       </c>
       <c r="O711" t="n">
-        <v>170000</v>
+        <v>6000</v>
       </c>
       <c r="P711" t="n">
-        <v>170000</v>
+        <v>6000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>378</v>
+        <v>600</v>
       </c>
       <c r="T711" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="712">
@@ -57315,41 +57315,41 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="N712" t="n">
-        <v>125000</v>
+        <v>10000</v>
       </c>
       <c r="O712" t="n">
-        <v>125000</v>
+        <v>10000</v>
       </c>
       <c r="P712" t="n">
-        <v>125000</v>
+        <v>10000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>278</v>
+        <v>1000</v>
       </c>
       <c r="T712" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="713">
@@ -57395,41 +57395,41 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="N713" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="O713" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="P713" t="n">
-        <v>90000</v>
+        <v>7500</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="T713" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N714" t="n">
-        <v>330000</v>
+        <v>170000</v>
       </c>
       <c r="O714" t="n">
-        <v>330000</v>
+        <v>170000</v>
       </c>
       <c r="P714" t="n">
-        <v>330000</v>
+        <v>170000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57502,11 +57502,11 @@
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>733</v>
+        <v>378</v>
       </c>
       <c r="T714" t="n">
         <v>450</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57555,25 +57555,25 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N715" t="n">
-        <v>300000</v>
+        <v>125000</v>
       </c>
       <c r="O715" t="n">
-        <v>310000</v>
+        <v>125000</v>
       </c>
       <c r="P715" t="n">
-        <v>305000</v>
+        <v>125000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57582,11 +57582,11 @@
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>678</v>
+        <v>278</v>
       </c>
       <c r="T715" t="n">
         <v>450</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,41 +57635,41 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="N716" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="O716" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="P716" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="T716" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="717">
@@ -57715,41 +57715,41 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="N717" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="O717" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="P717" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="T717" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="718">
@@ -57795,41 +57795,41 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="N718" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="O718" t="n">
-        <v>10000</v>
+        <v>310000</v>
       </c>
       <c r="P718" t="n">
-        <v>10000</v>
+        <v>305000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>1000</v>
+        <v>678</v>
       </c>
       <c r="T718" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="719">
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N719" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O719" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P719" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T719" t="n">
         <v>10</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,41 +57955,41 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>8</v>
+        <v>360</v>
       </c>
       <c r="N720" t="n">
-        <v>400000</v>
+        <v>11000</v>
       </c>
       <c r="O720" t="n">
-        <v>400000</v>
+        <v>11000</v>
       </c>
       <c r="P720" t="n">
-        <v>400000</v>
+        <v>11000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T720" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,25 +58035,25 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N721" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O721" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P721" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58062,11 +58062,11 @@
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T721" t="n">
         <v>10</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,41 +58115,41 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N722" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="O722" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="P722" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S722" t="n">
         <v>800</v>
       </c>
       <c r="T722" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="723">
@@ -58200,24 +58200,24 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="N723" t="n">
-        <v>8000</v>
+        <v>400000</v>
       </c>
       <c r="O723" t="n">
-        <v>9000</v>
+        <v>400000</v>
       </c>
       <c r="P723" t="n">
-        <v>8500</v>
+        <v>400000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
@@ -58226,10 +58226,10 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="T723" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="724">
@@ -58280,36 +58280,36 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M724" t="n">
+        <v>350</v>
+      </c>
+      <c r="N724" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O724" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P724" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q724" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R724" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S724" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T724" t="n">
         <v>10</v>
-      </c>
-      <c r="N724" t="n">
-        <v>300000</v>
-      </c>
-      <c r="O724" t="n">
-        <v>300000</v>
-      </c>
-      <c r="P724" t="n">
-        <v>300000</v>
-      </c>
-      <c r="Q724" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R724" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S724" t="n">
-        <v>667</v>
-      </c>
-      <c r="T724" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="725">
@@ -58355,25 +58355,25 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N725" t="n">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="O725" t="n">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="P725" t="n">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T725" t="n">
         <v>450</v>
@@ -58435,29 +58435,29 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="N726" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="O726" t="n">
-        <v>400000</v>
+        <v>9000</v>
       </c>
       <c r="P726" t="n">
-        <v>400000</v>
+        <v>8500</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
@@ -58466,10 +58466,10 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>889</v>
+        <v>850</v>
       </c>
       <c r="T726" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,41 +58515,41 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N727" t="n">
-        <v>1200</v>
+        <v>300000</v>
       </c>
       <c r="O727" t="n">
-        <v>1200</v>
+        <v>300000</v>
       </c>
       <c r="P727" t="n">
-        <v>1200</v>
+        <v>300000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T727" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,41 +58595,41 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N728" t="n">
-        <v>900</v>
+        <v>450000</v>
       </c>
       <c r="O728" t="n">
+        <v>450000</v>
+      </c>
+      <c r="P728" t="n">
+        <v>450000</v>
+      </c>
+      <c r="Q728" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R728" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S728" t="n">
         <v>1000</v>
       </c>
-      <c r="P728" t="n">
-        <v>950</v>
-      </c>
-      <c r="Q728" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R728" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S728" t="n">
-        <v>950</v>
-      </c>
       <c r="T728" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,41 +58675,41 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>720</v>
+        <v>16</v>
       </c>
       <c r="N729" t="n">
-        <v>7000</v>
+        <v>400000</v>
       </c>
       <c r="O729" t="n">
-        <v>8000</v>
+        <v>400000</v>
       </c>
       <c r="P729" t="n">
-        <v>7500</v>
+        <v>400000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T729" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,41 +58755,41 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>960</v>
+        <v>5</v>
       </c>
       <c r="N730" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="O730" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="P730" t="n">
-        <v>5500</v>
+        <v>1200</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="T730" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,7 +58835,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -58844,32 +58844,32 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N731" t="n">
-        <v>180000</v>
+        <v>900</v>
       </c>
       <c r="O731" t="n">
-        <v>190000</v>
+        <v>1000</v>
       </c>
       <c r="P731" t="n">
-        <v>185000</v>
+        <v>950</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>411</v>
+        <v>950</v>
       </c>
       <c r="T731" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="N732" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O732" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P732" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="T732" t="n">
         <v>10</v>
@@ -59000,36 +59000,36 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>20</v>
+        <v>960</v>
       </c>
       <c r="N733" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="O733" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="P733" t="n">
-        <v>140000</v>
+        <v>5500</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>311</v>
+        <v>550</v>
       </c>
       <c r="T733" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="734">
@@ -59080,36 +59080,36 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N734" t="n">
-        <v>2500</v>
+        <v>180000</v>
       </c>
       <c r="O734" t="n">
-        <v>3000</v>
+        <v>190000</v>
       </c>
       <c r="P734" t="n">
-        <v>2750</v>
+        <v>185000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="T734" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="735">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N735" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O735" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P735" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="T735" t="n">
         <v>10</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N736" t="n">
-        <v>225000</v>
+        <v>140000</v>
       </c>
       <c r="O736" t="n">
-        <v>225000</v>
+        <v>140000</v>
       </c>
       <c r="P736" t="n">
-        <v>225000</v>
+        <v>140000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59262,11 +59262,11 @@
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>500</v>
+        <v>311</v>
       </c>
       <c r="T736" t="n">
         <v>450</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="N737" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="O737" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P737" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>575</v>
+        <v>275</v>
       </c>
       <c r="T737" t="n">
         <v>10</v>
@@ -59400,36 +59400,36 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="N738" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O738" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P738" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T738" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="739">
@@ -59480,36 +59480,36 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N739" t="n">
-        <v>4000</v>
+        <v>225000</v>
       </c>
       <c r="O739" t="n">
-        <v>4500</v>
+        <v>225000</v>
       </c>
       <c r="P739" t="n">
-        <v>4250</v>
+        <v>225000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="T739" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="740">
@@ -59560,36 +59560,36 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>24</v>
+        <v>720</v>
       </c>
       <c r="N740" t="n">
-        <v>157000</v>
+        <v>5500</v>
       </c>
       <c r="O740" t="n">
-        <v>157000</v>
+        <v>6000</v>
       </c>
       <c r="P740" t="n">
-        <v>157000</v>
+        <v>5750</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>349</v>
+        <v>575</v>
       </c>
       <c r="T740" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="741">
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N741" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="O741" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P741" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T741" t="n">
         <v>450</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>125</v>
+        <v>480</v>
       </c>
       <c r="N742" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O742" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P742" t="n">
-        <v>12000</v>
+        <v>4250</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59742,11 +59742,11 @@
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1200</v>
+        <v>425</v>
       </c>
       <c r="T742" t="n">
         <v>10</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,41 +59795,41 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>600</v>
+        <v>24</v>
       </c>
       <c r="N743" t="n">
-        <v>11000</v>
+        <v>157000</v>
       </c>
       <c r="O743" t="n">
-        <v>11000</v>
+        <v>157000</v>
       </c>
       <c r="P743" t="n">
-        <v>11000</v>
+        <v>157000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1100</v>
+        <v>349</v>
       </c>
       <c r="T743" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,41 +59875,41 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N744" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="O744" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="P744" t="n">
-        <v>9000</v>
+        <v>135000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="T744" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="745">
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>720</v>
+        <v>125</v>
       </c>
       <c r="N745" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O745" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P745" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T745" t="n">
         <v>10</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N746" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O746" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P746" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T746" t="n">
         <v>10</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N747" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O747" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P747" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T747" t="n">
         <v>10</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,41 +60195,41 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M748" t="n">
+        <v>720</v>
+      </c>
+      <c r="N748" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O748" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P748" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q748" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R748" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S748" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T748" t="n">
         <v>10</v>
-      </c>
-      <c r="N748" t="n">
-        <v>440000</v>
-      </c>
-      <c r="O748" t="n">
-        <v>440000</v>
-      </c>
-      <c r="P748" t="n">
-        <v>440000</v>
-      </c>
-      <c r="Q748" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R748" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="S748" t="n">
-        <v>978</v>
-      </c>
-      <c r="T748" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>1020</v>
+        <v>480</v>
       </c>
       <c r="N749" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O749" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P749" t="n">
-        <v>10794</v>
+        <v>8000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1079</v>
+        <v>800</v>
       </c>
       <c r="T749" t="n">
         <v>10</v>
@@ -60360,24 +60360,24 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="N750" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="O750" t="n">
-        <v>410000</v>
+        <v>12000</v>
       </c>
       <c r="P750" t="n">
-        <v>405000</v>
+        <v>12000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
@@ -60386,10 +60386,10 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T750" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="751">
@@ -60440,24 +60440,24 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N751" t="n">
-        <v>9000</v>
+        <v>440000</v>
       </c>
       <c r="O751" t="n">
-        <v>9000</v>
+        <v>440000</v>
       </c>
       <c r="P751" t="n">
-        <v>9000</v>
+        <v>440000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
@@ -60466,10 +60466,10 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>900</v>
+        <v>978</v>
       </c>
       <c r="T751" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -60524,32 +60524,32 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>18</v>
+        <v>1020</v>
       </c>
       <c r="N752" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O752" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P752" t="n">
-        <v>180000</v>
+        <v>10794</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>400</v>
+        <v>1079</v>
       </c>
       <c r="T752" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,25 +60595,25 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N753" t="n">
-        <v>135000</v>
+        <v>400000</v>
       </c>
       <c r="O753" t="n">
-        <v>135000</v>
+        <v>410000</v>
       </c>
       <c r="P753" t="n">
-        <v>135000</v>
+        <v>405000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="T753" t="n">
         <v>450</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,41 +60675,41 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="N754" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="O754" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="P754" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="T754" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="755">
@@ -60755,7 +60755,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -60764,7 +60764,7 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N755" t="n">
         <v>180000</v>
@@ -60782,7 +60782,7 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S755" t="n">
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,7 +60844,7 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N756" t="n">
         <v>135000</v>
@@ -60862,7 +60862,7 @@
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S756" t="n">
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,16 +60924,16 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N757" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="O757" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="P757" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60942,11 +60942,11 @@
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="T757" t="n">
         <v>450</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,41 +60995,41 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N758" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="O758" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P758" t="n">
-        <v>7500</v>
+        <v>180000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T758" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61075,41 +61075,41 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>640</v>
+        <v>10</v>
       </c>
       <c r="N759" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="O759" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P759" t="n">
-        <v>5500</v>
+        <v>135000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="T759" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,25 +61155,25 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="N760" t="n">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="O760" t="n">
-        <v>202000</v>
+        <v>80000</v>
       </c>
       <c r="P760" t="n">
-        <v>186000</v>
+        <v>80000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61182,11 +61182,11 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>413</v>
+        <v>178</v>
       </c>
       <c r="T760" t="n">
         <v>450</v>
@@ -61240,20 +61240,20 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M761" t="n">
         <v>480</v>
       </c>
       <c r="N761" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O761" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P761" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="T761" t="n">
         <v>10</v>
@@ -61320,36 +61320,36 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>12</v>
+        <v>640</v>
       </c>
       <c r="N762" t="n">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="O762" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="P762" t="n">
-        <v>160000</v>
+        <v>5500</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>356</v>
+        <v>550</v>
       </c>
       <c r="T762" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="763">
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N763" t="n">
-        <v>125000</v>
+        <v>180000</v>
       </c>
       <c r="O763" t="n">
-        <v>125000</v>
+        <v>202000</v>
       </c>
       <c r="P763" t="n">
-        <v>125000</v>
+        <v>186000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>278</v>
+        <v>413</v>
       </c>
       <c r="T763" t="n">
         <v>450</v>
@@ -61475,25 +61475,25 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>832</v>
+        <v>480</v>
       </c>
       <c r="N764" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="O764" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P764" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>650</v>
+        <v>375</v>
       </c>
       <c r="T764" t="n">
         <v>10</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,41 +61555,41 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="N765" t="n">
-        <v>6000</v>
+        <v>160000</v>
       </c>
       <c r="O765" t="n">
-        <v>6000</v>
+        <v>160000</v>
       </c>
       <c r="P765" t="n">
-        <v>6000</v>
+        <v>160000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T765" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61635,41 +61635,41 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="N766" t="n">
-        <v>5000</v>
+        <v>125000</v>
       </c>
       <c r="O766" t="n">
-        <v>5000</v>
+        <v>125000</v>
       </c>
       <c r="P766" t="n">
-        <v>5000</v>
+        <v>125000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T766" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -61724,32 +61724,32 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>16</v>
+        <v>832</v>
       </c>
       <c r="N767" t="n">
-        <v>180000</v>
+        <v>6500</v>
       </c>
       <c r="O767" t="n">
-        <v>180000</v>
+        <v>6500</v>
       </c>
       <c r="P767" t="n">
-        <v>180000</v>
+        <v>6500</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="T767" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768">
@@ -61800,20 +61800,20 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N768" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O768" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P768" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T768" t="n">
         <v>10</v>
@@ -61880,36 +61880,36 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="N769" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="O769" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="P769" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T769" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,7 +61955,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -61964,32 +61964,32 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N770" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O770" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="P770" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>933</v>
+        <v>400</v>
       </c>
       <c r="T770" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,41 +62035,41 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M771" t="n">
+        <v>480</v>
+      </c>
+      <c r="N771" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O771" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P771" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q771" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R771" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S771" t="n">
+        <v>400</v>
+      </c>
+      <c r="T771" t="n">
         <v>10</v>
-      </c>
-      <c r="N771" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O771" t="n">
-        <v>150000</v>
-      </c>
-      <c r="P771" t="n">
-        <v>150000</v>
-      </c>
-      <c r="Q771" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R771" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S771" t="n">
-        <v>333</v>
-      </c>
-      <c r="T771" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62115,25 +62115,25 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N772" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="O772" t="n">
         <v>135000</v>
       </c>
       <c r="P772" t="n">
-        <v>127500</v>
+        <v>135000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="T772" t="n">
         <v>450</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62200,36 +62200,36 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N773" t="n">
-        <v>100000</v>
+        <v>14000</v>
       </c>
       <c r="O773" t="n">
-        <v>100000</v>
+        <v>14000</v>
       </c>
       <c r="P773" t="n">
-        <v>100000</v>
+        <v>14000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>222</v>
+        <v>933</v>
       </c>
       <c r="T773" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62284,32 +62284,32 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N774" t="n">
-        <v>1100</v>
+        <v>150000</v>
       </c>
       <c r="O774" t="n">
-        <v>1100</v>
+        <v>150000</v>
       </c>
       <c r="P774" t="n">
-        <v>1100</v>
+        <v>150000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>1100</v>
+        <v>333</v>
       </c>
       <c r="T774" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62364,32 +62364,32 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N775" t="n">
-        <v>700</v>
+        <v>120000</v>
       </c>
       <c r="O775" t="n">
-        <v>700</v>
+        <v>135000</v>
       </c>
       <c r="P775" t="n">
-        <v>700</v>
+        <v>127500</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>700</v>
+        <v>283</v>
       </c>
       <c r="T775" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62444,32 +62444,32 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N776" t="n">
-        <v>500</v>
+        <v>100000</v>
       </c>
       <c r="O776" t="n">
-        <v>500</v>
+        <v>100000</v>
       </c>
       <c r="P776" t="n">
-        <v>500</v>
+        <v>100000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="T776" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62524,32 +62524,32 @@
         </is>
       </c>
       <c r="M777" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N777" t="n">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="O777" t="n">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="P777" t="n">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T777" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62600,36 +62600,36 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N778" t="n">
-        <v>200000</v>
+        <v>700</v>
       </c>
       <c r="O778" t="n">
-        <v>200000</v>
+        <v>700</v>
       </c>
       <c r="P778" t="n">
-        <v>200000</v>
+        <v>700</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T778" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="N779" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="O779" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="P779" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S779" t="n">
         <v>500</v>
       </c>
       <c r="T779" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -62760,36 +62760,36 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N780" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="O780" t="n">
-        <v>170000</v>
+        <v>6000</v>
       </c>
       <c r="P780" t="n">
-        <v>165000</v>
+        <v>6000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="T780" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="781">
@@ -62840,36 +62840,36 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N781" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="O781" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="P781" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T781" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="782">
@@ -62920,36 +62920,36 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="N782" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="O782" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="P782" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>289</v>
+        <v>500</v>
       </c>
       <c r="T782" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="783">
@@ -63000,20 +63000,20 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N783" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O783" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="P783" t="n">
-        <v>100000</v>
+        <v>165000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="T783" t="n">
         <v>450</v>
@@ -63075,25 +63075,25 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N784" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O784" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P784" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63102,11 +63102,11 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T784" t="n">
         <v>10</v>
@@ -63155,41 +63155,41 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N785" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O785" t="n">
-        <v>4000</v>
+        <v>140000</v>
       </c>
       <c r="P785" t="n">
-        <v>4000</v>
+        <v>130000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T785" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63240,36 +63240,36 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="N786" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="O786" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="P786" t="n">
-        <v>4500</v>
+        <v>100000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S786" t="n">
+        <v>222</v>
+      </c>
+      <c r="T786" t="n">
         <v>450</v>
-      </c>
-      <c r="T786" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63315,41 +63315,41 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N787" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="O787" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="P787" t="n">
-        <v>137500</v>
+        <v>5000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>306</v>
+        <v>500</v>
       </c>
       <c r="T787" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63395,7 +63395,7 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
@@ -63404,32 +63404,32 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="N788" t="n">
-        <v>135000</v>
+        <v>4000</v>
       </c>
       <c r="O788" t="n">
-        <v>145000</v>
+        <v>4000</v>
       </c>
       <c r="P788" t="n">
-        <v>139000</v>
+        <v>4000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="T788" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="789">
@@ -63480,20 +63480,20 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="N789" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O789" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P789" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="T789" t="n">
         <v>10</v>
@@ -63560,20 +63560,20 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N790" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="O790" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P790" t="n">
-        <v>120000</v>
+        <v>137500</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="T790" t="n">
         <v>450</v>
@@ -63640,20 +63640,20 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N791" t="n">
-        <v>112500</v>
+        <v>135000</v>
       </c>
       <c r="O791" t="n">
-        <v>125000</v>
+        <v>145000</v>
       </c>
       <c r="P791" t="n">
-        <v>120455</v>
+        <v>139000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="T791" t="n">
         <v>450</v>
@@ -63720,36 +63720,36 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="N792" t="n">
-        <v>80000</v>
+        <v>3000</v>
       </c>
       <c r="O792" t="n">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="P792" t="n">
-        <v>85000</v>
+        <v>3000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="T792" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63800,20 +63800,20 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N793" t="n">
-        <v>315000</v>
+        <v>120000</v>
       </c>
       <c r="O793" t="n">
-        <v>315000</v>
+        <v>120000</v>
       </c>
       <c r="P793" t="n">
-        <v>315000</v>
+        <v>120000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
@@ -63822,11 +63822,11 @@
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>700</v>
+        <v>267</v>
       </c>
       <c r="T793" t="n">
         <v>450</v>
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63884,16 +63884,16 @@
         </is>
       </c>
       <c r="M794" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N794" t="n">
-        <v>225000</v>
+        <v>112500</v>
       </c>
       <c r="O794" t="n">
-        <v>225000</v>
+        <v>125000</v>
       </c>
       <c r="P794" t="n">
-        <v>225000</v>
+        <v>120455</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
@@ -63902,11 +63902,11 @@
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>500</v>
+        <v>268</v>
       </c>
       <c r="T794" t="n">
         <v>450</v>
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -63964,16 +63964,16 @@
         </is>
       </c>
       <c r="M795" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N795" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="O795" t="n">
-        <v>160000</v>
+        <v>90000</v>
       </c>
       <c r="P795" t="n">
-        <v>160000</v>
+        <v>85000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63982,11 +63982,11 @@
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="T795" t="n">
         <v>450</v>
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -64044,32 +64044,32 @@
         </is>
       </c>
       <c r="M796" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N796" t="n">
-        <v>800</v>
+        <v>315000</v>
       </c>
       <c r="O796" t="n">
-        <v>1000</v>
+        <v>315000</v>
       </c>
       <c r="P796" t="n">
-        <v>900</v>
+        <v>315000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T796" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -64124,32 +64124,32 @@
         </is>
       </c>
       <c r="M797" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N797" t="n">
-        <v>500</v>
+        <v>225000</v>
       </c>
       <c r="O797" t="n">
-        <v>500</v>
+        <v>225000</v>
       </c>
       <c r="P797" t="n">
-        <v>500</v>
+        <v>225000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S797" t="n">
         <v>500</v>
       </c>
       <c r="T797" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -64195,41 +64195,41 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="N798" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="O798" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="P798" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>1400</v>
+        <v>356</v>
       </c>
       <c r="T798" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="799">
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -64275,7 +64275,7 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
@@ -64284,32 +64284,32 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="N799" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="O799" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="P799" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T799" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44326</v>
+        <v>44286</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -64355,25 +64355,25 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N800" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="O800" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="P800" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64382,11 +64382,11 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T800" t="n">
         <v>1</v>
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -64435,41 +64435,41 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="N801" t="n">
-        <v>600</v>
+        <v>14000</v>
       </c>
       <c r="O801" t="n">
-        <v>700</v>
+        <v>14000</v>
       </c>
       <c r="P801" t="n">
-        <v>650</v>
+        <v>14000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="T801" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -64515,25 +64515,25 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N802" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O802" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P802" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
@@ -64546,7 +64546,7 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T802" t="n">
         <v>10</v>
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -64595,7 +64595,7 @@
       </c>
       <c r="K803" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L803" t="inlineStr">
@@ -64604,32 +64604,32 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N803" t="n">
-        <v>202500</v>
+        <v>900</v>
       </c>
       <c r="O803" t="n">
-        <v>202500</v>
+        <v>900</v>
       </c>
       <c r="P803" t="n">
-        <v>202500</v>
+        <v>900</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="T803" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -64675,7 +64675,7 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
@@ -64684,32 +64684,32 @@
         </is>
       </c>
       <c r="M804" t="n">
+        <v>14</v>
+      </c>
+      <c r="N804" t="n">
         <v>600</v>
       </c>
-      <c r="N804" t="n">
-        <v>6000</v>
-      </c>
       <c r="O804" t="n">
-        <v>6000</v>
+        <v>700</v>
       </c>
       <c r="P804" t="n">
-        <v>6000</v>
+        <v>650</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T804" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -64760,36 +64760,36 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N805" t="n">
-        <v>157500</v>
+        <v>8000</v>
       </c>
       <c r="O805" t="n">
-        <v>157500</v>
+        <v>8000</v>
       </c>
       <c r="P805" t="n">
-        <v>157500</v>
+        <v>8000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="T805" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="806">
@@ -64840,20 +64840,20 @@
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N806" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="O806" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="P806" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64866,7 +64866,7 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T806" t="n">
         <v>450</v>
@@ -64920,20 +64920,20 @@
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N807" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O807" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P807" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
@@ -64946,7 +64946,7 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T807" t="n">
         <v>10</v>
@@ -65000,20 +65000,20 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N808" t="n">
-        <v>130000</v>
+        <v>157500</v>
       </c>
       <c r="O808" t="n">
-        <v>130000</v>
+        <v>157500</v>
       </c>
       <c r="P808" t="n">
-        <v>130000</v>
+        <v>157500</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65026,7 +65026,7 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="T808" t="n">
         <v>450</v>
@@ -65080,20 +65080,20 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N809" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="O809" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P809" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T809" t="n">
         <v>450</v>
@@ -65160,36 +65160,36 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="N810" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="O810" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="P810" t="n">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T810" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="811">
@@ -65235,40 +65235,280 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M811" t="n">
+        <v>10</v>
+      </c>
+      <c r="N811" t="n">
+        <v>130000</v>
+      </c>
+      <c r="O811" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P811" t="n">
+        <v>130000</v>
+      </c>
+      <c r="Q811" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R811" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S811" t="n">
+        <v>289</v>
+      </c>
+      <c r="T811" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>6</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D812" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E812" t="n">
+        <v>13</v>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G812" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I812" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M812" t="n">
+        <v>12</v>
+      </c>
+      <c r="N812" t="n">
+        <v>135000</v>
+      </c>
+      <c r="O812" t="n">
+        <v>135000</v>
+      </c>
+      <c r="P812" t="n">
+        <v>135000</v>
+      </c>
+      <c r="Q812" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R812" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S812" t="n">
+        <v>300</v>
+      </c>
+      <c r="T812" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>6</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D813" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E813" t="n">
+        <v>13</v>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G813" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I813" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M813" t="n">
+        <v>6</v>
+      </c>
+      <c r="N813" t="n">
+        <v>90000</v>
+      </c>
+      <c r="O813" t="n">
+        <v>90000</v>
+      </c>
+      <c r="P813" t="n">
+        <v>90000</v>
+      </c>
+      <c r="Q813" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R813" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S813" t="n">
+        <v>200</v>
+      </c>
+      <c r="T813" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>6</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D814" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E814" t="n">
+        <v>13</v>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G814" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I814" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
           <t>Tango</t>
         </is>
       </c>
-      <c r="L811" t="inlineStr">
+      <c r="L814" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M811" t="n">
+      <c r="M814" t="n">
         <v>480</v>
       </c>
-      <c r="N811" t="n">
+      <c r="N814" t="n">
         <v>6000</v>
       </c>
-      <c r="O811" t="n">
+      <c r="O814" t="n">
         <v>6000</v>
       </c>
-      <c r="P811" t="n">
+      <c r="P814" t="n">
         <v>6000</v>
       </c>
-      <c r="Q811" t="inlineStr">
+      <c r="Q814" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R811" t="inlineStr">
+      <c r="R814" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S811" t="n">
+      <c r="S814" t="n">
         <v>600</v>
       </c>
-      <c r="T811" t="n">
+      <c r="T814" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T847"/>
+  <dimension ref="A1:T856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,7 +57955,7 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
@@ -57964,16 +57964,16 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N720" t="n">
-        <v>157000</v>
+        <v>225000</v>
       </c>
       <c r="O720" t="n">
-        <v>167000</v>
+        <v>225000</v>
       </c>
       <c r="P720" t="n">
-        <v>162714</v>
+        <v>225000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57982,11 +57982,11 @@
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>362</v>
+        <v>500</v>
       </c>
       <c r="T720" t="n">
         <v>450</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58044,32 +58044,32 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="N721" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="O721" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="P721" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>356</v>
+        <v>600</v>
       </c>
       <c r="T721" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N722" t="n">
-        <v>126000</v>
+        <v>270000</v>
       </c>
       <c r="O722" t="n">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="P722" t="n">
-        <v>130909</v>
+        <v>270000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>291</v>
+        <v>600</v>
       </c>
       <c r="T722" t="n">
         <v>450</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58204,32 +58204,32 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="N723" t="n">
-        <v>120000</v>
+        <v>4500</v>
       </c>
       <c r="O723" t="n">
-        <v>130000</v>
+        <v>4500</v>
       </c>
       <c r="P723" t="n">
-        <v>125000</v>
+        <v>4500</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="T723" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N724" t="n">
-        <v>90000</v>
+        <v>225000</v>
       </c>
       <c r="O724" t="n">
-        <v>90000</v>
+        <v>225000</v>
       </c>
       <c r="P724" t="n">
-        <v>90000</v>
+        <v>225000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58302,11 +58302,11 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T724" t="n">
         <v>450</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,41 +58355,41 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N725" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="O725" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="P725" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="T725" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,25 +58435,25 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N726" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O726" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P726" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58462,11 +58462,11 @@
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="T726" t="n">
         <v>10</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,7 +58515,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -58524,32 +58524,32 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N727" t="n">
-        <v>4500</v>
+        <v>200000</v>
       </c>
       <c r="O727" t="n">
-        <v>4500</v>
+        <v>200000</v>
       </c>
       <c r="P727" t="n">
-        <v>4500</v>
+        <v>200000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S727" t="n">
+        <v>444</v>
+      </c>
+      <c r="T727" t="n">
         <v>450</v>
-      </c>
-      <c r="T727" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N728" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="O728" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="P728" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T728" t="n">
         <v>450</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,25 +58675,25 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N729" t="n">
-        <v>135000</v>
+        <v>157000</v>
       </c>
       <c r="O729" t="n">
-        <v>135000</v>
+        <v>167000</v>
       </c>
       <c r="P729" t="n">
-        <v>135000</v>
+        <v>162714</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58702,11 +58702,11 @@
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="T729" t="n">
         <v>450</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,25 +58755,25 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N730" t="n">
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="O730" t="n">
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="P730" t="n">
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58782,11 +58782,11 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="T730" t="n">
         <v>450</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58840,36 +58840,36 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="N731" t="n">
-        <v>5000</v>
+        <v>126000</v>
       </c>
       <c r="O731" t="n">
-        <v>5000</v>
+        <v>135000</v>
       </c>
       <c r="P731" t="n">
-        <v>5000</v>
+        <v>130909</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>500</v>
+        <v>291</v>
       </c>
       <c r="T731" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N732" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O732" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P732" t="n">
-        <v>190000</v>
+        <v>125000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>422</v>
+        <v>278</v>
       </c>
       <c r="T732" t="n">
         <v>450</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,36 +59000,36 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="N733" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="O733" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="P733" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T733" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="734">
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59075,41 +59075,41 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N734" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O734" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="P734" t="n">
-        <v>155000</v>
+        <v>8000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>344</v>
+        <v>800</v>
       </c>
       <c r="T734" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="735">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="N735" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O735" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P735" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="T735" t="n">
         <v>10</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,7 +59235,7 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
@@ -59244,32 +59244,32 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N736" t="n">
-        <v>120000</v>
+        <v>4500</v>
       </c>
       <c r="O736" t="n">
-        <v>120000</v>
+        <v>4500</v>
       </c>
       <c r="P736" t="n">
-        <v>120000</v>
+        <v>4500</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="T736" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="737">
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N737" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="O737" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="P737" t="n">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59342,11 +59342,11 @@
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T737" t="n">
         <v>450</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,41 +59395,41 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>480</v>
+        <v>18</v>
       </c>
       <c r="N738" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="O738" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P738" t="n">
-        <v>7500</v>
+        <v>135000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T738" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="739">
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,41 +59475,41 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>640</v>
+        <v>14</v>
       </c>
       <c r="N739" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O739" t="n">
-        <v>6000</v>
+        <v>90000</v>
       </c>
       <c r="P739" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="T739" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59560,36 +59560,36 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="N740" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O740" t="n">
-        <v>202000</v>
+        <v>5000</v>
       </c>
       <c r="P740" t="n">
-        <v>186000</v>
+        <v>5000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>413</v>
+        <v>500</v>
       </c>
       <c r="T740" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,36 +59640,36 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N741" t="n">
-        <v>3500</v>
+        <v>180000</v>
       </c>
       <c r="O741" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="P741" t="n">
-        <v>3750</v>
+        <v>190000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="T741" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,36 +59720,36 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N742" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="O742" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="P742" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T742" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N743" t="n">
-        <v>125000</v>
+        <v>150000</v>
       </c>
       <c r="O743" t="n">
-        <v>125000</v>
+        <v>160000</v>
       </c>
       <c r="P743" t="n">
-        <v>125000</v>
+        <v>155000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59822,11 +59822,11 @@
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="T743" t="n">
         <v>450</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,25 +59875,25 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>832</v>
+        <v>360</v>
       </c>
       <c r="N744" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O744" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P744" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="T744" t="n">
         <v>10</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,25 +59955,25 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M745" t="n">
         <v>20</v>
       </c>
       <c r="N745" t="n">
-        <v>315000</v>
+        <v>120000</v>
       </c>
       <c r="O745" t="n">
-        <v>360000</v>
+        <v>120000</v>
       </c>
       <c r="P745" t="n">
-        <v>337500</v>
+        <v>120000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>750</v>
+        <v>267</v>
       </c>
       <c r="T745" t="n">
         <v>450</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N746" t="n">
-        <v>225000</v>
+        <v>90000</v>
       </c>
       <c r="O746" t="n">
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="P746" t="n">
-        <v>247500</v>
+        <v>90000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="T746" t="n">
         <v>450</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,41 +60115,41 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="N747" t="n">
-        <v>600</v>
+        <v>7000</v>
       </c>
       <c r="O747" t="n">
-        <v>700</v>
+        <v>8000</v>
       </c>
       <c r="P747" t="n">
-        <v>650</v>
+        <v>7500</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T747" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,29 +60195,29 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>16</v>
+        <v>640</v>
       </c>
       <c r="N748" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="O748" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="P748" t="n">
-        <v>165000</v>
+        <v>5500</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
@@ -60226,10 +60226,10 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>367</v>
+        <v>550</v>
       </c>
       <c r="T748" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,41 +60275,41 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N749" t="n">
-        <v>400</v>
+        <v>180000</v>
       </c>
       <c r="O749" t="n">
-        <v>400</v>
+        <v>202000</v>
       </c>
       <c r="P749" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="T749" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60355,29 +60355,29 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="N750" t="n">
-        <v>247500</v>
+        <v>3500</v>
       </c>
       <c r="O750" t="n">
-        <v>247500</v>
+        <v>4000</v>
       </c>
       <c r="P750" t="n">
-        <v>247500</v>
+        <v>3750</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
@@ -60386,10 +60386,10 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="T750" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60435,25 +60435,25 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M751" t="n">
         <v>12</v>
       </c>
       <c r="N751" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O751" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P751" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60462,11 +60462,11 @@
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T751" t="n">
         <v>450</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="N752" t="n">
-        <v>170000</v>
+        <v>125000</v>
       </c>
       <c r="O752" t="n">
-        <v>180000</v>
+        <v>125000</v>
       </c>
       <c r="P752" t="n">
-        <v>175000</v>
+        <v>125000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="T752" t="n">
         <v>450</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,25 +60595,25 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>360</v>
+        <v>832</v>
       </c>
       <c r="N753" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O753" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P753" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="T753" t="n">
         <v>10</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,29 +60675,29 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>960</v>
+        <v>20</v>
       </c>
       <c r="N754" t="n">
-        <v>5500</v>
+        <v>315000</v>
       </c>
       <c r="O754" t="n">
-        <v>6000</v>
+        <v>360000</v>
       </c>
       <c r="P754" t="n">
-        <v>5750</v>
+        <v>337500</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
@@ -60706,10 +60706,10 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="T754" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,29 +60755,29 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="N755" t="n">
-        <v>4000</v>
+        <v>225000</v>
       </c>
       <c r="O755" t="n">
-        <v>4000</v>
+        <v>270000</v>
       </c>
       <c r="P755" t="n">
-        <v>4000</v>
+        <v>247500</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
@@ -60786,10 +60786,10 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T755" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,41 +60835,41 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="N756" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="O756" t="n">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="P756" t="n">
-        <v>5000</v>
+        <v>650</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T756" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,29 +60915,29 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N757" t="n">
-        <v>4000</v>
+        <v>150000</v>
       </c>
       <c r="O757" t="n">
-        <v>4000</v>
+        <v>180000</v>
       </c>
       <c r="P757" t="n">
-        <v>4000</v>
+        <v>165000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="T757" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,41 +60995,41 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N758" t="n">
-        <v>130000</v>
+        <v>400</v>
       </c>
       <c r="O758" t="n">
-        <v>140000</v>
+        <v>400</v>
       </c>
       <c r="P758" t="n">
-        <v>135000</v>
+        <v>400</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T758" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61075,29 +61075,29 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="N759" t="n">
-        <v>3000</v>
+        <v>247500</v>
       </c>
       <c r="O759" t="n">
-        <v>3000</v>
+        <v>247500</v>
       </c>
       <c r="P759" t="n">
-        <v>3000</v>
+        <v>247500</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,10 +61106,10 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="T759" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,25 +61155,25 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N760" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O760" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P760" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61182,11 +61182,11 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T760" t="n">
         <v>450</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,29 +61235,29 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="N761" t="n">
-        <v>2000</v>
+        <v>170000</v>
       </c>
       <c r="O761" t="n">
-        <v>2000</v>
+        <v>180000</v>
       </c>
       <c r="P761" t="n">
-        <v>2000</v>
+        <v>175000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
@@ -61266,10 +61266,10 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="T761" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,7 +61315,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -61327,13 +61327,13 @@
         <v>360</v>
       </c>
       <c r="N762" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O762" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P762" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T762" t="n">
         <v>10</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -61404,16 +61404,16 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="N763" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O763" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P763" t="n">
-        <v>8000</v>
+        <v>5750</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>800</v>
+        <v>575</v>
       </c>
       <c r="T763" t="n">
         <v>10</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,41 +61475,41 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="N764" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="O764" t="n">
-        <v>315000</v>
+        <v>4000</v>
       </c>
       <c r="P764" t="n">
-        <v>306429</v>
+        <v>4000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>681</v>
+        <v>400</v>
       </c>
       <c r="T764" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61560,20 +61560,20 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N765" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O765" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P765" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T765" t="n">
         <v>10</v>
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61640,36 +61640,36 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="N766" t="n">
-        <v>250000</v>
+        <v>4000</v>
       </c>
       <c r="O766" t="n">
-        <v>250000</v>
+        <v>4000</v>
       </c>
       <c r="P766" t="n">
-        <v>250000</v>
+        <v>4000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T766" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -61724,16 +61724,16 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N767" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O767" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P767" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61742,11 +61742,11 @@
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T767" t="n">
         <v>450</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,7 +61795,7 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
@@ -61804,32 +61804,32 @@
         </is>
       </c>
       <c r="M768" t="n">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="N768" t="n">
-        <v>135000</v>
+        <v>3000</v>
       </c>
       <c r="O768" t="n">
-        <v>135000</v>
+        <v>3000</v>
       </c>
       <c r="P768" t="n">
-        <v>135000</v>
+        <v>3000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S768" t="n">
         <v>300</v>
       </c>
       <c r="T768" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,25 +61875,25 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N769" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="O769" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="P769" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61902,11 +61902,11 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="T769" t="n">
         <v>450</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,41 +61955,41 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="N770" t="n">
-        <v>180000</v>
+        <v>2000</v>
       </c>
       <c r="O770" t="n">
-        <v>180000</v>
+        <v>2000</v>
       </c>
       <c r="P770" t="n">
-        <v>180000</v>
+        <v>2000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T770" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,41 +62035,41 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M771" t="n">
+        <v>360</v>
+      </c>
+      <c r="N771" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O771" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P771" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q771" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R771" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S771" t="n">
+        <v>900</v>
+      </c>
+      <c r="T771" t="n">
         <v>10</v>
-      </c>
-      <c r="N771" t="n">
-        <v>135000</v>
-      </c>
-      <c r="O771" t="n">
-        <v>135000</v>
-      </c>
-      <c r="P771" t="n">
-        <v>135000</v>
-      </c>
-      <c r="Q771" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R771" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S771" t="n">
-        <v>300</v>
-      </c>
-      <c r="T771" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62115,41 +62115,41 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>4</v>
+        <v>480</v>
       </c>
       <c r="N772" t="n">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="O772" t="n">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="P772" t="n">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>178</v>
+        <v>800</v>
       </c>
       <c r="T772" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62204,32 +62204,32 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N773" t="n">
-        <v>800</v>
+        <v>300000</v>
       </c>
       <c r="O773" t="n">
-        <v>1000</v>
+        <v>315000</v>
       </c>
       <c r="P773" t="n">
-        <v>900</v>
+        <v>306429</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>900</v>
+        <v>681</v>
       </c>
       <c r="T773" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62284,32 +62284,32 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="N774" t="n">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="O774" t="n">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="P774" t="n">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T774" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44473</v>
+        <v>44168</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62360,36 +62360,36 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="N775" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="O775" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="P775" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T775" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,7 +62435,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -62444,32 +62444,32 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="N776" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O776" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P776" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T776" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,25 +62515,25 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N777" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="O777" t="n">
         <v>135000</v>
       </c>
       <c r="P777" t="n">
-        <v>132500</v>
+        <v>135000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="T777" t="n">
         <v>450</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62595,41 +62595,41 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="N778" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="O778" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="P778" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T778" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62675,25 +62675,25 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N779" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O779" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P779" t="n">
-        <v>105000</v>
+        <v>180000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62702,11 +62702,11 @@
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="T779" t="n">
         <v>450</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62755,25 +62755,25 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N780" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="O780" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="P780" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="T780" t="n">
         <v>450</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,41 +62835,41 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>1040</v>
+        <v>4</v>
       </c>
       <c r="N781" t="n">
-        <v>2500</v>
+        <v>80000</v>
       </c>
       <c r="O781" t="n">
-        <v>3000</v>
+        <v>80000</v>
       </c>
       <c r="P781" t="n">
-        <v>2750</v>
+        <v>80000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="T781" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,41 +62915,41 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N782" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O782" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="P782" t="n">
-        <v>7000</v>
+        <v>900</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T782" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,41 +62995,41 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N783" t="n">
-        <v>180000</v>
+        <v>500</v>
       </c>
       <c r="O783" t="n">
-        <v>210000</v>
+        <v>500</v>
       </c>
       <c r="P783" t="n">
-        <v>195000</v>
+        <v>500</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="T783" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -63075,25 +63075,25 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N784" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O784" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P784" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63102,11 +63102,11 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T784" t="n">
         <v>10</v>
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -63155,7 +63155,7 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
@@ -63164,32 +63164,32 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="N785" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="O785" t="n">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="P785" t="n">
-        <v>155000</v>
+        <v>5000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>344</v>
+        <v>500</v>
       </c>
       <c r="T785" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63235,29 +63235,29 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="N786" t="n">
-        <v>3500</v>
+        <v>130000</v>
       </c>
       <c r="O786" t="n">
-        <v>3500</v>
+        <v>135000</v>
       </c>
       <c r="P786" t="n">
-        <v>3500</v>
+        <v>132500</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,10 +63266,10 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="T786" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -63324,32 +63324,32 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="N787" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="O787" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="P787" t="n">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T787" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63395,25 +63395,25 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N788" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="O788" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="P788" t="n">
-        <v>90000</v>
+        <v>105000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="T788" t="n">
         <v>450</v>
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -63480,36 +63480,36 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N789" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="O789" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="P789" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>500</v>
+        <v>178</v>
       </c>
       <c r="T789" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -63555,25 +63555,25 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>120</v>
+        <v>1040</v>
       </c>
       <c r="N790" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="O790" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P790" t="n">
-        <v>6500</v>
+        <v>2750</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="T790" t="n">
         <v>10</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63635,25 +63635,25 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N791" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O791" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P791" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T791" t="n">
         <v>10</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63715,41 +63715,41 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="N792" t="n">
-        <v>5500</v>
+        <v>180000</v>
       </c>
       <c r="O792" t="n">
-        <v>5500</v>
+        <v>210000</v>
       </c>
       <c r="P792" t="n">
-        <v>5500</v>
+        <v>195000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>550</v>
+        <v>433</v>
       </c>
       <c r="T792" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63795,7 +63795,7 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
@@ -63804,32 +63804,32 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="N793" t="n">
-        <v>140000</v>
+        <v>5500</v>
       </c>
       <c r="O793" t="n">
-        <v>150000</v>
+        <v>5500</v>
       </c>
       <c r="P793" t="n">
-        <v>145000</v>
+        <v>5500</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>322</v>
+        <v>550</v>
       </c>
       <c r="T793" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63875,41 +63875,41 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="N794" t="n">
-        <v>3000</v>
+        <v>150000</v>
       </c>
       <c r="O794" t="n">
-        <v>3000</v>
+        <v>160000</v>
       </c>
       <c r="P794" t="n">
-        <v>3000</v>
+        <v>155000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="T794" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -63955,7 +63955,7 @@
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L795" t="inlineStr">
@@ -63964,16 +63964,16 @@
         </is>
       </c>
       <c r="M795" t="n">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="N795" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O795" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="P795" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63982,11 +63982,11 @@
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="T795" t="n">
         <v>10</v>
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -64035,7 +64035,7 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
@@ -64044,7 +64044,7 @@
         </is>
       </c>
       <c r="M796" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N796" t="n">
         <v>120000</v>
@@ -64062,7 +64062,7 @@
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S796" t="n">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -64115,41 +64115,41 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N797" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O797" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="P797" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T797" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -64200,20 +64200,20 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N798" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O798" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P798" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T798" t="n">
         <v>10</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -64280,20 +64280,20 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N799" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O799" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P799" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
@@ -64302,11 +64302,11 @@
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="T799" t="n">
         <v>10</v>
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -64355,41 +64355,41 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="N800" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="O800" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="P800" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T800" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="801">
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -64435,7 +64435,7 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
@@ -64444,32 +64444,32 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="N801" t="n">
-        <v>650</v>
+        <v>5500</v>
       </c>
       <c r="O801" t="n">
-        <v>700</v>
+        <v>5500</v>
       </c>
       <c r="P801" t="n">
-        <v>675</v>
+        <v>5500</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T801" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -64515,41 +64515,41 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="N802" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="O802" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P802" t="n">
-        <v>10000</v>
+        <v>145000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>1000</v>
+        <v>322</v>
       </c>
       <c r="T802" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -64595,25 +64595,25 @@
       </c>
       <c r="K803" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N803" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O803" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P803" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
@@ -64622,11 +64622,11 @@
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T803" t="n">
         <v>10</v>
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -64675,7 +64675,7 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
@@ -64684,16 +64684,16 @@
         </is>
       </c>
       <c r="M804" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N804" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O804" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P804" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
@@ -64702,11 +64702,11 @@
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="T804" t="n">
         <v>10</v>
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -64755,41 +64755,41 @@
       </c>
       <c r="K805" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N805" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="O805" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="P805" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>700</v>
+        <v>267</v>
       </c>
       <c r="T805" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -64835,25 +64835,25 @@
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N806" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O806" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P806" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64862,11 +64862,11 @@
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S806" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T806" t="n">
         <v>10</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -64915,25 +64915,25 @@
       </c>
       <c r="K807" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="N807" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O807" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P807" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
@@ -64942,11 +64942,11 @@
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="T807" t="n">
         <v>10</v>
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -64995,41 +64995,41 @@
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N808" t="n">
-        <v>330000</v>
+        <v>3000</v>
       </c>
       <c r="O808" t="n">
-        <v>330000</v>
+        <v>3000</v>
       </c>
       <c r="P808" t="n">
-        <v>330000</v>
+        <v>3000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>733</v>
+        <v>300</v>
       </c>
       <c r="T808" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -65080,24 +65080,24 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N809" t="n">
-        <v>300000</v>
+        <v>1000</v>
       </c>
       <c r="O809" t="n">
-        <v>310000</v>
+        <v>1000</v>
       </c>
       <c r="P809" t="n">
-        <v>305000</v>
+        <v>1000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>678</v>
+        <v>1000</v>
       </c>
       <c r="T809" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -65155,41 +65155,41 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="N810" t="n">
-        <v>12000</v>
+        <v>650</v>
       </c>
       <c r="O810" t="n">
-        <v>12000</v>
+        <v>700</v>
       </c>
       <c r="P810" t="n">
-        <v>12000</v>
+        <v>675</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>1200</v>
+        <v>675</v>
       </c>
       <c r="T810" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -65240,20 +65240,20 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M811" t="n">
         <v>360</v>
       </c>
       <c r="N811" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O811" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P811" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65262,11 +65262,11 @@
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T811" t="n">
         <v>10</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -65320,20 +65320,20 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N812" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O812" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P812" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65342,11 +65342,11 @@
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S812" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T812" t="n">
         <v>10</v>
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -65400,20 +65400,20 @@
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M813" t="n">
         <v>240</v>
       </c>
       <c r="N813" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O813" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P813" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65422,11 +65422,11 @@
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T813" t="n">
         <v>10</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44330</v>
+        <v>44445</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -65475,7 +65475,7 @@
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
@@ -65484,16 +65484,16 @@
         </is>
       </c>
       <c r="M814" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N814" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O814" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P814" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65502,11 +65502,11 @@
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T814" t="n">
         <v>10</v>
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44330</v>
+        <v>44445</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -65555,7 +65555,7 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
@@ -65564,16 +65564,16 @@
         </is>
       </c>
       <c r="M815" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N815" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O815" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P815" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65582,11 +65582,11 @@
       </c>
       <c r="R815" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S815" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="T815" t="n">
         <v>10</v>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44330</v>
+        <v>44445</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -65635,7 +65635,7 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
@@ -65644,16 +65644,16 @@
         </is>
       </c>
       <c r="M816" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N816" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O816" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P816" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
@@ -65662,11 +65662,11 @@
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="T816" t="n">
         <v>10</v>
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -65715,7 +65715,7 @@
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
@@ -65724,32 +65724,32 @@
         </is>
       </c>
       <c r="M817" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N817" t="n">
-        <v>1100</v>
+        <v>330000</v>
       </c>
       <c r="O817" t="n">
-        <v>1100</v>
+        <v>330000</v>
       </c>
       <c r="P817" t="n">
-        <v>1100</v>
+        <v>330000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S817" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="T817" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="818">
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -65795,7 +65795,7 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
@@ -65804,32 +65804,32 @@
         </is>
       </c>
       <c r="M818" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N818" t="n">
-        <v>700</v>
+        <v>300000</v>
       </c>
       <c r="O818" t="n">
-        <v>700</v>
+        <v>310000</v>
       </c>
       <c r="P818" t="n">
-        <v>700</v>
+        <v>305000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="T818" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -65875,41 +65875,41 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N819" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="O819" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="P819" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T819" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="820">
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44421</v>
+        <v>44328</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -65955,25 +65955,25 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N820" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O820" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P820" t="n">
-        <v>7750</v>
+        <v>11000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
@@ -65986,7 +65986,7 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>775</v>
+        <v>1100</v>
       </c>
       <c r="T820" t="n">
         <v>10</v>
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44421</v>
+        <v>44328</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -66035,25 +66035,25 @@
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="N821" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O821" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P821" t="n">
-        <v>5833</v>
+        <v>10000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>583</v>
+        <v>1000</v>
       </c>
       <c r="T821" t="n">
         <v>10</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44421</v>
+        <v>44328</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -66115,41 +66115,41 @@
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="N822" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O822" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P822" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T822" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="823">
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -66195,25 +66195,25 @@
       </c>
       <c r="K823" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N823" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O823" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P823" t="n">
-        <v>3800</v>
+        <v>12000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>380</v>
+        <v>1200</v>
       </c>
       <c r="T823" t="n">
         <v>10</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -66275,41 +66275,41 @@
       </c>
       <c r="K824" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="N824" t="n">
-        <v>135000</v>
+        <v>11000</v>
       </c>
       <c r="O824" t="n">
-        <v>135000</v>
+        <v>11000</v>
       </c>
       <c r="P824" t="n">
-        <v>135000</v>
+        <v>11000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="T824" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="825">
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -66355,25 +66355,25 @@
       </c>
       <c r="K825" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N825" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O825" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P825" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
@@ -66386,7 +66386,7 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T825" t="n">
         <v>10</v>
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -66440,36 +66440,36 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N826" t="n">
-        <v>100000</v>
+        <v>1100</v>
       </c>
       <c r="O826" t="n">
-        <v>100000</v>
+        <v>1100</v>
       </c>
       <c r="P826" t="n">
-        <v>100000</v>
+        <v>1100</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>222</v>
+        <v>1100</v>
       </c>
       <c r="T826" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44383</v>
+        <v>44270</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -66515,7 +66515,7 @@
       </c>
       <c r="K827" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L827" t="inlineStr">
@@ -66524,32 +66524,32 @@
         </is>
       </c>
       <c r="M827" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N827" t="n">
-        <v>170000</v>
+        <v>700</v>
       </c>
       <c r="O827" t="n">
-        <v>180000</v>
+        <v>700</v>
       </c>
       <c r="P827" t="n">
-        <v>175000</v>
+        <v>700</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S827" t="n">
-        <v>389</v>
+        <v>700</v>
       </c>
       <c r="T827" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44383</v>
+        <v>44270</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -66595,7 +66595,7 @@
       </c>
       <c r="K828" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L828" t="inlineStr">
@@ -66607,29 +66607,29 @@
         <v>12</v>
       </c>
       <c r="N828" t="n">
-        <v>130000</v>
+        <v>500</v>
       </c>
       <c r="O828" t="n">
-        <v>130000</v>
+        <v>500</v>
       </c>
       <c r="P828" t="n">
-        <v>130000</v>
+        <v>500</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S828" t="n">
-        <v>289</v>
+        <v>500</v>
       </c>
       <c r="T828" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -66675,41 +66675,41 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M829" t="n">
+        <v>480</v>
+      </c>
+      <c r="N829" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O829" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P829" t="n">
+        <v>7750</v>
+      </c>
+      <c r="Q829" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R829" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S829" t="n">
+        <v>775</v>
+      </c>
+      <c r="T829" t="n">
         <v>10</v>
-      </c>
-      <c r="N829" t="n">
-        <v>160000</v>
-      </c>
-      <c r="O829" t="n">
-        <v>160000</v>
-      </c>
-      <c r="P829" t="n">
-        <v>160000</v>
-      </c>
-      <c r="Q829" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R829" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S829" t="n">
-        <v>356</v>
-      </c>
-      <c r="T829" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -66755,41 +66755,41 @@
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>14</v>
+        <v>720</v>
       </c>
       <c r="N830" t="n">
-        <v>115000</v>
+        <v>5500</v>
       </c>
       <c r="O830" t="n">
-        <v>115000</v>
+        <v>6000</v>
       </c>
       <c r="P830" t="n">
-        <v>115000</v>
+        <v>5833</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S830" t="n">
-        <v>256</v>
+        <v>583</v>
       </c>
       <c r="T830" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="831">
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -66835,25 +66835,25 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N831" t="n">
-        <v>75000</v>
+        <v>180000</v>
       </c>
       <c r="O831" t="n">
-        <v>75000</v>
+        <v>180000</v>
       </c>
       <c r="P831" t="n">
-        <v>75000</v>
+        <v>180000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66862,11 +66862,11 @@
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="T831" t="n">
         <v>450</v>
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -66920,36 +66920,36 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="N832" t="n">
-        <v>310000</v>
+        <v>3500</v>
       </c>
       <c r="O832" t="n">
-        <v>310000</v>
+        <v>4000</v>
       </c>
       <c r="P832" t="n">
-        <v>310000</v>
+        <v>3800</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S832" t="n">
-        <v>689</v>
+        <v>380</v>
       </c>
       <c r="T832" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="833">
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -67000,20 +67000,20 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N833" t="n">
-        <v>280000</v>
+        <v>135000</v>
       </c>
       <c r="O833" t="n">
-        <v>280000</v>
+        <v>135000</v>
       </c>
       <c r="P833" t="n">
-        <v>280000</v>
+        <v>135000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
@@ -67022,11 +67022,11 @@
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="T833" t="n">
         <v>450</v>
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -67080,36 +67080,36 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N834" t="n">
-        <v>250000</v>
+        <v>3000</v>
       </c>
       <c r="O834" t="n">
-        <v>250000</v>
+        <v>3000</v>
       </c>
       <c r="P834" t="n">
-        <v>250000</v>
+        <v>3000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S834" t="n">
-        <v>556</v>
+        <v>300</v>
       </c>
       <c r="T834" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44433</v>
+        <v>44421</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -67160,20 +67160,20 @@
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N835" t="n">
-        <v>202500</v>
+        <v>100000</v>
       </c>
       <c r="O835" t="n">
-        <v>202500</v>
+        <v>100000</v>
       </c>
       <c r="P835" t="n">
-        <v>202500</v>
+        <v>100000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
@@ -67186,7 +67186,7 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>450</v>
+        <v>222</v>
       </c>
       <c r="T835" t="n">
         <v>450</v>
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -67235,25 +67235,25 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N836" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O836" t="n">
-        <v>202500</v>
+        <v>180000</v>
       </c>
       <c r="P836" t="n">
-        <v>201731</v>
+        <v>175000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
@@ -67262,11 +67262,11 @@
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="T836" t="n">
         <v>450</v>
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -67315,25 +67315,25 @@
       </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N837" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O837" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P837" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
@@ -67342,11 +67342,11 @@
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T837" t="n">
         <v>450</v>
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -67395,7 +67395,7 @@
       </c>
       <c r="K838" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L838" t="inlineStr">
@@ -67404,16 +67404,16 @@
         </is>
       </c>
       <c r="M838" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="N838" t="n">
         <v>160000</v>
       </c>
       <c r="O838" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P838" t="n">
-        <v>174474</v>
+        <v>160000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
@@ -67422,11 +67422,11 @@
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S838" t="n">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="T838" t="n">
         <v>450</v>
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -67475,7 +67475,7 @@
       </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L839" t="inlineStr">
@@ -67484,16 +67484,16 @@
         </is>
       </c>
       <c r="M839" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N839" t="n">
-        <v>157500</v>
+        <v>115000</v>
       </c>
       <c r="O839" t="n">
-        <v>157500</v>
+        <v>115000</v>
       </c>
       <c r="P839" t="n">
-        <v>157500</v>
+        <v>115000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
@@ -67502,11 +67502,11 @@
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S839" t="n">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="T839" t="n">
         <v>450</v>
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -67555,25 +67555,25 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N840" t="n">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="O840" t="n">
-        <v>157500</v>
+        <v>75000</v>
       </c>
       <c r="P840" t="n">
-        <v>138750</v>
+        <v>75000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
@@ -67582,11 +67582,11 @@
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S840" t="n">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="T840" t="n">
         <v>450</v>
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -67640,20 +67640,20 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N841" t="n">
-        <v>112500</v>
+        <v>310000</v>
       </c>
       <c r="O841" t="n">
-        <v>135000</v>
+        <v>310000</v>
       </c>
       <c r="P841" t="n">
-        <v>123750</v>
+        <v>310000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
@@ -67662,11 +67662,11 @@
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>275</v>
+        <v>689</v>
       </c>
       <c r="T841" t="n">
         <v>450</v>
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -67720,20 +67720,20 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N842" t="n">
-        <v>315000</v>
+        <v>280000</v>
       </c>
       <c r="O842" t="n">
-        <v>315000</v>
+        <v>280000</v>
       </c>
       <c r="P842" t="n">
-        <v>315000</v>
+        <v>280000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
@@ -67742,11 +67742,11 @@
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>700</v>
+        <v>622</v>
       </c>
       <c r="T842" t="n">
         <v>450</v>
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -67800,20 +67800,20 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N843" t="n">
-        <v>225000</v>
+        <v>250000</v>
       </c>
       <c r="O843" t="n">
-        <v>225000</v>
+        <v>250000</v>
       </c>
       <c r="P843" t="n">
-        <v>225000</v>
+        <v>250000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
@@ -67822,11 +67822,11 @@
       </c>
       <c r="R843" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S843" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T843" t="n">
         <v>450</v>
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -67880,20 +67880,20 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N844" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="O844" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="P844" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
@@ -67902,11 +67902,11 @@
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S844" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T844" t="n">
         <v>450</v>
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -67964,32 +67964,32 @@
         </is>
       </c>
       <c r="M845" t="n">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="N845" t="n">
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="O845" t="n">
-        <v>6000</v>
+        <v>202500</v>
       </c>
       <c r="P845" t="n">
-        <v>6000</v>
+        <v>201731</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>600</v>
+        <v>448</v>
       </c>
       <c r="T845" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -68044,32 +68044,32 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="N846" t="n">
-        <v>4500</v>
+        <v>180000</v>
       </c>
       <c r="O846" t="n">
-        <v>4500</v>
+        <v>180000</v>
       </c>
       <c r="P846" t="n">
-        <v>4500</v>
+        <v>180000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S846" t="n">
+        <v>400</v>
+      </c>
+      <c r="T846" t="n">
         <v>450</v>
-      </c>
-      <c r="T846" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="847">
@@ -68087,68 +68087,788 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E847" t="n">
+        <v>13</v>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G847" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I847" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J847" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M847" t="n">
+        <v>38</v>
+      </c>
+      <c r="N847" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O847" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P847" t="n">
+        <v>174474</v>
+      </c>
+      <c r="Q847" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R847" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S847" t="n">
+        <v>388</v>
+      </c>
+      <c r="T847" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>6</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D848" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E848" t="n">
+        <v>13</v>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G848" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I848" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J848" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M848" t="n">
+        <v>8</v>
+      </c>
+      <c r="N848" t="n">
+        <v>157500</v>
+      </c>
+      <c r="O848" t="n">
+        <v>157500</v>
+      </c>
+      <c r="P848" t="n">
+        <v>157500</v>
+      </c>
+      <c r="Q848" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R848" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S848" t="n">
+        <v>350</v>
+      </c>
+      <c r="T848" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>6</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D849" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E849" t="n">
+        <v>13</v>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G849" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I849" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J849" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M849" t="n">
+        <v>24</v>
+      </c>
+      <c r="N849" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O849" t="n">
+        <v>157500</v>
+      </c>
+      <c r="P849" t="n">
+        <v>138750</v>
+      </c>
+      <c r="Q849" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R849" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S849" t="n">
+        <v>308</v>
+      </c>
+      <c r="T849" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>6</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D850" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E850" t="n">
+        <v>13</v>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G850" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I850" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J850" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M850" t="n">
+        <v>16</v>
+      </c>
+      <c r="N850" t="n">
+        <v>112500</v>
+      </c>
+      <c r="O850" t="n">
+        <v>135000</v>
+      </c>
+      <c r="P850" t="n">
+        <v>123750</v>
+      </c>
+      <c r="Q850" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R850" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S850" t="n">
+        <v>275</v>
+      </c>
+      <c r="T850" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>6</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D851" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E851" t="n">
+        <v>13</v>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G851" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I851" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J851" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M851" t="n">
+        <v>12</v>
+      </c>
+      <c r="N851" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O851" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P851" t="n">
+        <v>315000</v>
+      </c>
+      <c r="Q851" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R851" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S851" t="n">
+        <v>700</v>
+      </c>
+      <c r="T851" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>6</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D852" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E852" t="n">
+        <v>13</v>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G852" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I852" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J852" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M852" t="n">
+        <v>16</v>
+      </c>
+      <c r="N852" t="n">
+        <v>225000</v>
+      </c>
+      <c r="O852" t="n">
+        <v>225000</v>
+      </c>
+      <c r="P852" t="n">
+        <v>225000</v>
+      </c>
+      <c r="Q852" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R852" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S852" t="n">
+        <v>500</v>
+      </c>
+      <c r="T852" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>6</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D853" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E853" t="n">
+        <v>13</v>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G853" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I853" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J853" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M853" t="n">
+        <v>8</v>
+      </c>
+      <c r="N853" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O853" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P853" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q853" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R853" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S853" t="n">
+        <v>400</v>
+      </c>
+      <c r="T853" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>6</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D854" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E847" t="n">
-        <v>13</v>
-      </c>
-      <c r="F847" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G847" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I847" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J847" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K847" t="inlineStr">
+      <c r="E854" t="n">
+        <v>13</v>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G854" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I854" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J854" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K854" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L847" t="inlineStr">
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M854" t="n">
+        <v>180</v>
+      </c>
+      <c r="N854" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O854" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P854" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q854" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R854" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S854" t="n">
+        <v>600</v>
+      </c>
+      <c r="T854" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>6</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D855" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E855" t="n">
+        <v>13</v>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G855" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I855" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J855" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M855" t="n">
+        <v>250</v>
+      </c>
+      <c r="N855" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O855" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P855" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q855" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R855" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S855" t="n">
+        <v>450</v>
+      </c>
+      <c r="T855" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>6</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D856" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E856" t="n">
+        <v>13</v>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G856" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I856" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J856" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L856" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M847" t="n">
+      <c r="M856" t="n">
         <v>250</v>
       </c>
-      <c r="N847" t="n">
+      <c r="N856" t="n">
         <v>3000</v>
       </c>
-      <c r="O847" t="n">
+      <c r="O856" t="n">
         <v>3000</v>
       </c>
-      <c r="P847" t="n">
+      <c r="P856" t="n">
         <v>3000</v>
       </c>
-      <c r="Q847" t="inlineStr">
+      <c r="Q856" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R847" t="inlineStr">
+      <c r="R856" t="inlineStr">
         <is>
           <t>Provincia de Petorca</t>
         </is>
       </c>
-      <c r="S847" t="n">
+      <c r="S856" t="n">
         <v>300</v>
       </c>
-      <c r="T847" t="n">
+      <c r="T856" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T856"/>
+  <dimension ref="A1:T863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,29 +59555,29 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N740" t="n">
-        <v>5000</v>
+        <v>220000</v>
       </c>
       <c r="O740" t="n">
-        <v>5000</v>
+        <v>220000</v>
       </c>
       <c r="P740" t="n">
-        <v>5000</v>
+        <v>220000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
@@ -59586,10 +59586,10 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="T740" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59644,20 +59644,20 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="N741" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O741" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="P741" t="n">
-        <v>190000</v>
+        <v>5000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
@@ -59666,10 +59666,10 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="T741" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,24 +59720,24 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N742" t="n">
-        <v>4000</v>
+        <v>225000</v>
       </c>
       <c r="O742" t="n">
-        <v>4000</v>
+        <v>225000</v>
       </c>
       <c r="P742" t="n">
-        <v>4000</v>
+        <v>225000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
@@ -59746,10 +59746,10 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T742" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N743" t="n">
-        <v>150000</v>
+        <v>270000</v>
       </c>
       <c r="O743" t="n">
-        <v>160000</v>
+        <v>270000</v>
       </c>
       <c r="P743" t="n">
-        <v>155000</v>
+        <v>270000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59822,11 +59822,11 @@
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>344</v>
+        <v>600</v>
       </c>
       <c r="T743" t="n">
         <v>450</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N744" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O744" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P744" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T744" t="n">
         <v>10</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N745" t="n">
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="O745" t="n">
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="P745" t="n">
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="T745" t="n">
         <v>450</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60040,36 +60040,36 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M746" t="n">
+        <v>230</v>
+      </c>
+      <c r="N746" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O746" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P746" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q746" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R746" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S746" t="n">
+        <v>300</v>
+      </c>
+      <c r="T746" t="n">
         <v>10</v>
-      </c>
-      <c r="N746" t="n">
-        <v>90000</v>
-      </c>
-      <c r="O746" t="n">
-        <v>90000</v>
-      </c>
-      <c r="P746" t="n">
-        <v>90000</v>
-      </c>
-      <c r="Q746" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R746" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S746" t="n">
-        <v>200</v>
-      </c>
-      <c r="T746" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="747">
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60124,16 +60124,16 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N747" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O747" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P747" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T747" t="n">
         <v>10</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60200,36 +60200,36 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>640</v>
+        <v>14</v>
       </c>
       <c r="N748" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O748" t="n">
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="P748" t="n">
-        <v>5500</v>
+        <v>190000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>550</v>
+        <v>422</v>
       </c>
       <c r="T748" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60284,32 +60284,32 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>22</v>
+        <v>480</v>
       </c>
       <c r="N749" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="O749" t="n">
-        <v>202000</v>
+        <v>4000</v>
       </c>
       <c r="P749" t="n">
-        <v>186000</v>
+        <v>4000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="T749" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60360,36 +60360,36 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="N750" t="n">
-        <v>3500</v>
+        <v>150000</v>
       </c>
       <c r="O750" t="n">
-        <v>4000</v>
+        <v>160000</v>
       </c>
       <c r="P750" t="n">
-        <v>3750</v>
+        <v>155000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="T750" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60444,32 +60444,32 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="N751" t="n">
-        <v>160000</v>
+        <v>3000</v>
       </c>
       <c r="O751" t="n">
-        <v>160000</v>
+        <v>3000</v>
       </c>
       <c r="P751" t="n">
-        <v>160000</v>
+        <v>3000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="T751" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60520,20 +60520,20 @@
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N752" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O752" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="P752" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="T752" t="n">
         <v>450</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,29 +60595,29 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>832</v>
+        <v>10</v>
       </c>
       <c r="N753" t="n">
-        <v>6500</v>
+        <v>90000</v>
       </c>
       <c r="O753" t="n">
-        <v>6500</v>
+        <v>90000</v>
       </c>
       <c r="P753" t="n">
-        <v>6500</v>
+        <v>90000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
@@ -60626,10 +60626,10 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="T753" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,7 +60675,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -60684,20 +60684,20 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N754" t="n">
-        <v>315000</v>
+        <v>7000</v>
       </c>
       <c r="O754" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="P754" t="n">
-        <v>337500</v>
+        <v>7500</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
@@ -60709,7 +60709,7 @@
         <v>750</v>
       </c>
       <c r="T754" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,7 +60755,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -60764,20 +60764,20 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>24</v>
+        <v>640</v>
       </c>
       <c r="N755" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="O755" t="n">
-        <v>270000</v>
+        <v>6000</v>
       </c>
       <c r="P755" t="n">
-        <v>247500</v>
+        <v>5500</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
@@ -60789,7 +60789,7 @@
         <v>550</v>
       </c>
       <c r="T755" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,32 +60844,32 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N756" t="n">
-        <v>600</v>
+        <v>180000</v>
       </c>
       <c r="O756" t="n">
-        <v>700</v>
+        <v>202000</v>
       </c>
       <c r="P756" t="n">
-        <v>650</v>
+        <v>186000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>650</v>
+        <v>413</v>
       </c>
       <c r="T756" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,20 +60924,20 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N757" t="n">
-        <v>150000</v>
+        <v>3500</v>
       </c>
       <c r="O757" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="P757" t="n">
-        <v>165000</v>
+        <v>3750</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="T757" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,7 +60995,7 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -61004,32 +61004,32 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N758" t="n">
-        <v>400</v>
+        <v>160000</v>
       </c>
       <c r="O758" t="n">
-        <v>400</v>
+        <v>160000</v>
       </c>
       <c r="P758" t="n">
-        <v>400</v>
+        <v>160000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T758" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61075,25 +61075,25 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N759" t="n">
-        <v>247500</v>
+        <v>125000</v>
       </c>
       <c r="O759" t="n">
-        <v>247500</v>
+        <v>125000</v>
       </c>
       <c r="P759" t="n">
-        <v>247500</v>
+        <v>125000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61102,11 +61102,11 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>550</v>
+        <v>278</v>
       </c>
       <c r="T759" t="n">
         <v>450</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,41 +61155,41 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="N760" t="n">
-        <v>200000</v>
+        <v>6500</v>
       </c>
       <c r="O760" t="n">
-        <v>200000</v>
+        <v>6500</v>
       </c>
       <c r="P760" t="n">
-        <v>200000</v>
+        <v>6500</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>444</v>
+        <v>650</v>
       </c>
       <c r="T760" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61240,20 +61240,20 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N761" t="n">
-        <v>170000</v>
+        <v>315000</v>
       </c>
       <c r="O761" t="n">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="P761" t="n">
-        <v>175000</v>
+        <v>337500</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>389</v>
+        <v>750</v>
       </c>
       <c r="T761" t="n">
         <v>450</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,29 +61315,29 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="N762" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="O762" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P762" t="n">
-        <v>8000</v>
+        <v>247500</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
@@ -61346,10 +61346,10 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T762" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -61404,32 +61404,32 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>960</v>
+        <v>14</v>
       </c>
       <c r="N763" t="n">
-        <v>5500</v>
+        <v>600</v>
       </c>
       <c r="O763" t="n">
-        <v>6000</v>
+        <v>700</v>
       </c>
       <c r="P763" t="n">
-        <v>5750</v>
+        <v>650</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="T763" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,7 +61475,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -61484,20 +61484,20 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="N764" t="n">
-        <v>4000</v>
+        <v>150000</v>
       </c>
       <c r="O764" t="n">
-        <v>4000</v>
+        <v>180000</v>
       </c>
       <c r="P764" t="n">
-        <v>4000</v>
+        <v>165000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
@@ -61506,10 +61506,10 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="T764" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,41 +61555,41 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="N765" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="O765" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="P765" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T765" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61644,20 +61644,20 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="N766" t="n">
-        <v>4000</v>
+        <v>247500</v>
       </c>
       <c r="O766" t="n">
-        <v>4000</v>
+        <v>247500</v>
       </c>
       <c r="P766" t="n">
-        <v>4000</v>
+        <v>247500</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
@@ -61666,10 +61666,10 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T766" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,25 +61715,25 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N767" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O767" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P767" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61742,11 +61742,11 @@
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T767" t="n">
         <v>450</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,29 +61795,29 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="N768" t="n">
-        <v>3000</v>
+        <v>170000</v>
       </c>
       <c r="O768" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="P768" t="n">
-        <v>3000</v>
+        <v>175000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
@@ -61826,10 +61826,10 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="T768" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,41 +61875,41 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="N769" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="O769" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="P769" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>222</v>
+        <v>800</v>
       </c>
       <c r="T769" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,25 +61955,25 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="N770" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="O770" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P770" t="n">
-        <v>2000</v>
+        <v>5750</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>200</v>
+        <v>575</v>
       </c>
       <c r="T770" t="n">
         <v>10</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,25 +62035,25 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M771" t="n">
         <v>360</v>
       </c>
       <c r="N771" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O771" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P771" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62066,7 +62066,7 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T771" t="n">
         <v>10</v>
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N772" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O772" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P772" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T772" t="n">
         <v>10</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62204,32 +62204,32 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="N773" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="O773" t="n">
-        <v>315000</v>
+        <v>4000</v>
       </c>
       <c r="P773" t="n">
-        <v>306429</v>
+        <v>4000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>681</v>
+        <v>400</v>
       </c>
       <c r="T773" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62280,36 +62280,36 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="N774" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="O774" t="n">
-        <v>7000</v>
+        <v>140000</v>
       </c>
       <c r="P774" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="T774" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62364,32 +62364,32 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="N775" t="n">
-        <v>250000</v>
+        <v>3000</v>
       </c>
       <c r="O775" t="n">
-        <v>250000</v>
+        <v>3000</v>
       </c>
       <c r="P775" t="n">
-        <v>250000</v>
+        <v>3000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>556</v>
+        <v>300</v>
       </c>
       <c r="T775" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,25 +62435,25 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N776" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O776" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P776" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T776" t="n">
         <v>450</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,41 +62515,41 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="N777" t="n">
-        <v>135000</v>
+        <v>2000</v>
       </c>
       <c r="O777" t="n">
-        <v>135000</v>
+        <v>2000</v>
       </c>
       <c r="P777" t="n">
-        <v>135000</v>
+        <v>2000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T777" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62595,41 +62595,41 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="N778" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="O778" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="P778" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="T778" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62675,7 +62675,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -62684,32 +62684,32 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N779" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O779" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P779" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T779" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62755,25 +62755,25 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N780" t="n">
-        <v>135000</v>
+        <v>300000</v>
       </c>
       <c r="O780" t="n">
-        <v>135000</v>
+        <v>315000</v>
       </c>
       <c r="P780" t="n">
-        <v>135000</v>
+        <v>306429</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>300</v>
+        <v>681</v>
       </c>
       <c r="T780" t="n">
         <v>450</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,41 +62835,41 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="N781" t="n">
-        <v>80000</v>
+        <v>7000</v>
       </c>
       <c r="O781" t="n">
-        <v>80000</v>
+        <v>7000</v>
       </c>
       <c r="P781" t="n">
-        <v>80000</v>
+        <v>7000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>178</v>
+        <v>700</v>
       </c>
       <c r="T781" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62920,36 +62920,36 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N782" t="n">
-        <v>800</v>
+        <v>250000</v>
       </c>
       <c r="O782" t="n">
-        <v>1000</v>
+        <v>250000</v>
       </c>
       <c r="P782" t="n">
-        <v>900</v>
+        <v>250000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T782" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,41 +62995,41 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N783" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="O783" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="P783" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T783" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="784">
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -63075,41 +63075,41 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="N784" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="O784" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P784" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T784" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -63155,41 +63155,41 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="N785" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O785" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="P785" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T785" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63235,7 +63235,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -63247,13 +63247,13 @@
         <v>16</v>
       </c>
       <c r="N786" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O786" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P786" t="n">
-        <v>132500</v>
+        <v>180000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63262,11 +63262,11 @@
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>294</v>
+        <v>400</v>
       </c>
       <c r="T786" t="n">
         <v>450</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -63324,32 +63324,32 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N787" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="O787" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="P787" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T787" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63395,25 +63395,25 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N788" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O788" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="P788" t="n">
-        <v>105000</v>
+        <v>80000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63422,11 +63422,11 @@
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="T788" t="n">
         <v>450</v>
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -63480,36 +63480,36 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N789" t="n">
-        <v>80000</v>
+        <v>800</v>
       </c>
       <c r="O789" t="n">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="P789" t="n">
-        <v>80000</v>
+        <v>900</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>178</v>
+        <v>900</v>
       </c>
       <c r="T789" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -63555,29 +63555,29 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>1040</v>
+        <v>7</v>
       </c>
       <c r="N790" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="O790" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="P790" t="n">
-        <v>2750</v>
+        <v>500</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,10 +63586,10 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="T790" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63635,7 +63635,7 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
@@ -63644,16 +63644,16 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N791" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O791" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P791" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T791" t="n">
         <v>10</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63715,41 +63715,41 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="N792" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O792" t="n">
-        <v>210000</v>
+        <v>5000</v>
       </c>
       <c r="P792" t="n">
-        <v>195000</v>
+        <v>5000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="T792" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63795,7 +63795,7 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
@@ -63804,20 +63804,20 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="N793" t="n">
-        <v>5500</v>
+        <v>130000</v>
       </c>
       <c r="O793" t="n">
-        <v>5500</v>
+        <v>135000</v>
       </c>
       <c r="P793" t="n">
-        <v>5500</v>
+        <v>132500</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,10 +63826,10 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>550</v>
+        <v>294</v>
       </c>
       <c r="T793" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63875,41 +63875,41 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="N794" t="n">
-        <v>150000</v>
+        <v>4000</v>
       </c>
       <c r="O794" t="n">
-        <v>160000</v>
+        <v>4000</v>
       </c>
       <c r="P794" t="n">
-        <v>155000</v>
+        <v>4000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="T794" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -63955,7 +63955,7 @@
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L795" t="inlineStr">
@@ -63964,20 +63964,20 @@
         </is>
       </c>
       <c r="M795" t="n">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="N795" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="O795" t="n">
-        <v>3500</v>
+        <v>110000</v>
       </c>
       <c r="P795" t="n">
-        <v>3500</v>
+        <v>105000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,10 +63986,10 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="T795" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -64035,25 +64035,25 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N796" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="O796" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="P796" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
@@ -64066,7 +64066,7 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="T796" t="n">
         <v>450</v>
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -64115,41 +64115,41 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>15</v>
+        <v>1040</v>
       </c>
       <c r="N797" t="n">
-        <v>90000</v>
+        <v>2500</v>
       </c>
       <c r="O797" t="n">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="P797" t="n">
-        <v>90000</v>
+        <v>2750</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="T797" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -64195,7 +64195,7 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
@@ -64204,16 +64204,16 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N798" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O798" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P798" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64222,11 +64222,11 @@
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T798" t="n">
         <v>10</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -64275,7 +64275,7 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
@@ -64284,32 +64284,32 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="N799" t="n">
-        <v>6500</v>
+        <v>180000</v>
       </c>
       <c r="O799" t="n">
-        <v>6500</v>
+        <v>210000</v>
       </c>
       <c r="P799" t="n">
-        <v>6500</v>
+        <v>195000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>650</v>
+        <v>433</v>
       </c>
       <c r="T799" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -64355,7 +64355,7 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
@@ -64364,16 +64364,16 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N800" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O800" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="P800" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64382,11 +64382,11 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T800" t="n">
         <v>10</v>
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -64435,7 +64435,7 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
@@ -64444,32 +64444,32 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="N801" t="n">
-        <v>5500</v>
+        <v>150000</v>
       </c>
       <c r="O801" t="n">
-        <v>5500</v>
+        <v>160000</v>
       </c>
       <c r="P801" t="n">
-        <v>5500</v>
+        <v>155000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>550</v>
+        <v>344</v>
       </c>
       <c r="T801" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -64515,41 +64515,41 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="N802" t="n">
-        <v>140000</v>
+        <v>3500</v>
       </c>
       <c r="O802" t="n">
-        <v>150000</v>
+        <v>3500</v>
       </c>
       <c r="P802" t="n">
-        <v>145000</v>
+        <v>3500</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="T802" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -64595,7 +64595,7 @@
       </c>
       <c r="K803" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L803" t="inlineStr">
@@ -64604,32 +64604,32 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="N803" t="n">
-        <v>3000</v>
+        <v>120000</v>
       </c>
       <c r="O803" t="n">
-        <v>3000</v>
+        <v>120000</v>
       </c>
       <c r="P803" t="n">
-        <v>3000</v>
+        <v>120000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="T803" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -64675,41 +64675,41 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="N804" t="n">
-        <v>4500</v>
+        <v>90000</v>
       </c>
       <c r="O804" t="n">
-        <v>4500</v>
+        <v>90000</v>
       </c>
       <c r="P804" t="n">
-        <v>4500</v>
+        <v>90000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S804" t="n">
+        <v>200</v>
+      </c>
+      <c r="T804" t="n">
         <v>450</v>
-      </c>
-      <c r="T804" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="805">
@@ -64760,36 +64760,36 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N805" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="O805" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="P805" t="n">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="T805" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -64844,16 +64844,16 @@
         </is>
       </c>
       <c r="M806" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N806" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O806" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P806" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64862,11 +64862,11 @@
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S806" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T806" t="n">
         <v>10</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -64924,7 +64924,7 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N807" t="n">
         <v>4000</v>
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -65000,20 +65000,20 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N808" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="O808" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="P808" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65022,11 +65022,11 @@
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="T808" t="n">
         <v>10</v>
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -65075,41 +65075,41 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N809" t="n">
-        <v>1000</v>
+        <v>140000</v>
       </c>
       <c r="O809" t="n">
-        <v>1000</v>
+        <v>150000</v>
       </c>
       <c r="P809" t="n">
-        <v>1000</v>
+        <v>145000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S809" t="n">
-        <v>1000</v>
+        <v>322</v>
       </c>
       <c r="T809" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -65155,41 +65155,41 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N810" t="n">
-        <v>650</v>
+        <v>3000</v>
       </c>
       <c r="O810" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="P810" t="n">
-        <v>675</v>
+        <v>3000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="T810" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -65235,25 +65235,25 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N811" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O811" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P811" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65262,11 +65262,11 @@
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="T811" t="n">
         <v>10</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -65315,41 +65315,41 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="N812" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="O812" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="P812" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S812" t="n">
-        <v>800</v>
+        <v>267</v>
       </c>
       <c r="T812" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="813">
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -65395,25 +65395,25 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M813" t="n">
         <v>240</v>
       </c>
       <c r="N813" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O813" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P813" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65422,11 +65422,11 @@
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T813" t="n">
         <v>10</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -65475,25 +65475,25 @@
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N814" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O814" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P814" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65502,11 +65502,11 @@
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T814" t="n">
         <v>10</v>
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -65555,38 +65555,38 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M815" t="n">
+        <v>360</v>
+      </c>
+      <c r="N815" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O815" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P815" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q815" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R815" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S815" t="n">
         <v>300</v>
-      </c>
-      <c r="N815" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O815" t="n">
-        <v>6000</v>
-      </c>
-      <c r="P815" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q815" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R815" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S815" t="n">
-        <v>600</v>
       </c>
       <c r="T815" t="n">
         <v>10</v>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -65640,36 +65640,36 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="N816" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="O816" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="P816" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="T816" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -65720,24 +65720,24 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N817" t="n">
-        <v>330000</v>
+        <v>650</v>
       </c>
       <c r="O817" t="n">
-        <v>330000</v>
+        <v>700</v>
       </c>
       <c r="P817" t="n">
-        <v>330000</v>
+        <v>675</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65746,10 +65746,10 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>733</v>
+        <v>675</v>
       </c>
       <c r="T817" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818">
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -65795,41 +65795,41 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="N818" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="O818" t="n">
-        <v>310000</v>
+        <v>10000</v>
       </c>
       <c r="P818" t="n">
-        <v>305000</v>
+        <v>10000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>678</v>
+        <v>1000</v>
       </c>
       <c r="T818" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -65880,20 +65880,20 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M819" t="n">
         <v>480</v>
       </c>
       <c r="N819" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O819" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P819" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
@@ -65902,11 +65902,11 @@
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T819" t="n">
         <v>10</v>
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -65960,20 +65960,20 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N820" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O820" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P820" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
@@ -65982,11 +65982,11 @@
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="T820" t="n">
         <v>10</v>
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -66035,25 +66035,25 @@
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N821" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O821" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P821" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66062,11 +66062,11 @@
       </c>
       <c r="R821" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S821" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T821" t="n">
         <v>10</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -66115,25 +66115,25 @@
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N822" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O822" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P822" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
@@ -66142,11 +66142,11 @@
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T822" t="n">
         <v>10</v>
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44330</v>
+        <v>44445</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -66195,25 +66195,25 @@
       </c>
       <c r="K823" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="N823" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O823" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P823" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66222,11 +66222,11 @@
       </c>
       <c r="R823" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S823" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="T823" t="n">
         <v>10</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -66275,41 +66275,41 @@
       </c>
       <c r="K824" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N824" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="O824" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="P824" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="T824" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="825">
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -66355,41 +66355,41 @@
       </c>
       <c r="K825" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="N825" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="O825" t="n">
-        <v>10000</v>
+        <v>310000</v>
       </c>
       <c r="P825" t="n">
-        <v>10000</v>
+        <v>305000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S825" t="n">
-        <v>1000</v>
+        <v>678</v>
       </c>
       <c r="T825" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="826">
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -66435,7 +66435,7 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
@@ -66444,32 +66444,32 @@
         </is>
       </c>
       <c r="M826" t="n">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="N826" t="n">
-        <v>1100</v>
+        <v>12000</v>
       </c>
       <c r="O826" t="n">
-        <v>1100</v>
+        <v>12000</v>
       </c>
       <c r="P826" t="n">
-        <v>1100</v>
+        <v>12000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T826" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -66515,7 +66515,7 @@
       </c>
       <c r="K827" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L827" t="inlineStr">
@@ -66524,32 +66524,32 @@
         </is>
       </c>
       <c r="M827" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N827" t="n">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="O827" t="n">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="P827" t="n">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S827" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T827" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="828">
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -66595,7 +66595,7 @@
       </c>
       <c r="K828" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L828" t="inlineStr">
@@ -66604,32 +66604,32 @@
         </is>
       </c>
       <c r="M828" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N828" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="O828" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="P828" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S828" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T828" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="829">
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44421</v>
+        <v>44328</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -66675,25 +66675,25 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N829" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O829" t="n">
         <v>8000</v>
       </c>
       <c r="P829" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66706,7 +66706,7 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="T829" t="n">
         <v>10</v>
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -66755,25 +66755,25 @@
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="N830" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="O830" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P830" t="n">
-        <v>5833</v>
+        <v>12000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>583</v>
+        <v>1200</v>
       </c>
       <c r="T830" t="n">
         <v>10</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -66835,7 +66835,7 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
@@ -66844,32 +66844,32 @@
         </is>
       </c>
       <c r="M831" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="N831" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="O831" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="P831" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="T831" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="832">
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -66915,7 +66915,7 @@
       </c>
       <c r="K832" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L832" t="inlineStr">
@@ -66924,16 +66924,16 @@
         </is>
       </c>
       <c r="M832" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N832" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O832" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P832" t="n">
-        <v>3800</v>
+        <v>10000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
@@ -66946,7 +66946,7 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="T832" t="n">
         <v>10</v>
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -67000,36 +67000,36 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N833" t="n">
-        <v>135000</v>
+        <v>1100</v>
       </c>
       <c r="O833" t="n">
-        <v>135000</v>
+        <v>1100</v>
       </c>
       <c r="P833" t="n">
-        <v>135000</v>
+        <v>1100</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="T833" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -67080,36 +67080,36 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N834" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="O834" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="P834" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S834" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="T834" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -67160,36 +67160,36 @@
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N835" t="n">
-        <v>100000</v>
+        <v>500</v>
       </c>
       <c r="O835" t="n">
-        <v>100000</v>
+        <v>500</v>
       </c>
       <c r="P835" t="n">
-        <v>100000</v>
+        <v>500</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S835" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="T835" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -67235,41 +67235,41 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="N836" t="n">
-        <v>170000</v>
+        <v>7500</v>
       </c>
       <c r="O836" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P836" t="n">
-        <v>175000</v>
+        <v>7750</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>389</v>
+        <v>775</v>
       </c>
       <c r="T836" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="837">
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -67315,41 +67315,41 @@
       </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="N837" t="n">
-        <v>130000</v>
+        <v>5500</v>
       </c>
       <c r="O837" t="n">
-        <v>130000</v>
+        <v>6000</v>
       </c>
       <c r="P837" t="n">
-        <v>130000</v>
+        <v>5833</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>289</v>
+        <v>583</v>
       </c>
       <c r="T837" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="838">
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -67395,7 +67395,7 @@
       </c>
       <c r="K838" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L838" t="inlineStr">
@@ -67404,16 +67404,16 @@
         </is>
       </c>
       <c r="M838" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N838" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O838" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P838" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
@@ -67422,11 +67422,11 @@
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S838" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T838" t="n">
         <v>450</v>
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -67475,7 +67475,7 @@
       </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L839" t="inlineStr">
@@ -67484,32 +67484,32 @@
         </is>
       </c>
       <c r="M839" t="n">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="N839" t="n">
-        <v>115000</v>
+        <v>3500</v>
       </c>
       <c r="O839" t="n">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="P839" t="n">
-        <v>115000</v>
+        <v>3800</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S839" t="n">
-        <v>256</v>
+        <v>380</v>
       </c>
       <c r="T839" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="840">
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -67555,25 +67555,25 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N840" t="n">
-        <v>75000</v>
+        <v>135000</v>
       </c>
       <c r="O840" t="n">
-        <v>75000</v>
+        <v>135000</v>
       </c>
       <c r="P840" t="n">
-        <v>75000</v>
+        <v>135000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
@@ -67582,11 +67582,11 @@
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S840" t="n">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="T840" t="n">
         <v>450</v>
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -67640,36 +67640,36 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="N841" t="n">
-        <v>310000</v>
+        <v>3000</v>
       </c>
       <c r="O841" t="n">
-        <v>310000</v>
+        <v>3000</v>
       </c>
       <c r="P841" t="n">
-        <v>310000</v>
+        <v>3000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>689</v>
+        <v>300</v>
       </c>
       <c r="T841" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="842">
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -67720,20 +67720,20 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N842" t="n">
-        <v>280000</v>
+        <v>100000</v>
       </c>
       <c r="O842" t="n">
-        <v>280000</v>
+        <v>100000</v>
       </c>
       <c r="P842" t="n">
-        <v>280000</v>
+        <v>100000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
@@ -67742,11 +67742,11 @@
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>622</v>
+        <v>222</v>
       </c>
       <c r="T842" t="n">
         <v>450</v>
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -67795,25 +67795,25 @@
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N843" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="O843" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P843" t="n">
-        <v>250000</v>
+        <v>175000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
@@ -67822,11 +67822,11 @@
       </c>
       <c r="R843" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S843" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T843" t="n">
         <v>450</v>
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -67875,25 +67875,25 @@
       </c>
       <c r="K844" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M844" t="n">
         <v>12</v>
       </c>
       <c r="N844" t="n">
-        <v>202500</v>
+        <v>130000</v>
       </c>
       <c r="O844" t="n">
-        <v>202500</v>
+        <v>130000</v>
       </c>
       <c r="P844" t="n">
-        <v>202500</v>
+        <v>130000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
@@ -67902,11 +67902,11 @@
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S844" t="n">
-        <v>450</v>
+        <v>289</v>
       </c>
       <c r="T844" t="n">
         <v>450</v>
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -67955,25 +67955,25 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M845" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N845" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O845" t="n">
-        <v>202500</v>
+        <v>160000</v>
       </c>
       <c r="P845" t="n">
-        <v>201731</v>
+        <v>160000</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
@@ -67982,11 +67982,11 @@
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>448</v>
+        <v>356</v>
       </c>
       <c r="T845" t="n">
         <v>450</v>
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -68035,25 +68035,25 @@
       </c>
       <c r="K846" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M846" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N846" t="n">
-        <v>180000</v>
+        <v>115000</v>
       </c>
       <c r="O846" t="n">
-        <v>180000</v>
+        <v>115000</v>
       </c>
       <c r="P846" t="n">
-        <v>180000</v>
+        <v>115000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
@@ -68062,11 +68062,11 @@
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="T846" t="n">
         <v>450</v>
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -68115,25 +68115,25 @@
       </c>
       <c r="K847" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="N847" t="n">
-        <v>160000</v>
+        <v>75000</v>
       </c>
       <c r="O847" t="n">
-        <v>180000</v>
+        <v>75000</v>
       </c>
       <c r="P847" t="n">
-        <v>174474</v>
+        <v>75000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
@@ -68142,11 +68142,11 @@
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>388</v>
+        <v>167</v>
       </c>
       <c r="T847" t="n">
         <v>450</v>
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -68200,20 +68200,20 @@
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M848" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N848" t="n">
-        <v>157500</v>
+        <v>310000</v>
       </c>
       <c r="O848" t="n">
-        <v>157500</v>
+        <v>310000</v>
       </c>
       <c r="P848" t="n">
-        <v>157500</v>
+        <v>310000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
@@ -68222,11 +68222,11 @@
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S848" t="n">
-        <v>350</v>
+        <v>689</v>
       </c>
       <c r="T848" t="n">
         <v>450</v>
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -68280,20 +68280,20 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N849" t="n">
-        <v>120000</v>
+        <v>280000</v>
       </c>
       <c r="O849" t="n">
-        <v>157500</v>
+        <v>280000</v>
       </c>
       <c r="P849" t="n">
-        <v>138750</v>
+        <v>280000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
@@ -68302,11 +68302,11 @@
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S849" t="n">
-        <v>308</v>
+        <v>622</v>
       </c>
       <c r="T849" t="n">
         <v>450</v>
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -68360,20 +68360,20 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M850" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N850" t="n">
-        <v>112500</v>
+        <v>250000</v>
       </c>
       <c r="O850" t="n">
-        <v>135000</v>
+        <v>250000</v>
       </c>
       <c r="P850" t="n">
-        <v>123750</v>
+        <v>250000</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
@@ -68382,11 +68382,11 @@
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>275</v>
+        <v>556</v>
       </c>
       <c r="T850" t="n">
         <v>450</v>
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -68447,13 +68447,13 @@
         <v>12</v>
       </c>
       <c r="N851" t="n">
-        <v>315000</v>
+        <v>202500</v>
       </c>
       <c r="O851" t="n">
-        <v>315000</v>
+        <v>202500</v>
       </c>
       <c r="P851" t="n">
-        <v>315000</v>
+        <v>202500</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
@@ -68462,11 +68462,11 @@
       </c>
       <c r="R851" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S851" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="T851" t="n">
         <v>450</v>
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -68520,20 +68520,20 @@
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N852" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="O852" t="n">
-        <v>225000</v>
+        <v>202500</v>
       </c>
       <c r="P852" t="n">
-        <v>225000</v>
+        <v>201731</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
@@ -68542,11 +68542,11 @@
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S852" t="n">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="T852" t="n">
         <v>450</v>
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -68600,11 +68600,11 @@
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N853" t="n">
         <v>180000</v>
@@ -68622,7 +68622,7 @@
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S853" t="n">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -68680,36 +68680,36 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M854" t="n">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="N854" t="n">
-        <v>6000</v>
+        <v>160000</v>
       </c>
       <c r="O854" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P854" t="n">
-        <v>6000</v>
+        <v>174474</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>600</v>
+        <v>388</v>
       </c>
       <c r="T854" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="855">
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -68760,36 +68760,36 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="N855" t="n">
-        <v>4500</v>
+        <v>157500</v>
       </c>
       <c r="O855" t="n">
-        <v>4500</v>
+        <v>157500</v>
       </c>
       <c r="P855" t="n">
-        <v>4500</v>
+        <v>157500</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S855" t="n">
+        <v>350</v>
+      </c>
+      <c r="T855" t="n">
         <v>450</v>
-      </c>
-      <c r="T855" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="856">
@@ -68807,68 +68807,628 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E856" t="n">
+        <v>13</v>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G856" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I856" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J856" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M856" t="n">
+        <v>24</v>
+      </c>
+      <c r="N856" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O856" t="n">
+        <v>157500</v>
+      </c>
+      <c r="P856" t="n">
+        <v>138750</v>
+      </c>
+      <c r="Q856" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R856" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S856" t="n">
+        <v>308</v>
+      </c>
+      <c r="T856" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>6</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D857" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E857" t="n">
+        <v>13</v>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G857" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I857" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J857" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M857" t="n">
+        <v>16</v>
+      </c>
+      <c r="N857" t="n">
+        <v>112500</v>
+      </c>
+      <c r="O857" t="n">
+        <v>135000</v>
+      </c>
+      <c r="P857" t="n">
+        <v>123750</v>
+      </c>
+      <c r="Q857" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R857" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S857" t="n">
+        <v>275</v>
+      </c>
+      <c r="T857" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>6</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D858" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E858" t="n">
+        <v>13</v>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G858" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I858" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J858" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M858" t="n">
+        <v>12</v>
+      </c>
+      <c r="N858" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O858" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P858" t="n">
+        <v>315000</v>
+      </c>
+      <c r="Q858" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R858" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S858" t="n">
+        <v>700</v>
+      </c>
+      <c r="T858" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>6</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D859" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E859" t="n">
+        <v>13</v>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G859" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I859" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J859" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M859" t="n">
+        <v>16</v>
+      </c>
+      <c r="N859" t="n">
+        <v>225000</v>
+      </c>
+      <c r="O859" t="n">
+        <v>225000</v>
+      </c>
+      <c r="P859" t="n">
+        <v>225000</v>
+      </c>
+      <c r="Q859" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R859" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S859" t="n">
+        <v>500</v>
+      </c>
+      <c r="T859" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>6</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D860" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E860" t="n">
+        <v>13</v>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G860" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I860" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J860" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M860" t="n">
+        <v>8</v>
+      </c>
+      <c r="N860" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O860" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P860" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q860" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R860" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S860" t="n">
+        <v>400</v>
+      </c>
+      <c r="T860" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>6</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D861" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E856" t="n">
-        <v>13</v>
-      </c>
-      <c r="F856" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G856" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I856" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J856" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K856" t="inlineStr">
+      <c r="E861" t="n">
+        <v>13</v>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G861" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I861" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J861" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K861" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L856" t="inlineStr">
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M861" t="n">
+        <v>180</v>
+      </c>
+      <c r="N861" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O861" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P861" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q861" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R861" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S861" t="n">
+        <v>600</v>
+      </c>
+      <c r="T861" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>6</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D862" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E862" t="n">
+        <v>13</v>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G862" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I862" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J862" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M862" t="n">
+        <v>250</v>
+      </c>
+      <c r="N862" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O862" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P862" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q862" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R862" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S862" t="n">
+        <v>450</v>
+      </c>
+      <c r="T862" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>6</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D863" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E863" t="n">
+        <v>13</v>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G863" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I863" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J863" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L863" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M856" t="n">
+      <c r="M863" t="n">
         <v>250</v>
       </c>
-      <c r="N856" t="n">
+      <c r="N863" t="n">
         <v>3000</v>
       </c>
-      <c r="O856" t="n">
+      <c r="O863" t="n">
         <v>3000</v>
       </c>
-      <c r="P856" t="n">
+      <c r="P863" t="n">
         <v>3000</v>
       </c>
-      <c r="Q856" t="inlineStr">
+      <c r="Q863" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R856" t="inlineStr">
+      <c r="R863" t="inlineStr">
         <is>
           <t>Provincia de Petorca</t>
         </is>
       </c>
-      <c r="S856" t="n">
+      <c r="S863" t="n">
         <v>300</v>
       </c>
-      <c r="T856" t="n">
+      <c r="T863" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T873"/>
+  <dimension ref="A1:T881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -68044,16 +68044,16 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="N846" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O846" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P846" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
@@ -68066,7 +68066,7 @@
         </is>
       </c>
       <c r="S846" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T846" t="n">
         <v>10</v>
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -68120,36 +68120,36 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="N847" t="n">
-        <v>5500</v>
+        <v>315000</v>
       </c>
       <c r="O847" t="n">
-        <v>6000</v>
+        <v>315000</v>
       </c>
       <c r="P847" t="n">
-        <v>5833</v>
+        <v>315000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>583</v>
+        <v>700</v>
       </c>
       <c r="T847" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="848">
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -68204,32 +68204,32 @@
         </is>
       </c>
       <c r="M848" t="n">
-        <v>24</v>
+        <v>750</v>
       </c>
       <c r="N848" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O848" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="P848" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S848" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T848" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="849">
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -68280,24 +68280,24 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="N849" t="n">
-        <v>3500</v>
+        <v>200000</v>
       </c>
       <c r="O849" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="P849" t="n">
-        <v>3800</v>
+        <v>200000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
@@ -68306,10 +68306,10 @@
         </is>
       </c>
       <c r="S849" t="n">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="T849" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="850">
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -68360,20 +68360,20 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M850" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N850" t="n">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="O850" t="n">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="P850" t="n">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
@@ -68382,11 +68382,11 @@
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T850" t="n">
         <v>450</v>
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -68440,20 +68440,20 @@
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>240</v>
+        <v>490</v>
       </c>
       <c r="N851" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O851" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P851" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
@@ -68466,7 +68466,7 @@
         </is>
       </c>
       <c r="S851" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T851" t="n">
         <v>10</v>
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -68520,20 +68520,20 @@
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N852" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="O852" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="P852" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
@@ -68542,11 +68542,11 @@
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S852" t="n">
-        <v>222</v>
+        <v>378</v>
       </c>
       <c r="T852" t="n">
         <v>450</v>
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -68595,41 +68595,41 @@
       </c>
       <c r="K853" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="N853" t="n">
-        <v>170000</v>
+        <v>3000</v>
       </c>
       <c r="O853" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="P853" t="n">
-        <v>175000</v>
+        <v>3000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S853" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="T853" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -68675,41 +68675,41 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M854" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N854" t="n">
-        <v>130000</v>
+        <v>7500</v>
       </c>
       <c r="O854" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="P854" t="n">
-        <v>130000</v>
+        <v>7750</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>289</v>
+        <v>775</v>
       </c>
       <c r="T854" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="855">
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -68755,7 +68755,7 @@
       </c>
       <c r="K855" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L855" t="inlineStr">
@@ -68764,32 +68764,32 @@
         </is>
       </c>
       <c r="M855" t="n">
+        <v>720</v>
+      </c>
+      <c r="N855" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O855" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P855" t="n">
+        <v>5833</v>
+      </c>
+      <c r="Q855" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R855" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S855" t="n">
+        <v>583</v>
+      </c>
+      <c r="T855" t="n">
         <v>10</v>
-      </c>
-      <c r="N855" t="n">
-        <v>160000</v>
-      </c>
-      <c r="O855" t="n">
-        <v>160000</v>
-      </c>
-      <c r="P855" t="n">
-        <v>160000</v>
-      </c>
-      <c r="Q855" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R855" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S855" t="n">
-        <v>356</v>
-      </c>
-      <c r="T855" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="856">
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -68835,25 +68835,25 @@
       </c>
       <c r="K856" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N856" t="n">
-        <v>115000</v>
+        <v>180000</v>
       </c>
       <c r="O856" t="n">
-        <v>115000</v>
+        <v>180000</v>
       </c>
       <c r="P856" t="n">
-        <v>115000</v>
+        <v>180000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
@@ -68862,11 +68862,11 @@
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="T856" t="n">
         <v>450</v>
@@ -68887,7 +68887,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -68915,41 +68915,41 @@
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="N857" t="n">
-        <v>75000</v>
+        <v>3500</v>
       </c>
       <c r="O857" t="n">
-        <v>75000</v>
+        <v>4000</v>
       </c>
       <c r="P857" t="n">
-        <v>75000</v>
+        <v>3800</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S857" t="n">
-        <v>167</v>
+        <v>380</v>
       </c>
       <c r="T857" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="858">
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -69000,20 +69000,20 @@
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N858" t="n">
-        <v>310000</v>
+        <v>135000</v>
       </c>
       <c r="O858" t="n">
-        <v>310000</v>
+        <v>135000</v>
       </c>
       <c r="P858" t="n">
-        <v>310000</v>
+        <v>135000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
@@ -69022,11 +69022,11 @@
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>689</v>
+        <v>300</v>
       </c>
       <c r="T858" t="n">
         <v>450</v>
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -69080,36 +69080,36 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M859" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N859" t="n">
-        <v>280000</v>
+        <v>3000</v>
       </c>
       <c r="O859" t="n">
-        <v>280000</v>
+        <v>3000</v>
       </c>
       <c r="P859" t="n">
-        <v>280000</v>
+        <v>3000</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="T859" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="860">
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -69160,20 +69160,20 @@
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N860" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O860" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="P860" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
@@ -69182,11 +69182,11 @@
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>556</v>
+        <v>222</v>
       </c>
       <c r="T860" t="n">
         <v>450</v>
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -69235,25 +69235,25 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N861" t="n">
-        <v>202500</v>
+        <v>170000</v>
       </c>
       <c r="O861" t="n">
-        <v>202500</v>
+        <v>180000</v>
       </c>
       <c r="P861" t="n">
-        <v>202500</v>
+        <v>175000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
@@ -69262,11 +69262,11 @@
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="T861" t="n">
         <v>450</v>
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -69315,25 +69315,25 @@
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N862" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O862" t="n">
-        <v>202500</v>
+        <v>130000</v>
       </c>
       <c r="P862" t="n">
-        <v>201731</v>
+        <v>130000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
@@ -69342,11 +69342,11 @@
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>448</v>
+        <v>289</v>
       </c>
       <c r="T862" t="n">
         <v>450</v>
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -69395,7 +69395,7 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
@@ -69404,16 +69404,16 @@
         </is>
       </c>
       <c r="M863" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N863" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O863" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P863" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
@@ -69422,11 +69422,11 @@
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T863" t="n">
         <v>450</v>
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -69475,25 +69475,25 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N864" t="n">
-        <v>160000</v>
+        <v>115000</v>
       </c>
       <c r="O864" t="n">
-        <v>180000</v>
+        <v>115000</v>
       </c>
       <c r="P864" t="n">
-        <v>174474</v>
+        <v>115000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
@@ -69502,11 +69502,11 @@
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="T864" t="n">
         <v>450</v>
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -69555,25 +69555,25 @@
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N865" t="n">
-        <v>157500</v>
+        <v>75000</v>
       </c>
       <c r="O865" t="n">
-        <v>157500</v>
+        <v>75000</v>
       </c>
       <c r="P865" t="n">
-        <v>157500</v>
+        <v>75000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
@@ -69582,11 +69582,11 @@
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="T865" t="n">
         <v>450</v>
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -69640,20 +69640,20 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N866" t="n">
-        <v>120000</v>
+        <v>310000</v>
       </c>
       <c r="O866" t="n">
-        <v>157500</v>
+        <v>310000</v>
       </c>
       <c r="P866" t="n">
-        <v>138750</v>
+        <v>310000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69662,11 +69662,11 @@
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>308</v>
+        <v>689</v>
       </c>
       <c r="T866" t="n">
         <v>450</v>
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -69720,20 +69720,20 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N867" t="n">
-        <v>112500</v>
+        <v>280000</v>
       </c>
       <c r="O867" t="n">
-        <v>135000</v>
+        <v>280000</v>
       </c>
       <c r="P867" t="n">
-        <v>123750</v>
+        <v>280000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69742,11 +69742,11 @@
       </c>
       <c r="R867" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S867" t="n">
-        <v>275</v>
+        <v>622</v>
       </c>
       <c r="T867" t="n">
         <v>450</v>
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -69800,20 +69800,20 @@
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N868" t="n">
-        <v>315000</v>
+        <v>250000</v>
       </c>
       <c r="O868" t="n">
-        <v>315000</v>
+        <v>250000</v>
       </c>
       <c r="P868" t="n">
-        <v>315000</v>
+        <v>250000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
@@ -69822,11 +69822,11 @@
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T868" t="n">
         <v>450</v>
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -69880,20 +69880,20 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N869" t="n">
-        <v>225000</v>
+        <v>202500</v>
       </c>
       <c r="O869" t="n">
-        <v>225000</v>
+        <v>202500</v>
       </c>
       <c r="P869" t="n">
-        <v>225000</v>
+        <v>202500</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69902,11 +69902,11 @@
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="T869" t="n">
         <v>450</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -69960,20 +69960,20 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N870" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O870" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="P870" t="n">
-        <v>180000</v>
+        <v>201731</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69982,11 +69982,11 @@
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="T870" t="n">
         <v>450</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -70040,36 +70040,36 @@
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="N871" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="O871" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="P871" t="n">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T871" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="872">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -70124,32 +70124,32 @@
         </is>
       </c>
       <c r="M872" t="n">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="N872" t="n">
-        <v>4500</v>
+        <v>160000</v>
       </c>
       <c r="O872" t="n">
-        <v>4500</v>
+        <v>180000</v>
       </c>
       <c r="P872" t="n">
-        <v>4500</v>
+        <v>174474</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S872" t="n">
+        <v>388</v>
+      </c>
+      <c r="T872" t="n">
         <v>450</v>
-      </c>
-      <c r="T872" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="873">
@@ -70167,68 +70167,708 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E873" t="n">
+        <v>13</v>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G873" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I873" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M873" t="n">
+        <v>8</v>
+      </c>
+      <c r="N873" t="n">
+        <v>157500</v>
+      </c>
+      <c r="O873" t="n">
+        <v>157500</v>
+      </c>
+      <c r="P873" t="n">
+        <v>157500</v>
+      </c>
+      <c r="Q873" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R873" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S873" t="n">
+        <v>350</v>
+      </c>
+      <c r="T873" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>6</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D874" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E874" t="n">
+        <v>13</v>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G874" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I874" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J874" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M874" t="n">
+        <v>24</v>
+      </c>
+      <c r="N874" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O874" t="n">
+        <v>157500</v>
+      </c>
+      <c r="P874" t="n">
+        <v>138750</v>
+      </c>
+      <c r="Q874" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R874" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S874" t="n">
+        <v>308</v>
+      </c>
+      <c r="T874" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>6</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D875" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E875" t="n">
+        <v>13</v>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G875" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I875" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M875" t="n">
+        <v>16</v>
+      </c>
+      <c r="N875" t="n">
+        <v>112500</v>
+      </c>
+      <c r="O875" t="n">
+        <v>135000</v>
+      </c>
+      <c r="P875" t="n">
+        <v>123750</v>
+      </c>
+      <c r="Q875" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R875" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S875" t="n">
+        <v>275</v>
+      </c>
+      <c r="T875" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>6</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D876" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E876" t="n">
+        <v>13</v>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G876" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I876" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M876" t="n">
+        <v>12</v>
+      </c>
+      <c r="N876" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O876" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P876" t="n">
+        <v>315000</v>
+      </c>
+      <c r="Q876" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R876" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S876" t="n">
+        <v>700</v>
+      </c>
+      <c r="T876" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>6</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D877" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E877" t="n">
+        <v>13</v>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G877" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I877" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M877" t="n">
+        <v>16</v>
+      </c>
+      <c r="N877" t="n">
+        <v>225000</v>
+      </c>
+      <c r="O877" t="n">
+        <v>225000</v>
+      </c>
+      <c r="P877" t="n">
+        <v>225000</v>
+      </c>
+      <c r="Q877" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R877" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S877" t="n">
+        <v>500</v>
+      </c>
+      <c r="T877" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>6</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D878" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E878" t="n">
+        <v>13</v>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G878" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I878" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M878" t="n">
+        <v>8</v>
+      </c>
+      <c r="N878" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O878" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P878" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q878" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R878" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S878" t="n">
+        <v>400</v>
+      </c>
+      <c r="T878" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>6</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D879" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E873" t="n">
-        <v>13</v>
-      </c>
-      <c r="F873" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G873" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I873" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J873" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K873" t="inlineStr">
+      <c r="E879" t="n">
+        <v>13</v>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G879" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I879" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L873" t="inlineStr">
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M879" t="n">
+        <v>180</v>
+      </c>
+      <c r="N879" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O879" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P879" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q879" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R879" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S879" t="n">
+        <v>600</v>
+      </c>
+      <c r="T879" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>6</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D880" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E880" t="n">
+        <v>13</v>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G880" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I880" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M880" t="n">
+        <v>250</v>
+      </c>
+      <c r="N880" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O880" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P880" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q880" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R880" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S880" t="n">
+        <v>450</v>
+      </c>
+      <c r="T880" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>6</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D881" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E881" t="n">
+        <v>13</v>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G881" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I881" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M873" t="n">
+      <c r="M881" t="n">
         <v>250</v>
       </c>
-      <c r="N873" t="n">
+      <c r="N881" t="n">
         <v>3000</v>
       </c>
-      <c r="O873" t="n">
+      <c r="O881" t="n">
         <v>3000</v>
       </c>
-      <c r="P873" t="n">
+      <c r="P881" t="n">
         <v>3000</v>
       </c>
-      <c r="Q873" t="inlineStr">
+      <c r="Q881" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R873" t="inlineStr">
+      <c r="R881" t="inlineStr">
         <is>
           <t>Provincia de Petorca</t>
         </is>
       </c>
-      <c r="S873" t="n">
+      <c r="S881" t="n">
         <v>300</v>
       </c>
-      <c r="T873" t="n">
+      <c r="T881" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T884"/>
+  <dimension ref="A1:T888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,7 +57955,7 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
@@ -57964,20 +57964,20 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N720" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="O720" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="P720" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
@@ -57986,10 +57986,10 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T720" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,7 +58035,7 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
@@ -58044,20 +58044,20 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N721" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="O721" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="P721" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
@@ -58066,10 +58066,10 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T721" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,41 +58115,41 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N722" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="O722" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="P722" t="n">
-        <v>300000</v>
+        <v>4000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T722" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,41 +58195,41 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M723" t="n">
+        <v>360</v>
+      </c>
+      <c r="N723" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O723" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P723" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q723" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R723" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S723" t="n">
+        <v>300</v>
+      </c>
+      <c r="T723" t="n">
         <v>10</v>
-      </c>
-      <c r="N723" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O723" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P723" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q723" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R723" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S723" t="n">
-        <v>533</v>
-      </c>
-      <c r="T723" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,7 +58275,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -58284,32 +58284,32 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N724" t="n">
-        <v>150000</v>
+        <v>1300</v>
       </c>
       <c r="O724" t="n">
-        <v>150000</v>
+        <v>1300</v>
       </c>
       <c r="P724" t="n">
-        <v>150000</v>
+        <v>1300</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>333</v>
+        <v>1300</v>
       </c>
       <c r="T724" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,7 +58355,7 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
@@ -58364,32 +58364,32 @@
         </is>
       </c>
       <c r="M725" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N725" t="n">
-        <v>130000</v>
+        <v>1000</v>
       </c>
       <c r="O725" t="n">
-        <v>130000</v>
+        <v>1000</v>
       </c>
       <c r="P725" t="n">
-        <v>130000</v>
+        <v>1000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>289</v>
+        <v>1000</v>
       </c>
       <c r="T725" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,25 +58435,25 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N726" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="O726" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="P726" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>222</v>
+        <v>667</v>
       </c>
       <c r="T726" t="n">
         <v>450</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N727" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="O727" t="n">
-        <v>310000</v>
+        <v>240000</v>
       </c>
       <c r="P727" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T727" t="n">
         <v>450</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,7 +58595,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -58604,32 +58604,32 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="N728" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="O728" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="P728" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="T728" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,7 +58675,7 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
@@ -58684,32 +58684,32 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N729" t="n">
-        <v>5500</v>
+        <v>130000</v>
       </c>
       <c r="O729" t="n">
-        <v>5500</v>
+        <v>130000</v>
       </c>
       <c r="P729" t="n">
-        <v>5500</v>
+        <v>130000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>550</v>
+        <v>289</v>
       </c>
       <c r="T729" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,7 +58755,7 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
@@ -58764,32 +58764,32 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N730" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="O730" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="P730" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="T730" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,7 +58835,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -58844,16 +58844,16 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N731" t="n">
-        <v>160000</v>
+        <v>290000</v>
       </c>
       <c r="O731" t="n">
-        <v>160000</v>
+        <v>310000</v>
       </c>
       <c r="P731" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58862,11 +58862,11 @@
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>356</v>
+        <v>667</v>
       </c>
       <c r="T731" t="n">
         <v>450</v>
@@ -58915,29 +58915,29 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N732" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="O732" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="P732" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
@@ -58946,10 +58946,10 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>289</v>
+        <v>700</v>
       </c>
       <c r="T732" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,36 +59000,36 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="N733" t="n">
-        <v>225000</v>
+        <v>5500</v>
       </c>
       <c r="O733" t="n">
-        <v>225000</v>
+        <v>5500</v>
       </c>
       <c r="P733" t="n">
-        <v>225000</v>
+        <v>5500</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T733" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="734">
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N734" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O734" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P734" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59102,11 +59102,11 @@
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="T734" t="n">
         <v>10</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N735" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O735" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P735" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T735" t="n">
         <v>450</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,41 +59235,41 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="N736" t="n">
-        <v>4500</v>
+        <v>130000</v>
       </c>
       <c r="O736" t="n">
-        <v>4500</v>
+        <v>130000</v>
       </c>
       <c r="P736" t="n">
-        <v>4500</v>
+        <v>130000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S736" t="n">
+        <v>289</v>
+      </c>
+      <c r="T736" t="n">
         <v>450</v>
-      </c>
-      <c r="T736" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="737">
@@ -59315,16 +59315,16 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N737" t="n">
         <v>225000</v>
@@ -59342,7 +59342,7 @@
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S737" t="n">
@@ -59400,36 +59400,36 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N738" t="n">
-        <v>230000</v>
+        <v>6000</v>
       </c>
       <c r="O738" t="n">
-        <v>230000</v>
+        <v>6000</v>
       </c>
       <c r="P738" t="n">
-        <v>230000</v>
+        <v>6000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="T738" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="739">
@@ -59480,24 +59480,24 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="N739" t="n">
-        <v>3500</v>
+        <v>270000</v>
       </c>
       <c r="O739" t="n">
-        <v>3500</v>
+        <v>270000</v>
       </c>
       <c r="P739" t="n">
-        <v>3500</v>
+        <v>270000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
@@ -59506,10 +59506,10 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="T739" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="740">
@@ -59560,36 +59560,36 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="N740" t="n">
-        <v>200000</v>
+        <v>4500</v>
       </c>
       <c r="O740" t="n">
-        <v>200000</v>
+        <v>4500</v>
       </c>
       <c r="P740" t="n">
-        <v>200000</v>
+        <v>4500</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="T740" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="741">
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N741" t="n">
-        <v>135000</v>
+        <v>225000</v>
       </c>
       <c r="O741" t="n">
-        <v>135000</v>
+        <v>225000</v>
       </c>
       <c r="P741" t="n">
-        <v>135000</v>
+        <v>225000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T741" t="n">
         <v>450</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N742" t="n">
-        <v>157000</v>
+        <v>230000</v>
       </c>
       <c r="O742" t="n">
-        <v>167000</v>
+        <v>230000</v>
       </c>
       <c r="P742" t="n">
-        <v>162714</v>
+        <v>230000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59742,11 +59742,11 @@
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>362</v>
+        <v>511</v>
       </c>
       <c r="T742" t="n">
         <v>450</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,36 +59800,36 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="N743" t="n">
-        <v>160000</v>
+        <v>3500</v>
       </c>
       <c r="O743" t="n">
-        <v>160000</v>
+        <v>3500</v>
       </c>
       <c r="P743" t="n">
-        <v>160000</v>
+        <v>3500</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="T743" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N744" t="n">
-        <v>126000</v>
+        <v>200000</v>
       </c>
       <c r="O744" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="P744" t="n">
-        <v>130909</v>
+        <v>200000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>291</v>
+        <v>444</v>
       </c>
       <c r="T744" t="n">
         <v>450</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N745" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="O745" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="P745" t="n">
-        <v>125000</v>
+        <v>135000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="T745" t="n">
         <v>450</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N746" t="n">
-        <v>90000</v>
+        <v>157000</v>
       </c>
       <c r="O746" t="n">
-        <v>90000</v>
+        <v>167000</v>
       </c>
       <c r="P746" t="n">
-        <v>90000</v>
+        <v>162714</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="T746" t="n">
         <v>450</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,7 +60115,7 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
@@ -60124,32 +60124,32 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="N747" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="O747" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="P747" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>800</v>
+        <v>356</v>
       </c>
       <c r="T747" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,7 +60195,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -60204,32 +60204,32 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="N748" t="n">
-        <v>6000</v>
+        <v>126000</v>
       </c>
       <c r="O748" t="n">
-        <v>7000</v>
+        <v>135000</v>
       </c>
       <c r="P748" t="n">
-        <v>6500</v>
+        <v>130909</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>650</v>
+        <v>291</v>
       </c>
       <c r="T748" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,41 +60275,41 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="N749" t="n">
-        <v>4500</v>
+        <v>120000</v>
       </c>
       <c r="O749" t="n">
-        <v>4500</v>
+        <v>130000</v>
       </c>
       <c r="P749" t="n">
-        <v>4500</v>
+        <v>125000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S749" t="n">
+        <v>278</v>
+      </c>
+      <c r="T749" t="n">
         <v>450</v>
-      </c>
-      <c r="T749" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60355,25 +60355,25 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N750" t="n">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="O750" t="n">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="P750" t="n">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T750" t="n">
         <v>450</v>
@@ -60435,29 +60435,29 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="N751" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="O751" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P751" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
@@ -60466,10 +60466,10 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T751" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="752">
@@ -60515,29 +60515,29 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="N752" t="n">
-        <v>90000</v>
+        <v>6000</v>
       </c>
       <c r="O752" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="P752" t="n">
-        <v>90000</v>
+        <v>6500</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
@@ -60546,10 +60546,10 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="T752" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60600,36 +60600,36 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N753" t="n">
-        <v>220000</v>
+        <v>4500</v>
       </c>
       <c r="O753" t="n">
-        <v>220000</v>
+        <v>4500</v>
       </c>
       <c r="P753" t="n">
-        <v>220000</v>
+        <v>4500</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="T753" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,41 +60675,41 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="N754" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O754" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P754" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T754" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N755" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="O755" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="P755" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60782,11 +60782,11 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T755" t="n">
         <v>450</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,25 +60835,25 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N756" t="n">
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="O756" t="n">
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="P756" t="n">
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60862,11 +60862,11 @@
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="T756" t="n">
         <v>450</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,32 +60924,32 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N757" t="n">
-        <v>4000</v>
+        <v>220000</v>
       </c>
       <c r="O757" t="n">
-        <v>4000</v>
+        <v>220000</v>
       </c>
       <c r="P757" t="n">
-        <v>4000</v>
+        <v>220000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T757" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="758">
@@ -61000,36 +61000,36 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="N758" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="O758" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="P758" t="n">
-        <v>225000</v>
+        <v>5000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
         <v>500</v>
       </c>
       <c r="T758" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759">
@@ -61080,36 +61080,36 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="N759" t="n">
-        <v>3000</v>
+        <v>225000</v>
       </c>
       <c r="O759" t="n">
-        <v>3000</v>
+        <v>225000</v>
       </c>
       <c r="P759" t="n">
-        <v>3000</v>
+        <v>225000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T759" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61164,32 +61164,32 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="N760" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="O760" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="P760" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T760" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61240,24 +61240,24 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="N761" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="O761" t="n">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="P761" t="n">
-        <v>190000</v>
+        <v>4000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
@@ -61266,10 +61266,10 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="T761" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61324,32 +61324,32 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>480</v>
+        <v>7</v>
       </c>
       <c r="N762" t="n">
-        <v>4000</v>
+        <v>225000</v>
       </c>
       <c r="O762" t="n">
-        <v>4000</v>
+        <v>225000</v>
       </c>
       <c r="P762" t="n">
-        <v>4000</v>
+        <v>225000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T762" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61400,24 +61400,24 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="N763" t="n">
-        <v>150000</v>
+        <v>3000</v>
       </c>
       <c r="O763" t="n">
-        <v>160000</v>
+        <v>3000</v>
       </c>
       <c r="P763" t="n">
-        <v>155000</v>
+        <v>3000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
@@ -61426,10 +61426,10 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="T763" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="764">
@@ -61480,20 +61480,20 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N764" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O764" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P764" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T764" t="n">
         <v>10</v>
@@ -61560,20 +61560,20 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N765" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O765" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P765" t="n">
-        <v>120000</v>
+        <v>190000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="T765" t="n">
         <v>450</v>
@@ -61640,36 +61640,36 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M766" t="n">
+        <v>480</v>
+      </c>
+      <c r="N766" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O766" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P766" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q766" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R766" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S766" t="n">
+        <v>400</v>
+      </c>
+      <c r="T766" t="n">
         <v>10</v>
-      </c>
-      <c r="N766" t="n">
-        <v>90000</v>
-      </c>
-      <c r="O766" t="n">
-        <v>90000</v>
-      </c>
-      <c r="P766" t="n">
-        <v>90000</v>
-      </c>
-      <c r="Q766" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R766" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S766" t="n">
-        <v>200</v>
-      </c>
-      <c r="T766" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61720,36 +61720,36 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="N767" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="O767" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="P767" t="n">
-        <v>7500</v>
+        <v>155000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>750</v>
+        <v>344</v>
       </c>
       <c r="T767" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="768">
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61800,20 +61800,20 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="N768" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O768" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P768" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="T768" t="n">
         <v>10</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N769" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O769" t="n">
-        <v>202000</v>
+        <v>120000</v>
       </c>
       <c r="P769" t="n">
-        <v>186000</v>
+        <v>120000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61902,11 +61902,11 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>413</v>
+        <v>267</v>
       </c>
       <c r="T769" t="n">
         <v>450</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61960,36 +61960,36 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="N770" t="n">
-        <v>3500</v>
+        <v>90000</v>
       </c>
       <c r="O770" t="n">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="P770" t="n">
-        <v>3750</v>
+        <v>90000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="T770" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="771">
@@ -62040,36 +62040,36 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N771" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="O771" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="P771" t="n">
-        <v>160000</v>
+        <v>7500</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>356</v>
+        <v>750</v>
       </c>
       <c r="T771" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="772">
@@ -62120,36 +62120,36 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>8</v>
+        <v>640</v>
       </c>
       <c r="N772" t="n">
-        <v>125000</v>
+        <v>5000</v>
       </c>
       <c r="O772" t="n">
-        <v>125000</v>
+        <v>6000</v>
       </c>
       <c r="P772" t="n">
-        <v>125000</v>
+        <v>5500</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>278</v>
+        <v>550</v>
       </c>
       <c r="T772" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="773">
@@ -62195,7 +62195,7 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
@@ -62204,32 +62204,32 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>832</v>
+        <v>22</v>
       </c>
       <c r="N773" t="n">
-        <v>6500</v>
+        <v>180000</v>
       </c>
       <c r="O773" t="n">
-        <v>6500</v>
+        <v>202000</v>
       </c>
       <c r="P773" t="n">
-        <v>6500</v>
+        <v>186000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>650</v>
+        <v>413</v>
       </c>
       <c r="T773" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62275,29 +62275,29 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="N774" t="n">
-        <v>315000</v>
+        <v>3500</v>
       </c>
       <c r="O774" t="n">
-        <v>360000</v>
+        <v>4000</v>
       </c>
       <c r="P774" t="n">
-        <v>337500</v>
+        <v>3750</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
@@ -62306,10 +62306,10 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="T774" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62355,25 +62355,25 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N775" t="n">
-        <v>225000</v>
+        <v>160000</v>
       </c>
       <c r="O775" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P775" t="n">
-        <v>247500</v>
+        <v>160000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62382,11 +62382,11 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>550</v>
+        <v>356</v>
       </c>
       <c r="T775" t="n">
         <v>450</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,41 +62435,41 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N776" t="n">
-        <v>600</v>
+        <v>125000</v>
       </c>
       <c r="O776" t="n">
-        <v>700</v>
+        <v>125000</v>
       </c>
       <c r="P776" t="n">
-        <v>650</v>
+        <v>125000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>650</v>
+        <v>278</v>
       </c>
       <c r="T776" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,41 +62515,41 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>16</v>
+        <v>832</v>
       </c>
       <c r="N777" t="n">
-        <v>150000</v>
+        <v>6500</v>
       </c>
       <c r="O777" t="n">
-        <v>180000</v>
+        <v>6500</v>
       </c>
       <c r="P777" t="n">
-        <v>165000</v>
+        <v>6500</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>367</v>
+        <v>650</v>
       </c>
       <c r="T777" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="778">
@@ -62600,36 +62600,36 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N778" t="n">
-        <v>400</v>
+        <v>315000</v>
       </c>
       <c r="O778" t="n">
-        <v>400</v>
+        <v>360000</v>
       </c>
       <c r="P778" t="n">
-        <v>400</v>
+        <v>337500</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="T778" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="779">
@@ -62675,7 +62675,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -62687,10 +62687,10 @@
         <v>24</v>
       </c>
       <c r="N779" t="n">
-        <v>247500</v>
+        <v>225000</v>
       </c>
       <c r="O779" t="n">
-        <v>247500</v>
+        <v>270000</v>
       </c>
       <c r="P779" t="n">
         <v>247500</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62760,36 +62760,36 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N780" t="n">
-        <v>200000</v>
+        <v>600</v>
       </c>
       <c r="O780" t="n">
-        <v>200000</v>
+        <v>700</v>
       </c>
       <c r="P780" t="n">
-        <v>200000</v>
+        <v>650</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>444</v>
+        <v>650</v>
       </c>
       <c r="T780" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62840,20 +62840,20 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N781" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O781" t="n">
         <v>180000</v>
       </c>
       <c r="P781" t="n">
-        <v>175000</v>
+        <v>165000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62866,7 +62866,7 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="T781" t="n">
         <v>450</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,41 +62915,41 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="N782" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="O782" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="P782" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T782" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,7 +62995,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -63004,20 +63004,20 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>960</v>
+        <v>24</v>
       </c>
       <c r="N783" t="n">
-        <v>5500</v>
+        <v>247500</v>
       </c>
       <c r="O783" t="n">
-        <v>6000</v>
+        <v>247500</v>
       </c>
       <c r="P783" t="n">
-        <v>5750</v>
+        <v>247500</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="T783" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="784">
@@ -63075,29 +63075,29 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="N784" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="O784" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="P784" t="n">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
@@ -63106,10 +63106,10 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T784" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -63155,29 +63155,29 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="N785" t="n">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="O785" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P785" t="n">
-        <v>5000</v>
+        <v>175000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
@@ -63186,10 +63186,10 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T785" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63235,25 +63235,25 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N786" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O786" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P786" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T786" t="n">
         <v>10</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -63324,32 +63324,32 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>24</v>
+        <v>960</v>
       </c>
       <c r="N787" t="n">
-        <v>130000</v>
+        <v>5500</v>
       </c>
       <c r="O787" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="P787" t="n">
-        <v>135000</v>
+        <v>5750</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>300</v>
+        <v>575</v>
       </c>
       <c r="T787" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63395,7 +63395,7 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
@@ -63407,13 +63407,13 @@
         <v>360</v>
       </c>
       <c r="N788" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O788" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P788" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T788" t="n">
         <v>10</v>
@@ -63480,36 +63480,36 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="N789" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O789" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="P789" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="T789" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790">
@@ -63560,20 +63560,20 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N790" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O790" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P790" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T790" t="n">
         <v>10</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63640,36 +63640,36 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="N791" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="O791" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="P791" t="n">
-        <v>9000</v>
+        <v>135000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="T791" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63720,20 +63720,20 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N792" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O792" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P792" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T792" t="n">
         <v>10</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63800,20 +63800,20 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N793" t="n">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="O793" t="n">
-        <v>315000</v>
+        <v>100000</v>
       </c>
       <c r="P793" t="n">
-        <v>306429</v>
+        <v>100000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
@@ -63822,11 +63822,11 @@
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>681</v>
+        <v>222</v>
       </c>
       <c r="T793" t="n">
         <v>450</v>
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63880,20 +63880,20 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N794" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O794" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="P794" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
@@ -63906,7 +63906,7 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="T794" t="n">
         <v>10</v>
@@ -63960,36 +63960,36 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="N795" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O795" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="P795" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T795" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -64035,7 +64035,7 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
@@ -64044,32 +64044,32 @@
         </is>
       </c>
       <c r="M796" t="n">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="N796" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O796" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P796" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T796" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -64115,25 +64115,25 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N797" t="n">
-        <v>135000</v>
+        <v>300000</v>
       </c>
       <c r="O797" t="n">
-        <v>135000</v>
+        <v>315000</v>
       </c>
       <c r="P797" t="n">
-        <v>135000</v>
+        <v>306429</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64142,11 +64142,11 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>300</v>
+        <v>681</v>
       </c>
       <c r="T797" t="n">
         <v>450</v>
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -64195,41 +64195,41 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="N798" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="O798" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="P798" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="T798" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="799">
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -64275,25 +64275,25 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N799" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="O799" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="P799" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
@@ -64306,7 +64306,7 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T799" t="n">
         <v>450</v>
@@ -64355,25 +64355,25 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N800" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="O800" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P800" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64382,11 +64382,11 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T800" t="n">
         <v>450</v>
@@ -64435,25 +64435,25 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N801" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="O801" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="P801" t="n">
-        <v>80000</v>
+        <v>135000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
@@ -64462,11 +64462,11 @@
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="T801" t="n">
         <v>450</v>
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -64515,41 +64515,41 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N802" t="n">
-        <v>800</v>
+        <v>90000</v>
       </c>
       <c r="O802" t="n">
-        <v>1000</v>
+        <v>90000</v>
       </c>
       <c r="P802" t="n">
-        <v>900</v>
+        <v>90000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="T802" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -64595,41 +64595,41 @@
       </c>
       <c r="K803" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N803" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="O803" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="P803" t="n">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T803" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -64675,41 +64675,41 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N804" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="O804" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P804" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T804" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -64755,41 +64755,41 @@
       </c>
       <c r="K805" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="N805" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="O805" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="P805" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>500</v>
+        <v>178</v>
       </c>
       <c r="T805" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -64847,29 +64847,29 @@
         <v>16</v>
       </c>
       <c r="N806" t="n">
-        <v>130000</v>
+        <v>800</v>
       </c>
       <c r="O806" t="n">
-        <v>135000</v>
+        <v>1000</v>
       </c>
       <c r="P806" t="n">
-        <v>132500</v>
+        <v>900</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S806" t="n">
-        <v>294</v>
+        <v>900</v>
       </c>
       <c r="T806" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807">
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -64924,32 +64924,32 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="N807" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="O807" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="P807" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T807" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808">
@@ -65000,36 +65000,36 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="N808" t="n">
-        <v>100000</v>
+        <v>6000</v>
       </c>
       <c r="O808" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="P808" t="n">
-        <v>105000</v>
+        <v>6000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>233</v>
+        <v>600</v>
       </c>
       <c r="T808" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="809">
@@ -65080,36 +65080,36 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N809" t="n">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="O809" t="n">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="P809" t="n">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S809" t="n">
-        <v>178</v>
+        <v>500</v>
       </c>
       <c r="T809" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="810">
@@ -65155,7 +65155,7 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
@@ -65164,32 +65164,32 @@
         </is>
       </c>
       <c r="M810" t="n">
-        <v>1040</v>
+        <v>16</v>
       </c>
       <c r="N810" t="n">
-        <v>2500</v>
+        <v>130000</v>
       </c>
       <c r="O810" t="n">
-        <v>3000</v>
+        <v>135000</v>
       </c>
       <c r="P810" t="n">
-        <v>2750</v>
+        <v>132500</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="T810" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -65235,25 +65235,25 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N811" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O811" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P811" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65262,11 +65262,11 @@
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T811" t="n">
         <v>10</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -65315,25 +65315,25 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N812" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O812" t="n">
-        <v>210000</v>
+        <v>110000</v>
       </c>
       <c r="P812" t="n">
-        <v>195000</v>
+        <v>105000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65346,7 +65346,7 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>433</v>
+        <v>233</v>
       </c>
       <c r="T812" t="n">
         <v>450</v>
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -65395,29 +65395,29 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="N813" t="n">
-        <v>5500</v>
+        <v>80000</v>
       </c>
       <c r="O813" t="n">
-        <v>5500</v>
+        <v>80000</v>
       </c>
       <c r="P813" t="n">
-        <v>5500</v>
+        <v>80000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
@@ -65426,10 +65426,10 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>550</v>
+        <v>178</v>
       </c>
       <c r="T813" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="814">
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -65475,7 +65475,7 @@
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
@@ -65484,32 +65484,32 @@
         </is>
       </c>
       <c r="M814" t="n">
-        <v>26</v>
+        <v>1040</v>
       </c>
       <c r="N814" t="n">
-        <v>150000</v>
+        <v>2500</v>
       </c>
       <c r="O814" t="n">
-        <v>160000</v>
+        <v>3000</v>
       </c>
       <c r="P814" t="n">
-        <v>155000</v>
+        <v>2750</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="T814" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="815">
@@ -65560,20 +65560,20 @@
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="N815" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O815" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P815" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65586,7 +65586,7 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="T815" t="n">
         <v>10</v>
@@ -65640,20 +65640,20 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N816" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O816" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P816" t="n">
-        <v>120000</v>
+        <v>195000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
@@ -65666,7 +65666,7 @@
         </is>
       </c>
       <c r="S816" t="n">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="T816" t="n">
         <v>450</v>
@@ -65720,24 +65720,24 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="N817" t="n">
-        <v>90000</v>
+        <v>5500</v>
       </c>
       <c r="O817" t="n">
-        <v>90000</v>
+        <v>5500</v>
       </c>
       <c r="P817" t="n">
-        <v>90000</v>
+        <v>5500</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65746,10 +65746,10 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="T817" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="818">
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -65795,41 +65795,41 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="N818" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O818" t="n">
-        <v>5000</v>
+        <v>160000</v>
       </c>
       <c r="P818" t="n">
-        <v>5000</v>
+        <v>155000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>500</v>
+        <v>344</v>
       </c>
       <c r="T818" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -65875,25 +65875,25 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="N819" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="O819" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="P819" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
@@ -65902,11 +65902,11 @@
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="T819" t="n">
         <v>10</v>
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -65955,41 +65955,41 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="N820" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="O820" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="P820" t="n">
-        <v>4000</v>
+        <v>120000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T820" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="821">
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -66035,41 +66035,41 @@
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="N821" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="O821" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="P821" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R821" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S821" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="T821" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="822">
@@ -66120,36 +66120,36 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="N822" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="O822" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="P822" t="n">
-        <v>145000</v>
+        <v>5000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>322</v>
+        <v>500</v>
       </c>
       <c r="T822" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="823">
@@ -66200,20 +66200,20 @@
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N823" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O823" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P823" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66222,11 +66222,11 @@
       </c>
       <c r="R823" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S823" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="T823" t="n">
         <v>10</v>
@@ -66280,20 +66280,20 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N824" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O824" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P824" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
@@ -66302,11 +66302,11 @@
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="T824" t="n">
         <v>10</v>
@@ -66360,24 +66360,24 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N825" t="n">
-        <v>120000</v>
+        <v>5500</v>
       </c>
       <c r="O825" t="n">
-        <v>120000</v>
+        <v>5500</v>
       </c>
       <c r="P825" t="n">
-        <v>120000</v>
+        <v>5500</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66386,10 +66386,10 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>267</v>
+        <v>550</v>
       </c>
       <c r="T825" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="826">
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -66440,36 +66440,36 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="N826" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="O826" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="P826" t="n">
-        <v>5000</v>
+        <v>145000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>500</v>
+        <v>322</v>
       </c>
       <c r="T826" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -66520,20 +66520,20 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N827" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O827" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P827" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66546,7 +66546,7 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T827" t="n">
         <v>10</v>
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -66604,16 +66604,16 @@
         </is>
       </c>
       <c r="M828" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N828" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O828" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P828" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
@@ -66622,11 +66622,11 @@
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S828" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="T828" t="n">
         <v>10</v>
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -66675,41 +66675,41 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N829" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="O829" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="P829" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>1000</v>
+        <v>267</v>
       </c>
       <c r="T829" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -66755,41 +66755,41 @@
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N830" t="n">
-        <v>650</v>
+        <v>5000</v>
       </c>
       <c r="O830" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="P830" t="n">
-        <v>675</v>
+        <v>5000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S830" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="T830" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="831">
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -66835,25 +66835,25 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N831" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O831" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P831" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66862,11 +66862,11 @@
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T831" t="n">
         <v>10</v>
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -66915,25 +66915,25 @@
       </c>
       <c r="K832" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N832" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O832" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P832" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
@@ -66942,11 +66942,11 @@
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S832" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T832" t="n">
         <v>10</v>
@@ -66995,41 +66995,41 @@
       </c>
       <c r="K833" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="N833" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="O833" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="P833" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T833" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -67080,36 +67080,36 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="N834" t="n">
-        <v>7000</v>
+        <v>650</v>
       </c>
       <c r="O834" t="n">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="P834" t="n">
-        <v>7000</v>
+        <v>675</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S834" t="n">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="T834" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -67155,25 +67155,25 @@
       </c>
       <c r="K835" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N835" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O835" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P835" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
@@ -67182,11 +67182,11 @@
       </c>
       <c r="R835" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S835" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T835" t="n">
         <v>10</v>
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -67235,25 +67235,25 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="N836" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O836" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P836" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
@@ -67262,11 +67262,11 @@
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="T836" t="n">
         <v>10</v>
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -67315,41 +67315,41 @@
       </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N837" t="n">
-        <v>330000</v>
+        <v>7000</v>
       </c>
       <c r="O837" t="n">
-        <v>330000</v>
+        <v>7000</v>
       </c>
       <c r="P837" t="n">
-        <v>330000</v>
+        <v>7000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T837" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="838">
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -67400,36 +67400,36 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="N838" t="n">
-        <v>300000</v>
+        <v>7000</v>
       </c>
       <c r="O838" t="n">
-        <v>310000</v>
+        <v>7000</v>
       </c>
       <c r="P838" t="n">
-        <v>305000</v>
+        <v>7000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S838" t="n">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="T838" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="839">
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -67475,25 +67475,25 @@
       </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N839" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O839" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P839" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
@@ -67502,11 +67502,11 @@
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S839" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T839" t="n">
         <v>10</v>
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -67555,25 +67555,25 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N840" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="O840" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P840" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
@@ -67582,11 +67582,11 @@
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S840" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="T840" t="n">
         <v>10</v>
@@ -67635,41 +67635,41 @@
       </c>
       <c r="K841" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N841" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="O841" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="P841" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T841" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="842">
@@ -67715,41 +67715,41 @@
       </c>
       <c r="K842" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="N842" t="n">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="O842" t="n">
-        <v>8000</v>
+        <v>310000</v>
       </c>
       <c r="P842" t="n">
-        <v>8000</v>
+        <v>305000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="T842" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="843">
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -67804,7 +67804,7 @@
         </is>
       </c>
       <c r="M843" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N843" t="n">
         <v>12000</v>
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -67884,7 +67884,7 @@
         </is>
       </c>
       <c r="M844" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N844" t="n">
         <v>11000</v>
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -67964,7 +67964,7 @@
         </is>
       </c>
       <c r="M845" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N845" t="n">
         <v>10000</v>
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -68035,41 +68035,41 @@
       </c>
       <c r="K846" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M846" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="N846" t="n">
-        <v>1100</v>
+        <v>8000</v>
       </c>
       <c r="O846" t="n">
-        <v>1100</v>
+        <v>8000</v>
       </c>
       <c r="P846" t="n">
-        <v>1100</v>
+        <v>8000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T846" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="847">
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -68115,41 +68115,41 @@
       </c>
       <c r="K847" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N847" t="n">
-        <v>700</v>
+        <v>12000</v>
       </c>
       <c r="O847" t="n">
-        <v>700</v>
+        <v>12000</v>
       </c>
       <c r="P847" t="n">
-        <v>700</v>
+        <v>12000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T847" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="848">
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -68195,41 +68195,41 @@
       </c>
       <c r="K848" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M848" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N848" t="n">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="O848" t="n">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="P848" t="n">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S848" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T848" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="849">
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44509</v>
+        <v>44330</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -68275,25 +68275,25 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="N849" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O849" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P849" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
@@ -68306,7 +68306,7 @@
         </is>
       </c>
       <c r="S849" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T849" t="n">
         <v>10</v>
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -68364,32 +68364,32 @@
         </is>
       </c>
       <c r="M850" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N850" t="n">
-        <v>315000</v>
+        <v>1100</v>
       </c>
       <c r="O850" t="n">
-        <v>315000</v>
+        <v>1100</v>
       </c>
       <c r="P850" t="n">
-        <v>315000</v>
+        <v>1100</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T850" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -68444,32 +68444,32 @@
         </is>
       </c>
       <c r="M851" t="n">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="N851" t="n">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="O851" t="n">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="P851" t="n">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R851" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S851" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T851" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -68520,36 +68520,36 @@
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N852" t="n">
-        <v>200000</v>
+        <v>500</v>
       </c>
       <c r="O852" t="n">
-        <v>200000</v>
+        <v>500</v>
       </c>
       <c r="P852" t="n">
-        <v>200000</v>
+        <v>500</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S852" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T852" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -68600,36 +68600,36 @@
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>8</v>
+        <v>560</v>
       </c>
       <c r="N853" t="n">
-        <v>270000</v>
+        <v>6000</v>
       </c>
       <c r="O853" t="n">
-        <v>270000</v>
+        <v>6000</v>
       </c>
       <c r="P853" t="n">
-        <v>270000</v>
+        <v>6000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S853" t="n">
         <v>600</v>
       </c>
       <c r="T853" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="854">
@@ -68680,36 +68680,36 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M854" t="n">
-        <v>490</v>
+        <v>10</v>
       </c>
       <c r="N854" t="n">
-        <v>4000</v>
+        <v>315000</v>
       </c>
       <c r="O854" t="n">
-        <v>4000</v>
+        <v>315000</v>
       </c>
       <c r="P854" t="n">
-        <v>4000</v>
+        <v>315000</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T854" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="855">
@@ -68760,24 +68760,24 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>20</v>
+        <v>750</v>
       </c>
       <c r="N855" t="n">
-        <v>170000</v>
+        <v>5000</v>
       </c>
       <c r="O855" t="n">
-        <v>170000</v>
+        <v>5000</v>
       </c>
       <c r="P855" t="n">
-        <v>170000</v>
+        <v>5000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
@@ -68786,10 +68786,10 @@
         </is>
       </c>
       <c r="S855" t="n">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="T855" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="856">
@@ -68840,24 +68840,24 @@
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="N856" t="n">
-        <v>3000</v>
+        <v>200000</v>
       </c>
       <c r="O856" t="n">
-        <v>3000</v>
+        <v>200000</v>
       </c>
       <c r="P856" t="n">
-        <v>3000</v>
+        <v>200000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
@@ -68866,10 +68866,10 @@
         </is>
       </c>
       <c r="S856" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T856" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="857">
@@ -68887,7 +68887,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -68920,36 +68920,36 @@
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="N857" t="n">
-        <v>7500</v>
+        <v>270000</v>
       </c>
       <c r="O857" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P857" t="n">
-        <v>7750</v>
+        <v>270000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S857" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T857" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="858">
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -69000,20 +69000,20 @@
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>720</v>
+        <v>490</v>
       </c>
       <c r="N858" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="O858" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P858" t="n">
-        <v>5833</v>
+        <v>4000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
@@ -69026,7 +69026,7 @@
         </is>
       </c>
       <c r="S858" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="T858" t="n">
         <v>10</v>
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -69080,20 +69080,20 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M859" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N859" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O859" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P859" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
@@ -69102,11 +69102,11 @@
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T859" t="n">
         <v>450</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -69160,20 +69160,20 @@
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N860" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O860" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P860" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
@@ -69186,7 +69186,7 @@
         </is>
       </c>
       <c r="S860" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="T860" t="n">
         <v>10</v>
@@ -69240,36 +69240,36 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="N861" t="n">
-        <v>135000</v>
+        <v>7500</v>
       </c>
       <c r="O861" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P861" t="n">
-        <v>135000</v>
+        <v>7750</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>300</v>
+        <v>775</v>
       </c>
       <c r="T861" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="862">
@@ -69320,20 +69320,20 @@
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N862" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="O862" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P862" t="n">
-        <v>3000</v>
+        <v>5833</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
@@ -69346,7 +69346,7 @@
         </is>
       </c>
       <c r="S862" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="T862" t="n">
         <v>10</v>
@@ -69400,20 +69400,20 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N863" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O863" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="P863" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
@@ -69426,7 +69426,7 @@
         </is>
       </c>
       <c r="S863" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="T863" t="n">
         <v>450</v>
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -69475,41 +69475,41 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="N864" t="n">
-        <v>170000</v>
+        <v>3500</v>
       </c>
       <c r="O864" t="n">
-        <v>180000</v>
+        <v>4000</v>
       </c>
       <c r="P864" t="n">
-        <v>175000</v>
+        <v>3800</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="T864" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="865">
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -69555,7 +69555,7 @@
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
@@ -69564,16 +69564,16 @@
         </is>
       </c>
       <c r="M865" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N865" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="O865" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="P865" t="n">
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
@@ -69582,11 +69582,11 @@
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="T865" t="n">
         <v>450</v>
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -69635,41 +69635,41 @@
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M866" t="n">
+        <v>240</v>
+      </c>
+      <c r="N866" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O866" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P866" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q866" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R866" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S866" t="n">
+        <v>300</v>
+      </c>
+      <c r="T866" t="n">
         <v>10</v>
-      </c>
-      <c r="N866" t="n">
-        <v>160000</v>
-      </c>
-      <c r="O866" t="n">
-        <v>160000</v>
-      </c>
-      <c r="P866" t="n">
-        <v>160000</v>
-      </c>
-      <c r="Q866" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R866" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S866" t="n">
-        <v>356</v>
-      </c>
-      <c r="T866" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="867">
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -69715,25 +69715,25 @@
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N867" t="n">
-        <v>115000</v>
+        <v>100000</v>
       </c>
       <c r="O867" t="n">
-        <v>115000</v>
+        <v>100000</v>
       </c>
       <c r="P867" t="n">
-        <v>115000</v>
+        <v>100000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69742,11 +69742,11 @@
       </c>
       <c r="R867" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S867" t="n">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="T867" t="n">
         <v>450</v>
@@ -69795,25 +69795,25 @@
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N868" t="n">
-        <v>75000</v>
+        <v>170000</v>
       </c>
       <c r="O868" t="n">
-        <v>75000</v>
+        <v>180000</v>
       </c>
       <c r="P868" t="n">
-        <v>75000</v>
+        <v>175000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
@@ -69822,11 +69822,11 @@
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>167</v>
+        <v>389</v>
       </c>
       <c r="T868" t="n">
         <v>450</v>
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -69875,25 +69875,25 @@
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N869" t="n">
-        <v>310000</v>
+        <v>130000</v>
       </c>
       <c r="O869" t="n">
-        <v>310000</v>
+        <v>130000</v>
       </c>
       <c r="P869" t="n">
-        <v>310000</v>
+        <v>130000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69902,11 +69902,11 @@
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>689</v>
+        <v>289</v>
       </c>
       <c r="T869" t="n">
         <v>450</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -69955,7 +69955,7 @@
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
@@ -69964,16 +69964,16 @@
         </is>
       </c>
       <c r="M870" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N870" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="O870" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="P870" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69982,11 +69982,11 @@
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>622</v>
+        <v>356</v>
       </c>
       <c r="T870" t="n">
         <v>450</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -70035,7 +70035,7 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
@@ -70044,16 +70044,16 @@
         </is>
       </c>
       <c r="M871" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N871" t="n">
-        <v>250000</v>
+        <v>115000</v>
       </c>
       <c r="O871" t="n">
-        <v>250000</v>
+        <v>115000</v>
       </c>
       <c r="P871" t="n">
-        <v>250000</v>
+        <v>115000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
@@ -70062,11 +70062,11 @@
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>556</v>
+        <v>256</v>
       </c>
       <c r="T871" t="n">
         <v>450</v>
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -70115,25 +70115,25 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N872" t="n">
-        <v>202500</v>
+        <v>75000</v>
       </c>
       <c r="O872" t="n">
-        <v>202500</v>
+        <v>75000</v>
       </c>
       <c r="P872" t="n">
-        <v>202500</v>
+        <v>75000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70142,11 +70142,11 @@
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S872" t="n">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="T872" t="n">
         <v>450</v>
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -70204,16 +70204,16 @@
         </is>
       </c>
       <c r="M873" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N873" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="O873" t="n">
-        <v>202500</v>
+        <v>310000</v>
       </c>
       <c r="P873" t="n">
-        <v>201731</v>
+        <v>310000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
@@ -70222,11 +70222,11 @@
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>448</v>
+        <v>689</v>
       </c>
       <c r="T873" t="n">
         <v>450</v>
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -70284,16 +70284,16 @@
         </is>
       </c>
       <c r="M874" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N874" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="O874" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="P874" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
@@ -70302,11 +70302,11 @@
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>400</v>
+        <v>622</v>
       </c>
       <c r="T874" t="n">
         <v>450</v>
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -70360,20 +70360,20 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N875" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O875" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="P875" t="n">
-        <v>174474</v>
+        <v>250000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
@@ -70382,11 +70382,11 @@
       </c>
       <c r="R875" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S875" t="n">
-        <v>388</v>
+        <v>556</v>
       </c>
       <c r="T875" t="n">
         <v>450</v>
@@ -70440,20 +70440,20 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N876" t="n">
-        <v>157500</v>
+        <v>202500</v>
       </c>
       <c r="O876" t="n">
-        <v>157500</v>
+        <v>202500</v>
       </c>
       <c r="P876" t="n">
-        <v>157500</v>
+        <v>202500</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
@@ -70466,7 +70466,7 @@
         </is>
       </c>
       <c r="S876" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="T876" t="n">
         <v>450</v>
@@ -70520,20 +70520,20 @@
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N877" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O877" t="n">
-        <v>157500</v>
+        <v>202500</v>
       </c>
       <c r="P877" t="n">
-        <v>138750</v>
+        <v>201731</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
@@ -70546,7 +70546,7 @@
         </is>
       </c>
       <c r="S877" t="n">
-        <v>308</v>
+        <v>448</v>
       </c>
       <c r="T877" t="n">
         <v>450</v>
@@ -70600,20 +70600,20 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M878" t="n">
         <v>16</v>
       </c>
       <c r="N878" t="n">
-        <v>112500</v>
+        <v>180000</v>
       </c>
       <c r="O878" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P878" t="n">
-        <v>123750</v>
+        <v>180000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
@@ -70622,11 +70622,11 @@
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S878" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="T878" t="n">
         <v>450</v>
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -70680,20 +70680,20 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N879" t="n">
-        <v>315000</v>
+        <v>160000</v>
       </c>
       <c r="O879" t="n">
-        <v>315000</v>
+        <v>180000</v>
       </c>
       <c r="P879" t="n">
-        <v>315000</v>
+        <v>174474</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
@@ -70702,11 +70702,11 @@
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>700</v>
+        <v>388</v>
       </c>
       <c r="T879" t="n">
         <v>450</v>
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -70760,20 +70760,20 @@
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N880" t="n">
-        <v>225000</v>
+        <v>157500</v>
       </c>
       <c r="O880" t="n">
-        <v>225000</v>
+        <v>157500</v>
       </c>
       <c r="P880" t="n">
-        <v>225000</v>
+        <v>157500</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
@@ -70782,11 +70782,11 @@
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T880" t="n">
         <v>450</v>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -70844,16 +70844,16 @@
         </is>
       </c>
       <c r="M881" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N881" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O881" t="n">
-        <v>180000</v>
+        <v>157500</v>
       </c>
       <c r="P881" t="n">
-        <v>180000</v>
+        <v>138750</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
@@ -70862,11 +70862,11 @@
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="T881" t="n">
         <v>450</v>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -70920,36 +70920,36 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="N882" t="n">
-        <v>6000</v>
+        <v>112500</v>
       </c>
       <c r="O882" t="n">
-        <v>6000</v>
+        <v>135000</v>
       </c>
       <c r="P882" t="n">
-        <v>6000</v>
+        <v>123750</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="T882" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="883">
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -71000,24 +71000,24 @@
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="N883" t="n">
-        <v>4500</v>
+        <v>315000</v>
       </c>
       <c r="O883" t="n">
-        <v>4500</v>
+        <v>315000</v>
       </c>
       <c r="P883" t="n">
-        <v>4500</v>
+        <v>315000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
@@ -71026,10 +71026,10 @@
         </is>
       </c>
       <c r="S883" t="n">
+        <v>700</v>
+      </c>
+      <c r="T883" t="n">
         <v>450</v>
-      </c>
-      <c r="T883" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="884">
@@ -71047,68 +71047,388 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E884" t="n">
+        <v>13</v>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G884" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I884" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J884" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M884" t="n">
+        <v>16</v>
+      </c>
+      <c r="N884" t="n">
+        <v>225000</v>
+      </c>
+      <c r="O884" t="n">
+        <v>225000</v>
+      </c>
+      <c r="P884" t="n">
+        <v>225000</v>
+      </c>
+      <c r="Q884" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R884" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S884" t="n">
+        <v>500</v>
+      </c>
+      <c r="T884" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>6</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D885" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E885" t="n">
+        <v>13</v>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G885" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I885" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J885" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M885" t="n">
+        <v>8</v>
+      </c>
+      <c r="N885" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O885" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P885" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q885" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R885" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S885" t="n">
+        <v>400</v>
+      </c>
+      <c r="T885" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>6</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D886" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E884" t="n">
-        <v>13</v>
-      </c>
-      <c r="F884" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G884" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I884" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J884" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K884" t="inlineStr">
+      <c r="E886" t="n">
+        <v>13</v>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G886" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I886" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J886" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K886" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L884" t="inlineStr">
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M886" t="n">
+        <v>180</v>
+      </c>
+      <c r="N886" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O886" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P886" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q886" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R886" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S886" t="n">
+        <v>600</v>
+      </c>
+      <c r="T886" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>6</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D887" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E887" t="n">
+        <v>13</v>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G887" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I887" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J887" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M887" t="n">
+        <v>250</v>
+      </c>
+      <c r="N887" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O887" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P887" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q887" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R887" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S887" t="n">
+        <v>450</v>
+      </c>
+      <c r="T887" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>6</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D888" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E888" t="n">
+        <v>13</v>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G888" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I888" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J888" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L888" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M884" t="n">
+      <c r="M888" t="n">
         <v>250</v>
       </c>
-      <c r="N884" t="n">
+      <c r="N888" t="n">
         <v>3000</v>
       </c>
-      <c r="O884" t="n">
+      <c r="O888" t="n">
         <v>3000</v>
       </c>
-      <c r="P884" t="n">
+      <c r="P888" t="n">
         <v>3000</v>
       </c>
-      <c r="Q884" t="inlineStr">
+      <c r="Q888" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R884" t="inlineStr">
+      <c r="R888" t="inlineStr">
         <is>
           <t>Provincia de Petorca</t>
         </is>
       </c>
-      <c r="S884" t="n">
+      <c r="S888" t="n">
         <v>300</v>
       </c>
-      <c r="T884" t="n">
+      <c r="T888" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T896"/>
+  <dimension ref="A1:T899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -69004,32 +69004,32 @@
         </is>
       </c>
       <c r="M858" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N858" t="n">
-        <v>1100</v>
+        <v>280000</v>
       </c>
       <c r="O858" t="n">
-        <v>1100</v>
+        <v>280000</v>
       </c>
       <c r="P858" t="n">
-        <v>1100</v>
+        <v>280000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>1100</v>
+        <v>622</v>
       </c>
       <c r="T858" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="859">
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -69084,32 +69084,32 @@
         </is>
       </c>
       <c r="M859" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N859" t="n">
-        <v>700</v>
+        <v>250000</v>
       </c>
       <c r="O859" t="n">
-        <v>700</v>
+        <v>250000</v>
       </c>
       <c r="P859" t="n">
-        <v>700</v>
+        <v>250000</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T859" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="860">
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -69160,36 +69160,36 @@
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N860" t="n">
-        <v>500</v>
+        <v>130000</v>
       </c>
       <c r="O860" t="n">
-        <v>500</v>
+        <v>130000</v>
       </c>
       <c r="P860" t="n">
-        <v>500</v>
+        <v>130000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="T860" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="861">
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -69244,32 +69244,32 @@
         </is>
       </c>
       <c r="M861" t="n">
-        <v>560</v>
+        <v>8</v>
       </c>
       <c r="N861" t="n">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="O861" t="n">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="P861" t="n">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T861" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862">
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -69320,36 +69320,36 @@
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N862" t="n">
-        <v>315000</v>
+        <v>700</v>
       </c>
       <c r="O862" t="n">
-        <v>315000</v>
+        <v>700</v>
       </c>
       <c r="P862" t="n">
-        <v>315000</v>
+        <v>700</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S862" t="n">
         <v>700</v>
       </c>
       <c r="T862" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -69400,36 +69400,36 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>750</v>
+        <v>12</v>
       </c>
       <c r="N863" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="O863" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="P863" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S863" t="n">
         <v>500</v>
       </c>
       <c r="T863" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -69480,24 +69480,24 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>25</v>
+        <v>560</v>
       </c>
       <c r="N864" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="O864" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="P864" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
@@ -69506,10 +69506,10 @@
         </is>
       </c>
       <c r="S864" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T864" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="865">
@@ -69560,20 +69560,20 @@
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N865" t="n">
-        <v>270000</v>
+        <v>315000</v>
       </c>
       <c r="O865" t="n">
-        <v>270000</v>
+        <v>315000</v>
       </c>
       <c r="P865" t="n">
-        <v>270000</v>
+        <v>315000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
@@ -69586,7 +69586,7 @@
         </is>
       </c>
       <c r="S865" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T865" t="n">
         <v>450</v>
@@ -69640,20 +69640,20 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>490</v>
+        <v>750</v>
       </c>
       <c r="N866" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O866" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P866" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69666,7 +69666,7 @@
         </is>
       </c>
       <c r="S866" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T866" t="n">
         <v>10</v>
@@ -69720,20 +69720,20 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N867" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O867" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P867" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69746,7 +69746,7 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T867" t="n">
         <v>450</v>
@@ -69800,36 +69800,36 @@
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="N868" t="n">
-        <v>3000</v>
+        <v>270000</v>
       </c>
       <c r="O868" t="n">
-        <v>3000</v>
+        <v>270000</v>
       </c>
       <c r="P868" t="n">
-        <v>3000</v>
+        <v>270000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T868" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="869">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -69880,20 +69880,20 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="N869" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="O869" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P869" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69906,7 +69906,7 @@
         </is>
       </c>
       <c r="S869" t="n">
-        <v>775</v>
+        <v>400</v>
       </c>
       <c r="T869" t="n">
         <v>10</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -69960,24 +69960,24 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>720</v>
+        <v>20</v>
       </c>
       <c r="N870" t="n">
-        <v>5500</v>
+        <v>170000</v>
       </c>
       <c r="O870" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="P870" t="n">
-        <v>5833</v>
+        <v>170000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R870" t="inlineStr">
@@ -69986,10 +69986,10 @@
         </is>
       </c>
       <c r="S870" t="n">
-        <v>583</v>
+        <v>378</v>
       </c>
       <c r="T870" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="871">
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -70040,36 +70040,36 @@
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="N871" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="O871" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="P871" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T871" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="872">
@@ -70120,20 +70120,20 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="N872" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O872" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P872" t="n">
-        <v>3800</v>
+        <v>7750</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70146,7 +70146,7 @@
         </is>
       </c>
       <c r="S872" t="n">
-        <v>380</v>
+        <v>775</v>
       </c>
       <c r="T872" t="n">
         <v>10</v>
@@ -70200,36 +70200,36 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>18</v>
+        <v>720</v>
       </c>
       <c r="N873" t="n">
-        <v>135000</v>
+        <v>5500</v>
       </c>
       <c r="O873" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="P873" t="n">
-        <v>135000</v>
+        <v>5833</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="T873" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="874">
@@ -70280,36 +70280,36 @@
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M874" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="N874" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="O874" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="P874" t="n">
-        <v>3000</v>
+        <v>180000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T874" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="875">
@@ -70360,36 +70360,36 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M875" t="n">
+        <v>600</v>
+      </c>
+      <c r="N875" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O875" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P875" t="n">
+        <v>3800</v>
+      </c>
+      <c r="Q875" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R875" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S875" t="n">
+        <v>380</v>
+      </c>
+      <c r="T875" t="n">
         <v>10</v>
-      </c>
-      <c r="N875" t="n">
-        <v>100000</v>
-      </c>
-      <c r="O875" t="n">
-        <v>100000</v>
-      </c>
-      <c r="P875" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Q875" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R875" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S875" t="n">
-        <v>222</v>
-      </c>
-      <c r="T875" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="876">
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -70435,25 +70435,25 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M876" t="n">
         <v>18</v>
       </c>
       <c r="N876" t="n">
-        <v>170000</v>
+        <v>135000</v>
       </c>
       <c r="O876" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="P876" t="n">
-        <v>175000</v>
+        <v>135000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
@@ -70462,11 +70462,11 @@
       </c>
       <c r="R876" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S876" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="T876" t="n">
         <v>450</v>
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -70515,41 +70515,41 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="N877" t="n">
-        <v>130000</v>
+        <v>3000</v>
       </c>
       <c r="O877" t="n">
-        <v>130000</v>
+        <v>3000</v>
       </c>
       <c r="P877" t="n">
-        <v>130000</v>
+        <v>3000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S877" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="T877" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="878">
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -70595,25 +70595,25 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M878" t="n">
         <v>10</v>
       </c>
       <c r="N878" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O878" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P878" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
@@ -70622,11 +70622,11 @@
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S878" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T878" t="n">
         <v>450</v>
@@ -70675,25 +70675,25 @@
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N879" t="n">
-        <v>115000</v>
+        <v>170000</v>
       </c>
       <c r="O879" t="n">
-        <v>115000</v>
+        <v>180000</v>
       </c>
       <c r="P879" t="n">
-        <v>115000</v>
+        <v>175000</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
@@ -70702,11 +70702,11 @@
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>256</v>
+        <v>389</v>
       </c>
       <c r="T879" t="n">
         <v>450</v>
@@ -70755,25 +70755,25 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N880" t="n">
-        <v>75000</v>
+        <v>130000</v>
       </c>
       <c r="O880" t="n">
-        <v>75000</v>
+        <v>130000</v>
       </c>
       <c r="P880" t="n">
-        <v>75000</v>
+        <v>130000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
@@ -70782,11 +70782,11 @@
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="T880" t="n">
         <v>450</v>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -70835,25 +70835,25 @@
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M881" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N881" t="n">
-        <v>310000</v>
+        <v>160000</v>
       </c>
       <c r="O881" t="n">
-        <v>310000</v>
+        <v>160000</v>
       </c>
       <c r="P881" t="n">
-        <v>310000</v>
+        <v>160000</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
@@ -70862,11 +70862,11 @@
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>689</v>
+        <v>356</v>
       </c>
       <c r="T881" t="n">
         <v>450</v>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -70915,25 +70915,25 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M882" t="n">
         <v>14</v>
       </c>
       <c r="N882" t="n">
-        <v>280000</v>
+        <v>115000</v>
       </c>
       <c r="O882" t="n">
-        <v>280000</v>
+        <v>115000</v>
       </c>
       <c r="P882" t="n">
-        <v>280000</v>
+        <v>115000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
@@ -70942,11 +70942,11 @@
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>622</v>
+        <v>256</v>
       </c>
       <c r="T882" t="n">
         <v>450</v>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -70995,25 +70995,25 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N883" t="n">
-        <v>250000</v>
+        <v>75000</v>
       </c>
       <c r="O883" t="n">
-        <v>250000</v>
+        <v>75000</v>
       </c>
       <c r="P883" t="n">
-        <v>250000</v>
+        <v>75000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
@@ -71022,11 +71022,11 @@
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>556</v>
+        <v>167</v>
       </c>
       <c r="T883" t="n">
         <v>450</v>
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -71084,16 +71084,16 @@
         </is>
       </c>
       <c r="M884" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N884" t="n">
-        <v>202500</v>
+        <v>310000</v>
       </c>
       <c r="O884" t="n">
-        <v>202500</v>
+        <v>310000</v>
       </c>
       <c r="P884" t="n">
-        <v>202500</v>
+        <v>310000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
@@ -71102,11 +71102,11 @@
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>450</v>
+        <v>689</v>
       </c>
       <c r="T884" t="n">
         <v>450</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -71160,20 +71160,20 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N885" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O885" t="n">
-        <v>202500</v>
+        <v>280000</v>
       </c>
       <c r="P885" t="n">
-        <v>201731</v>
+        <v>280000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
@@ -71182,11 +71182,11 @@
       </c>
       <c r="R885" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S885" t="n">
-        <v>448</v>
+        <v>622</v>
       </c>
       <c r="T885" t="n">
         <v>450</v>
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -71240,20 +71240,20 @@
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N886" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="O886" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="P886" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
@@ -71262,11 +71262,11 @@
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T886" t="n">
         <v>450</v>
@@ -71320,20 +71320,20 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N887" t="n">
-        <v>160000</v>
+        <v>202500</v>
       </c>
       <c r="O887" t="n">
-        <v>180000</v>
+        <v>202500</v>
       </c>
       <c r="P887" t="n">
-        <v>174474</v>
+        <v>202500</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
@@ -71342,11 +71342,11 @@
       </c>
       <c r="R887" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S887" t="n">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="T887" t="n">
         <v>450</v>
@@ -71400,20 +71400,20 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N888" t="n">
-        <v>157500</v>
+        <v>200000</v>
       </c>
       <c r="O888" t="n">
-        <v>157500</v>
+        <v>202500</v>
       </c>
       <c r="P888" t="n">
-        <v>157500</v>
+        <v>201731</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
@@ -71422,11 +71422,11 @@
       </c>
       <c r="R888" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S888" t="n">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="T888" t="n">
         <v>450</v>
@@ -71480,20 +71480,20 @@
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M889" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N889" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O889" t="n">
-        <v>157500</v>
+        <v>180000</v>
       </c>
       <c r="P889" t="n">
-        <v>138750</v>
+        <v>180000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
@@ -71502,11 +71502,11 @@
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S889" t="n">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="T889" t="n">
         <v>450</v>
@@ -71560,20 +71560,20 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N890" t="n">
-        <v>112500</v>
+        <v>160000</v>
       </c>
       <c r="O890" t="n">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="P890" t="n">
-        <v>123750</v>
+        <v>174474</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
@@ -71586,7 +71586,7 @@
         </is>
       </c>
       <c r="S890" t="n">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="T890" t="n">
         <v>450</v>
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -71640,20 +71640,20 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N891" t="n">
-        <v>315000</v>
+        <v>157500</v>
       </c>
       <c r="O891" t="n">
-        <v>315000</v>
+        <v>157500</v>
       </c>
       <c r="P891" t="n">
-        <v>315000</v>
+        <v>157500</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
@@ -71662,11 +71662,11 @@
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S891" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="T891" t="n">
         <v>450</v>
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -71720,20 +71720,20 @@
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N892" t="n">
-        <v>225000</v>
+        <v>120000</v>
       </c>
       <c r="O892" t="n">
-        <v>225000</v>
+        <v>157500</v>
       </c>
       <c r="P892" t="n">
-        <v>225000</v>
+        <v>138750</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
@@ -71742,11 +71742,11 @@
       </c>
       <c r="R892" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S892" t="n">
-        <v>500</v>
+        <v>308</v>
       </c>
       <c r="T892" t="n">
         <v>450</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -71800,20 +71800,20 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N893" t="n">
-        <v>180000</v>
+        <v>112500</v>
       </c>
       <c r="O893" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="P893" t="n">
-        <v>180000</v>
+        <v>123750</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
@@ -71822,11 +71822,11 @@
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S893" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="T893" t="n">
         <v>450</v>
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -71884,20 +71884,20 @@
         </is>
       </c>
       <c r="M894" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="N894" t="n">
-        <v>6000</v>
+        <v>315000</v>
       </c>
       <c r="O894" t="n">
-        <v>6000</v>
+        <v>315000</v>
       </c>
       <c r="P894" t="n">
-        <v>6000</v>
+        <v>315000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R894" t="inlineStr">
@@ -71906,10 +71906,10 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T894" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="895">
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -71964,20 +71964,20 @@
         </is>
       </c>
       <c r="M895" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="N895" t="n">
-        <v>4500</v>
+        <v>225000</v>
       </c>
       <c r="O895" t="n">
-        <v>4500</v>
+        <v>225000</v>
       </c>
       <c r="P895" t="n">
-        <v>4500</v>
+        <v>225000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
@@ -71986,10 +71986,10 @@
         </is>
       </c>
       <c r="S895" t="n">
+        <v>500</v>
+      </c>
+      <c r="T895" t="n">
         <v>450</v>
-      </c>
-      <c r="T895" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="896">
@@ -72007,68 +72007,308 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E896" t="n">
+        <v>13</v>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G896" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I896" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J896" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M896" t="n">
+        <v>8</v>
+      </c>
+      <c r="N896" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O896" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P896" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q896" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R896" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S896" t="n">
+        <v>400</v>
+      </c>
+      <c r="T896" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>6</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D897" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E896" t="n">
-        <v>13</v>
-      </c>
-      <c r="F896" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G896" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I896" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J896" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K896" t="inlineStr">
+      <c r="E897" t="n">
+        <v>13</v>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G897" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I897" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J897" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K897" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L896" t="inlineStr">
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M897" t="n">
+        <v>180</v>
+      </c>
+      <c r="N897" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O897" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P897" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q897" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R897" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S897" t="n">
+        <v>600</v>
+      </c>
+      <c r="T897" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>6</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D898" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E898" t="n">
+        <v>13</v>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G898" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I898" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J898" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M898" t="n">
+        <v>250</v>
+      </c>
+      <c r="N898" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O898" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P898" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q898" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R898" t="inlineStr">
+        <is>
+          <t>Provincia de Petorca</t>
+        </is>
+      </c>
+      <c r="S898" t="n">
+        <v>450</v>
+      </c>
+      <c r="T898" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>6</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D899" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E899" t="n">
+        <v>13</v>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G899" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I899" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J899" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L899" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M896" t="n">
+      <c r="M899" t="n">
         <v>250</v>
       </c>
-      <c r="N896" t="n">
+      <c r="N899" t="n">
         <v>3000</v>
       </c>
-      <c r="O896" t="n">
+      <c r="O899" t="n">
         <v>3000</v>
       </c>
-      <c r="P896" t="n">
+      <c r="P899" t="n">
         <v>3000</v>
       </c>
-      <c r="Q896" t="inlineStr">
+      <c r="Q899" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R896" t="inlineStr">
+      <c r="R899" t="inlineStr">
         <is>
           <t>Provincia de Petorca</t>
         </is>
       </c>
-      <c r="S896" t="n">
+      <c r="S899" t="n">
         <v>300</v>
       </c>
-      <c r="T896" t="n">
+      <c r="T899" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T910"/>
+  <dimension ref="A1:T916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63404,16 +63404,16 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N788" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O788" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P788" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63422,11 +63422,11 @@
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T788" t="n">
         <v>10</v>
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -63484,16 +63484,16 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N789" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O789" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P789" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63502,11 +63502,11 @@
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T789" t="n">
         <v>10</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -63564,16 +63564,16 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N790" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O790" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P790" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63582,11 +63582,11 @@
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T790" t="n">
         <v>10</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44272</v>
+        <v>44522</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63640,36 +63640,36 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="N791" t="n">
-        <v>320000</v>
+        <v>3000</v>
       </c>
       <c r="O791" t="n">
-        <v>320000</v>
+        <v>3000</v>
       </c>
       <c r="P791" t="n">
-        <v>320000</v>
+        <v>3000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>711</v>
+        <v>300</v>
       </c>
       <c r="T791" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44272</v>
+        <v>44522</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63715,7 +63715,7 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
@@ -63724,16 +63724,16 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N792" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O792" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P792" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63742,11 +63742,11 @@
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T792" t="n">
         <v>450</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44305</v>
+        <v>44522</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63795,41 +63795,41 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N793" t="n">
-        <v>1200</v>
+        <v>200000</v>
       </c>
       <c r="O793" t="n">
-        <v>1200</v>
+        <v>200000</v>
       </c>
       <c r="P793" t="n">
-        <v>1200</v>
+        <v>200000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T793" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63875,41 +63875,41 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="N794" t="n">
-        <v>900</v>
+        <v>6000</v>
       </c>
       <c r="O794" t="n">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="P794" t="n">
-        <v>950</v>
+        <v>6000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="T794" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -63964,16 +63964,16 @@
         </is>
       </c>
       <c r="M795" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N795" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O795" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P795" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63982,11 +63982,11 @@
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="T795" t="n">
         <v>10</v>
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -64044,16 +64044,16 @@
         </is>
       </c>
       <c r="M796" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N796" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O796" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P796" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
@@ -64062,11 +64062,11 @@
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T796" t="n">
         <v>10</v>
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44447</v>
+        <v>44272</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -64124,32 +64124,32 @@
         </is>
       </c>
       <c r="M797" t="n">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="N797" t="n">
-        <v>5000</v>
+        <v>320000</v>
       </c>
       <c r="O797" t="n">
-        <v>5000</v>
+        <v>320000</v>
       </c>
       <c r="P797" t="n">
-        <v>5000</v>
+        <v>320000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>500</v>
+        <v>711</v>
       </c>
       <c r="T797" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44447</v>
+        <v>44272</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -64204,32 +64204,32 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>480</v>
+        <v>7</v>
       </c>
       <c r="N798" t="n">
-        <v>4000</v>
+        <v>280000</v>
       </c>
       <c r="O798" t="n">
-        <v>4000</v>
+        <v>280000</v>
       </c>
       <c r="P798" t="n">
-        <v>4000</v>
+        <v>280000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>400</v>
+        <v>622</v>
       </c>
       <c r="T798" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="799">
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44447</v>
+        <v>44305</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -64275,41 +64275,41 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N799" t="n">
-        <v>130000</v>
+        <v>1200</v>
       </c>
       <c r="O799" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="P799" t="n">
-        <v>135000</v>
+        <v>1200</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="T799" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44447</v>
+        <v>44305</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -64355,29 +64355,29 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="N800" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="O800" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="P800" t="n">
-        <v>3000</v>
+        <v>950</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,10 +64386,10 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="T800" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -64440,36 +64440,36 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="N801" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="O801" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="P801" t="n">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="T801" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -64520,20 +64520,20 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N802" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="O802" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P802" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
@@ -64542,11 +64542,11 @@
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T802" t="n">
         <v>10</v>
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -64604,16 +64604,16 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N803" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O803" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P803" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
@@ -64626,7 +64626,7 @@
         </is>
       </c>
       <c r="S803" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T803" t="n">
         <v>10</v>
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -64684,16 +64684,16 @@
         </is>
       </c>
       <c r="M804" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="N804" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O804" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P804" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
@@ -64706,7 +64706,7 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="T804" t="n">
         <v>10</v>
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -64764,16 +64764,16 @@
         </is>
       </c>
       <c r="M805" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N805" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O805" t="n">
-        <v>202000</v>
+        <v>140000</v>
       </c>
       <c r="P805" t="n">
-        <v>186000</v>
+        <v>135000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
@@ -64782,11 +64782,11 @@
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="T805" t="n">
         <v>450</v>
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -64844,16 +64844,16 @@
         </is>
       </c>
       <c r="M806" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N806" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O806" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P806" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64866,7 +64866,7 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="T806" t="n">
         <v>10</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -64924,16 +64924,16 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N807" t="n">
-        <v>160000</v>
+        <v>90000</v>
       </c>
       <c r="O807" t="n">
-        <v>160000</v>
+        <v>90000</v>
       </c>
       <c r="P807" t="n">
-        <v>160000</v>
+        <v>90000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
@@ -64942,11 +64942,11 @@
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>356</v>
+        <v>200</v>
       </c>
       <c r="T807" t="n">
         <v>450</v>
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -65004,32 +65004,32 @@
         </is>
       </c>
       <c r="M808" t="n">
-        <v>8</v>
+        <v>360</v>
       </c>
       <c r="N808" t="n">
-        <v>125000</v>
+        <v>2000</v>
       </c>
       <c r="O808" t="n">
-        <v>125000</v>
+        <v>2000</v>
       </c>
       <c r="P808" t="n">
-        <v>125000</v>
+        <v>2000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="T808" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="809">
@@ -65075,25 +65075,25 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>832</v>
+        <v>480</v>
       </c>
       <c r="N809" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O809" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P809" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
@@ -65102,11 +65102,11 @@
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S809" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="T809" t="n">
         <v>10</v>
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -65155,29 +65155,29 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>15</v>
+        <v>640</v>
       </c>
       <c r="N810" t="n">
-        <v>430000</v>
+        <v>5000</v>
       </c>
       <c r="O810" t="n">
-        <v>430000</v>
+        <v>6000</v>
       </c>
       <c r="P810" t="n">
-        <v>430000</v>
+        <v>5500</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
@@ -65186,10 +65186,10 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="T810" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -65235,7 +65235,7 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
@@ -65244,16 +65244,16 @@
         </is>
       </c>
       <c r="M811" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N811" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="O811" t="n">
-        <v>420000</v>
+        <v>202000</v>
       </c>
       <c r="P811" t="n">
-        <v>410000</v>
+        <v>186000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65262,11 +65262,11 @@
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>911</v>
+        <v>413</v>
       </c>
       <c r="T811" t="n">
         <v>450</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -65315,25 +65315,25 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M812" t="n">
         <v>480</v>
       </c>
       <c r="N812" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="O812" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P812" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65342,11 +65342,11 @@
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S812" t="n">
-        <v>950</v>
+        <v>375</v>
       </c>
       <c r="T812" t="n">
         <v>10</v>
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -65395,41 +65395,41 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="N813" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O813" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="P813" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>1000</v>
+        <v>356</v>
       </c>
       <c r="T813" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="814">
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -65475,41 +65475,41 @@
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="N814" t="n">
-        <v>11000</v>
+        <v>125000</v>
       </c>
       <c r="O814" t="n">
-        <v>11000</v>
+        <v>125000</v>
       </c>
       <c r="P814" t="n">
-        <v>11000</v>
+        <v>125000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>1100</v>
+        <v>278</v>
       </c>
       <c r="T814" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="815">
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -65555,41 +65555,41 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M815" t="n">
+        <v>832</v>
+      </c>
+      <c r="N815" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O815" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P815" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q815" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R815" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S815" t="n">
+        <v>650</v>
+      </c>
+      <c r="T815" t="n">
         <v>10</v>
-      </c>
-      <c r="N815" t="n">
-        <v>1000</v>
-      </c>
-      <c r="O815" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P815" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q815" t="inlineStr">
-        <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
-        </is>
-      </c>
-      <c r="R815" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S815" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T815" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -65635,41 +65635,41 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>960</v>
+        <v>15</v>
       </c>
       <c r="N816" t="n">
-        <v>7000</v>
+        <v>430000</v>
       </c>
       <c r="O816" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="P816" t="n">
-        <v>7500</v>
+        <v>430000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>750</v>
+        <v>956</v>
       </c>
       <c r="T816" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -65715,7 +65715,7 @@
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
@@ -65724,20 +65724,20 @@
         </is>
       </c>
       <c r="M817" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="N817" t="n">
-        <v>8000</v>
+        <v>400000</v>
       </c>
       <c r="O817" t="n">
-        <v>8000</v>
+        <v>420000</v>
       </c>
       <c r="P817" t="n">
-        <v>8000</v>
+        <v>410000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65746,10 +65746,10 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>800</v>
+        <v>911</v>
       </c>
       <c r="T817" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="818">
@@ -65800,20 +65800,20 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>125</v>
+        <v>480</v>
       </c>
       <c r="N818" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O818" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P818" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
@@ -65822,11 +65822,11 @@
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T818" t="n">
         <v>10</v>
@@ -65880,36 +65880,36 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="N819" t="n">
-        <v>700</v>
+        <v>10000</v>
       </c>
       <c r="O819" t="n">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="P819" t="n">
-        <v>750</v>
+        <v>10000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T819" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="820">
@@ -65960,20 +65960,20 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="N820" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O820" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P820" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
@@ -65982,11 +65982,11 @@
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T820" t="n">
         <v>10</v>
@@ -66040,36 +66040,36 @@
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N821" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="O821" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="P821" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R821" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S821" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T821" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822">
@@ -66120,20 +66120,20 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="N822" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O822" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P822" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
@@ -66142,11 +66142,11 @@
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T822" t="n">
         <v>10</v>
@@ -66195,7 +66195,7 @@
       </c>
       <c r="K823" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
@@ -66204,32 +66204,32 @@
         </is>
       </c>
       <c r="M823" t="n">
-        <v>26</v>
+        <v>480</v>
       </c>
       <c r="N823" t="n">
-        <v>225000</v>
+        <v>8000</v>
       </c>
       <c r="O823" t="n">
-        <v>225000</v>
+        <v>8000</v>
       </c>
       <c r="P823" t="n">
-        <v>225000</v>
+        <v>8000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R823" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S823" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T823" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="824">
@@ -66275,41 +66275,41 @@
       </c>
       <c r="K824" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="N824" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O824" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P824" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T824" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="825">
@@ -66355,41 +66355,41 @@
       </c>
       <c r="K825" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N825" t="n">
-        <v>135000</v>
+        <v>700</v>
       </c>
       <c r="O825" t="n">
-        <v>135000</v>
+        <v>800</v>
       </c>
       <c r="P825" t="n">
-        <v>135000</v>
+        <v>750</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S825" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="T825" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -66435,41 +66435,41 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="N826" t="n">
-        <v>225000</v>
+        <v>6000</v>
       </c>
       <c r="O826" t="n">
-        <v>225000</v>
+        <v>6000</v>
       </c>
       <c r="P826" t="n">
-        <v>225000</v>
+        <v>6000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T826" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="827">
@@ -66515,7 +66515,7 @@
       </c>
       <c r="K827" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L827" t="inlineStr">
@@ -66524,32 +66524,32 @@
         </is>
       </c>
       <c r="M827" t="n">
+        <v>360</v>
+      </c>
+      <c r="N827" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O827" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P827" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q827" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R827" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S827" t="n">
+        <v>600</v>
+      </c>
+      <c r="T827" t="n">
         <v>10</v>
-      </c>
-      <c r="N827" t="n">
-        <v>180000</v>
-      </c>
-      <c r="O827" t="n">
-        <v>180000</v>
-      </c>
-      <c r="P827" t="n">
-        <v>180000</v>
-      </c>
-      <c r="Q827" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R827" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S827" t="n">
-        <v>400</v>
-      </c>
-      <c r="T827" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="828">
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -66600,36 +66600,36 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N828" t="n">
-        <v>410000</v>
+        <v>6000</v>
       </c>
       <c r="O828" t="n">
-        <v>410000</v>
+        <v>6000</v>
       </c>
       <c r="P828" t="n">
-        <v>410000</v>
+        <v>6000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S828" t="n">
-        <v>911</v>
+        <v>600</v>
       </c>
       <c r="T828" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="829">
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -66675,41 +66675,41 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N829" t="n">
-        <v>1000</v>
+        <v>225000</v>
       </c>
       <c r="O829" t="n">
-        <v>1000</v>
+        <v>225000</v>
       </c>
       <c r="P829" t="n">
-        <v>1000</v>
+        <v>225000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T829" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -66755,25 +66755,25 @@
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N830" t="n">
-        <v>370000</v>
+        <v>180000</v>
       </c>
       <c r="O830" t="n">
-        <v>410000</v>
+        <v>180000</v>
       </c>
       <c r="P830" t="n">
-        <v>384000</v>
+        <v>180000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66782,11 +66782,11 @@
       </c>
       <c r="R830" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S830" t="n">
-        <v>853</v>
+        <v>400</v>
       </c>
       <c r="T830" t="n">
         <v>450</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -66835,41 +66835,41 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N831" t="n">
-        <v>700</v>
+        <v>135000</v>
       </c>
       <c r="O831" t="n">
-        <v>800</v>
+        <v>135000</v>
       </c>
       <c r="P831" t="n">
-        <v>750</v>
+        <v>135000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="T831" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="832">
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -66915,25 +66915,25 @@
       </c>
       <c r="K832" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N832" t="n">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="O832" t="n">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="P832" t="n">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
@@ -66942,11 +66942,11 @@
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S832" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T832" t="n">
         <v>450</v>
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -67000,20 +67000,20 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N833" t="n">
-        <v>390000</v>
+        <v>180000</v>
       </c>
       <c r="O833" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="P833" t="n">
-        <v>395000</v>
+        <v>180000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
@@ -67022,11 +67022,11 @@
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>878</v>
+        <v>400</v>
       </c>
       <c r="T833" t="n">
         <v>450</v>
@@ -67075,25 +67075,25 @@
       </c>
       <c r="K834" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N834" t="n">
-        <v>370000</v>
+        <v>410000</v>
       </c>
       <c r="O834" t="n">
-        <v>370000</v>
+        <v>410000</v>
       </c>
       <c r="P834" t="n">
-        <v>370000</v>
+        <v>410000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
@@ -67106,7 +67106,7 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>822</v>
+        <v>911</v>
       </c>
       <c r="T834" t="n">
         <v>450</v>
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -67155,7 +67155,7 @@
       </c>
       <c r="K835" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L835" t="inlineStr">
@@ -67164,32 +67164,32 @@
         </is>
       </c>
       <c r="M835" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N835" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="O835" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="P835" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S835" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T835" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -67235,7 +67235,7 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
@@ -67244,32 +67244,32 @@
         </is>
       </c>
       <c r="M836" t="n">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="N836" t="n">
-        <v>4000</v>
+        <v>370000</v>
       </c>
       <c r="O836" t="n">
-        <v>4000</v>
+        <v>410000</v>
       </c>
       <c r="P836" t="n">
-        <v>4000</v>
+        <v>384000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>400</v>
+        <v>853</v>
       </c>
       <c r="T836" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="837">
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -67315,41 +67315,41 @@
       </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="N837" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="O837" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="P837" t="n">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="T837" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -67395,41 +67395,41 @@
       </c>
       <c r="K838" t="inlineStr">
         <is>
-          <t>Oronules</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N838" t="n">
-        <v>1100</v>
+        <v>315000</v>
       </c>
       <c r="O838" t="n">
-        <v>1100</v>
+        <v>315000</v>
       </c>
       <c r="P838" t="n">
-        <v>1100</v>
+        <v>315000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S838" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="T838" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="839">
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -67484,32 +67484,32 @@
         </is>
       </c>
       <c r="M839" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N839" t="n">
-        <v>700</v>
+        <v>390000</v>
       </c>
       <c r="O839" t="n">
-        <v>800</v>
+        <v>400000</v>
       </c>
       <c r="P839" t="n">
-        <v>750</v>
+        <v>395000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S839" t="n">
-        <v>750</v>
+        <v>878</v>
       </c>
       <c r="T839" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="840">
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -67555,41 +67555,41 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="N840" t="n">
-        <v>5000</v>
+        <v>370000</v>
       </c>
       <c r="O840" t="n">
-        <v>5000</v>
+        <v>370000</v>
       </c>
       <c r="P840" t="n">
-        <v>5000</v>
+        <v>370000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S840" t="n">
-        <v>500</v>
+        <v>822</v>
       </c>
       <c r="T840" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="841">
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -67640,20 +67640,20 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N841" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O841" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P841" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
@@ -67662,11 +67662,11 @@
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T841" t="n">
         <v>10</v>
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -67720,20 +67720,20 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N842" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O842" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P842" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
@@ -67742,11 +67742,11 @@
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T842" t="n">
         <v>10</v>
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44161</v>
+        <v>44495</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -67795,38 +67795,38 @@
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M843" t="n">
+        <v>240</v>
+      </c>
+      <c r="N843" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O843" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P843" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q843" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R843" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S843" t="n">
         <v>300</v>
-      </c>
-      <c r="N843" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O843" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P843" t="n">
-        <v>9500</v>
-      </c>
-      <c r="Q843" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R843" t="inlineStr">
-        <is>
-          <t>Cabildo</t>
-        </is>
-      </c>
-      <c r="S843" t="n">
-        <v>950</v>
       </c>
       <c r="T843" t="n">
         <v>10</v>
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -67875,41 +67875,41 @@
       </c>
       <c r="K844" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>900</v>
+        <v>8</v>
       </c>
       <c r="N844" t="n">
-        <v>7000</v>
+        <v>1100</v>
       </c>
       <c r="O844" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="P844" t="n">
-        <v>7500</v>
+        <v>1100</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S844" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T844" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845">
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -67955,41 +67955,41 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>Fortuna</t>
+          <t>Oronules</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M845" t="n">
+        <v>14</v>
+      </c>
+      <c r="N845" t="n">
         <v>700</v>
       </c>
-      <c r="N845" t="n">
-        <v>5000</v>
-      </c>
       <c r="O845" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="P845" t="n">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T845" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -68044,16 +68044,16 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N846" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O846" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P846" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
@@ -68062,11 +68062,11 @@
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T846" t="n">
         <v>10</v>
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -68124,16 +68124,16 @@
         </is>
       </c>
       <c r="M847" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N847" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O847" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P847" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
@@ -68142,11 +68142,11 @@
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T847" t="n">
         <v>10</v>
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -68204,16 +68204,16 @@
         </is>
       </c>
       <c r="M848" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
@@ -68222,11 +68222,11 @@
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S848" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T848" t="n">
         <v>10</v>
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -68275,7 +68275,7 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
@@ -68284,32 +68284,32 @@
         </is>
       </c>
       <c r="M849" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="N849" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="O849" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P849" t="n">
-        <v>150000</v>
+        <v>9500</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S849" t="n">
-        <v>333</v>
+        <v>950</v>
       </c>
       <c r="T849" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="850">
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -68355,7 +68355,7 @@
       </c>
       <c r="K850" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L850" t="inlineStr">
@@ -68364,32 +68364,32 @@
         </is>
       </c>
       <c r="M850" t="n">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="N850" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="O850" t="n">
-        <v>135000</v>
+        <v>8000</v>
       </c>
       <c r="P850" t="n">
-        <v>132143</v>
+        <v>7500</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>294</v>
+        <v>750</v>
       </c>
       <c r="T850" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="851">
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -68435,41 +68435,41 @@
       </c>
       <c r="K851" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Fortuna</t>
         </is>
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="N851" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="O851" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="P851" t="n">
-        <v>135000</v>
+        <v>5000</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R851" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S851" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T851" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="852">
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -68520,36 +68520,36 @@
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M852" t="n">
+        <v>240</v>
+      </c>
+      <c r="N852" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O852" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P852" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q852" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R852" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S852" t="n">
+        <v>900</v>
+      </c>
+      <c r="T852" t="n">
         <v>10</v>
-      </c>
-      <c r="N852" t="n">
-        <v>140000</v>
-      </c>
-      <c r="O852" t="n">
-        <v>140000</v>
-      </c>
-      <c r="P852" t="n">
-        <v>140000</v>
-      </c>
-      <c r="Q852" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R852" t="inlineStr">
-        <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
-        </is>
-      </c>
-      <c r="S852" t="n">
-        <v>311</v>
-      </c>
-      <c r="T852" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="853">
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -68600,36 +68600,36 @@
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="N853" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="O853" t="n">
-        <v>110000</v>
+        <v>7000</v>
       </c>
       <c r="P853" t="n">
-        <v>104194</v>
+        <v>7000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S853" t="n">
-        <v>232</v>
+        <v>700</v>
       </c>
       <c r="T853" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -68684,32 +68684,32 @@
         </is>
       </c>
       <c r="M854" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="N854" t="n">
-        <v>112500</v>
+        <v>5000</v>
       </c>
       <c r="O854" t="n">
-        <v>112500</v>
+        <v>5000</v>
       </c>
       <c r="P854" t="n">
-        <v>112500</v>
+        <v>5000</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="T854" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="855">
@@ -68760,20 +68760,20 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N855" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O855" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P855" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
@@ -68782,11 +68782,11 @@
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S855" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T855" t="n">
         <v>450</v>
@@ -68840,20 +68840,20 @@
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="N856" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="O856" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="P856" t="n">
-        <v>90000</v>
+        <v>132143</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
@@ -68862,11 +68862,11 @@
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="T856" t="n">
         <v>450</v>
@@ -68920,20 +68920,20 @@
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N857" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="O857" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="P857" t="n">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
@@ -68942,11 +68942,11 @@
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S857" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T857" t="n">
         <v>450</v>
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -69000,20 +69000,20 @@
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M858" t="n">
         <v>10</v>
       </c>
       <c r="N858" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="O858" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P858" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
@@ -69022,11 +69022,11 @@
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>622</v>
+        <v>311</v>
       </c>
       <c r="T858" t="n">
         <v>450</v>
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -69080,20 +69080,20 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M859" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N859" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="O859" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="P859" t="n">
-        <v>250000</v>
+        <v>104194</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
@@ -69102,11 +69102,11 @@
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>556</v>
+        <v>232</v>
       </c>
       <c r="T859" t="n">
         <v>450</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -69155,41 +69155,41 @@
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="N860" t="n">
-        <v>7000</v>
+        <v>112500</v>
       </c>
       <c r="O860" t="n">
-        <v>7000</v>
+        <v>112500</v>
       </c>
       <c r="P860" t="n">
-        <v>7000</v>
+        <v>112500</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>1167</v>
+        <v>250</v>
       </c>
       <c r="T860" t="n">
-        <v>6</v>
+        <v>450</v>
       </c>
     </row>
     <row r="861">
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -69235,25 +69235,25 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N861" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="O861" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="P861" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
@@ -69262,11 +69262,11 @@
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>667</v>
+        <v>267</v>
       </c>
       <c r="T861" t="n">
         <v>450</v>
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -69315,41 +69315,41 @@
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="N862" t="n">
-        <v>6000</v>
+        <v>90000</v>
       </c>
       <c r="O862" t="n">
-        <v>6000</v>
+        <v>90000</v>
       </c>
       <c r="P862" t="n">
-        <v>6000</v>
+        <v>90000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="T862" t="n">
-        <v>6</v>
+        <v>450</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -69395,41 +69395,41 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N863" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="O863" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="P863" t="n">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>833</v>
+        <v>200</v>
       </c>
       <c r="T863" t="n">
-        <v>6</v>
+        <v>450</v>
       </c>
     </row>
     <row r="864">
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -69475,7 +69475,7 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
@@ -69484,32 +69484,32 @@
         </is>
       </c>
       <c r="M864" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N864" t="n">
-        <v>6000</v>
+        <v>280000</v>
       </c>
       <c r="O864" t="n">
-        <v>6000</v>
+        <v>280000</v>
       </c>
       <c r="P864" t="n">
-        <v>6000</v>
+        <v>280000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T864" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="865">
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -69555,7 +69555,7 @@
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
@@ -69564,32 +69564,32 @@
         </is>
       </c>
       <c r="M865" t="n">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="N865" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="O865" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="P865" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T865" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="866">
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -69635,41 +69635,41 @@
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N866" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O866" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P866" t="n">
-        <v>4750</v>
+        <v>7000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>475</v>
+        <v>1167</v>
       </c>
       <c r="T866" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="867">
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -69715,29 +69715,29 @@
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="N867" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="O867" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="P867" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R867" t="inlineStr">
@@ -69746,10 +69746,10 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T867" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="868">
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -69795,29 +69795,29 @@
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N868" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O868" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P868" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
@@ -69826,10 +69826,10 @@
         </is>
       </c>
       <c r="S868" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T868" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="869">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -69880,36 +69880,36 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="N869" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O869" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="P869" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>400</v>
+        <v>833</v>
       </c>
       <c r="T869" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
     </row>
     <row r="870">
@@ -69955,41 +69955,41 @@
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M870" t="n">
+        <v>360</v>
+      </c>
+      <c r="N870" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O870" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P870" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q870" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R870" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S870" t="n">
+        <v>600</v>
+      </c>
+      <c r="T870" t="n">
         <v>10</v>
-      </c>
-      <c r="N870" t="n">
-        <v>135000</v>
-      </c>
-      <c r="O870" t="n">
-        <v>135000</v>
-      </c>
-      <c r="P870" t="n">
-        <v>135000</v>
-      </c>
-      <c r="Q870" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R870" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S870" t="n">
-        <v>300</v>
-      </c>
-      <c r="T870" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="871">
@@ -70035,41 +70035,41 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>6</v>
+        <v>480</v>
       </c>
       <c r="N871" t="n">
-        <v>90000</v>
+        <v>5000</v>
       </c>
       <c r="O871" t="n">
-        <v>90000</v>
+        <v>5000</v>
       </c>
       <c r="P871" t="n">
-        <v>90000</v>
+        <v>5000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T871" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="872">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44515</v>
+        <v>44391</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -70115,41 +70115,41 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M872" t="n">
+        <v>480</v>
+      </c>
+      <c r="N872" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O872" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P872" t="n">
+        <v>4750</v>
+      </c>
+      <c r="Q872" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R872" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S872" t="n">
+        <v>475</v>
+      </c>
+      <c r="T872" t="n">
         <v>10</v>
-      </c>
-      <c r="N872" t="n">
-        <v>290000</v>
-      </c>
-      <c r="O872" t="n">
-        <v>290000</v>
-      </c>
-      <c r="P872" t="n">
-        <v>290000</v>
-      </c>
-      <c r="Q872" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R872" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S872" t="n">
-        <v>644</v>
-      </c>
-      <c r="T872" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="873">
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44515</v>
+        <v>44391</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -70195,41 +70195,41 @@
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="N873" t="n">
-        <v>260000</v>
+        <v>4000</v>
       </c>
       <c r="O873" t="n">
-        <v>260000</v>
+        <v>4000</v>
       </c>
       <c r="P873" t="n">
-        <v>260000</v>
+        <v>4000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>578</v>
+        <v>400</v>
       </c>
       <c r="T873" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="874">
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44515</v>
+        <v>44391</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -70275,41 +70275,41 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M874" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N874" t="n">
-        <v>210000</v>
+        <v>3000</v>
       </c>
       <c r="O874" t="n">
-        <v>210000</v>
+        <v>3000</v>
       </c>
       <c r="P874" t="n">
-        <v>210000</v>
+        <v>3000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="T874" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="875">
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44515</v>
+        <v>44391</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -70360,36 +70360,36 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>480</v>
+        <v>18</v>
       </c>
       <c r="N875" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="O875" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P875" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R875" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S875" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T875" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="876">
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -70435,41 +70435,41 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N876" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="O876" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="P876" t="n">
-        <v>12000</v>
+        <v>135000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R876" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S876" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T876" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="877">
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -70515,41 +70515,41 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="N877" t="n">
-        <v>11000</v>
+        <v>90000</v>
       </c>
       <c r="O877" t="n">
-        <v>11000</v>
+        <v>90000</v>
       </c>
       <c r="P877" t="n">
-        <v>11000</v>
+        <v>90000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S877" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="T877" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="878">
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -70595,41 +70595,41 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="N878" t="n">
-        <v>10000</v>
+        <v>290000</v>
       </c>
       <c r="O878" t="n">
-        <v>10000</v>
+        <v>290000</v>
       </c>
       <c r="P878" t="n">
-        <v>10000</v>
+        <v>290000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S878" t="n">
-        <v>1000</v>
+        <v>644</v>
       </c>
       <c r="T878" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="879">
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -70680,36 +70680,36 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>480</v>
+        <v>18</v>
       </c>
       <c r="N879" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="O879" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="P879" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>800</v>
+        <v>578</v>
       </c>
       <c r="T879" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="880">
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -70760,20 +70760,20 @@
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N880" t="n">
-        <v>202500</v>
+        <v>210000</v>
       </c>
       <c r="O880" t="n">
-        <v>202500</v>
+        <v>210000</v>
       </c>
       <c r="P880" t="n">
-        <v>202500</v>
+        <v>210000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
@@ -70782,11 +70782,11 @@
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="T880" t="n">
         <v>450</v>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -70835,25 +70835,25 @@
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M881" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="N881" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O881" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P881" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
@@ -70866,7 +70866,7 @@
         </is>
       </c>
       <c r="S881" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T881" t="n">
         <v>10</v>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -70915,41 +70915,41 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="N882" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="O882" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="P882" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="T882" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="883">
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -70995,7 +70995,7 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
@@ -71004,32 +71004,32 @@
         </is>
       </c>
       <c r="M883" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="N883" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="O883" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="P883" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="T883" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="884">
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -71075,7 +71075,7 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
@@ -71087,13 +71087,13 @@
         <v>360</v>
       </c>
       <c r="N884" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O884" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P884" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
@@ -71106,7 +71106,7 @@
         </is>
       </c>
       <c r="S884" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T884" t="n">
         <v>10</v>
@@ -71160,36 +71160,36 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M885" t="n">
+        <v>480</v>
+      </c>
+      <c r="N885" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O885" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P885" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q885" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R885" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S885" t="n">
+        <v>800</v>
+      </c>
+      <c r="T885" t="n">
         <v>10</v>
-      </c>
-      <c r="N885" t="n">
-        <v>130000</v>
-      </c>
-      <c r="O885" t="n">
-        <v>130000</v>
-      </c>
-      <c r="P885" t="n">
-        <v>130000</v>
-      </c>
-      <c r="Q885" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R885" t="inlineStr">
-        <is>
-          <t>Provincia de Petorca</t>
-        </is>
-      </c>
-      <c r="S885" t="n">
-        <v>289</v>
-      </c>
-      <c r="T885" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="886">
@@ -71240,20 +71240,20 @@
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N886" t="n">
-        <v>135000</v>
+        <v>202500</v>
       </c>
       <c r="O886" t="n">
-        <v>135000</v>
+        <v>202500</v>
       </c>
       <c r="P886" t="n">
-        <v>135000</v>
+        <v>202500</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
@@ -71266,7 +71266,7 @@
         </is>
       </c>
       <c r="S886" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="T886" t="n">
         <v>450</v>
@@ -71320,36 +71320,36 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="N887" t="n">
-        <v>90000</v>
+        <v>6000</v>
       </c>
       <c r="O887" t="n">
-        <v>90000</v>
+        <v>6000</v>
       </c>
       <c r="P887" t="n">
-        <v>90000</v>
+        <v>6000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S887" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T887" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="888">
@@ -71395,41 +71395,41 @@
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>Tango</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N888" t="n">
-        <v>6000</v>
+        <v>157500</v>
       </c>
       <c r="O888" t="n">
-        <v>6000</v>
+        <v>157500</v>
       </c>
       <c r="P888" t="n">
-        <v>6000</v>
+        <v>157500</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R888" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S888" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="T888" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="889">
@@ -71447,7 +71447,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44271</v>
+        <v>44432</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -71480,20 +71480,20 @@
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M889" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N889" t="n">
-        <v>315000</v>
+        <v>180000</v>
       </c>
       <c r="O889" t="n">
-        <v>315000</v>
+        <v>180000</v>
       </c>
       <c r="P889" t="n">
-        <v>315000</v>
+        <v>180000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
@@ -71502,11 +71502,11 @@
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S889" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T889" t="n">
         <v>450</v>
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44271</v>
+        <v>44432</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -71560,36 +71560,36 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="N890" t="n">
-        <v>270000</v>
+        <v>4000</v>
       </c>
       <c r="O890" t="n">
-        <v>280000</v>
+        <v>4000</v>
       </c>
       <c r="P890" t="n">
-        <v>275000</v>
+        <v>4000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S890" t="n">
-        <v>611</v>
+        <v>400</v>
       </c>
       <c r="T890" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="891">
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -71635,41 +71635,41 @@
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N891" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="O891" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="P891" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S891" t="n">
-        <v>700</v>
+        <v>289</v>
       </c>
       <c r="T891" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="892">
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -71715,25 +71715,25 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N892" t="n">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="O892" t="n">
-        <v>210000</v>
+        <v>135000</v>
       </c>
       <c r="P892" t="n">
-        <v>195000</v>
+        <v>135000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
@@ -71742,11 +71742,11 @@
       </c>
       <c r="R892" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S892" t="n">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="T892" t="n">
         <v>450</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -71795,41 +71795,41 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="N893" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="O893" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="P893" t="n">
-        <v>5500</v>
+        <v>90000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S893" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="T893" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="894">
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -71875,41 +71875,41 @@
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Tango</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>26</v>
+        <v>480</v>
       </c>
       <c r="N894" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="O894" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="P894" t="n">
-        <v>155000</v>
+        <v>6000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R894" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S894" t="n">
-        <v>344</v>
+        <v>600</v>
       </c>
       <c r="T894" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="895">
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -71955,41 +71955,41 @@
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="N895" t="n">
-        <v>3500</v>
+        <v>315000</v>
       </c>
       <c r="O895" t="n">
-        <v>3500</v>
+        <v>315000</v>
       </c>
       <c r="P895" t="n">
-        <v>3500</v>
+        <v>315000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S895" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="T895" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="896">
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -72035,25 +72035,25 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M896" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N896" t="n">
-        <v>120000</v>
+        <v>270000</v>
       </c>
       <c r="O896" t="n">
-        <v>120000</v>
+        <v>280000</v>
       </c>
       <c r="P896" t="n">
-        <v>120000</v>
+        <v>275000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
@@ -72062,11 +72062,11 @@
       </c>
       <c r="R896" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S896" t="n">
-        <v>267</v>
+        <v>611</v>
       </c>
       <c r="T896" t="n">
         <v>450</v>
@@ -72120,24 +72120,24 @@
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N897" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="O897" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="P897" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
@@ -72146,10 +72146,10 @@
         </is>
       </c>
       <c r="S897" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="T897" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="898">
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -72195,41 +72195,41 @@
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="N898" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="O898" t="n">
-        <v>12000</v>
+        <v>210000</v>
       </c>
       <c r="P898" t="n">
-        <v>11500</v>
+        <v>195000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S898" t="n">
-        <v>1150</v>
+        <v>433</v>
       </c>
       <c r="T898" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="899">
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -72275,7 +72275,7 @@
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
@@ -72284,32 +72284,32 @@
         </is>
       </c>
       <c r="M899" t="n">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="N899" t="n">
-        <v>1000</v>
+        <v>5500</v>
       </c>
       <c r="O899" t="n">
-        <v>1200</v>
+        <v>5500</v>
       </c>
       <c r="P899" t="n">
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="T899" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="900">
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -72355,41 +72355,41 @@
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N900" t="n">
-        <v>700</v>
+        <v>150000</v>
       </c>
       <c r="O900" t="n">
-        <v>700</v>
+        <v>160000</v>
       </c>
       <c r="P900" t="n">
-        <v>700</v>
+        <v>155000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/kilo (en bins de 450 kilos)</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S900" t="n">
-        <v>700</v>
+        <v>344</v>
       </c>
       <c r="T900" t="n">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="901">
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -72435,25 +72435,25 @@
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N901" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O901" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P901" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
@@ -72462,11 +72462,11 @@
       </c>
       <c r="R901" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S901" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="T901" t="n">
         <v>10</v>
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -72515,41 +72515,41 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="N902" t="n">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="O902" t="n">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="P902" t="n">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S902" t="n">
-        <v>600</v>
+        <v>267</v>
       </c>
       <c r="T902" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="903">
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -72595,25 +72595,25 @@
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M903" t="n">
         <v>15</v>
       </c>
       <c r="N903" t="n">
-        <v>240000</v>
+        <v>90000</v>
       </c>
       <c r="O903" t="n">
-        <v>240000</v>
+        <v>90000</v>
       </c>
       <c r="P903" t="n">
-        <v>240000</v>
+        <v>90000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
@@ -72622,11 +72622,11 @@
       </c>
       <c r="R903" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S903" t="n">
-        <v>533</v>
+        <v>200</v>
       </c>
       <c r="T903" t="n">
         <v>450</v>
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -72684,16 +72684,16 @@
         </is>
       </c>
       <c r="M904" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="N904" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O904" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P904" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
@@ -72706,7 +72706,7 @@
         </is>
       </c>
       <c r="S904" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="T904" t="n">
         <v>10</v>
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -72764,32 +72764,32 @@
         </is>
       </c>
       <c r="M905" t="n">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="N905" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="O905" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="P905" t="n">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S905" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T905" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -72840,24 +72840,24 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M906" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N906" t="n">
-        <v>200000</v>
+        <v>700</v>
       </c>
       <c r="O906" t="n">
-        <v>220000</v>
+        <v>700</v>
       </c>
       <c r="P906" t="n">
-        <v>210000</v>
+        <v>700</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/kilo (en bins de 450 kilos)</t>
         </is>
       </c>
       <c r="R906" t="inlineStr">
@@ -72866,10 +72866,10 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="T906" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -72920,20 +72920,20 @@
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M907" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N907" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O907" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P907" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
@@ -72946,7 +72946,7 @@
         </is>
       </c>
       <c r="S907" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T907" t="n">
         <v>10</v>
@@ -73000,36 +73000,36 @@
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N908" t="n">
-        <v>170000</v>
+        <v>6000</v>
       </c>
       <c r="O908" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="P908" t="n">
-        <v>185000</v>
+        <v>6000</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R908" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S908" t="n">
-        <v>411</v>
+        <v>600</v>
       </c>
       <c r="T908" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="909">
@@ -73080,24 +73080,24 @@
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N909" t="n">
-        <v>3000</v>
+        <v>240000</v>
       </c>
       <c r="O909" t="n">
-        <v>3000</v>
+        <v>240000</v>
       </c>
       <c r="P909" t="n">
-        <v>3000</v>
+        <v>240000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
@@ -73106,10 +73106,10 @@
         </is>
       </c>
       <c r="S909" t="n">
-        <v>300</v>
+        <v>533</v>
       </c>
       <c r="T909" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="910">
@@ -73160,35 +73160,515 @@
       </c>
       <c r="L910" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M910" t="n">
+        <v>480</v>
+      </c>
+      <c r="N910" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O910" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P910" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q910" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R910" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S910" t="n">
+        <v>500</v>
+      </c>
+      <c r="T910" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>6</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        